--- a/tmee/data_in/data_dictionary/indicator_dictionary_TM_v7.xlsx
+++ b/tmee/data_in/data_dictionary/indicator_dictionary_TM_v7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16f1c7c3db740efb/UNICEF/TransMonEE/data-etl/tmee/data_in/data_dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="524" documentId="13_ncr:1_{0D7C4ACD-3B96-48F3-99D4-5E393553EB86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{17FF561F-4269-4B09-AC9E-01A8E4D98D5A}"/>
+  <xr:revisionPtr revIDLastSave="660" documentId="13_ncr:1_{0D7C4ACD-3B96-48F3-99D4-5E393553EB86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{46D6F9A6-E650-42A4-8E86-06BF5FEB0749}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6228" uniqueCount="3094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6398" uniqueCount="3171">
   <si>
     <t>snapshot_id</t>
   </si>
@@ -9326,6 +9326,237 @@
   </si>
   <si>
     <t>SN-246</t>
+  </si>
+  <si>
+    <t>Migration and displacement</t>
+  </si>
+  <si>
+    <t>Refugee population by country or territory of asylum</t>
+  </si>
+  <si>
+    <t>DM_SM_POP_REFG</t>
+  </si>
+  <si>
+    <t>Refugee population by country or territory of origin</t>
+  </si>
+  <si>
+    <t>DM_SM_POP_REFG_OR</t>
+  </si>
+  <si>
+    <t>WB: SM.POP.REFG</t>
+  </si>
+  <si>
+    <t>WB: SM.POP.REFG.OR</t>
+  </si>
+  <si>
+    <t>wb.download(indicator=['SM.POP.REFG'])</t>
+  </si>
+  <si>
+    <t>wb.download(indicator=['SM.POP.REFG.OR'])</t>
+  </si>
+  <si>
+    <t>Risks, humanitarian situation and impact of climate change</t>
+  </si>
+  <si>
+    <t>Number of deaths and missing persons attributed to disasters (per 100,000 population)</t>
+  </si>
+  <si>
+    <t>CR_VC_DSR_MTMP</t>
+  </si>
+  <si>
+    <t>Number of directly affected persons attributed to disasters (per 100,000 population)</t>
+  </si>
+  <si>
+    <t>CR_VC_DSR_DAFF</t>
+  </si>
+  <si>
+    <t>SDG: VC_DSR_DAFF</t>
+  </si>
+  <si>
+    <t>https://data.un.org/ws/rest/data/DF_SDG_GLH/..VC_DSR_DAFF............</t>
+  </si>
+  <si>
+    <t>SDG: VC_DSR_MTMP</t>
+  </si>
+  <si>
+    <t>https://data.un.org/ws/rest/data/DF_SDG_GLH/..VC_DSR_MTMP............</t>
+  </si>
+  <si>
+    <t>Metadata Reference: https://unstats.un.org/sdgs/metadata/files/Metadata-13-01-01.pdf</t>
+  </si>
+  <si>
+    <t>Crude death rate attributed to household and ambient air pollution (deaths per 100,000 population)</t>
+  </si>
+  <si>
+    <t>Age-standardized mortality rate attributed to household and ambient air pollution (deaths per 100,000 population)</t>
+  </si>
+  <si>
+    <t>CR_SH_STA_AIRP</t>
+  </si>
+  <si>
+    <t>CR_SH_STA_ASAIRP</t>
+  </si>
+  <si>
+    <t>SDG: SH_STA_AIRP</t>
+  </si>
+  <si>
+    <t>SDG: SH_STA_ASAIRP</t>
+  </si>
+  <si>
+    <t>https://data.un.org/ws/rest/data/DF_SDG_GLH/..SH_STA_AIRP............</t>
+  </si>
+  <si>
+    <t>https://data.un.org/ws/rest/data/DF_SDG_GLH/..SH_STA_ASAIRP............</t>
+  </si>
+  <si>
+    <t>Metadata Reference: https://unstats.un.org/sdgs/metadata/files/Metadata-03-09-01.pdf</t>
+  </si>
+  <si>
+    <t>Proportion of population with primary reliance on clean fuels and technology (%)</t>
+  </si>
+  <si>
+    <t>CR_EG_EGY_CLEAN</t>
+  </si>
+  <si>
+    <t>SDG: EG_EGY_CLEAN</t>
+  </si>
+  <si>
+    <t>https://data.un.org/ws/rest/data/DF_SDG_GLH/..EG_EGY_CLEAN............</t>
+  </si>
+  <si>
+    <t>Metadata Reference: https://unstats.un.org/sdgs/metadata/files/Metadata-07-01-02.pdf</t>
+  </si>
+  <si>
+    <t>Proportion of population with access to electricity (% by residence)</t>
+  </si>
+  <si>
+    <t>CR_EG_ACS_ELEC</t>
+  </si>
+  <si>
+    <t>Metadata Reference: https://unstats.un.org/sdgs/metadata/files/Metadata-07-01-01.pdf</t>
+  </si>
+  <si>
+    <t>SDG: EG_ACS_ELEC</t>
+  </si>
+  <si>
+    <t>https://data.un.org/ws/rest/data/DF_SDG_GLH/..EG_ACS_ELEC............</t>
+  </si>
+  <si>
+    <t>Countries reporting to have a National DRR Strategy which is aligned to the Sendai Framework</t>
+  </si>
+  <si>
+    <t>Score of adoption and implementation of national DRR strategies in line with the Sendai Framework</t>
+  </si>
+  <si>
+    <t>CR_SG_DSR_SFDRR</t>
+  </si>
+  <si>
+    <t>CR_SG_DSR_LGRGSR</t>
+  </si>
+  <si>
+    <t>SDG: SG_DSR_SFDRR</t>
+  </si>
+  <si>
+    <t>https://data.un.org/ws/rest/data/DF_SDG_GLH/..SG_DSR_SFDRR............</t>
+  </si>
+  <si>
+    <t>https://data.un.org/ws/rest/data/DF_SDG_GLH/..SG_DSR_LGRGSR............</t>
+  </si>
+  <si>
+    <t>Metadata Reference: https://unstats.un.org/sdgs/metadata/files/Metadata-01-05-03.pdf</t>
+  </si>
+  <si>
+    <t>SDG: SG_DSR_LGRGSR</t>
+  </si>
+  <si>
+    <t>S-255</t>
+  </si>
+  <si>
+    <t>S-256</t>
+  </si>
+  <si>
+    <t>S-257</t>
+  </si>
+  <si>
+    <t>S-258</t>
+  </si>
+  <si>
+    <t>S-259</t>
+  </si>
+  <si>
+    <t>S-260</t>
+  </si>
+  <si>
+    <t>S-261</t>
+  </si>
+  <si>
+    <t>S-262</t>
+  </si>
+  <si>
+    <t>S-263</t>
+  </si>
+  <si>
+    <t>S-264</t>
+  </si>
+  <si>
+    <t>I-665</t>
+  </si>
+  <si>
+    <t>I-666</t>
+  </si>
+  <si>
+    <t>I-667</t>
+  </si>
+  <si>
+    <t>I-668</t>
+  </si>
+  <si>
+    <t>I-669</t>
+  </si>
+  <si>
+    <t>I-670</t>
+  </si>
+  <si>
+    <t>I-671</t>
+  </si>
+  <si>
+    <t>I-672</t>
+  </si>
+  <si>
+    <t>I-673</t>
+  </si>
+  <si>
+    <t>I-674</t>
+  </si>
+  <si>
+    <t>SN-247</t>
+  </si>
+  <si>
+    <t>SN-248</t>
+  </si>
+  <si>
+    <t>SN-249</t>
+  </si>
+  <si>
+    <t>SN-250</t>
+  </si>
+  <si>
+    <t>SN-251</t>
+  </si>
+  <si>
+    <t>SN-252</t>
+  </si>
+  <si>
+    <t>SN-253</t>
+  </si>
+  <si>
+    <t>SN-254</t>
+  </si>
+  <si>
+    <t>SN-255</t>
+  </si>
+  <si>
+    <t>SN-256</t>
   </si>
 </sst>
 </file>
@@ -10093,10 +10324,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L248"/>
+  <dimension ref="A1:L258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
-      <selection activeCell="H244" sqref="H244:H248"/>
+    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
+      <selection activeCell="H254" sqref="H254:H258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10217,7 +10448,7 @@
         <v>56</v>
       </c>
       <c r="I3" s="25" t="str">
-        <f>VLOOKUP(H3,Source!$A$2:$G$282,3,FALSE)</f>
+        <f>VLOOKUP(H3,Source!$A$2:$G$292,3,FALSE)</f>
         <v>Helix: DM_POP_URBN</v>
       </c>
       <c r="J3" s="1"/>
@@ -10252,7 +10483,7 @@
         <v>53</v>
       </c>
       <c r="I4" s="25" t="str">
-        <f>VLOOKUP(H4,Source!$A$2:$G$282,3,FALSE)</f>
+        <f>VLOOKUP(H4,Source!$A$2:$G$292,3,FALSE)</f>
         <v>Helix: DM_POP_TOT_AGE</v>
       </c>
       <c r="J4" s="1"/>
@@ -10287,7 +10518,7 @@
         <v>59</v>
       </c>
       <c r="I5" s="25" t="str">
-        <f>VLOOKUP(H5,Source!$A$2:$G$282,3,FALSE)</f>
+        <f>VLOOKUP(H5,Source!$A$2:$G$292,3,FALSE)</f>
         <v>WB: SM.POP.NETM</v>
       </c>
       <c r="J5" s="1"/>
@@ -10322,7 +10553,7 @@
         <v>65</v>
       </c>
       <c r="I6" s="25" t="str">
-        <f>VLOOKUP(H6,Source!$A$2:$G$282,3,FALSE)</f>
+        <f>VLOOKUP(H6,Source!$A$2:$G$292,3,FALSE)</f>
         <v>WHO: WHS_PBR</v>
       </c>
       <c r="J6" s="1"/>
@@ -11426,11 +11657,11 @@
         <v>120</v>
       </c>
       <c r="C39" s="44" t="str">
-        <f>VLOOKUP(B39,Indicator!$A$2:$F$790,5,FALSE)</f>
+        <f>VLOOKUP(B39,Indicator!$A$2:$F$800,5,FALSE)</f>
         <v>Percentage of children (by sex, age groups, residence and wealth quintile) with whom any adult household member has engaged in 4 or more activities to provide early stimulation and responsive care in the last 3 days</v>
       </c>
       <c r="D39" s="25" t="str">
-        <f>VLOOKUP(B39,Indicator!$A$2:$F$790,6,FALSE)</f>
+        <f>VLOOKUP(B39,Indicator!$A$2:$F$800,6,FALSE)</f>
         <v>ECD_CHLD_36-59M_ADLT_SRC</v>
       </c>
       <c r="E39" s="1">
@@ -11460,11 +11691,11 @@
         <v>123</v>
       </c>
       <c r="C40" s="44" t="str">
-        <f>VLOOKUP(B40,Indicator!$A$2:$F$790,5,FALSE)</f>
+        <f>VLOOKUP(B40,Indicator!$A$2:$F$800,5,FALSE)</f>
         <v>Coverage of treatment interventions (pharmacological, psychosocial and rehabilitation and aftercare services) for substance use disorders (%)</v>
       </c>
       <c r="D40" s="25" t="str">
-        <f>VLOOKUP(B40,Indicator!$A$2:$F$790,6,FALSE)</f>
+        <f>VLOOKUP(B40,Indicator!$A$2:$F$800,6,FALSE)</f>
         <v>HT_SH_SUD_TREAT</v>
       </c>
       <c r="E40" s="1">
@@ -11494,11 +11725,11 @@
         <v>1066</v>
       </c>
       <c r="C41" s="49" t="str">
-        <f>VLOOKUP(B41,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B41,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Early childhood educational development enrolments (absolute number)</v>
       </c>
       <c r="D41" s="25" t="str">
-        <f>VLOOKUP(B41,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B41,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_STU_L01_TOT</v>
       </c>
       <c r="E41" s="1">
@@ -11528,11 +11759,11 @@
         <v>132</v>
       </c>
       <c r="C42" s="49" t="str">
-        <f>VLOOKUP(B42,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B42,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Early childhood educational development enrolments in public institutions</v>
       </c>
       <c r="D42" s="25" t="str">
-        <f>VLOOKUP(B42,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B42,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_STU_L01_PUB</v>
       </c>
       <c r="E42" s="1">
@@ -11562,11 +11793,11 @@
         <v>135</v>
       </c>
       <c r="C43" s="49" t="str">
-        <f>VLOOKUP(B43,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B43,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Early childhood educational development enrolments in private institutions</v>
       </c>
       <c r="D43" s="25" t="str">
-        <f>VLOOKUP(B43,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B43,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_STU_L01_PRV</v>
       </c>
       <c r="E43" s="1">
@@ -11596,11 +11827,11 @@
         <v>138</v>
       </c>
       <c r="C44" s="49" t="str">
-        <f>VLOOKUP(B44,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B44,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Children in early childhood educational development programs (gross enrolment ratio, % of children aged 0-2)</v>
       </c>
       <c r="D44" s="25" t="str">
-        <f>VLOOKUP(B44,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B44,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_SDG_GER_L01</v>
       </c>
       <c r="E44" s="1">
@@ -11630,11 +11861,11 @@
         <v>147</v>
       </c>
       <c r="C45" s="49" t="str">
-        <f>VLOOKUP(B45,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B45,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Number of years of free pre-primary education guaranteed in legal framework (SDG 4.2.5)</v>
       </c>
       <c r="D45" s="25" t="str">
-        <f>VLOOKUP(B45,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B45,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_SDG_FREE_EDU_L02</v>
       </c>
       <c r="E45" s="1">
@@ -11664,11 +11895,11 @@
         <v>150</v>
       </c>
       <c r="C46" s="49" t="str">
-        <f>VLOOKUP(B46,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B46,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Number of years of compulsory pre-primary education guaranteed in legal framework (SDG 4.2.5)</v>
       </c>
       <c r="D46" s="25" t="str">
-        <f>VLOOKUP(B46,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B46,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_SDG_COMP_EDU_L02</v>
       </c>
       <c r="E46" s="1">
@@ -11698,11 +11929,11 @@
         <v>153</v>
       </c>
       <c r="C47" s="49" t="str">
-        <f>VLOOKUP(B47,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B47,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Pre-primary (ISCED 02) education enrolments (absolute number)</v>
       </c>
       <c r="D47" s="25" t="str">
-        <f>VLOOKUP(B47,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B47,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_STU_L02_TOT</v>
       </c>
       <c r="E47" s="1">
@@ -11732,11 +11963,11 @@
         <v>156</v>
       </c>
       <c r="C48" s="49" t="str">
-        <f>VLOOKUP(B48,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B48,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Pre-primary (ISCED 02) education enrolments in public institutions</v>
       </c>
       <c r="D48" s="25" t="str">
-        <f>VLOOKUP(B48,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B48,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_STU_L02_PUB</v>
       </c>
       <c r="E48" s="1">
@@ -11766,11 +11997,11 @@
         <v>1083</v>
       </c>
       <c r="C49" s="49" t="str">
-        <f>VLOOKUP(B49,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B49,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Pre-primary (ISCED 02) education enrolments in  private institutions</v>
       </c>
       <c r="D49" s="25" t="str">
-        <f>VLOOKUP(B49,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B49,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_STU_L02_PRV</v>
       </c>
       <c r="E49" s="1">
@@ -11800,11 +12031,11 @@
         <v>159</v>
       </c>
       <c r="C50" s="49" t="str">
-        <f>VLOOKUP(B50,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B50,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Enrolment in pre-primary (ISCED 02) education (gross enrolment ratio, % of population aged 3-6, by sex)</v>
       </c>
       <c r="D50" s="25" t="str">
-        <f>VLOOKUP(B50,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B50,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_GER_L02</v>
       </c>
       <c r="E50" s="1">
@@ -11834,11 +12065,11 @@
         <v>1086</v>
       </c>
       <c r="C51" s="49" t="str">
-        <f>VLOOKUP(B51,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B51,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Enrolment in pre-primary  (ISCED 02) education (net enrolment ratio, % of population aged 3-6, by sex)</v>
       </c>
       <c r="D51" s="25" t="str">
-        <f>VLOOKUP(B51,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B51,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_NER_L02</v>
       </c>
       <c r="E51" s="1">
@@ -11868,11 +12099,11 @@
         <v>1088</v>
       </c>
       <c r="C52" s="49" t="str">
-        <f>VLOOKUP(B52,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B52,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Enrolment in private institutions of pre-primary (ISCED 02) education ( % of all children enrolled in respective level of education)</v>
       </c>
       <c r="D52" s="25" t="str">
-        <f>VLOOKUP(B52,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B52,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_PRP_L02</v>
       </c>
       <c r="E52" s="1">
@@ -11902,11 +12133,11 @@
         <v>1089</v>
       </c>
       <c r="C53" s="49" t="str">
-        <f>VLOOKUP(B53,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B53,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Percentage of females in pre-primary (ISCED 02) education (% of all students enrolled in the respective level of education)</v>
       </c>
       <c r="D53" s="25" t="str">
-        <f>VLOOKUP(B53,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B53,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_FEP_L02</v>
       </c>
       <c r="E53" s="1">
@@ -11936,11 +12167,11 @@
         <v>1093</v>
       </c>
       <c r="C54" s="49" t="str">
-        <f>VLOOKUP(B54,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B54,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Participation in organized learning (Adjusted net enrolment rate, one year before official primary entry age - Administrative data) (SDG 4.2.2.)</v>
       </c>
       <c r="D54" s="25" t="str">
-        <f>VLOOKUP(B54,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B54,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_NERA_L1_UNDER1</v>
       </c>
       <c r="E54" s="1">
@@ -11970,11 +12201,11 @@
         <v>165</v>
       </c>
       <c r="C55" s="49" t="str">
-        <f>VLOOKUP(B55,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B55,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Participation in organized learning (Adjusted net attendance rate, one year before official primary entry age - Household survey data) (SDG 4.2.2.)</v>
       </c>
       <c r="D55" s="25" t="str">
-        <f>VLOOKUP(B55,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B55,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_NARA_L1_UNDER1</v>
       </c>
       <c r="E55" s="1">
@@ -12004,11 +12235,11 @@
         <v>168</v>
       </c>
       <c r="C56" s="49" t="str">
-        <f>VLOOKUP(B56,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B56,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Percentage of children (aged 36-59 months, by sex, residence and wealth quintile) developmentally on track in at least 3 of the 4 following domains: literacy-numeracy, physical, social-emotional and learning</v>
       </c>
       <c r="D56" s="25" t="str">
-        <f>VLOOKUP(B56,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B56,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>ECD_CHLD_36-59M_LMPSL</v>
       </c>
       <c r="E56" s="1">
@@ -12038,11 +12269,11 @@
         <v>174</v>
       </c>
       <c r="C57" s="49" t="str">
-        <f>VLOOKUP(B57,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B57,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Net Intake Rate to primary education of official entry age</v>
       </c>
       <c r="D57" s="25" t="str">
-        <f>VLOOKUP(B57,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B57,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_NIR_L1_ENTRYAGE</v>
       </c>
       <c r="E57" s="1">
@@ -12072,11 +12303,11 @@
         <v>180</v>
       </c>
       <c r="C58" s="49" t="str">
-        <f>VLOOKUP(B58,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B58,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Primary education (ISCED 1) enrolments (absolute number)</v>
       </c>
       <c r="D58" s="25" t="str">
-        <f>VLOOKUP(B58,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B58,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_STU_L1_TOT</v>
       </c>
       <c r="E58" s="1">
@@ -12106,11 +12337,11 @@
         <v>183</v>
       </c>
       <c r="C59" s="49" t="str">
-        <f>VLOOKUP(B59,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B59,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Percentage of females in primary  (ISCED 1) education (% of all students enrolled in the respective level of education)</v>
       </c>
       <c r="D59" s="25" t="str">
-        <f>VLOOKUP(B59,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B59,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_FEP_L1</v>
       </c>
       <c r="E59" s="1">
@@ -12140,11 +12371,11 @@
         <v>186</v>
       </c>
       <c r="C60" s="49" t="str">
-        <f>VLOOKUP(B60,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B60,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Lower Secondary education (ISCED 2) enrolments (absolute number)</v>
       </c>
       <c r="D60" s="25" t="str">
-        <f>VLOOKUP(B60,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B60,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_STU_L2_TOT</v>
       </c>
       <c r="E60" s="1">
@@ -12174,11 +12405,11 @@
         <v>189</v>
       </c>
       <c r="C61" s="49" t="str">
-        <f>VLOOKUP(B61,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B61,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Percentage of females in lower secondary  (ISCED 2) education (% of all students enrolled in the respective level of education)</v>
       </c>
       <c r="D61" s="25" t="str">
-        <f>VLOOKUP(B61,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B61,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_FEP_L2</v>
       </c>
       <c r="E61" s="1">
@@ -12208,11 +12439,11 @@
         <v>192</v>
       </c>
       <c r="C62" s="49" t="str">
-        <f>VLOOKUP(B62,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B62,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Upper secondary education (ISCED 3) enrolment (absolute number)</v>
       </c>
       <c r="D62" s="25" t="str">
-        <f>VLOOKUP(B62,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B62,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_STU_L3_TOT</v>
       </c>
       <c r="E62" s="1">
@@ -12242,11 +12473,11 @@
         <v>1112</v>
       </c>
       <c r="C63" s="49" t="str">
-        <f>VLOOKUP(B63,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B63,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Percentage of females in upper secondary education (ISCED 3) (% of all students enrolled in the respective level of education)</v>
       </c>
       <c r="D63" s="25" t="str">
-        <f>VLOOKUP(B63,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B63,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_FEP_L3</v>
       </c>
       <c r="E63" s="1">
@@ -12276,11 +12507,11 @@
         <v>195</v>
       </c>
       <c r="C64" s="49" t="str">
-        <f>VLOOKUP(B64,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B64,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Percentage of females in general upper-secondary education  (% of all students enrolled in the respective level of education)</v>
       </c>
       <c r="D64" s="25" t="str">
-        <f>VLOOKUP(B64,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B64,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_FEP_L3_GEN</v>
       </c>
       <c r="E64" s="1">
@@ -12310,11 +12541,11 @@
         <v>198</v>
       </c>
       <c r="C65" s="49" t="str">
-        <f>VLOOKUP(B65,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B65,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Percentage of females in vocational upper-secondary education  (% of all students enrolled in the respective level of education)</v>
       </c>
       <c r="D65" s="25" t="str">
-        <f>VLOOKUP(B65,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B65,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_FEP_L3_VOC</v>
       </c>
       <c r="E65" s="1">
@@ -12344,11 +12575,11 @@
         <v>201</v>
       </c>
       <c r="C66" s="49" t="str">
-        <f>VLOOKUP(B66,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B66,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Upper secondary enrolment by program orientation - General (number)</v>
       </c>
       <c r="D66" s="25" t="str">
-        <f>VLOOKUP(B66,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B66,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_STU_L3_GEN</v>
       </c>
       <c r="E66" s="1">
@@ -12378,11 +12609,11 @@
         <v>204</v>
       </c>
       <c r="C67" s="49" t="str">
-        <f>VLOOKUP(B67,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B67,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Upper secondary enrolment by program orientation - Vocational (number)</v>
       </c>
       <c r="D67" s="25" t="str">
-        <f>VLOOKUP(B67,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B67,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_STU_L3_VOC</v>
       </c>
       <c r="E67" s="1">
@@ -12412,11 +12643,11 @@
         <v>210</v>
       </c>
       <c r="C68" s="49" t="str">
-        <f>VLOOKUP(B68,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B68,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Primary (ISCED 1) education enrolments in public institutions</v>
       </c>
       <c r="D68" s="25" t="str">
-        <f>VLOOKUP(B68,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B68,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_STU_L1_PUB</v>
       </c>
       <c r="E68" s="1">
@@ -12446,11 +12677,11 @@
         <v>213</v>
       </c>
       <c r="C69" s="49" t="str">
-        <f>VLOOKUP(B69,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B69,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Primary (ISCED 1) education enrolments in  private institutions</v>
       </c>
       <c r="D69" s="25" t="str">
-        <f>VLOOKUP(B69,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B69,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_STU_L1_PRV</v>
       </c>
       <c r="E69" s="1">
@@ -12480,11 +12711,11 @@
         <v>216</v>
       </c>
       <c r="C70" s="49" t="str">
-        <f>VLOOKUP(B70,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B70,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Enrolment in private schools of primary (ISCED 1) education (% of all students enrolled in primary education)</v>
       </c>
       <c r="D70" s="25" t="str">
-        <f>VLOOKUP(B70,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B70,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_PRP_L1</v>
       </c>
       <c r="E70" s="1">
@@ -12514,11 +12745,11 @@
         <v>219</v>
       </c>
       <c r="C71" s="49" t="str">
-        <f>VLOOKUP(B71,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B71,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Lower Secondary education (ISCED 2) enrolments in public institutions</v>
       </c>
       <c r="D71" s="25" t="str">
-        <f>VLOOKUP(B71,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B71,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_STU_L2_PUB</v>
       </c>
       <c r="E71" s="1">
@@ -12548,11 +12779,11 @@
         <v>222</v>
       </c>
       <c r="C72" s="49" t="str">
-        <f>VLOOKUP(B72,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B72,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Lower Secondary education (ISCED 2) enrolments in private institutions</v>
       </c>
       <c r="D72" s="25" t="str">
-        <f>VLOOKUP(B72,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B72,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_STU_L2_PRV</v>
       </c>
       <c r="E72" s="1">
@@ -12582,11 +12813,11 @@
         <v>225</v>
       </c>
       <c r="C73" s="49" t="str">
-        <f>VLOOKUP(B73,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B73,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Enrolment in private schools of lower secondary (ISCED 2) education (% of all students enrolled in the respective level of education)</v>
       </c>
       <c r="D73" s="25" t="str">
-        <f>VLOOKUP(B73,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B73,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_PRP_L2</v>
       </c>
       <c r="E73" s="1">
@@ -12616,11 +12847,11 @@
         <v>1136</v>
       </c>
       <c r="C74" s="49" t="str">
-        <f>VLOOKUP(B74,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B74,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Upper secondary education (ISCED 3) enrolment (absolute number) -public institutions</v>
       </c>
       <c r="D74" s="25" t="str">
-        <f>VLOOKUP(B74,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B74,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_STU_L3_PUB</v>
       </c>
       <c r="E74" s="1">
@@ -12650,11 +12881,11 @@
         <v>228</v>
       </c>
       <c r="C75" s="49" t="str">
-        <f>VLOOKUP(B75,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B75,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Upper secondary education (ISCED 3) enrolment (absolute number) -private institutions</v>
       </c>
       <c r="D75" s="25" t="str">
-        <f>VLOOKUP(B75,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B75,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_STU_L3_PRV</v>
       </c>
       <c r="E75" s="1">
@@ -12684,11 +12915,11 @@
         <v>231</v>
       </c>
       <c r="C76" s="49" t="str">
-        <f>VLOOKUP(B76,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B76,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Enrolment in private schools of upper secondary (ISCED 3) education (% of all students enrolled in the respective level of education)</v>
       </c>
       <c r="D76" s="25" t="str">
-        <f>VLOOKUP(B76,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B76,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_PRP_L3</v>
       </c>
       <c r="E76" s="1">
@@ -12718,11 +12949,11 @@
         <v>234</v>
       </c>
       <c r="C77" s="49" t="str">
-        <f>VLOOKUP(B77,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B77,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Upper secondary enrolment by program orientation and type of institution - General, public institutions</v>
       </c>
       <c r="D77" s="25" t="str">
-        <f>VLOOKUP(B77,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B77,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_STU_L3_GEN_PUB</v>
       </c>
       <c r="E77" s="1">
@@ -12752,11 +12983,11 @@
         <v>237</v>
       </c>
       <c r="C78" s="49" t="str">
-        <f>VLOOKUP(B78,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B78,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Upper secondary enrolment by program orientation and type of institution - General, private institutions</v>
       </c>
       <c r="D78" s="25" t="str">
-        <f>VLOOKUP(B78,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B78,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_STU_L3_GEN_PRV</v>
       </c>
       <c r="E78" s="1">
@@ -12786,11 +13017,11 @@
         <v>243</v>
       </c>
       <c r="C79" s="49" t="str">
-        <f>VLOOKUP(B79,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B79,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Vocational or technical upper secondary education enrolments in public institutions</v>
       </c>
       <c r="D79" s="25" t="str">
-        <f>VLOOKUP(B79,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B79,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_STU_L3_VOC_PUB</v>
       </c>
       <c r="E79" s="1">
@@ -12820,11 +13051,11 @@
         <v>246</v>
       </c>
       <c r="C80" s="49" t="str">
-        <f>VLOOKUP(B80,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B80,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Vocational or technical upper secondary education enrolments  in private institutions</v>
       </c>
       <c r="D80" s="25" t="str">
-        <f>VLOOKUP(B80,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B80,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_STU_L3_VOC_PRV</v>
       </c>
       <c r="E80" s="1">
@@ -12854,11 +13085,11 @@
         <v>249</v>
       </c>
       <c r="C81" s="49" t="str">
-        <f>VLOOKUP(B81,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B81,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Primary education (ISCED 1) gross enrolment ratio (% of relevant population)</v>
       </c>
       <c r="D81" s="25" t="str">
-        <f>VLOOKUP(B81,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B81,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_GER_L1</v>
       </c>
       <c r="E81" s="1">
@@ -12888,11 +13119,11 @@
         <v>252</v>
       </c>
       <c r="C82" s="49" t="str">
-        <f>VLOOKUP(B82,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B82,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Lower secondary education (ISCED 2) gross enrolment ratio (% of relevant population)</v>
       </c>
       <c r="D82" s="25" t="str">
-        <f>VLOOKUP(B82,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B82,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_GER_L2</v>
       </c>
       <c r="E82" s="1">
@@ -12922,11 +13153,11 @@
         <v>255</v>
       </c>
       <c r="C83" s="49" t="str">
-        <f>VLOOKUP(B83,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B83,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Basic education (ISCED 1 and 2) gross enrolment ratio (% of relevant population)</v>
       </c>
       <c r="D83" s="25" t="str">
-        <f>VLOOKUP(B83,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B83,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_GER_L1AND2</v>
       </c>
       <c r="E83" s="1">
@@ -12956,11 +13187,11 @@
         <v>258</v>
       </c>
       <c r="C84" s="49" t="str">
-        <f>VLOOKUP(B84,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B84,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Lower secondary education (ISCED 2) gross enrolment ratio by program orientation - General (% of relevant population)</v>
       </c>
       <c r="D84" s="25" t="str">
-        <f>VLOOKUP(B84,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B84,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_GER_L2_GEN</v>
       </c>
       <c r="E84" s="1">
@@ -12990,11 +13221,11 @@
         <v>261</v>
       </c>
       <c r="C85" s="49" t="str">
-        <f>VLOOKUP(B85,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B85,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Lower secondary education (ISCED 2) gross enrolment ratio by program orientation - Vocational (% of relevant population)</v>
       </c>
       <c r="D85" s="25" t="str">
-        <f>VLOOKUP(B85,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B85,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_GER_L2_VOC</v>
       </c>
       <c r="E85" s="1">
@@ -13024,11 +13255,11 @@
         <v>264</v>
       </c>
       <c r="C86" s="49" t="str">
-        <f>VLOOKUP(B86,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B86,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Upper-secondary education (ISCED 3) gross enrolment ratio (% of population aged 15-18)</v>
       </c>
       <c r="D86" s="25" t="str">
-        <f>VLOOKUP(B86,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B86,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_GER_L3</v>
       </c>
       <c r="E86" s="1">
@@ -13058,11 +13289,11 @@
         <v>267</v>
       </c>
       <c r="C87" s="49" t="str">
-        <f>VLOOKUP(B87,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B87,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Upper secondary gross enrolment ratio by program orientiation - General (% of population aged 15-18)</v>
       </c>
       <c r="D87" s="25" t="str">
-        <f>VLOOKUP(B87,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B87,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_GER_L3_GEN</v>
       </c>
       <c r="E87" s="1">
@@ -13092,11 +13323,11 @@
         <v>270</v>
       </c>
       <c r="C88" s="49" t="str">
-        <f>VLOOKUP(B88,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B88,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Upper secondary gross enrolment ratio by program orientiation - Vocational (% of population aged 15-18)</v>
       </c>
       <c r="D88" s="25" t="str">
-        <f>VLOOKUP(B88,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B88,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_GER_L3_VOC</v>
       </c>
       <c r="E88" s="1">
@@ -13126,11 +13357,11 @@
         <v>273</v>
       </c>
       <c r="C89" s="49" t="str">
-        <f>VLOOKUP(B89,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B89,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Adjusted net enrolment rate: primary education (%)</v>
       </c>
       <c r="D89" s="25" t="str">
-        <f>VLOOKUP(B89,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B89,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_NERA_L1</v>
       </c>
       <c r="E89" s="1">
@@ -13160,11 +13391,11 @@
         <v>276</v>
       </c>
       <c r="C90" s="49" t="str">
-        <f>VLOOKUP(B90,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B90,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Adjusted net enrolment rate: lower secondary (%)</v>
       </c>
       <c r="D90" s="25" t="str">
-        <f>VLOOKUP(B90,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B90,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_NERA_L2</v>
       </c>
       <c r="E90" s="1">
@@ -13194,11 +13425,11 @@
         <v>279</v>
       </c>
       <c r="C91" s="49" t="str">
-        <f>VLOOKUP(B91,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B91,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Proportion of children in grade 2 or 3 reaching minimum proficiency in reading</v>
       </c>
       <c r="D91" s="25" t="str">
-        <f>VLOOKUP(B91,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B91,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_SDG_STU_L1_G2OR3_REA</v>
       </c>
       <c r="E91" s="1">
@@ -13228,11 +13459,11 @@
         <v>282</v>
       </c>
       <c r="C92" s="49" t="str">
-        <f>VLOOKUP(B92,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B92,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Proportion of children in grade 2 or 3 reaching minimum proficiency in math</v>
       </c>
       <c r="D92" s="25" t="str">
-        <f>VLOOKUP(B92,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B92,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_SDG_STU_L1_G2OR3_MAT</v>
       </c>
       <c r="E92" s="1">
@@ -13262,11 +13493,11 @@
         <v>285</v>
       </c>
       <c r="C93" s="49" t="str">
-        <f>VLOOKUP(B93,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B93,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Proportion of children at the end of primary education reaching minimum proficiency in reading</v>
       </c>
       <c r="D93" s="25" t="str">
-        <f>VLOOKUP(B93,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B93,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_SDG_STU_L1_GLAST_REA</v>
       </c>
       <c r="E93" s="1">
@@ -13296,11 +13527,11 @@
         <v>288</v>
       </c>
       <c r="C94" s="49" t="str">
-        <f>VLOOKUP(B94,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B94,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Proportion of children at the end of primary education reaching minimum proficiency in math</v>
       </c>
       <c r="D94" s="25" t="str">
-        <f>VLOOKUP(B94,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B94,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_SDG_STU_L1_GLAST_MAT</v>
       </c>
       <c r="E94" s="1">
@@ -13330,11 +13561,11 @@
         <v>291</v>
       </c>
       <c r="C95" s="49" t="str">
-        <f>VLOOKUP(B95,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B95,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Proportion of children at the end of lower secondary education reaching minimum proficiency in reading</v>
       </c>
       <c r="D95" s="25" t="str">
-        <f>VLOOKUP(B95,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B95,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_SDG_STU_L2_GLAST_REA</v>
       </c>
       <c r="E95" s="1">
@@ -13364,11 +13595,11 @@
         <v>1167</v>
       </c>
       <c r="C96" s="49" t="str">
-        <f>VLOOKUP(B96,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B96,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Proportion of children at the end of lower secondary education reaching minimum proficiency in math</v>
       </c>
       <c r="D96" s="25" t="str">
-        <f>VLOOKUP(B96,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B96,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_SDG_STU_L2_GLAST_MAT</v>
       </c>
       <c r="E96" s="1">
@@ -13398,11 +13629,11 @@
         <v>1168</v>
       </c>
       <c r="C97" s="49" t="str">
-        <f>VLOOKUP(B97,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B97,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Administration of nationally representative learning assessment in reading (End primary)</v>
       </c>
       <c r="D97" s="25" t="str">
-        <f>VLOOKUP(B97,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B97,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_ADMIN_L1_GLAST_REA</v>
       </c>
       <c r="E97" s="1">
@@ -13432,11 +13663,11 @@
         <v>1169</v>
       </c>
       <c r="C98" s="49" t="str">
-        <f>VLOOKUP(B98,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B98,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Administration of nationally representative learning assessment in math (End primary)</v>
       </c>
       <c r="D98" s="25" t="str">
-        <f>VLOOKUP(B98,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B98,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_ADMIN_L1_GLAST_MAT</v>
       </c>
       <c r="E98" s="1">
@@ -13466,11 +13697,11 @@
         <v>1170</v>
       </c>
       <c r="C99" s="49" t="str">
-        <f>VLOOKUP(B99,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B99,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Administration of nationally representative learning assessment in reading (Lower secondary)</v>
       </c>
       <c r="D99" s="25" t="str">
-        <f>VLOOKUP(B99,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B99,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_ADMIN_L2_REA</v>
       </c>
       <c r="E99" s="1">
@@ -13500,11 +13731,11 @@
         <v>1171</v>
       </c>
       <c r="C100" s="49" t="str">
-        <f>VLOOKUP(B100,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B100,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Administration of nationally representative learning assessment in math (Lower secondary)</v>
       </c>
       <c r="D100" s="25" t="str">
-        <f>VLOOKUP(B100,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B100,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_ADMIN_L2_MAT</v>
       </c>
       <c r="E100" s="1">
@@ -13534,11 +13765,11 @@
         <v>1172</v>
       </c>
       <c r="C101" s="49" t="str">
-        <f>VLOOKUP(B101,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B101,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>TIMSS: Mean performance on the Mathematics scale for Grade 4 students by sex</v>
       </c>
       <c r="D101" s="25" t="str">
-        <f>VLOOKUP(B101,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B101,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_TIMSS_MAT4</v>
       </c>
       <c r="E101" s="1">
@@ -13568,11 +13799,11 @@
         <v>1173</v>
       </c>
       <c r="C102" s="49" t="str">
-        <f>VLOOKUP(B102,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B102,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>TIMSS: Mean performance on the Science scale for Grade 4 students by sex</v>
       </c>
       <c r="D102" s="25" t="str">
-        <f>VLOOKUP(B102,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B102,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_TIMSS_SCI4</v>
       </c>
       <c r="E102" s="1">
@@ -13602,11 +13833,11 @@
         <v>1174</v>
       </c>
       <c r="C103" s="49" t="str">
-        <f>VLOOKUP(B103,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B103,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>TIMSS: Mean performance on the Mathematics scale for Grade 8 students by sex</v>
       </c>
       <c r="D103" s="25" t="str">
-        <f>VLOOKUP(B103,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B103,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_TIMSS_MAT8</v>
       </c>
       <c r="E103" s="1">
@@ -13636,11 +13867,11 @@
         <v>1175</v>
       </c>
       <c r="C104" s="49" t="str">
-        <f>VLOOKUP(B104,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B104,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>TIMSS: Mean performance on the Science scale for Grade 8 students by sex</v>
       </c>
       <c r="D104" s="25" t="str">
-        <f>VLOOKUP(B104,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B104,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_TIMSS_SCI8</v>
       </c>
       <c r="E104" s="1">
@@ -13670,11 +13901,11 @@
         <v>1176</v>
       </c>
       <c r="C105" s="49" t="str">
-        <f>VLOOKUP(B105,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B105,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>PIRLS: Mean performance on the Reading scale for Grade 4 students by sex</v>
       </c>
       <c r="D105" s="25" t="str">
-        <f>VLOOKUP(B105,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B105,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_PIRLS_REA</v>
       </c>
       <c r="E105" s="1">
@@ -13704,11 +13935,11 @@
         <v>1177</v>
       </c>
       <c r="C106" s="49" t="str">
-        <f>VLOOKUP(B106,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B106,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>PISA: Mean performance on the Mathematics scale for 15-year-old students by sex</v>
       </c>
       <c r="D106" s="25" t="str">
-        <f>VLOOKUP(B106,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B106,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_PISA_MAT</v>
       </c>
       <c r="E106" s="1">
@@ -13738,11 +13969,11 @@
         <v>294</v>
       </c>
       <c r="C107" s="49" t="str">
-        <f>VLOOKUP(B107,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B107,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>PISA: Mean performance on the Reading scale for 15-year-old students by sex</v>
       </c>
       <c r="D107" s="25" t="str">
-        <f>VLOOKUP(B107,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B107,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_PISA_REA</v>
       </c>
       <c r="E107" s="1">
@@ -13772,11 +14003,11 @@
         <v>297</v>
       </c>
       <c r="C108" s="49" t="str">
-        <f>VLOOKUP(B108,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B108,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>PISA: Mean performance on the Science scale for 15-year-old students by sex</v>
       </c>
       <c r="D108" s="25" t="str">
-        <f>VLOOKUP(B108,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B108,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_PISA_SCI</v>
       </c>
       <c r="E108" s="1">
@@ -13806,11 +14037,11 @@
         <v>309</v>
       </c>
       <c r="C109" s="49" t="str">
-        <f>VLOOKUP(B109,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B109,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Youth literacy rate, population 15-24 years by sex (%)</v>
       </c>
       <c r="D109" s="25" t="str">
-        <f>VLOOKUP(B109,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B109,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_LR_YOUTH</v>
       </c>
       <c r="E109" s="1">
@@ -13840,11 +14071,11 @@
         <v>312</v>
       </c>
       <c r="C110" s="49" t="str">
-        <f>VLOOKUP(B110,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B110,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Number of repeaters by sex in all grades of primary education (ISCED 1)</v>
       </c>
       <c r="D110" s="25" t="str">
-        <f>VLOOKUP(B110,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B110,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_RPTR_L1</v>
       </c>
       <c r="E110" s="1">
@@ -13874,11 +14105,11 @@
         <v>315</v>
       </c>
       <c r="C111" s="49" t="str">
-        <f>VLOOKUP(B111,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B111,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Number of repeaters by sex in all grades of lower secondary general education (ISCED 2 - C4)</v>
       </c>
       <c r="D111" s="25" t="str">
-        <f>VLOOKUP(B111,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B111,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_RPTR_L2</v>
       </c>
       <c r="E111" s="1">
@@ -13908,11 +14139,11 @@
         <v>318</v>
       </c>
       <c r="C112" s="49" t="str">
-        <f>VLOOKUP(B112,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B112,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Percentage of repeaters by sex in all grades of primary education (ISCED 1)</v>
       </c>
       <c r="D112" s="25" t="str">
-        <f>VLOOKUP(B112,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B112,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_REPP_L1</v>
       </c>
       <c r="E112" s="1">
@@ -13942,11 +14173,11 @@
         <v>321</v>
       </c>
       <c r="C113" s="49" t="str">
-        <f>VLOOKUP(B113,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B113,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Percentage of repeaters by sex in all grades of lower secondary general education (ISCED 2 - C4)</v>
       </c>
       <c r="D113" s="25" t="str">
-        <f>VLOOKUP(B113,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B113,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_REPP_L2</v>
       </c>
       <c r="E113" s="1">
@@ -13976,11 +14207,11 @@
         <v>324</v>
       </c>
       <c r="C114" s="49" t="str">
-        <f>VLOOKUP(B114,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B114,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Percentage of females among repeaters in primary education (ISCED 1)</v>
       </c>
       <c r="D114" s="25" t="str">
-        <f>VLOOKUP(B114,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B114,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_FRP_L1</v>
       </c>
       <c r="E114" s="1">
@@ -13997,7 +14228,7 @@
         <v>400</v>
       </c>
       <c r="I114" s="25" t="str">
-        <f>VLOOKUP(H114,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H114,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_FRP_L1</v>
       </c>
       <c r="K114" s="1"/>
@@ -14010,11 +14241,11 @@
         <v>327</v>
       </c>
       <c r="C115" s="49" t="str">
-        <f>VLOOKUP(B115,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B115,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Cumulative drop-out rate by sex in primary education (% to the last grade)</v>
       </c>
       <c r="D115" s="25" t="str">
-        <f>VLOOKUP(B115,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B115,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_DR_L1</v>
       </c>
       <c r="E115" s="1">
@@ -14031,7 +14262,7 @@
         <v>403</v>
       </c>
       <c r="I115" s="25" t="str">
-        <f>VLOOKUP(H115,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H115,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_DR_L1</v>
       </c>
       <c r="K115" s="1"/>
@@ -14044,11 +14275,11 @@
         <v>330</v>
       </c>
       <c r="C116" s="49" t="str">
-        <f>VLOOKUP(B116,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B116,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Number of early school leavers from primary education by sex</v>
       </c>
       <c r="D116" s="25" t="str">
-        <f>VLOOKUP(B116,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B116,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_ESL_L1</v>
       </c>
       <c r="E116" s="1">
@@ -14065,7 +14296,7 @@
         <v>406</v>
       </c>
       <c r="I116" s="25" t="str">
-        <f>VLOOKUP(H116,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H116,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_ESL_L1</v>
       </c>
       <c r="K116" s="1"/>
@@ -14078,11 +14309,11 @@
         <v>333</v>
       </c>
       <c r="C117" s="49" t="str">
-        <f>VLOOKUP(B117,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B117,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Cumulative drop-out rate by sex in lower secondary general education (% to the last grade)</v>
       </c>
       <c r="D117" s="25" t="str">
-        <f>VLOOKUP(B117,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B117,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_DR_L2</v>
       </c>
       <c r="E117" s="1">
@@ -14099,7 +14330,7 @@
         <v>409</v>
       </c>
       <c r="I117" s="25" t="str">
-        <f>VLOOKUP(H117,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H117,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_DR_L2</v>
       </c>
       <c r="K117" s="1"/>
@@ -14112,11 +14343,11 @@
         <v>336</v>
       </c>
       <c r="C118" s="49" t="str">
-        <f>VLOOKUP(B118,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B118,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Survival rate to the last grade of primary education by sex (%)</v>
       </c>
       <c r="D118" s="25" t="str">
-        <f>VLOOKUP(B118,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B118,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_SR_L1</v>
       </c>
       <c r="E118" s="1">
@@ -14133,7 +14364,7 @@
         <v>412</v>
       </c>
       <c r="I118" s="25" t="str">
-        <f>VLOOKUP(H118,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H118,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_SR_L1</v>
       </c>
       <c r="K118" s="1"/>
@@ -14146,11 +14377,11 @@
         <v>339</v>
       </c>
       <c r="C119" s="49" t="str">
-        <f>VLOOKUP(B119,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B119,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Survival rate to the last grade of lower secondary general education by sex (%)</v>
       </c>
       <c r="D119" s="25" t="str">
-        <f>VLOOKUP(B119,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B119,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_SR_L2</v>
       </c>
       <c r="E119" s="1">
@@ -14167,7 +14398,7 @@
         <v>415</v>
       </c>
       <c r="I119" s="25" t="str">
-        <f>VLOOKUP(H119,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H119,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_SR_L2</v>
       </c>
       <c r="K119" s="1"/>
@@ -14180,11 +14411,11 @@
         <v>342</v>
       </c>
       <c r="C120" s="49" t="str">
-        <f>VLOOKUP(B120,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B120,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Completion rate - Primary education</v>
       </c>
       <c r="D120" s="25" t="str">
-        <f>VLOOKUP(B120,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B120,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_CR_L1</v>
       </c>
       <c r="E120" s="1">
@@ -14201,7 +14432,7 @@
         <v>418</v>
       </c>
       <c r="I120" s="25" t="str">
-        <f>VLOOKUP(H120,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H120,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_CR_L1</v>
       </c>
       <c r="K120" s="1"/>
@@ -14214,11 +14445,11 @@
         <v>345</v>
       </c>
       <c r="C121" s="49" t="str">
-        <f>VLOOKUP(B121,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B121,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Completion rate - Lower secondary education</v>
       </c>
       <c r="D121" s="25" t="str">
-        <f>VLOOKUP(B121,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B121,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_CR_L2</v>
       </c>
       <c r="E121" s="1">
@@ -14235,7 +14466,7 @@
         <v>421</v>
       </c>
       <c r="I121" s="25" t="str">
-        <f>VLOOKUP(H121,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H121,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_CR_L2</v>
       </c>
       <c r="K121" s="1"/>
@@ -14248,11 +14479,11 @@
         <v>348</v>
       </c>
       <c r="C122" s="49" t="str">
-        <f>VLOOKUP(B122,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B122,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Completion rate - Upper secondary education</v>
       </c>
       <c r="D122" s="25" t="str">
-        <f>VLOOKUP(B122,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B122,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_CR_L3</v>
       </c>
       <c r="E122" s="1">
@@ -14269,7 +14500,7 @@
         <v>424</v>
       </c>
       <c r="I122" s="25" t="str">
-        <f>VLOOKUP(H122,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H122,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_CR_L3</v>
       </c>
       <c r="K122" s="1"/>
@@ -14282,11 +14513,11 @@
         <v>351</v>
       </c>
       <c r="C123" s="49" t="str">
-        <f>VLOOKUP(B123,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B123,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Effective transition rate by sex, from primary to lower secondary general education (%)</v>
       </c>
       <c r="D123" s="25" t="str">
-        <f>VLOOKUP(B123,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B123,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_TRANRA_L2</v>
       </c>
       <c r="E123" s="1">
@@ -14303,7 +14534,7 @@
         <v>427</v>
       </c>
       <c r="I123" s="25" t="str">
-        <f>VLOOKUP(H123,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H123,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_TRANRA_L2</v>
       </c>
       <c r="K123" s="1"/>
@@ -14316,11 +14547,11 @@
         <v>354</v>
       </c>
       <c r="C124" s="49" t="str">
-        <f>VLOOKUP(B124,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B124,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Number of out-of-school children of primary school age by sex</v>
       </c>
       <c r="D124" s="25" t="str">
-        <f>VLOOKUP(B124,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B124,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_OFST_L1</v>
       </c>
       <c r="E124" s="1">
@@ -14337,7 +14568,7 @@
         <v>430</v>
       </c>
       <c r="I124" s="25" t="str">
-        <f>VLOOKUP(H124,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H124,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_OFST_L1</v>
       </c>
       <c r="K124" s="1"/>
@@ -14350,11 +14581,11 @@
         <v>1198</v>
       </c>
       <c r="C125" s="49" t="str">
-        <f>VLOOKUP(B125,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B125,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Out-of-school rate for children of primary school age by sex (%)</v>
       </c>
       <c r="D125" s="25" t="str">
-        <f>VLOOKUP(B125,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B125,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_ROFST_L1</v>
       </c>
       <c r="E125" s="1">
@@ -14371,7 +14602,7 @@
         <v>433</v>
       </c>
       <c r="I125" s="25" t="str">
-        <f>VLOOKUP(H125,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H125,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_ROFST_L1</v>
       </c>
       <c r="K125" s="1"/>
@@ -14384,11 +14615,11 @@
         <v>357</v>
       </c>
       <c r="C126" s="49" t="str">
-        <f>VLOOKUP(B126,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B126,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Number of out-of-school adolescents of lower secondary school age by sex</v>
       </c>
       <c r="D126" s="25" t="str">
-        <f>VLOOKUP(B126,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B126,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_OFST_L2</v>
       </c>
       <c r="E126" s="1">
@@ -14405,7 +14636,7 @@
         <v>436</v>
       </c>
       <c r="I126" s="25" t="str">
-        <f>VLOOKUP(H126,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H126,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_OFST_L2</v>
       </c>
       <c r="K126" s="1"/>
@@ -14418,11 +14649,11 @@
         <v>1200</v>
       </c>
       <c r="C127" s="49" t="str">
-        <f>VLOOKUP(B127,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B127,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Out-of-school rate for adolescents of lower secondary school age by sex (%)</v>
       </c>
       <c r="D127" s="25" t="str">
-        <f>VLOOKUP(B127,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B127,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_ROFST_L2</v>
       </c>
       <c r="E127" s="1">
@@ -14439,7 +14670,7 @@
         <v>439</v>
       </c>
       <c r="I127" s="25" t="str">
-        <f>VLOOKUP(H127,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H127,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_ROFST_L2</v>
       </c>
       <c r="K127" s="1"/>
@@ -14452,11 +14683,11 @@
         <v>360</v>
       </c>
       <c r="C128" s="49" t="str">
-        <f>VLOOKUP(B128,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B128,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Number of out-of-school youth of upper secondary school age by sex</v>
       </c>
       <c r="D128" s="25" t="str">
-        <f>VLOOKUP(B128,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B128,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_OFST_L3</v>
       </c>
       <c r="E128" s="1">
@@ -14473,7 +14704,7 @@
         <v>442</v>
       </c>
       <c r="I128" s="25" t="str">
-        <f>VLOOKUP(H128,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H128,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_OFST_L3</v>
       </c>
       <c r="K128" s="1"/>
@@ -14486,11 +14717,11 @@
         <v>363</v>
       </c>
       <c r="C129" s="49" t="str">
-        <f>VLOOKUP(B129,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B129,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Out-of-school rate for youth of upper secondary school age by sex (%)</v>
       </c>
       <c r="D129" s="25" t="str">
-        <f>VLOOKUP(B129,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B129,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_ROFST_L3</v>
       </c>
       <c r="E129" s="1">
@@ -14507,7 +14738,7 @@
         <v>445</v>
       </c>
       <c r="I129" s="25" t="str">
-        <f>VLOOKUP(H129,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H129,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_ROFST_L3</v>
       </c>
       <c r="K129" s="1"/>
@@ -14520,11 +14751,11 @@
         <v>366</v>
       </c>
       <c r="C130" s="49" t="str">
-        <f>VLOOKUP(B130,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B130,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Proportion of youth (aged 15-24 years) not in education, employment or training (%)</v>
       </c>
       <c r="D130" s="25" t="str">
-        <f>VLOOKUP(B130,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B130,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_SDG_YOUTH_NEET</v>
       </c>
       <c r="E130" s="1">
@@ -14541,7 +14772,7 @@
         <v>448</v>
       </c>
       <c r="I130" s="25" t="str">
-        <f>VLOOKUP(H130,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H130,Source!$A$2:$G$259,3,FALSE)</f>
         <v>ILO: SDG_0861_SEX_RT_A</v>
       </c>
       <c r="K130" s="1"/>
@@ -14554,11 +14785,11 @@
         <v>369</v>
       </c>
       <c r="C131" s="49" t="str">
-        <f>VLOOKUP(B131,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B131,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Participation rate of youth and adults in formal and non-formal education and training for the previous 12 months by sex (%)</v>
       </c>
       <c r="D131" s="25" t="str">
-        <f>VLOOKUP(B131,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B131,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_SDG_PRYA</v>
       </c>
       <c r="E131" s="1">
@@ -14575,7 +14806,7 @@
         <v>451</v>
       </c>
       <c r="I131" s="25" t="str">
-        <f>VLOOKUP(H131,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H131,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDU_SDG_PRYA</v>
       </c>
       <c r="K131" s="1"/>
@@ -14588,11 +14819,11 @@
         <v>375</v>
       </c>
       <c r="C132" s="49" t="str">
-        <f>VLOOKUP(B132,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B132,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Number of post-secondary non-tertiary education (ISCED 4) enrolments by sex</v>
       </c>
       <c r="D132" s="25" t="str">
-        <f>VLOOKUP(B132,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B132,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_STU_L4_TOT</v>
       </c>
       <c r="E132" s="1">
@@ -14609,7 +14840,7 @@
         <v>454</v>
       </c>
       <c r="I132" s="25" t="str">
-        <f>VLOOKUP(H132,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H132,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_STU_L4_TOT</v>
       </c>
       <c r="K132" s="1"/>
@@ -14622,11 +14853,11 @@
         <v>378</v>
       </c>
       <c r="C133" s="49" t="str">
-        <f>VLOOKUP(B133,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B133,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Number of post-secondary non-tertiary education (ISCED 4) enrolments in public institutions by sex</v>
       </c>
       <c r="D133" s="25" t="str">
-        <f>VLOOKUP(B133,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B133,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_STU_L4_PUB</v>
       </c>
       <c r="E133" s="1">
@@ -14643,7 +14874,7 @@
         <v>457</v>
       </c>
       <c r="I133" s="25" t="str">
-        <f>VLOOKUP(H133,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H133,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_STU_L4_PUB</v>
       </c>
       <c r="K133" s="1"/>
@@ -14656,11 +14887,11 @@
         <v>381</v>
       </c>
       <c r="C134" s="49" t="str">
-        <f>VLOOKUP(B134,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B134,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Number of post-secondary non-tertiary education (ISCED 4) enrolments in private institutions by sex</v>
       </c>
       <c r="D134" s="25" t="str">
-        <f>VLOOKUP(B134,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B134,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_STU_L4_PRV</v>
       </c>
       <c r="E134" s="1">
@@ -14677,7 +14908,7 @@
         <v>460</v>
       </c>
       <c r="I134" s="25" t="str">
-        <f>VLOOKUP(H134,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H134,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_STU_L4_PRV</v>
       </c>
       <c r="K134" s="1"/>
@@ -14690,11 +14921,11 @@
         <v>384</v>
       </c>
       <c r="C135" s="49" t="str">
-        <f>VLOOKUP(B135,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B135,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Percentage of private enrolments in post-secondary non-tertiary education (ISCED 4) (%)</v>
       </c>
       <c r="D135" s="25" t="str">
-        <f>VLOOKUP(B135,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B135,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_PRP_L4</v>
       </c>
       <c r="E135" s="1">
@@ -14711,7 +14942,7 @@
         <v>463</v>
       </c>
       <c r="I135" s="25" t="str">
-        <f>VLOOKUP(H135,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H135,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_PRP_L4</v>
       </c>
       <c r="K135" s="1"/>
@@ -14724,11 +14955,11 @@
         <v>387</v>
       </c>
       <c r="C136" s="49" t="str">
-        <f>VLOOKUP(B136,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B136,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Percentage of female enrolments in post-secondary non-tertiary education (ISCED 4) (%)</v>
       </c>
       <c r="D136" s="25" t="str">
-        <f>VLOOKUP(B136,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B136,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_FEP_L4</v>
       </c>
       <c r="E136" s="1">
@@ -14745,7 +14976,7 @@
         <v>466</v>
       </c>
       <c r="I136" s="25" t="str">
-        <f>VLOOKUP(H136,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H136,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_FEP_L4</v>
       </c>
       <c r="K136" s="1"/>
@@ -14758,11 +14989,11 @@
         <v>1212</v>
       </c>
       <c r="C137" s="49" t="str">
-        <f>VLOOKUP(B137,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B137,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Number of tertiary education (ISCED 5) enrolments by sex</v>
       </c>
       <c r="D137" s="25" t="str">
-        <f>VLOOKUP(B137,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B137,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_STU_L5T8_TOT</v>
       </c>
       <c r="E137" s="1">
@@ -14779,7 +15010,7 @@
         <v>469</v>
       </c>
       <c r="I137" s="25" t="str">
-        <f>VLOOKUP(H137,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H137,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_STU_L5T8_TOT</v>
       </c>
       <c r="K137" s="1"/>
@@ -14792,11 +15023,11 @@
         <v>390</v>
       </c>
       <c r="C138" s="49" t="str">
-        <f>VLOOKUP(B138,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B138,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Number of tertiary education (ISCED 5) enrolments in public institutions by sex</v>
       </c>
       <c r="D138" s="25" t="str">
-        <f>VLOOKUP(B138,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B138,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_STU_L5T8_PUB</v>
       </c>
       <c r="E138" s="1">
@@ -14813,7 +15044,7 @@
         <v>472</v>
       </c>
       <c r="I138" s="25" t="str">
-        <f>VLOOKUP(H138,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H138,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_STU_L5T8_PUB</v>
       </c>
       <c r="K138" s="1"/>
@@ -14826,11 +15057,11 @@
         <v>393</v>
       </c>
       <c r="C139" s="49" t="str">
-        <f>VLOOKUP(B139,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B139,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Number of tertiary education (ISCED 5) enrolments in private institutions by sex</v>
       </c>
       <c r="D139" s="25" t="str">
-        <f>VLOOKUP(B139,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B139,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_STU_L5T8_PRV</v>
       </c>
       <c r="E139" s="1">
@@ -14847,7 +15078,7 @@
         <v>475</v>
       </c>
       <c r="I139" s="25" t="str">
-        <f>VLOOKUP(H139,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H139,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_STU_L5T8_PRV</v>
       </c>
       <c r="K139" s="1"/>
@@ -14860,11 +15091,11 @@
         <v>396</v>
       </c>
       <c r="C140" s="49" t="str">
-        <f>VLOOKUP(B140,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B140,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Percentage of private enrolments in tertiary education (ISCED 5) (%)</v>
       </c>
       <c r="D140" s="25" t="str">
-        <f>VLOOKUP(B140,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B140,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_PRP_L5T8</v>
       </c>
       <c r="E140" s="1">
@@ -14881,7 +15112,7 @@
         <v>478</v>
       </c>
       <c r="I140" s="25" t="str">
-        <f>VLOOKUP(H140,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H140,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_PRP_L5T8</v>
       </c>
       <c r="K140" s="1"/>
@@ -14894,11 +15125,11 @@
         <v>399</v>
       </c>
       <c r="C141" s="49" t="str">
-        <f>VLOOKUP(B141,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B141,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Percentage of female enrolments in tertiary education (ISCED 5) (%)</v>
       </c>
       <c r="D141" s="25" t="str">
-        <f>VLOOKUP(B141,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B141,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_FEP_L5T8</v>
       </c>
       <c r="E141" s="1">
@@ -14915,7 +15146,7 @@
         <v>481</v>
       </c>
       <c r="I141" s="25" t="str">
-        <f>VLOOKUP(H141,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H141,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_FEP_L5T8</v>
       </c>
       <c r="K141" s="1"/>
@@ -14928,11 +15159,11 @@
         <v>1213</v>
       </c>
       <c r="C142" s="49" t="str">
-        <f>VLOOKUP(B142,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B142,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Gross enrolment ratio, pre-primary, Gender Parity Index (GPI)</v>
       </c>
       <c r="D142" s="25" t="str">
-        <f>VLOOKUP(B142,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B142,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_GER_GPI_L02</v>
       </c>
       <c r="E142" s="1">
@@ -14949,7 +15180,7 @@
         <v>484</v>
       </c>
       <c r="I142" s="25" t="str">
-        <f>VLOOKUP(H142,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H142,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_GER_GPI_L02</v>
       </c>
       <c r="K142" s="1"/>
@@ -14962,11 +15193,11 @@
         <v>1215</v>
       </c>
       <c r="C143" s="49" t="str">
-        <f>VLOOKUP(B143,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B143,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Gross enrolment ratio, primary, Gender Parity Index (GPI)</v>
       </c>
       <c r="D143" s="25" t="str">
-        <f>VLOOKUP(B143,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B143,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_GER_GPI_L1</v>
       </c>
       <c r="E143" s="1">
@@ -14983,7 +15214,7 @@
         <v>487</v>
       </c>
       <c r="I143" s="25" t="str">
-        <f>VLOOKUP(H143,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H143,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_GER_GPI_L1</v>
       </c>
       <c r="K143" s="1"/>
@@ -14996,11 +15227,11 @@
         <v>1216</v>
       </c>
       <c r="C144" s="49" t="str">
-        <f>VLOOKUP(B144,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B144,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Gross enrolment ratio, lower secondary, Gender Parity Index (GPI)</v>
       </c>
       <c r="D144" s="25" t="str">
-        <f>VLOOKUP(B144,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B144,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_GER_GPI_L2</v>
       </c>
       <c r="E144" s="1">
@@ -15017,7 +15248,7 @@
         <v>490</v>
       </c>
       <c r="I144" s="25" t="str">
-        <f>VLOOKUP(H144,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H144,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_GER_GPI_L2</v>
       </c>
       <c r="K144" s="1"/>
@@ -15030,11 +15261,11 @@
         <v>1218</v>
       </c>
       <c r="C145" s="49" t="str">
-        <f>VLOOKUP(B145,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B145,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Gross enrolment ratio, upper secondary, Gender Parity Index (GPI)</v>
       </c>
       <c r="D145" s="25" t="str">
-        <f>VLOOKUP(B145,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B145,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_GER_GPI_L3</v>
       </c>
       <c r="E145" s="1">
@@ -15051,7 +15282,7 @@
         <v>493</v>
       </c>
       <c r="I145" s="25" t="str">
-        <f>VLOOKUP(H145,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H145,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_GER_GPI_L3</v>
       </c>
       <c r="K145" s="1"/>
@@ -15064,11 +15295,11 @@
         <v>1220</v>
       </c>
       <c r="C146" s="49" t="str">
-        <f>VLOOKUP(B146,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B146,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Gross enrolment ratio, secondary, Gender Parity Index (GPI)</v>
       </c>
       <c r="D146" s="25" t="str">
-        <f>VLOOKUP(B146,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B146,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_GER_GPI_L2AND3</v>
       </c>
       <c r="E146" s="1">
@@ -15085,7 +15316,7 @@
         <v>496</v>
       </c>
       <c r="I146" s="25" t="str">
-        <f>VLOOKUP(H146,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H146,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_GER_GPI_L2AND3</v>
       </c>
       <c r="K146" s="1"/>
@@ -15098,11 +15329,11 @@
         <v>417</v>
       </c>
       <c r="C147" s="49" t="str">
-        <f>VLOOKUP(B147,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B147,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Government expenditure on education as a percentage of GDP (%)</v>
       </c>
       <c r="D147" s="25" t="str">
-        <f>VLOOKUP(B147,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B147,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_FIN_EXP_PT_GDP</v>
       </c>
       <c r="E147" s="1">
@@ -15119,7 +15350,7 @@
         <v>499</v>
       </c>
       <c r="I147" s="25" t="str">
-        <f>VLOOKUP(H147,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H147,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDU_FIN_EXP_PT_GDP</v>
       </c>
       <c r="K147" s="1"/>
@@ -15132,11 +15363,11 @@
         <v>420</v>
       </c>
       <c r="C148" s="49" t="str">
-        <f>VLOOKUP(B148,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B148,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Expenditure on education as a percentage of total government expenditure (%)</v>
       </c>
       <c r="D148" s="25" t="str">
-        <f>VLOOKUP(B148,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B148,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_FIN_EXP_PT_TOT</v>
       </c>
       <c r="E148" s="1">
@@ -15153,7 +15384,7 @@
         <v>502</v>
       </c>
       <c r="I148" s="25" t="str">
-        <f>VLOOKUP(H148,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H148,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDU_FIN_EXP_PT_TOT</v>
       </c>
       <c r="K148" s="1"/>
@@ -15166,11 +15397,11 @@
         <v>423</v>
       </c>
       <c r="C149" s="49" t="str">
-        <f>VLOOKUP(B149,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B149,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Government expenditure on education, in constant PPP ($ millions)</v>
       </c>
       <c r="D149" s="25" t="str">
-        <f>VLOOKUP(B149,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B149,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_FIN_EXP_CONST_PPP</v>
       </c>
       <c r="E149" s="1">
@@ -15187,7 +15418,7 @@
         <v>505</v>
       </c>
       <c r="I149" s="25" t="str">
-        <f>VLOOKUP(H149,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H149,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDU_FIN_EXP_CONST_PPP</v>
       </c>
       <c r="K149" s="1"/>
@@ -15200,11 +15431,11 @@
         <v>426</v>
       </c>
       <c r="C150" s="49" t="str">
-        <f>VLOOKUP(B150,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B150,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Expenditure on pre-primary as a percentage of government expenditure on education (%)</v>
       </c>
       <c r="D150" s="25" t="str">
-        <f>VLOOKUP(B150,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B150,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_FIN_EXP_L02</v>
       </c>
       <c r="E150" s="1">
@@ -15221,7 +15452,7 @@
         <v>508</v>
       </c>
       <c r="I150" s="25" t="str">
-        <f>VLOOKUP(H150,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H150,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDU_FIN_EXP_L02</v>
       </c>
       <c r="K150" s="1"/>
@@ -15234,11 +15465,11 @@
         <v>429</v>
       </c>
       <c r="C151" s="49" t="str">
-        <f>VLOOKUP(B151,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B151,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Expenditure on primary as a percentage of government expenditure on education (%)</v>
       </c>
       <c r="D151" s="25" t="str">
-        <f>VLOOKUP(B151,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B151,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_FIN_EXP_L1</v>
       </c>
       <c r="E151" s="1">
@@ -15255,7 +15486,7 @@
         <v>511</v>
       </c>
       <c r="I151" s="25" t="str">
-        <f>VLOOKUP(H151,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H151,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDU_FIN_EXP_L1</v>
       </c>
       <c r="K151" s="1"/>
@@ -15268,11 +15499,11 @@
         <v>432</v>
       </c>
       <c r="C152" s="49" t="str">
-        <f>VLOOKUP(B152,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B152,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Expenditure on lower secondary as a percentage of government expenditure on education (%)</v>
       </c>
       <c r="D152" s="25" t="str">
-        <f>VLOOKUP(B152,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B152,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_FIN_EXP_L2</v>
       </c>
       <c r="E152" s="1">
@@ -15289,7 +15520,7 @@
         <v>514</v>
       </c>
       <c r="I152" s="25" t="str">
-        <f>VLOOKUP(H152,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H152,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDU_FIN_EXP_L2</v>
       </c>
       <c r="K152" s="1"/>
@@ -15302,11 +15533,11 @@
         <v>435</v>
       </c>
       <c r="C153" s="49" t="str">
-        <f>VLOOKUP(B153,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B153,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Expenditure on upper secondary as a percentage of government expenditure on education (%)</v>
       </c>
       <c r="D153" s="25" t="str">
-        <f>VLOOKUP(B153,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B153,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_FIN_EXP_L3</v>
       </c>
       <c r="E153" s="1">
@@ -15323,7 +15554,7 @@
         <v>518</v>
       </c>
       <c r="I153" s="25" t="str">
-        <f>VLOOKUP(H153,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H153,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDU_FIN_EXP_L3</v>
       </c>
       <c r="K153" s="1"/>
@@ -15336,11 +15567,11 @@
         <v>1231</v>
       </c>
       <c r="C154" s="49" t="str">
-        <f>VLOOKUP(B154,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B154,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Expenditure on post-secondary non-tertiary as a percentage of government expenditure on education (%)</v>
       </c>
       <c r="D154" s="25" t="str">
-        <f>VLOOKUP(B154,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B154,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_FIN_EXP_L4</v>
       </c>
       <c r="E154" s="1">
@@ -15357,7 +15588,7 @@
         <v>521</v>
       </c>
       <c r="I154" s="25" t="str">
-        <f>VLOOKUP(H154,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H154,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDU_FIN_EXP_L4</v>
       </c>
       <c r="K154" s="1"/>
@@ -15370,11 +15601,11 @@
         <v>1232</v>
       </c>
       <c r="C155" s="49" t="str">
-        <f>VLOOKUP(B155,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B155,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Expenditure on tertiary as a percentage of government expenditure on education (%)</v>
       </c>
       <c r="D155" s="25" t="str">
-        <f>VLOOKUP(B155,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B155,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_FIN_EXP_L5T8</v>
       </c>
       <c r="E155" s="1">
@@ -15391,7 +15622,7 @@
         <v>524</v>
       </c>
       <c r="I155" s="25" t="str">
-        <f>VLOOKUP(H155,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H155,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDU_FIN_EXP_L5T8</v>
       </c>
       <c r="K155" s="1"/>
@@ -15404,11 +15635,11 @@
         <v>1233</v>
       </c>
       <c r="C156" s="49" t="str">
-        <f>VLOOKUP(B156,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B156,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Proportion of schools with access to adapted infrastructure and materials for students with disabilities - Primary (%)</v>
       </c>
       <c r="D156" s="25" t="str">
-        <f>VLOOKUP(B156,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B156,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_SDG_SCH_L1</v>
       </c>
       <c r="E156" s="1">
@@ -15425,7 +15656,7 @@
         <v>2056</v>
       </c>
       <c r="I156" s="25" t="str">
-        <f>VLOOKUP(H156,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H156,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDU_SDG_SCH_L1</v>
       </c>
       <c r="K156" s="1"/>
@@ -15438,11 +15669,11 @@
         <v>438</v>
       </c>
       <c r="C157" s="49" t="str">
-        <f>VLOOKUP(B157,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B157,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Proportion of schools with access to adapted infrastructure and materials for students with disabilities - Lower secondary (%)</v>
       </c>
       <c r="D157" s="25" t="str">
-        <f>VLOOKUP(B157,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B157,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_SDG_SCH_L2</v>
       </c>
       <c r="E157" s="1">
@@ -15459,7 +15690,7 @@
         <v>2057</v>
       </c>
       <c r="I157" s="25" t="str">
-        <f>VLOOKUP(H157,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H157,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDU_SDG_SCH_L2</v>
       </c>
       <c r="K157" s="1"/>
@@ -15472,11 +15703,11 @@
         <v>441</v>
       </c>
       <c r="C158" s="49" t="str">
-        <f>VLOOKUP(B158,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B158,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Proportion of schools with access to adapted infrastructure and materials for students with disabilities - Upper secondary (%)</v>
       </c>
       <c r="D158" s="25" t="str">
-        <f>VLOOKUP(B158,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B158,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_SDG_SCH_L3</v>
       </c>
       <c r="E158" s="1">
@@ -15493,7 +15724,7 @@
         <v>2058</v>
       </c>
       <c r="I158" s="25" t="str">
-        <f>VLOOKUP(H158,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H158,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDU_SDG_SCH_L3</v>
       </c>
       <c r="K158" s="1"/>
@@ -15506,11 +15737,11 @@
         <v>444</v>
       </c>
       <c r="C159" s="49" t="str">
-        <f>VLOOKUP(B159,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B159,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Proportion of total schools with basic hygiene services (%, by residence)</v>
       </c>
       <c r="D159" s="25" t="str">
-        <f>VLOOKUP(B159,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B159,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>WS_SCH_H-B</v>
       </c>
       <c r="E159" s="1">
@@ -15527,7 +15758,7 @@
         <v>2069</v>
       </c>
       <c r="I159" s="25" t="str">
-        <f>VLOOKUP(H159,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H159,Source!$A$2:$G$259,3,FALSE)</f>
         <v>Helix: WS_SCH_H-B</v>
       </c>
       <c r="K159" s="1"/>
@@ -15540,11 +15771,11 @@
         <v>447</v>
       </c>
       <c r="C160" s="49" t="str">
-        <f>VLOOKUP(B160,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B160,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Proportion of total schools with basic sanitation services (%, by residence)</v>
       </c>
       <c r="D160" s="25" t="str">
-        <f>VLOOKUP(B160,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B160,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>WS_SCH_S-B</v>
       </c>
       <c r="E160" s="1">
@@ -15561,7 +15792,7 @@
         <v>2070</v>
       </c>
       <c r="I160" s="25" t="str">
-        <f>VLOOKUP(H160,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H160,Source!$A$2:$G$259,3,FALSE)</f>
         <v>Helix: WS_SCH_S-B</v>
       </c>
       <c r="K160" s="1"/>
@@ -15574,11 +15805,11 @@
         <v>450</v>
       </c>
       <c r="C161" s="49" t="str">
-        <f>VLOOKUP(B161,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B161,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Proportion of total schools with basic drinking water services (%, by residence)</v>
       </c>
       <c r="D161" s="25" t="str">
-        <f>VLOOKUP(B161,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B161,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>WS_SCH_W-B</v>
       </c>
       <c r="E161" s="1">
@@ -15595,7 +15826,7 @@
         <v>2076</v>
       </c>
       <c r="I161" s="25" t="str">
-        <f>VLOOKUP(H161,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H161,Source!$A$2:$G$259,3,FALSE)</f>
         <v>Helix: WS_SCH_W-B</v>
       </c>
       <c r="K161" s="1"/>
@@ -15608,11 +15839,11 @@
         <v>453</v>
       </c>
       <c r="C162" s="49" t="str">
-        <f>VLOOKUP(B162,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B162,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Total number of Classroom teachers in primary education (ISCED 1) by sex</v>
       </c>
       <c r="D162" s="25" t="str">
-        <f>VLOOKUP(B162,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B162,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_TEACH_L1</v>
       </c>
       <c r="E162" s="1">
@@ -15629,7 +15860,7 @@
         <v>2077</v>
       </c>
       <c r="I162" s="25" t="str">
-        <f>VLOOKUP(H162,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H162,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_TEACH_L1</v>
       </c>
       <c r="K162" s="1"/>
@@ -15642,11 +15873,11 @@
         <v>456</v>
       </c>
       <c r="C163" s="49" t="str">
-        <f>VLOOKUP(B163,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B163,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Total number of Classroom teachers in lower secondary education (ISCED 2) by sex</v>
       </c>
       <c r="D163" s="25" t="str">
-        <f>VLOOKUP(B163,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B163,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_TEACH_L2</v>
       </c>
       <c r="E163" s="1">
@@ -15663,7 +15894,7 @@
         <v>2100</v>
       </c>
       <c r="I163" s="25" t="str">
-        <f>VLOOKUP(H163,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H163,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_TEACH_L2</v>
       </c>
       <c r="K163" s="1"/>
@@ -15676,11 +15907,11 @@
         <v>459</v>
       </c>
       <c r="C164" s="49" t="str">
-        <f>VLOOKUP(B164,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B164,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Total number of Classroom teachers in upper secondary education (ISCED 3) by sex</v>
       </c>
       <c r="D164" s="25" t="str">
-        <f>VLOOKUP(B164,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B164,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_TEACH_L3</v>
       </c>
       <c r="E164" s="1">
@@ -15697,7 +15928,7 @@
         <v>2101</v>
       </c>
       <c r="I164" s="25" t="str">
-        <f>VLOOKUP(H164,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H164,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_TEACH_L3</v>
       </c>
       <c r="K164" s="1"/>
@@ -15710,11 +15941,11 @@
         <v>462</v>
       </c>
       <c r="C165" s="49" t="str">
-        <f>VLOOKUP(B165,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B165,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Pupil-teacher ratio in primary education (ISCED1) (headcount basis)</v>
       </c>
       <c r="D165" s="25" t="str">
-        <f>VLOOKUP(B165,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B165,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_PTR_L1</v>
       </c>
       <c r="E165" s="1">
@@ -15731,7 +15962,7 @@
         <v>2102</v>
       </c>
       <c r="I165" s="25" t="str">
-        <f>VLOOKUP(H165,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H165,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_PTR_L1</v>
       </c>
       <c r="K165" s="1"/>
@@ -15744,11 +15975,11 @@
         <v>465</v>
       </c>
       <c r="C166" s="49" t="str">
-        <f>VLOOKUP(B166,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B166,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Pupil-teacher ratio in lower secondary education (ISCED 2) (headcount basis)</v>
       </c>
       <c r="D166" s="25" t="str">
-        <f>VLOOKUP(B166,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B166,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_PTR_L2</v>
       </c>
       <c r="E166" s="1">
@@ -15765,7 +15996,7 @@
         <v>2103</v>
       </c>
       <c r="I166" s="25" t="str">
-        <f>VLOOKUP(H166,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H166,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_PTR_L2</v>
       </c>
       <c r="K166" s="1"/>
@@ -15778,11 +16009,11 @@
         <v>468</v>
       </c>
       <c r="C167" s="49" t="str">
-        <f>VLOOKUP(B167,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B167,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Pupil-teacher ratio in secondary education (ISCED 2 and 3) (headcount basis)</v>
       </c>
       <c r="D167" s="25" t="str">
-        <f>VLOOKUP(B167,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B167,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_PTR_L2AND3</v>
       </c>
       <c r="E167" s="1">
@@ -15799,7 +16030,7 @@
         <v>2104</v>
       </c>
       <c r="I167" s="25" t="str">
-        <f>VLOOKUP(H167,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H167,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_PTR_L2AND3</v>
       </c>
       <c r="K167" s="1"/>
@@ -15812,11 +16043,11 @@
         <v>471</v>
       </c>
       <c r="C168" s="49" t="str">
-        <f>VLOOKUP(B168,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B168,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Pupil-teacher ratio in upper secondary education (ISCED 3) (headcount basis)</v>
       </c>
       <c r="D168" s="25" t="str">
-        <f>VLOOKUP(B168,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B168,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_PTR_L3</v>
       </c>
       <c r="E168" s="1">
@@ -15833,7 +16064,7 @@
         <v>2105</v>
       </c>
       <c r="I168" s="25" t="str">
-        <f>VLOOKUP(H168,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H168,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_PTR_L3</v>
       </c>
       <c r="K168" s="1"/>
@@ -15846,11 +16077,11 @@
         <v>474</v>
       </c>
       <c r="C169" s="49" t="str">
-        <f>VLOOKUP(B169,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B169,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Percentage of trained teachers in pre-primary education by sex (%)</v>
       </c>
       <c r="D169" s="25" t="str">
-        <f>VLOOKUP(B169,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B169,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_SDG_TRTP_L02</v>
       </c>
       <c r="E169" s="1">
@@ -15867,7 +16098,7 @@
         <v>2106</v>
       </c>
       <c r="I169" s="25" t="str">
-        <f>VLOOKUP(H169,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H169,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDU_SDG_TRTP_L02</v>
       </c>
       <c r="K169" s="1"/>
@@ -15880,11 +16111,11 @@
         <v>477</v>
       </c>
       <c r="C170" s="49" t="str">
-        <f>VLOOKUP(B170,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B170,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Percentage of trained teachers in primary education by sex (%)</v>
       </c>
       <c r="D170" s="25" t="str">
-        <f>VLOOKUP(B170,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B170,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_SDG_TRTP_L1</v>
       </c>
       <c r="E170" s="1">
@@ -15901,7 +16132,7 @@
         <v>2107</v>
       </c>
       <c r="I170" s="25" t="str">
-        <f>VLOOKUP(H170,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H170,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDU_SDG_TRTP_L1</v>
       </c>
       <c r="K170" s="1"/>
@@ -15914,11 +16145,11 @@
         <v>480</v>
       </c>
       <c r="C171" s="49" t="str">
-        <f>VLOOKUP(B171,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B171,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Percentage of trained teachers in lower secondary education by sex (%)</v>
       </c>
       <c r="D171" s="25" t="str">
-        <f>VLOOKUP(B171,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B171,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_SDG_TRTP_L2</v>
       </c>
       <c r="E171" s="1">
@@ -15935,7 +16166,7 @@
         <v>2108</v>
       </c>
       <c r="I171" s="25" t="str">
-        <f>VLOOKUP(H171,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H171,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDU_SDG_TRTP_L2</v>
       </c>
       <c r="K171" s="1"/>
@@ -15948,11 +16179,11 @@
         <v>483</v>
       </c>
       <c r="C172" s="49" t="str">
-        <f>VLOOKUP(B172,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B172,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Percentage of trained teachers in upper secondary education by sex (%)</v>
       </c>
       <c r="D172" s="25" t="str">
-        <f>VLOOKUP(B172,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B172,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_SDG_TRTP_L3</v>
       </c>
       <c r="E172" s="1">
@@ -15969,7 +16200,7 @@
         <v>2109</v>
       </c>
       <c r="I172" s="25" t="str">
-        <f>VLOOKUP(H172,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H172,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDU_SDG_TRTP_L3</v>
       </c>
       <c r="K172" s="1"/>
@@ -15982,11 +16213,11 @@
         <v>486</v>
       </c>
       <c r="C173" s="49" t="str">
-        <f>VLOOKUP(B173,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B173,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Pupil-trained teacher ratio in pre-primary education (headcount basis)</v>
       </c>
       <c r="D173" s="25" t="str">
-        <f>VLOOKUP(B173,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B173,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_SDG_PTTR_L02</v>
       </c>
       <c r="E173" s="1">
@@ -16003,7 +16234,7 @@
         <v>2110</v>
       </c>
       <c r="I173" s="25" t="str">
-        <f>VLOOKUP(H173,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H173,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDU_SDG_PTTR_L02</v>
       </c>
       <c r="K173" s="1"/>
@@ -16016,11 +16247,11 @@
         <v>489</v>
       </c>
       <c r="C174" s="49" t="str">
-        <f>VLOOKUP(B174,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B174,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Pupil-trained teacher ratio in primary education (headcount basis)</v>
       </c>
       <c r="D174" s="25" t="str">
-        <f>VLOOKUP(B174,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B174,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_SDG_PTTR_L1</v>
       </c>
       <c r="E174" s="1">
@@ -16037,7 +16268,7 @@
         <v>2111</v>
       </c>
       <c r="I174" s="25" t="str">
-        <f>VLOOKUP(H174,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H174,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDU_SDG_PTTR_L1</v>
       </c>
       <c r="K174" s="1"/>
@@ -16050,11 +16281,11 @@
         <v>492</v>
       </c>
       <c r="C175" s="49" t="str">
-        <f>VLOOKUP(B175,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B175,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Pupil-trained teacher ratio in lower secondary education (headcount basis)</v>
       </c>
       <c r="D175" s="25" t="str">
-        <f>VLOOKUP(B175,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B175,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_SDG_PTTR_L2</v>
       </c>
       <c r="E175" s="1">
@@ -16071,7 +16302,7 @@
         <v>2112</v>
       </c>
       <c r="I175" s="25" t="str">
-        <f>VLOOKUP(H175,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H175,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDU_SDG_PTTR_L2</v>
       </c>
       <c r="K175" s="1"/>
@@ -16084,11 +16315,11 @@
         <v>495</v>
       </c>
       <c r="C176" s="49" t="str">
-        <f>VLOOKUP(B176,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B176,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Pupil-trained teacher ratio in upper secondary education (headcount basis)</v>
       </c>
       <c r="D176" s="25" t="str">
-        <f>VLOOKUP(B176,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B176,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_SDG_PTTR_L3</v>
       </c>
       <c r="E176" s="1">
@@ -16105,7 +16336,7 @@
         <v>2113</v>
       </c>
       <c r="I176" s="25" t="str">
-        <f>VLOOKUP(H176,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H176,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDU_SDG_PTTR_L3</v>
       </c>
       <c r="K176" s="1"/>
@@ -16118,11 +16349,11 @@
         <v>498</v>
       </c>
       <c r="C177" s="49" t="str">
-        <f>VLOOKUP(B177,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B177,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Proportion of teachers by sex qualified according to national standards in pre-primary education (%)</v>
       </c>
       <c r="D177" s="25" t="str">
-        <f>VLOOKUP(B177,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B177,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_SDG_QUTP_L02</v>
       </c>
       <c r="E177" s="1">
@@ -16139,7 +16370,7 @@
         <v>2114</v>
       </c>
       <c r="I177" s="25" t="str">
-        <f>VLOOKUP(H177,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H177,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDU_SDG_QUTP_L02</v>
       </c>
       <c r="K177" s="1"/>
@@ -16152,11 +16383,11 @@
         <v>501</v>
       </c>
       <c r="C178" s="49" t="str">
-        <f>VLOOKUP(B178,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B178,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Proportion of teachers by sex qualified according to national standards in primary education (%)</v>
       </c>
       <c r="D178" s="25" t="str">
-        <f>VLOOKUP(B178,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B178,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_SDG_QUTP_L1</v>
       </c>
       <c r="E178" s="1">
@@ -16173,7 +16404,7 @@
         <v>2115</v>
       </c>
       <c r="I178" s="25" t="str">
-        <f>VLOOKUP(H178,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H178,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDU_SDG_QUTP_L1</v>
       </c>
       <c r="K178" s="1"/>
@@ -16186,11 +16417,11 @@
         <v>504</v>
       </c>
       <c r="C179" s="49" t="str">
-        <f>VLOOKUP(B179,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B179,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Proportion of teachers by sex qualified according to national standards in lower secondary education (%)</v>
       </c>
       <c r="D179" s="25" t="str">
-        <f>VLOOKUP(B179,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B179,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_SDG_QUTP_L2</v>
       </c>
       <c r="E179" s="1">
@@ -16207,7 +16438,7 @@
         <v>2116</v>
       </c>
       <c r="I179" s="25" t="str">
-        <f>VLOOKUP(H179,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H179,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDU_SDG_QUTP_L2</v>
       </c>
       <c r="K179" s="1"/>
@@ -16220,11 +16451,11 @@
         <v>1256</v>
       </c>
       <c r="C180" s="49" t="str">
-        <f>VLOOKUP(B180,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B180,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Proportion of teachers by sex qualified according to national standards in upper secondary education (%)</v>
       </c>
       <c r="D180" s="25" t="str">
-        <f>VLOOKUP(B180,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B180,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_SDG_QUTP_L3</v>
       </c>
       <c r="E180" s="1">
@@ -16241,7 +16472,7 @@
         <v>2117</v>
       </c>
       <c r="I180" s="25" t="str">
-        <f>VLOOKUP(H180,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H180,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDU_SDG_QUTP_L3</v>
       </c>
       <c r="K180" s="1"/>
@@ -16254,11 +16485,11 @@
         <v>1257</v>
       </c>
       <c r="C181" s="49" t="str">
-        <f>VLOOKUP(B181,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B181,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Pupil-qualified teacher ratio in pre-primary education (headcount basis)</v>
       </c>
       <c r="D181" s="25" t="str">
-        <f>VLOOKUP(B181,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B181,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_SDG_PQTR_L02</v>
       </c>
       <c r="E181" s="1">
@@ -16275,7 +16506,7 @@
         <v>2118</v>
       </c>
       <c r="I181" s="25" t="str">
-        <f>VLOOKUP(H181,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H181,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDU_SDG_PQTR_L02</v>
       </c>
       <c r="K181" s="1"/>
@@ -16288,11 +16519,11 @@
         <v>1258</v>
       </c>
       <c r="C182" s="49" t="str">
-        <f>VLOOKUP(B182,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B182,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Pupil-qualified teacher ratio in primary education (headcount basis)</v>
       </c>
       <c r="D182" s="25" t="str">
-        <f>VLOOKUP(B182,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B182,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_SDG_PQTR_L1</v>
       </c>
       <c r="E182" s="1">
@@ -16309,7 +16540,7 @@
         <v>2119</v>
       </c>
       <c r="I182" s="25" t="str">
-        <f>VLOOKUP(H182,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H182,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDU_SDG_PQTR_L1</v>
       </c>
       <c r="K182" s="1"/>
@@ -16322,11 +16553,11 @@
         <v>1260</v>
       </c>
       <c r="C183" s="49" t="str">
-        <f>VLOOKUP(B183,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B183,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Pupil-qualified teacher ratio in lower secondary education (headcount basis)</v>
       </c>
       <c r="D183" s="25" t="str">
-        <f>VLOOKUP(B183,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B183,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_SDG_PQTR_L2</v>
       </c>
       <c r="E183" s="1">
@@ -16343,7 +16574,7 @@
         <v>2120</v>
       </c>
       <c r="I183" s="25" t="str">
-        <f>VLOOKUP(H183,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H183,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDU_SDG_PQTR_L2</v>
       </c>
       <c r="K183" s="1"/>
@@ -16356,11 +16587,11 @@
         <v>1262</v>
       </c>
       <c r="C184" s="49" t="str">
-        <f>VLOOKUP(B184,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B184,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Pupil-qualified teacher ratio in upper secondary education (headcount basis)</v>
       </c>
       <c r="D184" s="25" t="str">
-        <f>VLOOKUP(B184,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B184,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_SDG_PQTR_L3</v>
       </c>
       <c r="E184" s="1">
@@ -16377,7 +16608,7 @@
         <v>2146</v>
       </c>
       <c r="I184" s="25" t="str">
-        <f>VLOOKUP(H184,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H184,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDU_SDG_PQTR_L3</v>
       </c>
       <c r="K184" s="1"/>
@@ -16390,11 +16621,11 @@
         <v>1264</v>
       </c>
       <c r="C185" s="49" t="str">
-        <f>VLOOKUP(B185,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B185,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Percentage of children (by sex, age groups, residence and wealth quintile) who have 3 or more children's books at home</v>
       </c>
       <c r="D185" s="25" t="str">
-        <f>VLOOKUP(B185,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B185,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>ECD_CHLD_U5_BKS-HM</v>
       </c>
       <c r="E185" s="1">
@@ -16411,7 +16642,7 @@
         <v>2148</v>
       </c>
       <c r="I185" s="25" t="str">
-        <f>VLOOKUP(H185,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H185,Source!$A$2:$G$259,3,FALSE)</f>
         <v>Helix: ECD_CHLD_U5_BKS-HM</v>
       </c>
       <c r="K185" s="1"/>
@@ -16424,11 +16655,11 @@
         <v>1266</v>
       </c>
       <c r="C186" s="49" t="str">
-        <f>VLOOKUP(B186,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B186,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Percentage of children under age 5 (by sex, residence and wealth quintile) who play with 2 or more types of playthings at home</v>
       </c>
       <c r="D186" s="25" t="str">
-        <f>VLOOKUP(B186,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B186,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>ECD_CHLD_U5_PLYTH-HM</v>
       </c>
       <c r="E186" s="1">
@@ -16445,7 +16676,7 @@
         <v>2151</v>
       </c>
       <c r="I186" s="25" t="str">
-        <f>VLOOKUP(H186,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H186,Source!$A$2:$G$259,3,FALSE)</f>
         <v>Helix: ECD_CHLD_U5_PLYTH-HM</v>
       </c>
       <c r="K186" s="1"/>
@@ -16458,11 +16689,11 @@
         <v>1268</v>
       </c>
       <c r="C187" s="49" t="str">
-        <f>VLOOKUP(B187,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B187,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Educational attainment by sex: at least completed lower secondary (ISCED 2 or higher), population 25+ years (%)</v>
       </c>
       <c r="D187" s="25" t="str">
-        <f>VLOOKUP(B187,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B187,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_EA_L2T8</v>
       </c>
       <c r="E187" s="1">
@@ -16479,7 +16710,7 @@
         <v>2152</v>
       </c>
       <c r="I187" s="25" t="str">
-        <f>VLOOKUP(H187,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H187,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_EA_L2T8</v>
       </c>
       <c r="K187" s="1"/>
@@ -16492,11 +16723,11 @@
         <v>1270</v>
       </c>
       <c r="C188" s="49" t="str">
-        <f>VLOOKUP(B188,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B188,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Administration of nationally representative learning assessment in reading (Grade 2 or 3)</v>
       </c>
       <c r="D188" s="25" t="str">
-        <f>VLOOKUP(B188,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B188,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_ADMIN_L1_G2OR3_REA</v>
       </c>
       <c r="E188" s="1">
@@ -16513,7 +16744,7 @@
         <v>2553</v>
       </c>
       <c r="I188" s="25" t="str">
-        <f>VLOOKUP(H188,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H188,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_ADMIN_G2OR3_REA</v>
       </c>
       <c r="K188" s="1"/>
@@ -16526,11 +16757,11 @@
         <v>1272</v>
       </c>
       <c r="C189" s="49" t="str">
-        <f>VLOOKUP(B189,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B189,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Administration of nationally representative learning assessment in math (Grade 2 or 3)</v>
       </c>
       <c r="D189" s="25" t="str">
-        <f>VLOOKUP(B189,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B189,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_ADMIN_L1_G2OR3_MAT</v>
       </c>
       <c r="E189" s="1">
@@ -16547,7 +16778,7 @@
         <v>2554</v>
       </c>
       <c r="I189" s="25" t="str">
-        <f>VLOOKUP(H189,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H189,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_ADMIN_G2OR3_MAT</v>
       </c>
       <c r="K189" s="1"/>
@@ -16560,11 +16791,11 @@
         <v>1274</v>
       </c>
       <c r="C190" s="49" t="str">
-        <f>VLOOKUP(B190,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B190,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 2 (%) in Mathematics</v>
       </c>
       <c r="D190" s="25" t="str">
-        <f>VLOOKUP(B190,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B190,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_PISA_MAT2</v>
       </c>
       <c r="E190" s="1">
@@ -16581,7 +16812,7 @@
         <v>2555</v>
       </c>
       <c r="I190" s="25" t="str">
-        <f>VLOOKUP(H190,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H190,Source!$A$2:$G$259,3,FALSE)</f>
         <v>WB: LO.PISA.MAT.2</v>
       </c>
       <c r="K190" s="1"/>
@@ -16594,11 +16825,11 @@
         <v>1276</v>
       </c>
       <c r="C191" s="49" t="str">
-        <f>VLOOKUP(B191,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B191,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 3 (%) in Mathematics</v>
       </c>
       <c r="D191" s="25" t="str">
-        <f>VLOOKUP(B191,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B191,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_PISA_MAT3</v>
       </c>
       <c r="E191" s="1">
@@ -16615,7 +16846,7 @@
         <v>2556</v>
       </c>
       <c r="I191" s="25" t="str">
-        <f>VLOOKUP(H191,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H191,Source!$A$2:$G$259,3,FALSE)</f>
         <v>WB: LO.PISA.MAT.3</v>
       </c>
       <c r="K191" s="1"/>
@@ -16628,11 +16859,11 @@
         <v>1278</v>
       </c>
       <c r="C192" s="49" t="str">
-        <f>VLOOKUP(B192,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B192,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 4 (%) in Mathematics</v>
       </c>
       <c r="D192" s="25" t="str">
-        <f>VLOOKUP(B192,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B192,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_PISA_MAT4</v>
       </c>
       <c r="E192" s="1">
@@ -16649,7 +16880,7 @@
         <v>2561</v>
       </c>
       <c r="I192" s="25" t="str">
-        <f>VLOOKUP(H192,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H192,Source!$A$2:$G$259,3,FALSE)</f>
         <v>WB: LO.PISA.MAT.4</v>
       </c>
       <c r="K192" s="1"/>
@@ -16662,11 +16893,11 @@
         <v>1280</v>
       </c>
       <c r="C193" s="49" t="str">
-        <f>VLOOKUP(B193,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B193,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 5 (%) in Mathematics</v>
       </c>
       <c r="D193" s="25" t="str">
-        <f>VLOOKUP(B193,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B193,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_PISA_MAT5</v>
       </c>
       <c r="E193" s="1">
@@ -16683,7 +16914,7 @@
         <v>2562</v>
       </c>
       <c r="I193" s="25" t="str">
-        <f>VLOOKUP(H193,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H193,Source!$A$2:$G$259,3,FALSE)</f>
         <v>WB: LO.PISA.MAT.5</v>
       </c>
       <c r="K193" s="1"/>
@@ -16696,11 +16927,11 @@
         <v>1282</v>
       </c>
       <c r="C194" s="49" t="str">
-        <f>VLOOKUP(B194,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B194,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 6 (%) in Mathematics</v>
       </c>
       <c r="D194" s="25" t="str">
-        <f>VLOOKUP(B194,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B194,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_PISA_MAT6</v>
       </c>
       <c r="E194" s="1">
@@ -16717,7 +16948,7 @@
         <v>2563</v>
       </c>
       <c r="I194" s="25" t="str">
-        <f>VLOOKUP(H194,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H194,Source!$A$2:$G$259,3,FALSE)</f>
         <v>WB: LO.PISA.MAT.6</v>
       </c>
       <c r="K194" s="1"/>
@@ -16730,11 +16961,11 @@
         <v>1284</v>
       </c>
       <c r="C195" s="49" t="str">
-        <f>VLOOKUP(B195,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B195,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 2 (%) in Reading</v>
       </c>
       <c r="D195" s="25" t="str">
-        <f>VLOOKUP(B195,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B195,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_PISA_REA2</v>
       </c>
       <c r="E195" s="1">
@@ -16751,7 +16982,7 @@
         <v>2564</v>
       </c>
       <c r="I195" s="25" t="str">
-        <f>VLOOKUP(H195,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H195,Source!$A$2:$G$259,3,FALSE)</f>
         <v>WB: LO.PISA.REA.2</v>
       </c>
       <c r="K195" s="1"/>
@@ -16764,11 +16995,11 @@
         <v>1286</v>
       </c>
       <c r="C196" s="49" t="str">
-        <f>VLOOKUP(B196,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B196,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 3 (%) in Reading</v>
       </c>
       <c r="D196" s="25" t="str">
-        <f>VLOOKUP(B196,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B196,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_PISA_REA3</v>
       </c>
       <c r="E196" s="1">
@@ -16785,7 +17016,7 @@
         <v>2577</v>
       </c>
       <c r="I196" s="25" t="str">
-        <f>VLOOKUP(H196,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H196,Source!$A$2:$G$259,3,FALSE)</f>
         <v>WB: LO.PISA.REA.3</v>
       </c>
       <c r="K196" s="1"/>
@@ -16798,11 +17029,11 @@
         <v>1288</v>
       </c>
       <c r="C197" s="49" t="str">
-        <f>VLOOKUP(B197,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B197,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 4 (%) in Reading</v>
       </c>
       <c r="D197" s="25" t="str">
-        <f>VLOOKUP(B197,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B197,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_PISA_REA4</v>
       </c>
       <c r="E197" s="1">
@@ -16819,7 +17050,7 @@
         <v>2587</v>
       </c>
       <c r="I197" s="25" t="str">
-        <f>VLOOKUP(H197,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H197,Source!$A$2:$G$259,3,FALSE)</f>
         <v>WB: LO.PISA.REA.4</v>
       </c>
       <c r="K197" s="1"/>
@@ -16832,11 +17063,11 @@
         <v>1290</v>
       </c>
       <c r="C198" s="49" t="str">
-        <f>VLOOKUP(B198,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B198,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 5 (%) in Reading</v>
       </c>
       <c r="D198" s="25" t="str">
-        <f>VLOOKUP(B198,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B198,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_PISA_REA5</v>
       </c>
       <c r="E198" s="1">
@@ -16853,7 +17084,7 @@
         <v>2619</v>
       </c>
       <c r="I198" s="25" t="str">
-        <f>VLOOKUP(H198,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H198,Source!$A$2:$G$259,3,FALSE)</f>
         <v>WB: LO.PISA.REA.5</v>
       </c>
       <c r="K198" s="1"/>
@@ -16866,11 +17097,11 @@
         <v>1292</v>
       </c>
       <c r="C199" s="49" t="str">
-        <f>VLOOKUP(B199,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B199,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 6 (%) in Reading</v>
       </c>
       <c r="D199" s="25" t="str">
-        <f>VLOOKUP(B199,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B199,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_PISA_REA6</v>
       </c>
       <c r="E199" s="1">
@@ -16887,7 +17118,7 @@
         <v>2620</v>
       </c>
       <c r="I199" s="25" t="str">
-        <f>VLOOKUP(H199,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H199,Source!$A$2:$G$259,3,FALSE)</f>
         <v>WB: LO.PISA.REA.6</v>
       </c>
       <c r="K199" s="1"/>
@@ -16900,11 +17131,11 @@
         <v>1293</v>
       </c>
       <c r="C200" s="49" t="str">
-        <f>VLOOKUP(B200,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B200,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 2 (%) in Science</v>
       </c>
       <c r="D200" s="25" t="str">
-        <f>VLOOKUP(B200,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B200,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_PISA_SCI2</v>
       </c>
       <c r="E200" s="1">
@@ -16921,7 +17152,7 @@
         <v>2651</v>
       </c>
       <c r="I200" s="25" t="str">
-        <f>VLOOKUP(H200,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H200,Source!$A$2:$G$259,3,FALSE)</f>
         <v>WB: LO.PISA.SCI.2</v>
       </c>
       <c r="K200" s="1"/>
@@ -16934,11 +17165,11 @@
         <v>1295</v>
       </c>
       <c r="C201" s="49" t="str">
-        <f>VLOOKUP(B201,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B201,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 3 (%) in Science</v>
       </c>
       <c r="D201" s="25" t="str">
-        <f>VLOOKUP(B201,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B201,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_PISA_SCI3</v>
       </c>
       <c r="E201" s="1">
@@ -16955,7 +17186,7 @@
         <v>2683</v>
       </c>
       <c r="I201" s="25" t="str">
-        <f>VLOOKUP(H201,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H201,Source!$A$2:$G$259,3,FALSE)</f>
         <v>WB: LO.PISA.SCI.3</v>
       </c>
       <c r="K201" s="1"/>
@@ -16968,11 +17199,11 @@
         <v>1297</v>
       </c>
       <c r="C202" s="49" t="str">
-        <f>VLOOKUP(B202,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B202,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 4 (%) in Science</v>
       </c>
       <c r="D202" s="25" t="str">
-        <f>VLOOKUP(B202,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B202,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_PISA_SCI4</v>
       </c>
       <c r="E202" s="1">
@@ -16989,7 +17220,7 @@
         <v>2684</v>
       </c>
       <c r="I202" s="25" t="str">
-        <f>VLOOKUP(H202,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H202,Source!$A$2:$G$259,3,FALSE)</f>
         <v>WB: LO.PISA.SCI.4</v>
       </c>
       <c r="K202" s="1"/>
@@ -17002,11 +17233,11 @@
         <v>1299</v>
       </c>
       <c r="C203" s="49" t="str">
-        <f>VLOOKUP(B203,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B203,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 5 (%) in Science</v>
       </c>
       <c r="D203" s="25" t="str">
-        <f>VLOOKUP(B203,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B203,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_PISA_SCI5</v>
       </c>
       <c r="E203" s="1">
@@ -17023,7 +17254,7 @@
         <v>2685</v>
       </c>
       <c r="I203" s="25" t="str">
-        <f>VLOOKUP(H203,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H203,Source!$A$2:$G$259,3,FALSE)</f>
         <v>WB: LO.PISA.SCI.5</v>
       </c>
       <c r="K203" s="1"/>
@@ -17036,11 +17267,11 @@
         <v>1301</v>
       </c>
       <c r="C204" s="49" t="str">
-        <f>VLOOKUP(B204,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B204,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 6 (%) in Science</v>
       </c>
       <c r="D204" s="25" t="str">
-        <f>VLOOKUP(B204,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B204,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDU_PISA_SCI6</v>
       </c>
       <c r="E204" s="1">
@@ -17057,7 +17288,7 @@
         <v>2728</v>
       </c>
       <c r="I204" s="25" t="str">
-        <f>VLOOKUP(H204,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H204,Source!$A$2:$G$259,3,FALSE)</f>
         <v>WB: LO.PISA.SCI.6</v>
       </c>
       <c r="K204" s="1"/>
@@ -17070,11 +17301,11 @@
         <v>1303</v>
       </c>
       <c r="C205" s="49" t="str">
-        <f>VLOOKUP(B205,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B205,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Adult literacy rate, population 15+ years by sex (%)</v>
       </c>
       <c r="D205" s="25" t="str">
-        <f>VLOOKUP(B205,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B205,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_LR_ADULT</v>
       </c>
       <c r="E205" s="1">
@@ -17091,7 +17322,7 @@
         <v>2215</v>
       </c>
       <c r="I205" s="25" t="str">
-        <f>VLOOKUP(H205,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H205,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_LR_ADULT</v>
       </c>
       <c r="K205" s="1"/>
@@ -17104,11 +17335,11 @@
         <v>1305</v>
       </c>
       <c r="C206" s="49" t="str">
-        <f>VLOOKUP(B206,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B206,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Percentage of females among repeaters in secondary education (ISCED 2 and 3)</v>
       </c>
       <c r="D206" s="25" t="str">
-        <f>VLOOKUP(B206,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B206,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_FRP_L2AND3</v>
       </c>
       <c r="E206" s="1">
@@ -17125,7 +17356,7 @@
         <v>2220</v>
       </c>
       <c r="I206" s="25" t="str">
-        <f>VLOOKUP(H206,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H206,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_FRP_L2AND3</v>
       </c>
       <c r="K206" s="1"/>
@@ -17138,11 +17369,11 @@
         <v>1307</v>
       </c>
       <c r="C207" s="49" t="str">
-        <f>VLOOKUP(B207,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B207,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Number of out-of-school children one year younger than the official entry age to primary education by sex</v>
       </c>
       <c r="D207" s="25" t="str">
-        <f>VLOOKUP(B207,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B207,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_OFST_L1_UNDER1</v>
       </c>
       <c r="E207" s="1">
@@ -17159,7 +17390,7 @@
         <v>2221</v>
       </c>
       <c r="I207" s="25" t="str">
-        <f>VLOOKUP(H207,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H207,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_OFST_L1_UNDER1</v>
       </c>
       <c r="K207" s="1"/>
@@ -17172,11 +17403,11 @@
         <v>1309</v>
       </c>
       <c r="C208" s="49" t="str">
-        <f>VLOOKUP(B208,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B208,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Out-of-school rate for children one year younger than the official entry age to primary education by sex (%)</v>
       </c>
       <c r="D208" s="25" t="str">
-        <f>VLOOKUP(B208,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B208,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_ROFST_L1_UNDER1</v>
       </c>
       <c r="E208" s="1">
@@ -17193,7 +17424,7 @@
         <v>2227</v>
       </c>
       <c r="I208" s="25" t="str">
-        <f>VLOOKUP(H208,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H208,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_ROFST_L1_UNDER1</v>
       </c>
       <c r="K208" s="1"/>
@@ -17206,11 +17437,11 @@
         <v>1311</v>
       </c>
       <c r="C209" s="49" t="str">
-        <f>VLOOKUP(B209,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B209,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Gross enrolment ratio, early childhood educational development programmes, Gender Parity Index (GPI)</v>
       </c>
       <c r="D209" s="25" t="str">
-        <f>VLOOKUP(B209,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B209,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_GER_GPI_L01</v>
       </c>
       <c r="E209" s="1">
@@ -17227,7 +17458,7 @@
         <v>2228</v>
       </c>
       <c r="I209" s="25" t="str">
-        <f>VLOOKUP(H209,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H209,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_GER_GPI_L01</v>
       </c>
       <c r="K209" s="1"/>
@@ -17240,11 +17471,11 @@
         <v>1313</v>
       </c>
       <c r="C210" s="49" t="str">
-        <f>VLOOKUP(B210,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B210,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Population of the official age for pre-primary education (number of persons, by sex)</v>
       </c>
       <c r="D210" s="25" t="str">
-        <f>VLOOKUP(B210,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B210,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_SAP_L02</v>
       </c>
       <c r="E210" s="1">
@@ -17261,7 +17492,7 @@
         <v>2229</v>
       </c>
       <c r="I210" s="25" t="str">
-        <f>VLOOKUP(H210,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H210,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_SAP_L02</v>
       </c>
       <c r="K210" s="1"/>
@@ -17274,11 +17505,11 @@
         <v>1315</v>
       </c>
       <c r="C211" s="49" t="str">
-        <f>VLOOKUP(B211,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B211,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Population of the official age for primary education (number of persons, by sex)</v>
       </c>
       <c r="D211" s="25" t="str">
-        <f>VLOOKUP(B211,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B211,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_SAP_L1</v>
       </c>
       <c r="E211" s="1">
@@ -17295,7 +17526,7 @@
         <v>2230</v>
       </c>
       <c r="I211" s="25" t="str">
-        <f>VLOOKUP(H211,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H211,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_SAP_L1</v>
       </c>
       <c r="K211" s="1"/>
@@ -17308,11 +17539,11 @@
         <v>1317</v>
       </c>
       <c r="C212" s="49" t="str">
-        <f>VLOOKUP(B212,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B212,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Population of the official age for lower secondary education (number of persons, by sex)</v>
       </c>
       <c r="D212" s="25" t="str">
-        <f>VLOOKUP(B212,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B212,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_SAP_L2</v>
       </c>
       <c r="E212" s="1">
@@ -17329,7 +17560,7 @@
         <v>2231</v>
       </c>
       <c r="I212" s="25" t="str">
-        <f>VLOOKUP(H212,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H212,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_SAP_L2</v>
       </c>
       <c r="K212" s="1"/>
@@ -17342,11 +17573,11 @@
         <v>1319</v>
       </c>
       <c r="C213" s="49" t="str">
-        <f>VLOOKUP(B213,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B213,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Population of the official age for upper secondary education (number of persons, by sex)</v>
       </c>
       <c r="D213" s="25" t="str">
-        <f>VLOOKUP(B213,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B213,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_SAP_L3</v>
       </c>
       <c r="E213" s="1">
@@ -17363,7 +17594,7 @@
         <v>2232</v>
       </c>
       <c r="I213" s="25" t="str">
-        <f>VLOOKUP(H213,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H213,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_SAP_L3</v>
       </c>
       <c r="K213" s="1"/>
@@ -17376,11 +17607,11 @@
         <v>1321</v>
       </c>
       <c r="C214" s="49" t="str">
-        <f>VLOOKUP(B214,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B214,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Population of the official age for primary and secondary education - ISCED 1 to 3 included - (number of persons, by sex)</v>
       </c>
       <c r="D214" s="25" t="str">
-        <f>VLOOKUP(B214,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B214,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_SAP_L1T3</v>
       </c>
       <c r="E214" s="1">
@@ -17397,7 +17628,7 @@
         <v>2233</v>
       </c>
       <c r="I214" s="25" t="str">
-        <f>VLOOKUP(H214,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H214,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_SAP_L1T3</v>
       </c>
       <c r="K214" s="1"/>
@@ -17410,11 +17641,11 @@
         <v>1323</v>
       </c>
       <c r="C215" s="49" t="str">
-        <f>VLOOKUP(B215,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B215,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Number of out-of-school children, adolescents and youth of primary and secondary school age (persons, by sex)</v>
       </c>
       <c r="D215" s="25" t="str">
-        <f>VLOOKUP(B215,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B215,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_OFST_L1T3</v>
       </c>
       <c r="E215" s="1">
@@ -17431,7 +17662,7 @@
         <v>2234</v>
       </c>
       <c r="I215" s="25" t="str">
-        <f>VLOOKUP(H215,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H215,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_OFST_L1T3</v>
       </c>
       <c r="K215" s="1"/>
@@ -17444,11 +17675,11 @@
         <v>1325</v>
       </c>
       <c r="C216" s="49" t="str">
-        <f>VLOOKUP(B216,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B216,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Out-of-school rate for children, adolescents and youth of primary and secondary school age (%, by sex)</v>
       </c>
       <c r="D216" s="25" t="str">
-        <f>VLOOKUP(B216,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B216,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_ROFST_L1T3</v>
       </c>
       <c r="E216" s="1">
@@ -17465,7 +17696,7 @@
         <v>2235</v>
       </c>
       <c r="I216" s="25" t="str">
-        <f>VLOOKUP(H216,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H216,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_ROFST_L1T3</v>
       </c>
       <c r="K216" s="1"/>
@@ -17478,11 +17709,11 @@
         <v>1327</v>
       </c>
       <c r="C217" s="49" t="str">
-        <f>VLOOKUP(B217,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B217,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Population of the official age for Last Grade of lower secondary education - ISCED 2, Last Grade - (number of persons, by sex)</v>
       </c>
       <c r="D217" s="25" t="str">
-        <f>VLOOKUP(B217,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B217,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_SAP_L2_GLAST</v>
       </c>
       <c r="E217" s="1">
@@ -17499,7 +17730,7 @@
         <v>2848</v>
       </c>
       <c r="I217" s="25" t="str">
-        <f>VLOOKUP(H217,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H217,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_SAP_L2_GLAST</v>
       </c>
       <c r="K217" s="1"/>
@@ -17512,11 +17743,11 @@
         <v>1329</v>
       </c>
       <c r="C218" s="49" t="str">
-        <f>VLOOKUP(B218,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B218,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Enrolment in private schools of secondary education - ISCED 2 and 3 - (% of all students enrolled in the respective level of education)</v>
       </c>
       <c r="D218" s="25" t="str">
-        <f>VLOOKUP(B218,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B218,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_PRP_L2AND3</v>
       </c>
       <c r="E218" s="1">
@@ -17533,7 +17764,7 @@
         <v>2849</v>
       </c>
       <c r="I218" s="25" t="str">
-        <f>VLOOKUP(H218,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H218,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_PRP_L2AND3</v>
       </c>
       <c r="K218" s="1"/>
@@ -17546,11 +17777,11 @@
         <v>1331</v>
       </c>
       <c r="C219" s="49" t="str">
-        <f>VLOOKUP(B219,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B219,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Enrolment in secondary education - ISCED 2 and 3 - private institutions (number of persons, by sex)</v>
       </c>
       <c r="D219" s="25" t="str">
-        <f>VLOOKUP(B219,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B219,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EDUNF_STU_L2AND3_PRV</v>
       </c>
       <c r="E219" s="1">
@@ -17567,7 +17798,7 @@
         <v>2850</v>
       </c>
       <c r="I219" s="25" t="str">
-        <f>VLOOKUP(H219,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H219,Source!$A$2:$G$259,3,FALSE)</f>
         <v>UIS: EDUNF_STU_L2AND3_PRV</v>
       </c>
       <c r="K219" s="1"/>
@@ -17580,11 +17811,11 @@
         <v>1333</v>
       </c>
       <c r="C220" s="56" t="str">
-        <f>VLOOKUP(B220,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B220,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Proportion of population covered by at least one social protection benefit (%)</v>
       </c>
       <c r="D220" s="25" t="str">
-        <f>VLOOKUP(B220,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B220,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>SP_SI_COV_BENFTS</v>
       </c>
       <c r="E220" s="1">
@@ -17601,7 +17832,7 @@
         <v>2851</v>
       </c>
       <c r="I220" s="25" t="str">
-        <f>VLOOKUP(H220,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H220,Source!$A$2:$G$259,3,FALSE)</f>
         <v>SDG: SI_COV_BENFTS</v>
       </c>
       <c r="K220" s="1"/>
@@ -17614,11 +17845,11 @@
         <v>1335</v>
       </c>
       <c r="C221" s="56" t="str">
-        <f>VLOOKUP(B221,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B221,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Proportion of population covered by labour market programs (% by wealth quintile)</v>
       </c>
       <c r="D221" s="25" t="str">
-        <f>VLOOKUP(B221,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B221,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>SP_SI_COV_LMKT</v>
       </c>
       <c r="E221" s="1">
@@ -17635,7 +17866,7 @@
         <v>2868</v>
       </c>
       <c r="I221" s="25" t="str">
-        <f>VLOOKUP(H221,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H221,Source!$A$2:$G$259,3,FALSE)</f>
         <v>SDG: SI_COV_LMKT</v>
       </c>
       <c r="K221" s="1"/>
@@ -17648,11 +17879,11 @@
         <v>1337</v>
       </c>
       <c r="C222" s="56" t="str">
-        <f>VLOOKUP(B222,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B222,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Proportion of population covered by social assistance programs (% by wealth quintile)</v>
       </c>
       <c r="D222" s="25" t="str">
-        <f>VLOOKUP(B222,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B222,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>SP_SI_COV_SOCAST</v>
       </c>
       <c r="E222" s="1">
@@ -17669,7 +17900,7 @@
         <v>2869</v>
       </c>
       <c r="I222" s="25" t="str">
-        <f>VLOOKUP(H222,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H222,Source!$A$2:$G$259,3,FALSE)</f>
         <v>SDG: SI_COV_SOCAST</v>
       </c>
       <c r="K222" s="1"/>
@@ -17682,11 +17913,11 @@
         <v>1339</v>
       </c>
       <c r="C223" s="56" t="str">
-        <f>VLOOKUP(B223,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B223,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Proportion of population covered by social insurance programs (% by wealth quintile)</v>
       </c>
       <c r="D223" s="25" t="str">
-        <f>VLOOKUP(B223,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B223,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>SP_SI_COV_SOCINS</v>
       </c>
       <c r="E223" s="1">
@@ -17703,7 +17934,7 @@
         <v>2875</v>
       </c>
       <c r="I223" s="25" t="str">
-        <f>VLOOKUP(H223,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H223,Source!$A$2:$G$259,3,FALSE)</f>
         <v>SDG: SI_COV_SOCINS</v>
       </c>
       <c r="K223" s="1"/>
@@ -17716,11 +17947,11 @@
         <v>1341</v>
       </c>
       <c r="C224" s="56" t="str">
-        <f>VLOOKUP(B224,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B224,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Proportion of employed population covered in the event of work injury (%)</v>
       </c>
       <c r="D224" s="25" t="str">
-        <f>VLOOKUP(B224,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B224,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>SP_SI_COV_WKINJRY</v>
       </c>
       <c r="E224" s="1">
@@ -17737,7 +17968,7 @@
         <v>2881</v>
       </c>
       <c r="I224" s="25" t="str">
-        <f>VLOOKUP(H224,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H224,Source!$A$2:$G$259,3,FALSE)</f>
         <v>SDG: SI_COV_WKINJRY</v>
       </c>
       <c r="K224" s="1"/>
@@ -17750,11 +17981,11 @@
         <v>1343</v>
       </c>
       <c r="C225" s="56" t="str">
-        <f>VLOOKUP(B225,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B225,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Proportion of children/households receiving child/family cash benefit (%)</v>
       </c>
       <c r="D225" s="25" t="str">
-        <f>VLOOKUP(B225,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B225,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>SP_SI_COV_CHLD</v>
       </c>
       <c r="E225" s="1">
@@ -17771,7 +18002,7 @@
         <v>2903</v>
       </c>
       <c r="I225" s="25" t="str">
-        <f>VLOOKUP(H225,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H225,Source!$A$2:$G$259,3,FALSE)</f>
         <v>SDG: SI_COV_CHLD</v>
       </c>
       <c r="K225" s="1"/>
@@ -17784,11 +18015,11 @@
         <v>1345</v>
       </c>
       <c r="C226" s="56" t="str">
-        <f>VLOOKUP(B226,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B226,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Proportion of population with severe disabilities receiving disability cash benefit (% by sex)</v>
       </c>
       <c r="D226" s="25" t="str">
-        <f>VLOOKUP(B226,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B226,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>SP_SI_COV_DISAB</v>
       </c>
       <c r="E226" s="1">
@@ -17805,7 +18036,7 @@
         <v>2904</v>
       </c>
       <c r="I226" s="25" t="str">
-        <f>VLOOKUP(H226,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H226,Source!$A$2:$G$259,3,FALSE)</f>
         <v>SDG: SI_COV_DISAB</v>
       </c>
       <c r="K226" s="1"/>
@@ -17818,11 +18049,11 @@
         <v>1347</v>
       </c>
       <c r="C227" s="56" t="str">
-        <f>VLOOKUP(B227,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B227,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Proportion of mothers with newborns receiving maternity cash benefit (%)</v>
       </c>
       <c r="D227" s="25" t="str">
-        <f>VLOOKUP(B227,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B227,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>SP_SI_COV_MATNL</v>
       </c>
       <c r="E227" s="1">
@@ -17839,7 +18070,7 @@
         <v>2905</v>
       </c>
       <c r="I227" s="25" t="str">
-        <f>VLOOKUP(H227,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H227,Source!$A$2:$G$259,3,FALSE)</f>
         <v>SDG: SI_COV_MATNL</v>
       </c>
       <c r="K227" s="1"/>
@@ -17852,11 +18083,11 @@
         <v>1349</v>
       </c>
       <c r="C228" s="56" t="str">
-        <f>VLOOKUP(B228,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B228,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Proportion of poor population receiving social assistance cash benefit (%)</v>
       </c>
       <c r="D228" s="25" t="str">
-        <f>VLOOKUP(B228,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B228,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>SP_SI_COV_POOR</v>
       </c>
       <c r="E228" s="1">
@@ -17873,7 +18104,7 @@
         <v>2956</v>
       </c>
       <c r="I228" s="25" t="str">
-        <f>VLOOKUP(H228,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H228,Source!$A$2:$G$259,3,FALSE)</f>
         <v>SDG: SI_COV_POOR</v>
       </c>
       <c r="K228" s="1"/>
@@ -17886,11 +18117,11 @@
         <v>1351</v>
       </c>
       <c r="C229" s="56" t="str">
-        <f>VLOOKUP(B229,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B229,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Proportion of unemployed persons receiving unemployment cash benefit (% by sex)</v>
       </c>
       <c r="D229" s="25" t="str">
-        <f>VLOOKUP(B229,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B229,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>SP_SI_COV_UEMP</v>
       </c>
       <c r="E229" s="1">
@@ -17907,7 +18138,7 @@
         <v>2957</v>
       </c>
       <c r="I229" s="25" t="str">
-        <f>VLOOKUP(H229,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H229,Source!$A$2:$G$259,3,FALSE)</f>
         <v>SDG: SI_COV_UEMP</v>
       </c>
       <c r="K229" s="1"/>
@@ -17920,11 +18151,11 @@
         <v>1353</v>
       </c>
       <c r="C230" s="56" t="str">
-        <f>VLOOKUP(B230,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B230,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Proportion of vulnerable population receiving social assistance cash benefit (% by sex)</v>
       </c>
       <c r="D230" s="25" t="str">
-        <f>VLOOKUP(B230,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B230,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>SP_SI_COV_VULN</v>
       </c>
       <c r="E230" s="1">
@@ -17941,7 +18172,7 @@
         <v>2958</v>
       </c>
       <c r="I230" s="25" t="str">
-        <f>VLOOKUP(H230,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H230,Source!$A$2:$G$259,3,FALSE)</f>
         <v>SDG: SI_COV_VULN</v>
       </c>
       <c r="K230" s="1"/>
@@ -17954,11 +18185,11 @@
         <v>1355</v>
       </c>
       <c r="C231" s="56" t="str">
-        <f>VLOOKUP(B231,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B231,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Proportion of population above statutory pensionable age receiving a pension (% by sex)</v>
       </c>
       <c r="D231" s="25" t="str">
-        <f>VLOOKUP(B231,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B231,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>SP_SI_COV_PENSN</v>
       </c>
       <c r="E231" s="1">
@@ -17975,7 +18206,7 @@
         <v>2959</v>
       </c>
       <c r="I231" s="25" t="str">
-        <f>VLOOKUP(H231,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H231,Source!$A$2:$G$259,3,FALSE)</f>
         <v>SDG: SI_COV_PENSN</v>
       </c>
       <c r="K231" s="1"/>
@@ -17988,11 +18219,11 @@
         <v>1357</v>
       </c>
       <c r="C232" s="58" t="str">
-        <f>VLOOKUP(B232,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B232,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>GDP growth (annual %)</v>
       </c>
       <c r="D232" s="25" t="str">
-        <f>VLOOKUP(B232,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B232,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EC_NY_GDP_MKTP_KD_ZG</v>
       </c>
       <c r="E232" s="1">
@@ -18009,7 +18240,7 @@
         <v>2960</v>
       </c>
       <c r="I232" s="25" t="str">
-        <f>VLOOKUP(H232,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H232,Source!$A$2:$G$259,3,FALSE)</f>
         <v>WB: NY.GDP.MKTP.KD.ZG</v>
       </c>
       <c r="K232" s="1"/>
@@ -18022,11 +18253,11 @@
         <v>1359</v>
       </c>
       <c r="C233" s="58" t="str">
-        <f>VLOOKUP(B233,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B233,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>GDP per capita growth (annual %)</v>
       </c>
       <c r="D233" s="25" t="str">
-        <f>VLOOKUP(B233,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B233,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EC_NY_GDP_PCAP_KD_ZG</v>
       </c>
       <c r="E233" s="1">
@@ -18043,7 +18274,7 @@
         <v>2961</v>
       </c>
       <c r="I233" s="25" t="str">
-        <f>VLOOKUP(H233,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H233,Source!$A$2:$G$259,3,FALSE)</f>
         <v>WB: NY.GDP.PCAP.KD.ZG</v>
       </c>
       <c r="K233" s="1"/>
@@ -18056,11 +18287,11 @@
         <v>1361</v>
       </c>
       <c r="C234" s="58" t="str">
-        <f>VLOOKUP(B234,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B234,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Gross national expenditure (% of GDP)</v>
       </c>
       <c r="D234" s="25" t="str">
-        <f>VLOOKUP(B234,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B234,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EC_NE_DAB_TOTL_ZS</v>
       </c>
       <c r="E234" s="1">
@@ -18077,7 +18308,7 @@
         <v>2962</v>
       </c>
       <c r="I234" s="25" t="str">
-        <f>VLOOKUP(H234,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H234,Source!$A$2:$G$259,3,FALSE)</f>
         <v>WB: NE.DAB.TOTL.ZS</v>
       </c>
       <c r="K234" s="1"/>
@@ -18090,11 +18321,11 @@
         <v>1363</v>
       </c>
       <c r="C235" s="58" t="str">
-        <f>VLOOKUP(B235,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B235,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Total government revenue (budgetary central government) as a proportion of GDP (%)</v>
       </c>
       <c r="D235" s="25" t="str">
-        <f>VLOOKUP(B235,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B235,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EC_GR_G14_GDP</v>
       </c>
       <c r="E235" s="1">
@@ -18111,7 +18342,7 @@
         <v>2963</v>
       </c>
       <c r="I235" s="25" t="str">
-        <f>VLOOKUP(H235,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H235,Source!$A$2:$G$259,3,FALSE)</f>
         <v>SDG: GR_G14_GDP</v>
       </c>
       <c r="K235" s="1"/>
@@ -18124,11 +18355,11 @@
         <v>1365</v>
       </c>
       <c r="C236" s="58" t="str">
-        <f>VLOOKUP(B236,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B236,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>GDP per capita, PPP (current international $)</v>
       </c>
       <c r="D236" s="25" t="str">
-        <f>VLOOKUP(B236,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B236,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EC_NY_GDP_PCAP_PP_CD</v>
       </c>
       <c r="E236" s="1">
@@ -18145,7 +18376,7 @@
         <v>2964</v>
       </c>
       <c r="I236" s="25" t="str">
-        <f>VLOOKUP(H236,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H236,Source!$A$2:$G$259,3,FALSE)</f>
         <v>WB: NY.GDP.PCAP.PP.CD</v>
       </c>
       <c r="K236" s="1"/>
@@ -18158,11 +18389,11 @@
         <v>1367</v>
       </c>
       <c r="C237" s="58" t="str">
-        <f>VLOOKUP(B237,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B237,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>GNI, Atlas method (current US$)</v>
       </c>
       <c r="D237" s="25" t="str">
-        <f>VLOOKUP(B237,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B237,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EC_NY_GNP_ATLS_CD</v>
       </c>
       <c r="E237" s="1">
@@ -18179,7 +18410,7 @@
         <v>2965</v>
       </c>
       <c r="I237" s="25" t="str">
-        <f>VLOOKUP(H237,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H237,Source!$A$2:$G$259,3,FALSE)</f>
         <v>WB: NY.GNP.ATLS.CD</v>
       </c>
       <c r="K237" s="1"/>
@@ -18192,11 +18423,11 @@
         <v>1369</v>
       </c>
       <c r="C238" s="58" t="str">
-        <f>VLOOKUP(B238,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B238,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>GNI per capita, Atlas method (current US$)</v>
       </c>
       <c r="D238" s="25" t="str">
-        <f>VLOOKUP(B238,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B238,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EC_NY_GNP_PCAP_CD</v>
       </c>
       <c r="E238" s="1">
@@ -18213,7 +18444,7 @@
         <v>2966</v>
       </c>
       <c r="I238" s="25" t="str">
-        <f>VLOOKUP(H238,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H238,Source!$A$2:$G$259,3,FALSE)</f>
         <v>WB: NY.GNP.PCAP.CD</v>
       </c>
       <c r="K238" s="1"/>
@@ -18226,11 +18457,11 @@
         <v>1371</v>
       </c>
       <c r="C239" s="58" t="str">
-        <f>VLOOKUP(B239,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B239,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Central government debt, total (% of GDP)</v>
       </c>
       <c r="D239" s="25" t="str">
-        <f>VLOOKUP(B239,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B239,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EC_GC_DOD_TOTL_GD_ZS</v>
       </c>
       <c r="E239" s="1">
@@ -18247,7 +18478,7 @@
         <v>2967</v>
       </c>
       <c r="I239" s="25" t="str">
-        <f>VLOOKUP(H239,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H239,Source!$A$2:$G$259,3,FALSE)</f>
         <v>WB: GC.DOD.TOTL.GD.ZS</v>
       </c>
       <c r="K239" s="1"/>
@@ -18260,11 +18491,11 @@
         <v>507</v>
       </c>
       <c r="C240" s="58" t="str">
-        <f>VLOOKUP(B240,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B240,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Gini index (World Bank estimate)</v>
       </c>
       <c r="D240" s="25" t="str">
-        <f>VLOOKUP(B240,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B240,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EC_SP_POV_GINI</v>
       </c>
       <c r="E240" s="1">
@@ -18281,7 +18512,7 @@
         <v>2968</v>
       </c>
       <c r="I240" s="25" t="str">
-        <f>VLOOKUP(H240,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H240,Source!$A$2:$G$259,3,FALSE)</f>
         <v>WB: SI.POV.GINI</v>
       </c>
       <c r="K240" s="1"/>
@@ -18294,11 +18525,11 @@
         <v>510</v>
       </c>
       <c r="C241" s="58" t="str">
-        <f>VLOOKUP(B241,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B241,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Unemployment, national estimate (% of total labor force, by sex)</v>
       </c>
       <c r="D241" s="25" t="str">
-        <f>VLOOKUP(B241,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B241,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EC_SL_UEM_TOTL_NE_ZS</v>
       </c>
       <c r="E241" s="1">
@@ -18315,7 +18546,7 @@
         <v>3054</v>
       </c>
       <c r="I241" s="25" t="str">
-        <f>VLOOKUP(H241,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H241,Source!$A$2:$G$259,3,FALSE)</f>
         <v>WB: SL.UEM.TOTL.NE.ZS</v>
       </c>
       <c r="K241" s="1"/>
@@ -18328,11 +18559,11 @@
         <v>1375</v>
       </c>
       <c r="C242" s="58" t="str">
-        <f>VLOOKUP(B242,Indicator!$A$2:$F$719,5,FALSE)</f>
+        <f>VLOOKUP(B242,Indicator!$A$2:$F$729,5,FALSE)</f>
         <v>Unemployment, modelled ILO estimate (% of total labor force, by sex)</v>
       </c>
       <c r="D242" s="25" t="str">
-        <f>VLOOKUP(B242,Indicator!$A$2:$F$719,6,FALSE)</f>
+        <f>VLOOKUP(B242,Indicator!$A$2:$F$729,6,FALSE)</f>
         <v>EC_SL_UEM_TOTL_ZS</v>
       </c>
       <c r="E242" s="1">
@@ -18349,173 +18580,463 @@
         <v>3055</v>
       </c>
       <c r="I242" s="25" t="str">
-        <f>VLOOKUP(H242,Source!$A$2:$G$249,3,FALSE)</f>
+        <f>VLOOKUP(H242,Source!$A$2:$G$259,3,FALSE)</f>
         <v>WB: SL.UEM.TOTL.ZS</v>
       </c>
       <c r="K242" s="1"/>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A243" s="1" t="s">
+        <v>3076</v>
+      </c>
+      <c r="B243" s="16" t="s">
+        <v>513</v>
+      </c>
+      <c r="C243" s="58" t="str">
+        <f>VLOOKUP(B243,Indicator!$A$2:$F$729,5,FALSE)</f>
+        <v>Refugee population by country or territory of asylum</v>
+      </c>
+      <c r="D243" s="25" t="str">
+        <f>VLOOKUP(B243,Indicator!$A$2:$F$729,6,FALSE)</f>
+        <v>DM_SM_POP_REFG</v>
+      </c>
+      <c r="E243" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F243" s="1"/>
+      <c r="G243" s="1"/>
+      <c r="H243" s="1" t="s">
+        <v>3056</v>
+      </c>
+      <c r="I243" s="25" t="str">
+        <f>VLOOKUP(H243,Source!$A$2:$G$259,3,FALSE)</f>
+        <v>WB: SM.POP.REFG</v>
+      </c>
+      <c r="K243" s="1"/>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
-        <v>3076</v>
+        <v>3077</v>
       </c>
       <c r="B244" s="16" t="s">
-        <v>1479</v>
-      </c>
-      <c r="C244" s="55" t="str">
-        <f>VLOOKUP(B244,Indicator!$A$2:$F$719,5,FALSE)</f>
-        <v>Percentage of children (by sex, age groups, residence and wealth quintile) whose births are registered</v>
+        <v>1378</v>
+      </c>
+      <c r="C244" s="58" t="str">
+        <f>VLOOKUP(B244,Indicator!$A$2:$F$729,5,FALSE)</f>
+        <v>Refugee population by country or territory of origin</v>
       </c>
       <c r="D244" s="25" t="str">
-        <f>VLOOKUP(B244,Indicator!$A$2:$F$719,6,FALSE)</f>
-        <v>PT_CHLD_Y0T4_REG</v>
+        <f>VLOOKUP(B244,Indicator!$A$2:$F$729,6,FALSE)</f>
+        <v>DM_SM_POP_REFG_OR</v>
       </c>
       <c r="E244" s="1">
-        <v>2020</v>
-      </c>
-      <c r="F244" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="G244" s="1" t="str">
-        <f>VLOOKUP(F244,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>PCNT</v>
-      </c>
+        <v>2021</v>
+      </c>
+      <c r="F244" s="1"/>
+      <c r="G244" s="1"/>
       <c r="H244" s="1" t="s">
-        <v>3056</v>
+        <v>3057</v>
       </c>
       <c r="I244" s="25" t="str">
         <f>VLOOKUP(H244,Source!$A$2:$G$259,3,FALSE)</f>
-        <v>Helix: PT_CHLD_Y0T4_REG</v>
-      </c>
+        <v>WB: SM.POP.REFG.OR</v>
+      </c>
+      <c r="K244" s="1"/>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
-        <v>3077</v>
+        <v>3078</v>
       </c>
       <c r="B245" s="16" t="s">
-        <v>1481</v>
-      </c>
-      <c r="C245" s="55" t="str">
-        <f>VLOOKUP(B245,Indicator!$A$2:$F$719,5,FALSE)</f>
-        <v>Percentage of children (by sex, age groups, residence and wealth quintile) who experienced any physical punishment and/or psychological aggression by caregivers</v>
+        <v>1380</v>
+      </c>
+      <c r="C245" s="58" t="str">
+        <f>VLOOKUP(B245,Indicator!$A$2:$F$729,5,FALSE)</f>
+        <v>Number of deaths and missing persons attributed to disasters (per 100,000 population)</v>
       </c>
       <c r="D245" s="25" t="str">
-        <f>VLOOKUP(B245,Indicator!$A$2:$F$719,6,FALSE)</f>
-        <v>PT_CHLD_1-14_PS-PSY-V_CGVR</v>
+        <f>VLOOKUP(B245,Indicator!$A$2:$F$729,6,FALSE)</f>
+        <v>CR_VC_DSR_MTMP</v>
       </c>
       <c r="E245" s="1">
-        <v>2020</v>
-      </c>
-      <c r="F245" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="G245" s="1" t="str">
-        <f>VLOOKUP(F245,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>PCNT</v>
-      </c>
+        <v>2021</v>
+      </c>
+      <c r="F245" s="1"/>
+      <c r="G245" s="1"/>
       <c r="H245" s="1" t="s">
-        <v>3057</v>
+        <v>3058</v>
       </c>
       <c r="I245" s="25" t="str">
         <f>VLOOKUP(H245,Source!$A$2:$G$259,3,FALSE)</f>
-        <v>Helix: PT_CHLD_1-14_PS-PSY-V_CGVR</v>
-      </c>
+        <v>SDG: VC_DSR_MTMP</v>
+      </c>
+      <c r="K245" s="1"/>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
-        <v>3078</v>
+        <v>3079</v>
       </c>
       <c r="B246" s="16" t="s">
-        <v>1485</v>
-      </c>
-      <c r="C246" s="55" t="str">
-        <f>VLOOKUP(B246,Indicator!$A$2:$F$719,5,FALSE)</f>
-        <v>Percentage of children under age 5 (by sex, residence and wealth quintile) left alone or under the supervision of another child younger than 10 years of age for more than 1 hour at least once in the last week</v>
+        <v>1382</v>
+      </c>
+      <c r="C246" s="58" t="str">
+        <f>VLOOKUP(B246,Indicator!$A$2:$F$729,5,FALSE)</f>
+        <v>Number of directly affected persons attributed to disasters (per 100,000 population)</v>
       </c>
       <c r="D246" s="25" t="str">
-        <f>VLOOKUP(B246,Indicator!$A$2:$F$719,6,FALSE)</f>
-        <v>ECD_CHLD_U5_LFT-ALN</v>
+        <f>VLOOKUP(B246,Indicator!$A$2:$F$729,6,FALSE)</f>
+        <v>CR_VC_DSR_DAFF</v>
       </c>
       <c r="E246" s="1">
-        <v>2020</v>
-      </c>
-      <c r="F246" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="G246" s="1" t="str">
-        <f>VLOOKUP(F246,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>PCNT</v>
-      </c>
+        <v>2021</v>
+      </c>
+      <c r="F246" s="1"/>
+      <c r="G246" s="1"/>
       <c r="H246" s="1" t="s">
-        <v>3058</v>
+        <v>3059</v>
       </c>
       <c r="I246" s="25" t="str">
         <f>VLOOKUP(H246,Source!$A$2:$G$259,3,FALSE)</f>
-        <v>Helix: ECD_CHLD_U5_LFT-ALN</v>
-      </c>
+        <v>SDG: VC_DSR_DAFF</v>
+      </c>
+      <c r="K246" s="1"/>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
-        <v>3079</v>
+        <v>3093</v>
       </c>
       <c r="B247" s="16" t="s">
-        <v>1862</v>
-      </c>
-      <c r="C247" s="55" t="str">
-        <f>VLOOKUP(B247,Indicator!$A$2:$F$719,5,FALSE)</f>
-        <v>Maternity leave benefits</v>
+        <v>1384</v>
+      </c>
+      <c r="C247" s="58" t="str">
+        <f>VLOOKUP(B247,Indicator!$A$2:$F$729,5,FALSE)</f>
+        <v>Crude death rate attributed to household and ambient air pollution (deaths per 100,000 population)</v>
       </c>
       <c r="D247" s="25" t="str">
-        <f>VLOOKUP(B247,Indicator!$A$2:$F$719,6,FALSE)</f>
-        <v>GN_MTNTY_LV_BNFTS</v>
+        <f>VLOOKUP(B247,Indicator!$A$2:$F$729,6,FALSE)</f>
+        <v>CR_SH_STA_AIRP</v>
       </c>
       <c r="E247" s="1">
-        <v>2020</v>
-      </c>
-      <c r="F247" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="G247" s="1" t="str">
-        <f>VLOOKUP(F247,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>BINARY</v>
-      </c>
+        <v>2021</v>
+      </c>
+      <c r="F247" s="1"/>
+      <c r="G247" s="1"/>
       <c r="H247" s="1" t="s">
-        <v>3059</v>
+        <v>3060</v>
       </c>
       <c r="I247" s="25" t="str">
         <f>VLOOKUP(H247,Source!$A$2:$G$259,3,FALSE)</f>
-        <v>Helix: GN_MTNTY_LV_BNFTS</v>
-      </c>
+        <v>SDG: SH_STA_AIRP</v>
+      </c>
+      <c r="K247" s="1"/>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
-        <v>3093</v>
+        <v>3161</v>
       </c>
       <c r="B248" s="16" t="s">
-        <v>1864</v>
-      </c>
-      <c r="C248" s="55" t="str">
-        <f>VLOOKUP(B248,Indicator!$A$2:$F$719,5,FALSE)</f>
-        <v>Paternity leave benefits</v>
+        <v>1386</v>
+      </c>
+      <c r="C248" s="58" t="str">
+        <f>VLOOKUP(B248,Indicator!$A$2:$F$729,5,FALSE)</f>
+        <v>Age-standardized mortality rate attributed to household and ambient air pollution (deaths per 100,000 population)</v>
       </c>
       <c r="D248" s="25" t="str">
-        <f>VLOOKUP(B248,Indicator!$A$2:$F$719,6,FALSE)</f>
-        <v>GN_PTNTY_LV_BNFTS</v>
+        <f>VLOOKUP(B248,Indicator!$A$2:$F$729,6,FALSE)</f>
+        <v>CR_SH_STA_ASAIRP</v>
       </c>
       <c r="E248" s="1">
-        <v>2020</v>
-      </c>
-      <c r="F248" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="G248" s="1" t="str">
-        <f>VLOOKUP(F248,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>BINARY</v>
-      </c>
+        <v>2021</v>
+      </c>
+      <c r="F248" s="1"/>
+      <c r="G248" s="1"/>
       <c r="H248" s="1" t="s">
-        <v>3060</v>
+        <v>3061</v>
       </c>
       <c r="I248" s="25" t="str">
         <f>VLOOKUP(H248,Source!$A$2:$G$259,3,FALSE)</f>
+        <v>SDG: SH_STA_ASAIRP</v>
+      </c>
+      <c r="K248" s="1"/>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A249" s="1" t="s">
+        <v>3162</v>
+      </c>
+      <c r="B249" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C249" s="58" t="str">
+        <f>VLOOKUP(B249,Indicator!$A$2:$F$729,5,FALSE)</f>
+        <v>Proportion of population with primary reliance on clean fuels and technology (%)</v>
+      </c>
+      <c r="D249" s="25" t="str">
+        <f>VLOOKUP(B249,Indicator!$A$2:$F$729,6,FALSE)</f>
+        <v>CR_EG_EGY_CLEAN</v>
+      </c>
+      <c r="E249" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F249" s="1"/>
+      <c r="G249" s="1"/>
+      <c r="H249" s="1" t="s">
+        <v>3091</v>
+      </c>
+      <c r="I249" s="25" t="str">
+        <f>VLOOKUP(H249,Source!$A$2:$G$259,3,FALSE)</f>
+        <v>SDG: EG_EGY_CLEAN</v>
+      </c>
+      <c r="K249" s="1"/>
+    </row>
+    <row r="250" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A250" s="1" t="s">
+        <v>3163</v>
+      </c>
+      <c r="B250" s="16" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C250" s="58" t="str">
+        <f>VLOOKUP(B250,Indicator!$A$2:$F$729,5,FALSE)</f>
+        <v>Proportion of population with access to electricity (% by residence)</v>
+      </c>
+      <c r="D250" s="25" t="str">
+        <f>VLOOKUP(B250,Indicator!$A$2:$F$729,6,FALSE)</f>
+        <v>CR_EG_ACS_ELEC</v>
+      </c>
+      <c r="E250" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F250" s="1"/>
+      <c r="G250" s="1"/>
+      <c r="H250" s="1" t="s">
+        <v>3141</v>
+      </c>
+      <c r="I250" s="25" t="str">
+        <f>VLOOKUP(H250,Source!$A$2:$G$259,3,FALSE)</f>
+        <v>SDG: EG_ACS_ELEC</v>
+      </c>
+      <c r="K250" s="1"/>
+    </row>
+    <row r="251" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A251" s="1" t="s">
+        <v>3164</v>
+      </c>
+      <c r="B251" s="16" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C251" s="58" t="str">
+        <f>VLOOKUP(B251,Indicator!$A$2:$F$729,5,FALSE)</f>
+        <v>Countries reporting to have a National DRR Strategy which is aligned to the Sendai Framework</v>
+      </c>
+      <c r="D251" s="25" t="str">
+        <f>VLOOKUP(B251,Indicator!$A$2:$F$729,6,FALSE)</f>
+        <v>CR_SG_DSR_SFDRR</v>
+      </c>
+      <c r="E251" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F251" s="1"/>
+      <c r="G251" s="1"/>
+      <c r="H251" s="1" t="s">
+        <v>3142</v>
+      </c>
+      <c r="I251" s="25" t="str">
+        <f>VLOOKUP(H251,Source!$A$2:$G$259,3,FALSE)</f>
+        <v>SDG: SG_DSR_SFDRR</v>
+      </c>
+      <c r="K251" s="1"/>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A252" s="1" t="s">
+        <v>3165</v>
+      </c>
+      <c r="B252" s="16" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C252" s="58" t="str">
+        <f>VLOOKUP(B252,Indicator!$A$2:$F$729,5,FALSE)</f>
+        <v>Score of adoption and implementation of national DRR strategies in line with the Sendai Framework</v>
+      </c>
+      <c r="D252" s="25" t="str">
+        <f>VLOOKUP(B252,Indicator!$A$2:$F$729,6,FALSE)</f>
+        <v>CR_SG_DSR_LGRGSR</v>
+      </c>
+      <c r="E252" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F252" s="1"/>
+      <c r="G252" s="1"/>
+      <c r="H252" s="1" t="s">
+        <v>3143</v>
+      </c>
+      <c r="I252" s="25" t="str">
+        <f>VLOOKUP(H252,Source!$A$2:$G$259,3,FALSE)</f>
+        <v>SDG: SG_DSR_LGRGSR</v>
+      </c>
+      <c r="K252" s="1"/>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A254" s="1" t="s">
+        <v>3166</v>
+      </c>
+      <c r="B254" s="16" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C254" s="55" t="str">
+        <f>VLOOKUP(B254,Indicator!$A$2:$F$729,5,FALSE)</f>
+        <v>Percentage of children (by sex, age groups, residence and wealth quintile) whose births are registered</v>
+      </c>
+      <c r="D254" s="25" t="str">
+        <f>VLOOKUP(B254,Indicator!$A$2:$F$729,6,FALSE)</f>
+        <v>PT_CHLD_Y0T4_REG</v>
+      </c>
+      <c r="E254" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G254" s="1" t="str">
+        <f>VLOOKUP(F254,Value_type!$A$2:$I$107,3,FALSE)</f>
+        <v>PCNT</v>
+      </c>
+      <c r="H254" s="1" t="s">
+        <v>3144</v>
+      </c>
+      <c r="I254" s="25" t="str">
+        <f>VLOOKUP(H254,Source!$A$2:$G$269,3,FALSE)</f>
+        <v>Helix: PT_CHLD_Y0T4_REG</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A255" s="1" t="s">
+        <v>3167</v>
+      </c>
+      <c r="B255" s="16" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C255" s="55" t="str">
+        <f>VLOOKUP(B255,Indicator!$A$2:$F$729,5,FALSE)</f>
+        <v>Percentage of children (by sex, age groups, residence and wealth quintile) who experienced any physical punishment and/or psychological aggression by caregivers</v>
+      </c>
+      <c r="D255" s="25" t="str">
+        <f>VLOOKUP(B255,Indicator!$A$2:$F$729,6,FALSE)</f>
+        <v>PT_CHLD_1-14_PS-PSY-V_CGVR</v>
+      </c>
+      <c r="E255" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G255" s="1" t="str">
+        <f>VLOOKUP(F255,Value_type!$A$2:$I$107,3,FALSE)</f>
+        <v>PCNT</v>
+      </c>
+      <c r="H255" s="1" t="s">
+        <v>3145</v>
+      </c>
+      <c r="I255" s="25" t="str">
+        <f>VLOOKUP(H255,Source!$A$2:$G$269,3,FALSE)</f>
+        <v>Helix: PT_CHLD_1-14_PS-PSY-V_CGVR</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A256" s="1" t="s">
+        <v>3168</v>
+      </c>
+      <c r="B256" s="16" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C256" s="55" t="str">
+        <f>VLOOKUP(B256,Indicator!$A$2:$F$729,5,FALSE)</f>
+        <v>Percentage of children under age 5 (by sex, residence and wealth quintile) left alone or under the supervision of another child younger than 10 years of age for more than 1 hour at least once in the last week</v>
+      </c>
+      <c r="D256" s="25" t="str">
+        <f>VLOOKUP(B256,Indicator!$A$2:$F$729,6,FALSE)</f>
+        <v>ECD_CHLD_U5_LFT-ALN</v>
+      </c>
+      <c r="E256" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="G256" s="1" t="str">
+        <f>VLOOKUP(F256,Value_type!$A$2:$I$107,3,FALSE)</f>
+        <v>PCNT</v>
+      </c>
+      <c r="H256" s="1" t="s">
+        <v>3146</v>
+      </c>
+      <c r="I256" s="25" t="str">
+        <f>VLOOKUP(H256,Source!$A$2:$G$269,3,FALSE)</f>
+        <v>Helix: ECD_CHLD_U5_LFT-ALN</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A257" s="1" t="s">
+        <v>3169</v>
+      </c>
+      <c r="B257" s="16" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C257" s="55" t="str">
+        <f>VLOOKUP(B257,Indicator!$A$2:$F$729,5,FALSE)</f>
+        <v>Maternity leave benefits</v>
+      </c>
+      <c r="D257" s="25" t="str">
+        <f>VLOOKUP(B257,Indicator!$A$2:$F$729,6,FALSE)</f>
+        <v>GN_MTNTY_LV_BNFTS</v>
+      </c>
+      <c r="E257" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="G257" s="1" t="str">
+        <f>VLOOKUP(F257,Value_type!$A$2:$I$107,3,FALSE)</f>
+        <v>BINARY</v>
+      </c>
+      <c r="H257" s="1" t="s">
+        <v>3147</v>
+      </c>
+      <c r="I257" s="25" t="str">
+        <f>VLOOKUP(H257,Source!$A$2:$G$269,3,FALSE)</f>
+        <v>Helix: GN_MTNTY_LV_BNFTS</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A258" s="1" t="s">
+        <v>3170</v>
+      </c>
+      <c r="B258" s="16" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C258" s="55" t="str">
+        <f>VLOOKUP(B258,Indicator!$A$2:$F$729,5,FALSE)</f>
+        <v>Paternity leave benefits</v>
+      </c>
+      <c r="D258" s="25" t="str">
+        <f>VLOOKUP(B258,Indicator!$A$2:$F$729,6,FALSE)</f>
+        <v>GN_PTNTY_LV_BNFTS</v>
+      </c>
+      <c r="E258" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="G258" s="1" t="str">
+        <f>VLOOKUP(F258,Value_type!$A$2:$I$107,3,FALSE)</f>
+        <v>BINARY</v>
+      </c>
+      <c r="H258" s="1" t="s">
+        <v>3148</v>
+      </c>
+      <c r="I258" s="25" t="str">
+        <f>VLOOKUP(H258,Source!$A$2:$G$269,3,FALSE)</f>
         <v>Helix: GN_PTNTY_LV_BNFTS</v>
       </c>
     </row>
@@ -19054,11 +19575,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M666"/>
+  <dimension ref="A1:M676"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A650" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A299" sqref="A299:A666"/>
+      <pane ySplit="1" topLeftCell="A660" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A309" sqref="A309:A676"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25245,112 +25766,232 @@
       <c r="J297"/>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A298" s="16"/>
-      <c r="B298" s="55"/>
-      <c r="C298" s="55"/>
-      <c r="D298" s="36"/>
-      <c r="E298" s="36"/>
-      <c r="F298" s="36"/>
+      <c r="A298" s="16" t="s">
+        <v>513</v>
+      </c>
+      <c r="B298" s="25" t="s">
+        <v>948</v>
+      </c>
+      <c r="C298" s="58" t="s">
+        <v>3014</v>
+      </c>
+      <c r="D298" s="55" t="s">
+        <v>3094</v>
+      </c>
+      <c r="E298" s="59" t="s">
+        <v>3095</v>
+      </c>
+      <c r="F298" t="s">
+        <v>3096</v>
+      </c>
       <c r="I298"/>
       <c r="J298"/>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A299" s="16" t="s">
-        <v>513</v>
-      </c>
-      <c r="E299" t="s">
-        <v>1259</v>
+        <v>1378</v>
+      </c>
+      <c r="B299" s="25" t="s">
+        <v>948</v>
+      </c>
+      <c r="C299" s="58" t="s">
+        <v>3014</v>
+      </c>
+      <c r="D299" s="55" t="s">
+        <v>3094</v>
+      </c>
+      <c r="E299" s="59" t="s">
+        <v>3097</v>
+      </c>
+      <c r="F299" t="s">
+        <v>3098</v>
       </c>
       <c r="I299"/>
       <c r="J299"/>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A300" s="16" t="s">
-        <v>1378</v>
-      </c>
-      <c r="E300" t="s">
-        <v>1261</v>
+        <v>1380</v>
+      </c>
+      <c r="B300" s="25" t="s">
+        <v>948</v>
+      </c>
+      <c r="C300" s="58" t="s">
+        <v>3014</v>
+      </c>
+      <c r="D300" s="55" t="s">
+        <v>3103</v>
+      </c>
+      <c r="E300" s="59" t="s">
+        <v>3104</v>
+      </c>
+      <c r="F300" t="s">
+        <v>3105</v>
       </c>
       <c r="I300"/>
       <c r="J300"/>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A301" s="16" t="s">
-        <v>1380</v>
-      </c>
-      <c r="E301" t="s">
-        <v>1263</v>
+        <v>1382</v>
+      </c>
+      <c r="B301" s="25" t="s">
+        <v>948</v>
+      </c>
+      <c r="C301" s="58" t="s">
+        <v>3014</v>
+      </c>
+      <c r="D301" s="55" t="s">
+        <v>3103</v>
+      </c>
+      <c r="E301" s="59" t="s">
+        <v>3106</v>
+      </c>
+      <c r="F301" t="s">
+        <v>3107</v>
       </c>
       <c r="I301"/>
       <c r="J301"/>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A302" s="16" t="s">
-        <v>1382</v>
-      </c>
-      <c r="E302" t="s">
-        <v>1265</v>
+        <v>1384</v>
+      </c>
+      <c r="B302" s="25" t="s">
+        <v>948</v>
+      </c>
+      <c r="C302" s="58" t="s">
+        <v>3014</v>
+      </c>
+      <c r="D302" s="55" t="s">
+        <v>3103</v>
+      </c>
+      <c r="E302" s="59" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F302" t="s">
+        <v>3115</v>
       </c>
       <c r="I302"/>
       <c r="J302"/>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A303" s="16" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E303" t="s">
-        <v>1267</v>
+        <v>1386</v>
+      </c>
+      <c r="B303" s="25" t="s">
+        <v>948</v>
+      </c>
+      <c r="C303" s="58" t="s">
+        <v>3014</v>
+      </c>
+      <c r="D303" s="55" t="s">
+        <v>3103</v>
+      </c>
+      <c r="E303" s="59" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F303" t="s">
+        <v>3116</v>
       </c>
       <c r="I303"/>
       <c r="J303"/>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A304" s="16" t="s">
-        <v>1386</v>
-      </c>
-      <c r="E304" t="s">
-        <v>1269</v>
+        <v>1388</v>
+      </c>
+      <c r="B304" s="25" t="s">
+        <v>948</v>
+      </c>
+      <c r="C304" s="58" t="s">
+        <v>3014</v>
+      </c>
+      <c r="D304" s="55" t="s">
+        <v>3103</v>
+      </c>
+      <c r="E304" s="59" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F304" t="s">
+        <v>3123</v>
       </c>
       <c r="I304"/>
       <c r="J304"/>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A305" s="16" t="s">
-        <v>1388</v>
-      </c>
-      <c r="E305" t="s">
-        <v>1271</v>
+        <v>1390</v>
+      </c>
+      <c r="B305" s="25" t="s">
+        <v>948</v>
+      </c>
+      <c r="C305" s="58" t="s">
+        <v>3014</v>
+      </c>
+      <c r="D305" s="55" t="s">
+        <v>3103</v>
+      </c>
+      <c r="E305" s="59" t="s">
+        <v>3127</v>
+      </c>
+      <c r="F305" t="s">
+        <v>3128</v>
       </c>
       <c r="I305"/>
       <c r="J305"/>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A306" s="16" t="s">
-        <v>1390</v>
-      </c>
-      <c r="E306" t="s">
-        <v>1273</v>
+        <v>1392</v>
+      </c>
+      <c r="B306" s="25" t="s">
+        <v>948</v>
+      </c>
+      <c r="C306" s="58" t="s">
+        <v>3014</v>
+      </c>
+      <c r="D306" s="55" t="s">
+        <v>3103</v>
+      </c>
+      <c r="E306" s="59" t="s">
+        <v>3132</v>
+      </c>
+      <c r="F306" t="s">
+        <v>3134</v>
       </c>
       <c r="I306"/>
       <c r="J306"/>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A307" s="16" t="s">
-        <v>1392</v>
-      </c>
-      <c r="E307" t="s">
-        <v>1275</v>
+        <v>1394</v>
+      </c>
+      <c r="B307" s="25" t="s">
+        <v>948</v>
+      </c>
+      <c r="C307" s="58" t="s">
+        <v>3014</v>
+      </c>
+      <c r="D307" s="55" t="s">
+        <v>3103</v>
+      </c>
+      <c r="E307" s="59" t="s">
+        <v>3133</v>
+      </c>
+      <c r="F307" t="s">
+        <v>3135</v>
       </c>
       <c r="I307"/>
       <c r="J307"/>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A308" s="16" t="s">
-        <v>1394</v>
-      </c>
-      <c r="E308" t="s">
-        <v>1277</v>
-      </c>
+      <c r="A308" s="16"/>
+      <c r="B308" s="55"/>
+      <c r="C308" s="55"/>
+      <c r="D308" s="36"/>
+      <c r="E308" s="36"/>
+      <c r="F308" s="36"/>
       <c r="I308"/>
       <c r="J308"/>
     </row>
@@ -25359,7 +26000,7 @@
         <v>1396</v>
       </c>
       <c r="E309" t="s">
-        <v>1279</v>
+        <v>1259</v>
       </c>
       <c r="I309"/>
       <c r="J309"/>
@@ -25369,7 +26010,7 @@
         <v>1398</v>
       </c>
       <c r="E310" t="s">
-        <v>1281</v>
+        <v>1261</v>
       </c>
       <c r="I310"/>
       <c r="J310"/>
@@ -25379,7 +26020,7 @@
         <v>1400</v>
       </c>
       <c r="E311" t="s">
-        <v>1283</v>
+        <v>1263</v>
       </c>
       <c r="I311"/>
       <c r="J311"/>
@@ -25389,7 +26030,7 @@
         <v>1402</v>
       </c>
       <c r="E312" t="s">
-        <v>1285</v>
+        <v>1265</v>
       </c>
       <c r="I312"/>
       <c r="J312"/>
@@ -25399,7 +26040,7 @@
         <v>1404</v>
       </c>
       <c r="E313" t="s">
-        <v>1287</v>
+        <v>1267</v>
       </c>
       <c r="I313"/>
       <c r="J313"/>
@@ -25409,7 +26050,7 @@
         <v>1406</v>
       </c>
       <c r="E314" t="s">
-        <v>1289</v>
+        <v>1269</v>
       </c>
       <c r="I314"/>
       <c r="J314"/>
@@ -25419,7 +26060,7 @@
         <v>1408</v>
       </c>
       <c r="E315" t="s">
-        <v>1291</v>
+        <v>1271</v>
       </c>
       <c r="I315"/>
       <c r="J315"/>
@@ -25429,7 +26070,7 @@
         <v>1410</v>
       </c>
       <c r="E316" t="s">
-        <v>1214</v>
+        <v>1273</v>
       </c>
       <c r="I316"/>
       <c r="J316"/>
@@ -25439,7 +26080,7 @@
         <v>1412</v>
       </c>
       <c r="E317" t="s">
-        <v>1294</v>
+        <v>1275</v>
       </c>
       <c r="I317"/>
       <c r="J317"/>
@@ -25449,7 +26090,7 @@
         <v>1414</v>
       </c>
       <c r="E318" t="s">
-        <v>1296</v>
+        <v>1277</v>
       </c>
       <c r="I318"/>
       <c r="J318"/>
@@ -25459,7 +26100,7 @@
         <v>1416</v>
       </c>
       <c r="E319" t="s">
-        <v>1298</v>
+        <v>1279</v>
       </c>
       <c r="I319"/>
       <c r="J319"/>
@@ -25469,7 +26110,7 @@
         <v>1418</v>
       </c>
       <c r="E320" t="s">
-        <v>1300</v>
+        <v>1281</v>
       </c>
       <c r="I320"/>
       <c r="J320"/>
@@ -25479,7 +26120,7 @@
         <v>1420</v>
       </c>
       <c r="E321" t="s">
-        <v>1302</v>
+        <v>1283</v>
       </c>
       <c r="I321"/>
       <c r="J321"/>
@@ -25489,7 +26130,7 @@
         <v>1422</v>
       </c>
       <c r="E322" t="s">
-        <v>1304</v>
+        <v>1285</v>
       </c>
       <c r="I322"/>
       <c r="J322"/>
@@ -25499,7 +26140,7 @@
         <v>1424</v>
       </c>
       <c r="E323" t="s">
-        <v>1306</v>
+        <v>1287</v>
       </c>
       <c r="I323"/>
       <c r="J323"/>
@@ -25509,7 +26150,7 @@
         <v>1425</v>
       </c>
       <c r="E324" t="s">
-        <v>1308</v>
+        <v>1289</v>
       </c>
       <c r="I324"/>
       <c r="J324"/>
@@ -25519,7 +26160,7 @@
         <v>1426</v>
       </c>
       <c r="E325" t="s">
-        <v>1310</v>
+        <v>1291</v>
       </c>
       <c r="I325"/>
       <c r="J325"/>
@@ -25529,7 +26170,7 @@
         <v>1427</v>
       </c>
       <c r="E326" t="s">
-        <v>1312</v>
+        <v>1214</v>
       </c>
       <c r="I326"/>
       <c r="J326"/>
@@ -25539,7 +26180,7 @@
         <v>1428</v>
       </c>
       <c r="E327" t="s">
-        <v>1314</v>
+        <v>1294</v>
       </c>
       <c r="I327"/>
       <c r="J327"/>
@@ -25549,372 +26190,372 @@
         <v>1430</v>
       </c>
       <c r="E328" t="s">
-        <v>1316</v>
-      </c>
+        <v>1296</v>
+      </c>
+      <c r="I328"/>
+      <c r="J328"/>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A329" s="16" t="s">
         <v>1431</v>
       </c>
       <c r="E329" t="s">
-        <v>1318</v>
-      </c>
+        <v>1298</v>
+      </c>
+      <c r="I329"/>
+      <c r="J329"/>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A330" s="16" t="s">
         <v>1432</v>
       </c>
       <c r="E330" t="s">
-        <v>1320</v>
-      </c>
+        <v>1300</v>
+      </c>
+      <c r="I330"/>
+      <c r="J330"/>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A331" s="16" t="s">
         <v>1433</v>
       </c>
       <c r="E331" t="s">
-        <v>1322</v>
-      </c>
+        <v>1302</v>
+      </c>
+      <c r="I331"/>
+      <c r="J331"/>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A332" s="16" t="s">
         <v>1434</v>
       </c>
       <c r="E332" t="s">
-        <v>1324</v>
-      </c>
+        <v>1304</v>
+      </c>
+      <c r="I332"/>
+      <c r="J332"/>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A333" s="16" t="s">
         <v>1436</v>
       </c>
       <c r="E333" t="s">
-        <v>1326</v>
-      </c>
+        <v>1306</v>
+      </c>
+      <c r="I333"/>
+      <c r="J333"/>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A334" s="16" t="s">
         <v>1438</v>
       </c>
       <c r="E334" t="s">
-        <v>1328</v>
-      </c>
+        <v>1308</v>
+      </c>
+      <c r="I334"/>
+      <c r="J334"/>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A335" s="16" t="s">
         <v>1440</v>
       </c>
       <c r="E335" t="s">
-        <v>1330</v>
-      </c>
+        <v>1310</v>
+      </c>
+      <c r="I335"/>
+      <c r="J335"/>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A336" s="16" t="s">
         <v>1442</v>
       </c>
       <c r="E336" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1312</v>
+      </c>
+      <c r="I336"/>
+      <c r="J336"/>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A337" s="16" t="s">
         <v>1443</v>
       </c>
       <c r="E337" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1314</v>
+      </c>
+      <c r="I337"/>
+      <c r="J337"/>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A338" s="16" t="s">
         <v>1444</v>
       </c>
       <c r="E338" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A339" s="16" t="s">
         <v>1445</v>
       </c>
       <c r="E339" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A340" s="16" t="s">
         <v>1446</v>
       </c>
       <c r="E340" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A341" s="16" t="s">
         <v>1448</v>
       </c>
       <c r="E341" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A342" s="16" t="s">
         <v>1450</v>
       </c>
       <c r="E342" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A343" s="16" t="s">
         <v>1452</v>
       </c>
       <c r="E343" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A344" s="16" t="s">
         <v>1454</v>
       </c>
       <c r="E344" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A345" s="16" t="s">
         <v>1456</v>
       </c>
       <c r="E345" t="s">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A346" s="16" t="s">
         <v>1458</v>
       </c>
       <c r="E346" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A347" s="16" t="s">
         <v>1460</v>
       </c>
       <c r="E347" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A348" s="16" t="s">
         <v>1462</v>
       </c>
       <c r="E348" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A349" s="16" t="s">
         <v>1464</v>
       </c>
       <c r="E349" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A350" s="16" t="s">
         <v>1466</v>
       </c>
       <c r="E350" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A351" s="16" t="s">
         <v>1467</v>
       </c>
       <c r="E351" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A352" s="16" t="s">
         <v>1469</v>
       </c>
       <c r="E352" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A353" s="16" t="s">
         <v>1471</v>
       </c>
       <c r="E353" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A354" s="16" t="s">
         <v>1473</v>
       </c>
       <c r="E354" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A355" s="16" t="s">
         <v>1475</v>
       </c>
       <c r="E355" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A356" s="16" t="s">
         <v>1477</v>
       </c>
       <c r="E356" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A357" s="16" t="s">
         <v>1479</v>
       </c>
       <c r="E357" t="s">
-        <v>2813</v>
-      </c>
-      <c r="F357" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A358" s="16" t="s">
         <v>1481</v>
       </c>
       <c r="E358" t="s">
-        <v>2814</v>
-      </c>
-      <c r="F358" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A359" s="16" t="s">
         <v>1483</v>
       </c>
       <c r="E359" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A360" s="16" t="s">
         <v>1485</v>
       </c>
       <c r="E360" t="s">
-        <v>2815</v>
-      </c>
-      <c r="F360" t="s">
-        <v>1377</v>
-      </c>
-      <c r="I360"/>
-      <c r="J360"/>
-    </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A361" s="16" t="s">
         <v>1487</v>
       </c>
       <c r="E361" t="s">
-        <v>1379</v>
-      </c>
-      <c r="I361"/>
-      <c r="J361"/>
-    </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A362" s="16" t="s">
         <v>1489</v>
       </c>
       <c r="E362" t="s">
-        <v>1381</v>
-      </c>
-      <c r="I362"/>
-      <c r="J362"/>
-    </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A363" s="16" t="s">
         <v>1491</v>
       </c>
       <c r="E363" t="s">
-        <v>1383</v>
-      </c>
-      <c r="I363"/>
-      <c r="J363"/>
-    </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A364" s="16" t="s">
         <v>1493</v>
       </c>
       <c r="E364" t="s">
-        <v>1385</v>
-      </c>
-      <c r="I364"/>
-      <c r="J364"/>
-    </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A365" s="16" t="s">
         <v>1495</v>
       </c>
       <c r="E365" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I365"/>
-      <c r="J365"/>
-    </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A366" s="16" t="s">
         <v>1497</v>
       </c>
       <c r="E366" t="s">
-        <v>1389</v>
-      </c>
-      <c r="I366"/>
-      <c r="J366"/>
-    </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A367" s="16" t="s">
         <v>1499</v>
       </c>
       <c r="E367" t="s">
-        <v>1391</v>
-      </c>
-      <c r="I367"/>
-      <c r="J367"/>
-    </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.35">
+        <v>2813</v>
+      </c>
+      <c r="F367" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A368" s="16" t="s">
         <v>1501</v>
       </c>
       <c r="E368" t="s">
-        <v>1393</v>
-      </c>
-      <c r="I368"/>
-      <c r="J368"/>
+        <v>2814</v>
+      </c>
+      <c r="F368" t="s">
+        <v>1374</v>
+      </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A369" s="16" t="s">
         <v>1502</v>
       </c>
       <c r="E369" t="s">
-        <v>1395</v>
-      </c>
-      <c r="I369"/>
-      <c r="J369"/>
+        <v>1376</v>
+      </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A370" s="16" t="s">
         <v>1503</v>
       </c>
       <c r="E370" t="s">
-        <v>1397</v>
+        <v>2815</v>
+      </c>
+      <c r="F370" t="s">
+        <v>1377</v>
       </c>
       <c r="I370"/>
       <c r="J370"/>
@@ -25924,7 +26565,7 @@
         <v>1504</v>
       </c>
       <c r="E371" t="s">
-        <v>1399</v>
+        <v>1379</v>
       </c>
       <c r="I371"/>
       <c r="J371"/>
@@ -25934,7 +26575,7 @@
         <v>1506</v>
       </c>
       <c r="E372" t="s">
-        <v>1401</v>
+        <v>1381</v>
       </c>
       <c r="I372"/>
       <c r="J372"/>
@@ -25944,7 +26585,7 @@
         <v>1508</v>
       </c>
       <c r="E373" t="s">
-        <v>1403</v>
+        <v>1383</v>
       </c>
       <c r="I373"/>
       <c r="J373"/>
@@ -25954,7 +26595,7 @@
         <v>1509</v>
       </c>
       <c r="E374" t="s">
-        <v>1405</v>
+        <v>1385</v>
       </c>
       <c r="I374"/>
       <c r="J374"/>
@@ -25964,7 +26605,7 @@
         <v>1510</v>
       </c>
       <c r="E375" t="s">
-        <v>1407</v>
+        <v>1387</v>
       </c>
       <c r="I375"/>
       <c r="J375"/>
@@ -25974,7 +26615,7 @@
         <v>1511</v>
       </c>
       <c r="E376" t="s">
-        <v>1409</v>
+        <v>1389</v>
       </c>
       <c r="I376"/>
       <c r="J376"/>
@@ -25984,7 +26625,7 @@
         <v>1512</v>
       </c>
       <c r="E377" t="s">
-        <v>1411</v>
+        <v>1391</v>
       </c>
       <c r="I377"/>
       <c r="J377"/>
@@ -25994,7 +26635,7 @@
         <v>1514</v>
       </c>
       <c r="E378" t="s">
-        <v>1413</v>
+        <v>1393</v>
       </c>
       <c r="I378"/>
       <c r="J378"/>
@@ -26004,7 +26645,7 @@
         <v>1515</v>
       </c>
       <c r="E379" t="s">
-        <v>1415</v>
+        <v>1395</v>
       </c>
       <c r="I379"/>
       <c r="J379"/>
@@ -26014,7 +26655,7 @@
         <v>1516</v>
       </c>
       <c r="E380" t="s">
-        <v>1417</v>
+        <v>1397</v>
       </c>
       <c r="I380"/>
       <c r="J380"/>
@@ -26024,7 +26665,7 @@
         <v>1517</v>
       </c>
       <c r="E381" t="s">
-        <v>1419</v>
+        <v>1399</v>
       </c>
       <c r="I381"/>
       <c r="J381"/>
@@ -26034,7 +26675,7 @@
         <v>1518</v>
       </c>
       <c r="E382" t="s">
-        <v>1421</v>
+        <v>1401</v>
       </c>
       <c r="I382"/>
       <c r="J382"/>
@@ -26044,7 +26685,7 @@
         <v>1520</v>
       </c>
       <c r="E383" t="s">
-        <v>1423</v>
+        <v>1403</v>
       </c>
       <c r="I383"/>
       <c r="J383"/>
@@ -26054,7 +26695,7 @@
         <v>1522</v>
       </c>
       <c r="E384" t="s">
-        <v>1415</v>
+        <v>1405</v>
       </c>
       <c r="I384"/>
       <c r="J384"/>
@@ -26064,7 +26705,7 @@
         <v>1524</v>
       </c>
       <c r="E385" t="s">
-        <v>1417</v>
+        <v>1407</v>
       </c>
       <c r="I385"/>
       <c r="J385"/>
@@ -26074,7 +26715,7 @@
         <v>1526</v>
       </c>
       <c r="E386" t="s">
-        <v>1419</v>
+        <v>1409</v>
       </c>
       <c r="I386"/>
       <c r="J386"/>
@@ -26084,7 +26725,7 @@
         <v>1528</v>
       </c>
       <c r="E387" t="s">
-        <v>1421</v>
+        <v>1411</v>
       </c>
       <c r="I387"/>
       <c r="J387"/>
@@ -26094,7 +26735,7 @@
         <v>1530</v>
       </c>
       <c r="E388" t="s">
-        <v>1429</v>
+        <v>1413</v>
       </c>
       <c r="I388"/>
       <c r="J388"/>
@@ -26144,7 +26785,7 @@
         <v>1539</v>
       </c>
       <c r="E393" t="s">
-        <v>1435</v>
+        <v>1423</v>
       </c>
       <c r="I393"/>
       <c r="J393"/>
@@ -26154,7 +26795,7 @@
         <v>1541</v>
       </c>
       <c r="E394" t="s">
-        <v>1437</v>
+        <v>1415</v>
       </c>
       <c r="I394"/>
       <c r="J394"/>
@@ -26164,7 +26805,7 @@
         <v>1543</v>
       </c>
       <c r="E395" t="s">
-        <v>1439</v>
+        <v>1417</v>
       </c>
       <c r="I395"/>
       <c r="J395"/>
@@ -26174,7 +26815,7 @@
         <v>1545</v>
       </c>
       <c r="E396" t="s">
-        <v>1441</v>
+        <v>1419</v>
       </c>
       <c r="I396"/>
       <c r="J396"/>
@@ -26184,7 +26825,7 @@
         <v>1547</v>
       </c>
       <c r="E397" t="s">
-        <v>1415</v>
+        <v>1421</v>
       </c>
       <c r="I397"/>
       <c r="J397"/>
@@ -26194,7 +26835,7 @@
         <v>1549</v>
       </c>
       <c r="E398" t="s">
-        <v>1417</v>
+        <v>1429</v>
       </c>
       <c r="I398"/>
       <c r="J398"/>
@@ -26204,7 +26845,7 @@
         <v>1551</v>
       </c>
       <c r="E399" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="I399"/>
       <c r="J399"/>
@@ -26214,7 +26855,7 @@
         <v>1553</v>
       </c>
       <c r="E400" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="I400"/>
       <c r="J400"/>
@@ -26224,7 +26865,7 @@
         <v>1555</v>
       </c>
       <c r="E401" t="s">
-        <v>1447</v>
+        <v>1419</v>
       </c>
       <c r="I401"/>
       <c r="J401"/>
@@ -26234,7 +26875,7 @@
         <v>1557</v>
       </c>
       <c r="E402" t="s">
-        <v>1449</v>
+        <v>1421</v>
       </c>
       <c r="I402"/>
       <c r="J402"/>
@@ -26244,7 +26885,7 @@
         <v>1559</v>
       </c>
       <c r="E403" t="s">
-        <v>1451</v>
+        <v>1435</v>
       </c>
       <c r="I403"/>
       <c r="J403"/>
@@ -26254,7 +26895,7 @@
         <v>1561</v>
       </c>
       <c r="E404" t="s">
-        <v>1453</v>
+        <v>1437</v>
       </c>
       <c r="I404"/>
       <c r="J404"/>
@@ -26264,7 +26905,7 @@
         <v>1563</v>
       </c>
       <c r="E405" t="s">
-        <v>1455</v>
+        <v>1439</v>
       </c>
       <c r="I405"/>
       <c r="J405"/>
@@ -26274,7 +26915,7 @@
         <v>1565</v>
       </c>
       <c r="E406" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="I406"/>
       <c r="J406"/>
@@ -26284,7 +26925,7 @@
         <v>1567</v>
       </c>
       <c r="E407" t="s">
-        <v>1459</v>
+        <v>1415</v>
       </c>
       <c r="I407"/>
       <c r="J407"/>
@@ -26294,7 +26935,7 @@
         <v>1569</v>
       </c>
       <c r="E408" t="s">
-        <v>1461</v>
+        <v>1417</v>
       </c>
       <c r="I408"/>
       <c r="J408"/>
@@ -26304,7 +26945,7 @@
         <v>1571</v>
       </c>
       <c r="E409" t="s">
-        <v>1463</v>
+        <v>1419</v>
       </c>
       <c r="I409"/>
       <c r="J409"/>
@@ -26314,7 +26955,7 @@
         <v>1573</v>
       </c>
       <c r="E410" t="s">
-        <v>1465</v>
+        <v>1421</v>
       </c>
       <c r="I410"/>
       <c r="J410"/>
@@ -26324,7 +26965,7 @@
         <v>1575</v>
       </c>
       <c r="E411" t="s">
-        <v>1419</v>
+        <v>1447</v>
       </c>
       <c r="I411"/>
       <c r="J411"/>
@@ -26334,7 +26975,7 @@
         <v>1577</v>
       </c>
       <c r="E412" t="s">
-        <v>1468</v>
+        <v>1449</v>
       </c>
       <c r="I412"/>
       <c r="J412"/>
@@ -26344,7 +26985,7 @@
         <v>1579</v>
       </c>
       <c r="E413" t="s">
-        <v>1470</v>
+        <v>1451</v>
       </c>
       <c r="I413"/>
       <c r="J413"/>
@@ -26354,7 +26995,7 @@
         <v>1581</v>
       </c>
       <c r="E414" t="s">
-        <v>1472</v>
+        <v>1453</v>
       </c>
       <c r="I414"/>
       <c r="J414"/>
@@ -26364,7 +27005,7 @@
         <v>1583</v>
       </c>
       <c r="E415" t="s">
-        <v>1474</v>
+        <v>1455</v>
       </c>
       <c r="I415"/>
       <c r="J415"/>
@@ -26374,7 +27015,7 @@
         <v>1585</v>
       </c>
       <c r="E416" t="s">
-        <v>1476</v>
+        <v>1457</v>
       </c>
       <c r="I416"/>
       <c r="J416"/>
@@ -26384,7 +27025,7 @@
         <v>1587</v>
       </c>
       <c r="E417" t="s">
-        <v>1478</v>
+        <v>1459</v>
       </c>
       <c r="I417"/>
       <c r="J417"/>
@@ -26394,7 +27035,7 @@
         <v>1589</v>
       </c>
       <c r="E418" t="s">
-        <v>1480</v>
+        <v>1461</v>
       </c>
       <c r="I418"/>
       <c r="J418"/>
@@ -26404,7 +27045,7 @@
         <v>1591</v>
       </c>
       <c r="E419" t="s">
-        <v>1482</v>
+        <v>1463</v>
       </c>
       <c r="I419"/>
       <c r="J419"/>
@@ -26414,7 +27055,7 @@
         <v>1593</v>
       </c>
       <c r="E420" t="s">
-        <v>1484</v>
+        <v>1465</v>
       </c>
       <c r="I420"/>
       <c r="J420"/>
@@ -26424,7 +27065,7 @@
         <v>1594</v>
       </c>
       <c r="E421" t="s">
-        <v>1486</v>
+        <v>1419</v>
       </c>
       <c r="I421"/>
       <c r="J421"/>
@@ -26434,7 +27075,7 @@
         <v>1596</v>
       </c>
       <c r="E422" t="s">
-        <v>1488</v>
+        <v>1468</v>
       </c>
       <c r="I422"/>
       <c r="J422"/>
@@ -26444,7 +27085,7 @@
         <v>1598</v>
       </c>
       <c r="E423" t="s">
-        <v>1490</v>
+        <v>1470</v>
       </c>
       <c r="I423"/>
       <c r="J423"/>
@@ -26454,7 +27095,7 @@
         <v>1600</v>
       </c>
       <c r="E424" t="s">
-        <v>1492</v>
+        <v>1472</v>
       </c>
       <c r="I424"/>
       <c r="J424"/>
@@ -26464,7 +27105,7 @@
         <v>1602</v>
       </c>
       <c r="E425" t="s">
-        <v>1494</v>
+        <v>1474</v>
       </c>
       <c r="I425"/>
       <c r="J425"/>
@@ -26474,7 +27115,7 @@
         <v>1604</v>
       </c>
       <c r="E426" t="s">
-        <v>1496</v>
+        <v>1476</v>
       </c>
       <c r="I426"/>
       <c r="J426"/>
@@ -26484,7 +27125,7 @@
         <v>1606</v>
       </c>
       <c r="E427" t="s">
-        <v>1498</v>
+        <v>1478</v>
       </c>
       <c r="I427"/>
       <c r="J427"/>
@@ -26494,7 +27135,7 @@
         <v>1608</v>
       </c>
       <c r="E428" t="s">
-        <v>1500</v>
+        <v>1480</v>
       </c>
       <c r="I428"/>
       <c r="J428"/>
@@ -26504,7 +27145,7 @@
         <v>1610</v>
       </c>
       <c r="E429" t="s">
-        <v>1415</v>
+        <v>1482</v>
       </c>
       <c r="I429"/>
       <c r="J429"/>
@@ -26514,7 +27155,7 @@
         <v>1612</v>
       </c>
       <c r="E430" t="s">
-        <v>1417</v>
+        <v>1484</v>
       </c>
       <c r="I430"/>
       <c r="J430"/>
@@ -26524,7 +27165,7 @@
         <v>1614</v>
       </c>
       <c r="E431" t="s">
-        <v>1419</v>
+        <v>1486</v>
       </c>
       <c r="I431"/>
       <c r="J431"/>
@@ -26534,7 +27175,7 @@
         <v>1616</v>
       </c>
       <c r="E432" t="s">
-        <v>1505</v>
+        <v>1488</v>
       </c>
       <c r="I432"/>
       <c r="J432"/>
@@ -26544,7 +27185,7 @@
         <v>1617</v>
       </c>
       <c r="E433" t="s">
-        <v>1507</v>
+        <v>1490</v>
       </c>
       <c r="I433"/>
       <c r="J433"/>
@@ -26554,7 +27195,7 @@
         <v>1619</v>
       </c>
       <c r="E434" t="s">
-        <v>1415</v>
+        <v>1492</v>
       </c>
       <c r="I434"/>
       <c r="J434"/>
@@ -26564,7 +27205,7 @@
         <v>1620</v>
       </c>
       <c r="E435" t="s">
-        <v>1417</v>
+        <v>1494</v>
       </c>
       <c r="I435"/>
       <c r="J435"/>
@@ -26574,7 +27215,7 @@
         <v>1622</v>
       </c>
       <c r="E436" t="s">
-        <v>1419</v>
+        <v>1496</v>
       </c>
       <c r="I436"/>
       <c r="J436"/>
@@ -26584,7 +27225,7 @@
         <v>1624</v>
       </c>
       <c r="E437" t="s">
-        <v>1505</v>
+        <v>1498</v>
       </c>
       <c r="I437"/>
       <c r="J437"/>
@@ -26594,7 +27235,7 @@
         <v>1626</v>
       </c>
       <c r="E438" t="s">
-        <v>1513</v>
+        <v>1500</v>
       </c>
       <c r="I438"/>
       <c r="J438"/>
@@ -26644,7 +27285,7 @@
         <v>1636</v>
       </c>
       <c r="E443" t="s">
-        <v>1519</v>
+        <v>1507</v>
       </c>
       <c r="I443"/>
       <c r="J443"/>
@@ -26654,7 +27295,7 @@
         <v>1638</v>
       </c>
       <c r="E444" t="s">
-        <v>1521</v>
+        <v>1415</v>
       </c>
       <c r="I444"/>
       <c r="J444"/>
@@ -26664,7 +27305,7 @@
         <v>1640</v>
       </c>
       <c r="E445" t="s">
-        <v>1523</v>
+        <v>1417</v>
       </c>
       <c r="I445"/>
       <c r="J445"/>
@@ -26674,7 +27315,7 @@
         <v>1642</v>
       </c>
       <c r="E446" t="s">
-        <v>1525</v>
+        <v>1419</v>
       </c>
       <c r="I446"/>
       <c r="J446"/>
@@ -26684,7 +27325,7 @@
         <v>1644</v>
       </c>
       <c r="E447" t="s">
-        <v>1527</v>
+        <v>1505</v>
       </c>
       <c r="I447"/>
       <c r="J447"/>
@@ -26694,7 +27335,7 @@
         <v>1646</v>
       </c>
       <c r="E448" t="s">
-        <v>1529</v>
+        <v>1513</v>
       </c>
       <c r="I448"/>
       <c r="J448"/>
@@ -26704,7 +27345,7 @@
         <v>1648</v>
       </c>
       <c r="E449" t="s">
-        <v>1531</v>
+        <v>1415</v>
       </c>
       <c r="I449"/>
       <c r="J449"/>
@@ -26714,7 +27355,7 @@
         <v>1650</v>
       </c>
       <c r="E450" t="s">
-        <v>1525</v>
+        <v>1417</v>
       </c>
       <c r="I450"/>
       <c r="J450"/>
@@ -26724,7 +27365,7 @@
         <v>1652</v>
       </c>
       <c r="E451" t="s">
-        <v>1534</v>
+        <v>1419</v>
       </c>
       <c r="I451"/>
       <c r="J451"/>
@@ -26734,7 +27375,7 @@
         <v>1654</v>
       </c>
       <c r="E452" t="s">
-        <v>1536</v>
+        <v>1505</v>
       </c>
       <c r="I452"/>
       <c r="J452"/>
@@ -26744,7 +27385,7 @@
         <v>1656</v>
       </c>
       <c r="E453" t="s">
-        <v>1538</v>
+        <v>1519</v>
       </c>
       <c r="I453"/>
       <c r="J453"/>
@@ -26754,7 +27395,7 @@
         <v>1658</v>
       </c>
       <c r="E454" t="s">
-        <v>1540</v>
+        <v>1521</v>
       </c>
       <c r="I454"/>
       <c r="J454"/>
@@ -26764,7 +27405,7 @@
         <v>1660</v>
       </c>
       <c r="E455" t="s">
-        <v>1542</v>
+        <v>1523</v>
       </c>
       <c r="I455"/>
       <c r="J455"/>
@@ -26774,7 +27415,7 @@
         <v>1662</v>
       </c>
       <c r="E456" t="s">
-        <v>1544</v>
+        <v>1525</v>
       </c>
       <c r="I456"/>
       <c r="J456"/>
@@ -26784,7 +27425,7 @@
         <v>1664</v>
       </c>
       <c r="E457" t="s">
-        <v>1546</v>
+        <v>1527</v>
       </c>
       <c r="I457"/>
       <c r="J457"/>
@@ -26794,7 +27435,7 @@
         <v>1666</v>
       </c>
       <c r="E458" t="s">
-        <v>1548</v>
+        <v>1529</v>
       </c>
       <c r="I458"/>
       <c r="J458"/>
@@ -26804,7 +27445,7 @@
         <v>1668</v>
       </c>
       <c r="E459" t="s">
-        <v>1550</v>
+        <v>1531</v>
       </c>
       <c r="I459"/>
       <c r="J459"/>
@@ -26814,7 +27455,7 @@
         <v>1670</v>
       </c>
       <c r="E460" t="s">
-        <v>1552</v>
+        <v>1525</v>
       </c>
       <c r="I460"/>
       <c r="J460"/>
@@ -26824,7 +27465,7 @@
         <v>1672</v>
       </c>
       <c r="E461" t="s">
-        <v>1554</v>
+        <v>1534</v>
       </c>
       <c r="I461"/>
       <c r="J461"/>
@@ -26834,7 +27475,7 @@
         <v>1674</v>
       </c>
       <c r="E462" t="s">
-        <v>1556</v>
+        <v>1536</v>
       </c>
       <c r="I462"/>
       <c r="J462"/>
@@ -26844,7 +27485,7 @@
         <v>1676</v>
       </c>
       <c r="E463" t="s">
-        <v>1558</v>
+        <v>1538</v>
       </c>
       <c r="I463"/>
       <c r="J463"/>
@@ -26854,7 +27495,7 @@
         <v>1678</v>
       </c>
       <c r="E464" t="s">
-        <v>1560</v>
+        <v>1540</v>
       </c>
       <c r="I464"/>
       <c r="J464"/>
@@ -26864,7 +27505,7 @@
         <v>1680</v>
       </c>
       <c r="E465" t="s">
-        <v>1562</v>
+        <v>1542</v>
       </c>
       <c r="I465"/>
       <c r="J465"/>
@@ -26874,7 +27515,7 @@
         <v>1682</v>
       </c>
       <c r="E466" t="s">
-        <v>1564</v>
+        <v>1544</v>
       </c>
       <c r="I466"/>
       <c r="J466"/>
@@ -26884,7 +27525,7 @@
         <v>1684</v>
       </c>
       <c r="E467" t="s">
-        <v>1566</v>
+        <v>1546</v>
       </c>
       <c r="I467"/>
       <c r="J467"/>
@@ -26894,7 +27535,7 @@
         <v>1686</v>
       </c>
       <c r="E468" t="s">
-        <v>1568</v>
+        <v>1548</v>
       </c>
       <c r="I468"/>
       <c r="J468"/>
@@ -26904,7 +27545,7 @@
         <v>1688</v>
       </c>
       <c r="E469" t="s">
-        <v>1570</v>
+        <v>1550</v>
       </c>
       <c r="I469"/>
       <c r="J469"/>
@@ -26914,7 +27555,7 @@
         <v>1690</v>
       </c>
       <c r="E470" t="s">
-        <v>1572</v>
+        <v>1552</v>
       </c>
       <c r="I470"/>
       <c r="J470"/>
@@ -26924,7 +27565,7 @@
         <v>1692</v>
       </c>
       <c r="E471" t="s">
-        <v>1574</v>
+        <v>1554</v>
       </c>
       <c r="I471"/>
       <c r="J471"/>
@@ -26934,7 +27575,7 @@
         <v>1694</v>
       </c>
       <c r="E472" t="s">
-        <v>1576</v>
+        <v>1556</v>
       </c>
       <c r="I472"/>
       <c r="J472"/>
@@ -26944,7 +27585,7 @@
         <v>1696</v>
       </c>
       <c r="E473" t="s">
-        <v>1578</v>
+        <v>1558</v>
       </c>
       <c r="I473"/>
       <c r="J473"/>
@@ -26954,7 +27595,7 @@
         <v>1698</v>
       </c>
       <c r="E474" t="s">
-        <v>1580</v>
+        <v>1560</v>
       </c>
       <c r="I474"/>
       <c r="J474"/>
@@ -26964,7 +27605,7 @@
         <v>1700</v>
       </c>
       <c r="E475" t="s">
-        <v>1582</v>
+        <v>1562</v>
       </c>
       <c r="I475"/>
       <c r="J475"/>
@@ -26974,7 +27615,7 @@
         <v>1702</v>
       </c>
       <c r="E476" t="s">
-        <v>1584</v>
+        <v>1564</v>
       </c>
       <c r="I476"/>
       <c r="J476"/>
@@ -26984,7 +27625,7 @@
         <v>1704</v>
       </c>
       <c r="E477" t="s">
-        <v>1586</v>
+        <v>1566</v>
       </c>
       <c r="I477"/>
       <c r="J477"/>
@@ -26994,7 +27635,7 @@
         <v>1706</v>
       </c>
       <c r="E478" t="s">
-        <v>1588</v>
+        <v>1568</v>
       </c>
       <c r="I478"/>
       <c r="J478"/>
@@ -27004,17 +27645,17 @@
         <v>1708</v>
       </c>
       <c r="E479" t="s">
-        <v>1590</v>
+        <v>1570</v>
       </c>
       <c r="I479"/>
       <c r="J479"/>
     </row>
-    <row r="480" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A480" s="16" t="s">
         <v>1710</v>
       </c>
       <c r="E480" t="s">
-        <v>1592</v>
+        <v>1572</v>
       </c>
       <c r="I480"/>
       <c r="J480"/>
@@ -27024,7 +27665,7 @@
         <v>1712</v>
       </c>
       <c r="E481" t="s">
-        <v>1595</v>
+        <v>1574</v>
       </c>
       <c r="I481"/>
       <c r="J481"/>
@@ -27034,7 +27675,7 @@
         <v>1714</v>
       </c>
       <c r="E482" t="s">
-        <v>1597</v>
+        <v>1576</v>
       </c>
       <c r="I482"/>
       <c r="J482"/>
@@ -27044,7 +27685,7 @@
         <v>1716</v>
       </c>
       <c r="E483" t="s">
-        <v>1599</v>
+        <v>1578</v>
       </c>
       <c r="I483"/>
       <c r="J483"/>
@@ -27054,7 +27695,7 @@
         <v>1718</v>
       </c>
       <c r="E484" t="s">
-        <v>1601</v>
+        <v>1580</v>
       </c>
       <c r="I484"/>
       <c r="J484"/>
@@ -27064,7 +27705,7 @@
         <v>1720</v>
       </c>
       <c r="E485" t="s">
-        <v>1603</v>
+        <v>1582</v>
       </c>
       <c r="I485"/>
       <c r="J485"/>
@@ -27074,7 +27715,7 @@
         <v>1722</v>
       </c>
       <c r="E486" t="s">
-        <v>1605</v>
+        <v>1584</v>
       </c>
       <c r="I486"/>
       <c r="J486"/>
@@ -27084,7 +27725,7 @@
         <v>1724</v>
       </c>
       <c r="E487" t="s">
-        <v>1607</v>
+        <v>1586</v>
       </c>
       <c r="I487"/>
       <c r="J487"/>
@@ -27094,7 +27735,7 @@
         <v>1726</v>
       </c>
       <c r="E488" t="s">
-        <v>1609</v>
+        <v>1588</v>
       </c>
       <c r="I488"/>
       <c r="J488"/>
@@ -27104,17 +27745,17 @@
         <v>1728</v>
       </c>
       <c r="E489" t="s">
-        <v>1611</v>
+        <v>1590</v>
       </c>
       <c r="I489"/>
       <c r="J489"/>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A490" s="16" t="s">
         <v>1730</v>
       </c>
       <c r="E490" t="s">
-        <v>1613</v>
+        <v>1592</v>
       </c>
       <c r="I490"/>
       <c r="J490"/>
@@ -27124,7 +27765,7 @@
         <v>1732</v>
       </c>
       <c r="E491" t="s">
-        <v>1615</v>
+        <v>1595</v>
       </c>
       <c r="I491"/>
       <c r="J491"/>
@@ -27134,7 +27775,7 @@
         <v>1734</v>
       </c>
       <c r="E492" t="s">
-        <v>1519</v>
+        <v>1597</v>
       </c>
       <c r="I492"/>
       <c r="J492"/>
@@ -27144,7 +27785,7 @@
         <v>1736</v>
       </c>
       <c r="E493" t="s">
-        <v>1618</v>
+        <v>1599</v>
       </c>
       <c r="I493"/>
       <c r="J493"/>
@@ -27154,7 +27795,7 @@
         <v>1738</v>
       </c>
       <c r="E494" t="s">
-        <v>1534</v>
+        <v>1601</v>
       </c>
       <c r="I494"/>
       <c r="J494"/>
@@ -27164,7 +27805,7 @@
         <v>1740</v>
       </c>
       <c r="E495" t="s">
-        <v>1621</v>
+        <v>1603</v>
       </c>
       <c r="I495"/>
       <c r="J495"/>
@@ -27174,7 +27815,7 @@
         <v>516</v>
       </c>
       <c r="E496" t="s">
-        <v>1623</v>
+        <v>1605</v>
       </c>
       <c r="I496"/>
       <c r="J496"/>
@@ -27184,7 +27825,7 @@
         <v>520</v>
       </c>
       <c r="E497" t="s">
-        <v>1625</v>
+        <v>1607</v>
       </c>
       <c r="I497"/>
       <c r="J497"/>
@@ -27194,7 +27835,7 @@
         <v>1746</v>
       </c>
       <c r="E498" t="s">
-        <v>1627</v>
+        <v>1609</v>
       </c>
       <c r="I498"/>
       <c r="J498"/>
@@ -27204,7 +27845,7 @@
         <v>1748</v>
       </c>
       <c r="E499" t="s">
-        <v>1629</v>
+        <v>1611</v>
       </c>
       <c r="I499"/>
       <c r="J499"/>
@@ -27214,7 +27855,7 @@
         <v>1750</v>
       </c>
       <c r="E500" t="s">
-        <v>1631</v>
+        <v>1613</v>
       </c>
       <c r="I500"/>
       <c r="J500"/>
@@ -27224,7 +27865,7 @@
         <v>1752</v>
       </c>
       <c r="E501" t="s">
-        <v>1633</v>
+        <v>1615</v>
       </c>
       <c r="I501"/>
       <c r="J501"/>
@@ -27234,7 +27875,7 @@
         <v>1754</v>
       </c>
       <c r="E502" t="s">
-        <v>1635</v>
+        <v>1519</v>
       </c>
       <c r="I502"/>
       <c r="J502"/>
@@ -27244,7 +27885,7 @@
         <v>1756</v>
       </c>
       <c r="E503" t="s">
-        <v>1637</v>
+        <v>1618</v>
       </c>
       <c r="I503"/>
       <c r="J503"/>
@@ -27254,7 +27895,7 @@
         <v>1758</v>
       </c>
       <c r="E504" t="s">
-        <v>1639</v>
+        <v>1534</v>
       </c>
       <c r="I504"/>
       <c r="J504"/>
@@ -27264,7 +27905,7 @@
         <v>1760</v>
       </c>
       <c r="E505" t="s">
-        <v>1641</v>
+        <v>1621</v>
       </c>
       <c r="I505"/>
       <c r="J505"/>
@@ -27274,7 +27915,7 @@
         <v>1762</v>
       </c>
       <c r="E506" t="s">
-        <v>1643</v>
+        <v>1623</v>
       </c>
       <c r="I506"/>
       <c r="J506"/>
@@ -27284,7 +27925,7 @@
         <v>1764</v>
       </c>
       <c r="E507" t="s">
-        <v>1645</v>
+        <v>1625</v>
       </c>
       <c r="I507"/>
       <c r="J507"/>
@@ -27294,7 +27935,7 @@
         <v>1766</v>
       </c>
       <c r="E508" t="s">
-        <v>1647</v>
+        <v>1627</v>
       </c>
       <c r="I508"/>
       <c r="J508"/>
@@ -27304,7 +27945,7 @@
         <v>1768</v>
       </c>
       <c r="E509" t="s">
-        <v>1649</v>
+        <v>1629</v>
       </c>
       <c r="I509"/>
       <c r="J509"/>
@@ -27314,7 +27955,7 @@
         <v>1770</v>
       </c>
       <c r="E510" t="s">
-        <v>1651</v>
+        <v>1631</v>
       </c>
       <c r="I510"/>
       <c r="J510"/>
@@ -27324,7 +27965,7 @@
         <v>1772</v>
       </c>
       <c r="E511" t="s">
-        <v>1653</v>
+        <v>1633</v>
       </c>
       <c r="I511"/>
       <c r="J511"/>
@@ -27334,7 +27975,7 @@
         <v>1774</v>
       </c>
       <c r="E512" t="s">
-        <v>1655</v>
+        <v>1635</v>
       </c>
       <c r="I512"/>
       <c r="J512"/>
@@ -27344,7 +27985,7 @@
         <v>1776</v>
       </c>
       <c r="E513" t="s">
-        <v>1657</v>
+        <v>1637</v>
       </c>
       <c r="I513"/>
       <c r="J513"/>
@@ -27354,7 +27995,7 @@
         <v>1778</v>
       </c>
       <c r="E514" t="s">
-        <v>1659</v>
+        <v>1639</v>
       </c>
       <c r="I514"/>
       <c r="J514"/>
@@ -27364,7 +28005,7 @@
         <v>1780</v>
       </c>
       <c r="E515" t="s">
-        <v>1661</v>
+        <v>1641</v>
       </c>
       <c r="I515"/>
       <c r="J515"/>
@@ -27374,7 +28015,7 @@
         <v>1782</v>
       </c>
       <c r="E516" t="s">
-        <v>1663</v>
+        <v>1643</v>
       </c>
       <c r="I516"/>
       <c r="J516"/>
@@ -27384,7 +28025,7 @@
         <v>1784</v>
       </c>
       <c r="E517" t="s">
-        <v>1665</v>
+        <v>1645</v>
       </c>
       <c r="I517"/>
       <c r="J517"/>
@@ -27394,7 +28035,7 @@
         <v>1786</v>
       </c>
       <c r="E518" t="s">
-        <v>1667</v>
+        <v>1647</v>
       </c>
       <c r="I518"/>
       <c r="J518"/>
@@ -27404,7 +28045,7 @@
         <v>1788</v>
       </c>
       <c r="E519" t="s">
-        <v>1669</v>
+        <v>1649</v>
       </c>
       <c r="I519"/>
       <c r="J519"/>
@@ -27414,7 +28055,7 @@
         <v>1790</v>
       </c>
       <c r="E520" t="s">
-        <v>1671</v>
+        <v>1651</v>
       </c>
       <c r="I520"/>
       <c r="J520"/>
@@ -27424,7 +28065,7 @@
         <v>1792</v>
       </c>
       <c r="E521" t="s">
-        <v>1673</v>
+        <v>1653</v>
       </c>
       <c r="I521"/>
       <c r="J521"/>
@@ -27434,7 +28075,7 @@
         <v>1794</v>
       </c>
       <c r="E522" t="s">
-        <v>1675</v>
+        <v>1655</v>
       </c>
       <c r="I522"/>
       <c r="J522"/>
@@ -27444,7 +28085,7 @@
         <v>1796</v>
       </c>
       <c r="E523" t="s">
-        <v>1677</v>
+        <v>1657</v>
       </c>
       <c r="I523"/>
       <c r="J523"/>
@@ -27454,7 +28095,7 @@
         <v>1798</v>
       </c>
       <c r="E524" t="s">
-        <v>1679</v>
+        <v>1659</v>
       </c>
       <c r="I524"/>
       <c r="J524"/>
@@ -27464,7 +28105,7 @@
         <v>1800</v>
       </c>
       <c r="E525" t="s">
-        <v>1681</v>
+        <v>1661</v>
       </c>
       <c r="I525"/>
       <c r="J525"/>
@@ -27474,7 +28115,7 @@
         <v>1802</v>
       </c>
       <c r="E526" t="s">
-        <v>1683</v>
+        <v>1663</v>
       </c>
       <c r="I526"/>
       <c r="J526"/>
@@ -27484,7 +28125,7 @@
         <v>1804</v>
       </c>
       <c r="E527" t="s">
-        <v>1685</v>
+        <v>1665</v>
       </c>
       <c r="I527"/>
       <c r="J527"/>
@@ -27494,7 +28135,7 @@
         <v>1806</v>
       </c>
       <c r="E528" t="s">
-        <v>1687</v>
+        <v>1667</v>
       </c>
       <c r="I528"/>
       <c r="J528"/>
@@ -27504,7 +28145,7 @@
         <v>1808</v>
       </c>
       <c r="E529" t="s">
-        <v>1689</v>
+        <v>1669</v>
       </c>
       <c r="I529"/>
       <c r="J529"/>
@@ -27514,7 +28155,7 @@
         <v>1810</v>
       </c>
       <c r="E530" t="s">
-        <v>1691</v>
+        <v>1671</v>
       </c>
       <c r="I530"/>
       <c r="J530"/>
@@ -27524,7 +28165,7 @@
         <v>1812</v>
       </c>
       <c r="E531" t="s">
-        <v>1693</v>
+        <v>1673</v>
       </c>
       <c r="I531"/>
       <c r="J531"/>
@@ -27534,7 +28175,7 @@
         <v>1814</v>
       </c>
       <c r="E532" t="s">
-        <v>1695</v>
+        <v>1675</v>
       </c>
       <c r="I532"/>
       <c r="J532"/>
@@ -27544,7 +28185,7 @@
         <v>1816</v>
       </c>
       <c r="E533" t="s">
-        <v>1697</v>
+        <v>1677</v>
       </c>
       <c r="I533"/>
       <c r="J533"/>
@@ -27554,7 +28195,7 @@
         <v>1818</v>
       </c>
       <c r="E534" t="s">
-        <v>1699</v>
+        <v>1679</v>
       </c>
       <c r="I534"/>
       <c r="J534"/>
@@ -27564,241 +28205,235 @@
         <v>1820</v>
       </c>
       <c r="E535" t="s">
-        <v>1701</v>
-      </c>
+        <v>1681</v>
+      </c>
+      <c r="I535"/>
+      <c r="J535"/>
     </row>
     <row r="536" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A536" s="16" t="s">
         <v>1822</v>
       </c>
       <c r="E536" t="s">
-        <v>1703</v>
-      </c>
+        <v>1683</v>
+      </c>
+      <c r="I536"/>
+      <c r="J536"/>
     </row>
     <row r="537" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A537" s="16" t="s">
         <v>1824</v>
       </c>
       <c r="E537" t="s">
-        <v>1705</v>
-      </c>
+        <v>1685</v>
+      </c>
+      <c r="I537"/>
+      <c r="J537"/>
     </row>
     <row r="538" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A538" s="16" t="s">
         <v>1826</v>
       </c>
       <c r="E538" t="s">
-        <v>1707</v>
-      </c>
+        <v>1687</v>
+      </c>
+      <c r="I538"/>
+      <c r="J538"/>
     </row>
     <row r="539" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A539" s="16" t="s">
         <v>1828</v>
       </c>
       <c r="E539" t="s">
-        <v>1709</v>
-      </c>
+        <v>1689</v>
+      </c>
+      <c r="I539"/>
+      <c r="J539"/>
     </row>
     <row r="540" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A540" s="16" t="s">
         <v>1830</v>
       </c>
       <c r="E540" t="s">
-        <v>1711</v>
-      </c>
+        <v>1691</v>
+      </c>
+      <c r="I540"/>
+      <c r="J540"/>
     </row>
     <row r="541" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A541" s="16" t="s">
         <v>1832</v>
       </c>
       <c r="E541" t="s">
-        <v>1713</v>
-      </c>
+        <v>1693</v>
+      </c>
+      <c r="I541"/>
+      <c r="J541"/>
     </row>
     <row r="542" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A542" s="16" t="s">
         <v>1834</v>
       </c>
       <c r="E542" t="s">
-        <v>1715</v>
-      </c>
+        <v>1695</v>
+      </c>
+      <c r="I542"/>
+      <c r="J542"/>
     </row>
     <row r="543" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A543" s="16" t="s">
         <v>1836</v>
       </c>
       <c r="E543" t="s">
-        <v>1717</v>
-      </c>
+        <v>1697</v>
+      </c>
+      <c r="I543"/>
+      <c r="J543"/>
     </row>
     <row r="544" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A544" s="16" t="s">
         <v>1838</v>
       </c>
       <c r="E544" t="s">
-        <v>1719</v>
-      </c>
-    </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1699</v>
+      </c>
+      <c r="I544"/>
+      <c r="J544"/>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A545" s="16" t="s">
         <v>1840</v>
       </c>
       <c r="E545" t="s">
-        <v>1721</v>
-      </c>
-    </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A546" s="16" t="s">
         <v>1842</v>
       </c>
       <c r="E546" t="s">
-        <v>1723</v>
-      </c>
-    </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A547" s="16" t="s">
         <v>1844</v>
       </c>
       <c r="E547" t="s">
-        <v>1725</v>
-      </c>
-    </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A548" s="16" t="s">
         <v>1846</v>
       </c>
       <c r="E548" t="s">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A549" s="16" t="s">
         <v>1848</v>
       </c>
       <c r="E549" t="s">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A550" s="16" t="s">
         <v>1850</v>
       </c>
       <c r="E550" t="s">
-        <v>1731</v>
-      </c>
-    </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A551" s="16" t="s">
         <v>1852</v>
       </c>
       <c r="E551" t="s">
-        <v>1733</v>
-      </c>
-      <c r="I551"/>
-      <c r="J551"/>
-    </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A552" s="16" t="s">
         <v>1854</v>
       </c>
       <c r="E552" t="s">
-        <v>1735</v>
-      </c>
-      <c r="I552"/>
-      <c r="J552"/>
-    </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A553" s="16" t="s">
         <v>1856</v>
       </c>
       <c r="E553" t="s">
-        <v>1737</v>
-      </c>
-      <c r="I553"/>
-      <c r="J553"/>
-    </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A554" s="16" t="s">
         <v>1858</v>
       </c>
       <c r="E554" t="s">
-        <v>1739</v>
-      </c>
-      <c r="I554"/>
-      <c r="J554"/>
-    </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A555" s="16" t="s">
         <v>1860</v>
       </c>
       <c r="E555" t="s">
-        <v>1741</v>
-      </c>
-      <c r="I555"/>
-      <c r="J555"/>
-    </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A556" s="16" t="s">
         <v>1862</v>
       </c>
       <c r="E556" t="s">
-        <v>1742</v>
-      </c>
-      <c r="F556" t="s">
-        <v>1743</v>
-      </c>
-      <c r="I556"/>
-      <c r="J556"/>
-    </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A557" s="16" t="s">
         <v>1864</v>
       </c>
       <c r="E557" t="s">
-        <v>1744</v>
-      </c>
-      <c r="F557" t="s">
-        <v>1745</v>
-      </c>
-      <c r="I557"/>
-      <c r="J557"/>
-    </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A558" s="16" t="s">
         <v>1866</v>
       </c>
       <c r="E558" t="s">
-        <v>1747</v>
-      </c>
-      <c r="I558"/>
-      <c r="J558"/>
-    </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A559" s="16" t="s">
         <v>1868</v>
       </c>
       <c r="E559" t="s">
-        <v>1749</v>
-      </c>
-      <c r="I559"/>
-      <c r="J559"/>
-    </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A560" s="16" t="s">
         <v>1870</v>
       </c>
       <c r="E560" t="s">
-        <v>1751</v>
-      </c>
-      <c r="I560"/>
-      <c r="J560"/>
+        <v>1731</v>
+      </c>
     </row>
     <row r="561" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A561" s="16" t="s">
         <v>1872</v>
       </c>
       <c r="E561" t="s">
-        <v>1753</v>
+        <v>1733</v>
       </c>
       <c r="I561"/>
       <c r="J561"/>
@@ -27808,7 +28443,7 @@
         <v>1874</v>
       </c>
       <c r="E562" t="s">
-        <v>1755</v>
+        <v>1735</v>
       </c>
       <c r="I562"/>
       <c r="J562"/>
@@ -27818,7 +28453,7 @@
         <v>1876</v>
       </c>
       <c r="E563" t="s">
-        <v>1757</v>
+        <v>1737</v>
       </c>
       <c r="I563"/>
       <c r="J563"/>
@@ -27828,7 +28463,7 @@
         <v>1878</v>
       </c>
       <c r="E564" t="s">
-        <v>1759</v>
+        <v>1739</v>
       </c>
       <c r="I564"/>
       <c r="J564"/>
@@ -27838,7 +28473,7 @@
         <v>1880</v>
       </c>
       <c r="E565" t="s">
-        <v>1761</v>
+        <v>1741</v>
       </c>
       <c r="I565"/>
       <c r="J565"/>
@@ -27848,7 +28483,10 @@
         <v>1882</v>
       </c>
       <c r="E566" t="s">
-        <v>1763</v>
+        <v>1742</v>
+      </c>
+      <c r="F566" t="s">
+        <v>1743</v>
       </c>
       <c r="I566"/>
       <c r="J566"/>
@@ -27858,7 +28496,10 @@
         <v>1884</v>
       </c>
       <c r="E567" t="s">
-        <v>1765</v>
+        <v>1744</v>
+      </c>
+      <c r="F567" t="s">
+        <v>1745</v>
       </c>
       <c r="I567"/>
       <c r="J567"/>
@@ -27868,7 +28509,7 @@
         <v>1886</v>
       </c>
       <c r="E568" t="s">
-        <v>1767</v>
+        <v>1747</v>
       </c>
       <c r="I568"/>
       <c r="J568"/>
@@ -27878,7 +28519,7 @@
         <v>1888</v>
       </c>
       <c r="E569" t="s">
-        <v>1769</v>
+        <v>1749</v>
       </c>
       <c r="I569"/>
       <c r="J569"/>
@@ -27888,7 +28529,7 @@
         <v>1890</v>
       </c>
       <c r="E570" t="s">
-        <v>1771</v>
+        <v>1751</v>
       </c>
       <c r="I570"/>
       <c r="J570"/>
@@ -27898,7 +28539,7 @@
         <v>1892</v>
       </c>
       <c r="E571" t="s">
-        <v>1773</v>
+        <v>1753</v>
       </c>
       <c r="I571"/>
       <c r="J571"/>
@@ -27908,7 +28549,7 @@
         <v>1894</v>
       </c>
       <c r="E572" t="s">
-        <v>1775</v>
+        <v>1755</v>
       </c>
       <c r="I572"/>
       <c r="J572"/>
@@ -27918,7 +28559,7 @@
         <v>1896</v>
       </c>
       <c r="E573" t="s">
-        <v>1777</v>
+        <v>1757</v>
       </c>
       <c r="I573"/>
       <c r="J573"/>
@@ -27928,7 +28569,7 @@
         <v>1898</v>
       </c>
       <c r="E574" t="s">
-        <v>1779</v>
+        <v>1759</v>
       </c>
       <c r="I574"/>
       <c r="J574"/>
@@ -27938,7 +28579,7 @@
         <v>1900</v>
       </c>
       <c r="E575" t="s">
-        <v>1781</v>
+        <v>1761</v>
       </c>
       <c r="I575"/>
       <c r="J575"/>
@@ -27948,7 +28589,7 @@
         <v>1902</v>
       </c>
       <c r="E576" t="s">
-        <v>1783</v>
+        <v>1763</v>
       </c>
       <c r="I576"/>
       <c r="J576"/>
@@ -27958,7 +28599,7 @@
         <v>1904</v>
       </c>
       <c r="E577" t="s">
-        <v>1785</v>
+        <v>1765</v>
       </c>
       <c r="I577"/>
       <c r="J577"/>
@@ -27968,7 +28609,7 @@
         <v>1906</v>
       </c>
       <c r="E578" t="s">
-        <v>1787</v>
+        <v>1767</v>
       </c>
       <c r="I578"/>
       <c r="J578"/>
@@ -27978,7 +28619,7 @@
         <v>1908</v>
       </c>
       <c r="E579" t="s">
-        <v>1789</v>
+        <v>1769</v>
       </c>
       <c r="I579"/>
       <c r="J579"/>
@@ -27988,7 +28629,7 @@
         <v>1910</v>
       </c>
       <c r="E580" t="s">
-        <v>1791</v>
+        <v>1771</v>
       </c>
       <c r="I580"/>
       <c r="J580"/>
@@ -27998,7 +28639,7 @@
         <v>1912</v>
       </c>
       <c r="E581" t="s">
-        <v>1793</v>
+        <v>1773</v>
       </c>
       <c r="I581"/>
       <c r="J581"/>
@@ -28008,7 +28649,7 @@
         <v>1914</v>
       </c>
       <c r="E582" t="s">
-        <v>1795</v>
+        <v>1775</v>
       </c>
       <c r="I582"/>
       <c r="J582"/>
@@ -28018,7 +28659,7 @@
         <v>1916</v>
       </c>
       <c r="E583" t="s">
-        <v>1797</v>
+        <v>1777</v>
       </c>
       <c r="I583"/>
       <c r="J583"/>
@@ -28028,7 +28669,7 @@
         <v>1918</v>
       </c>
       <c r="E584" t="s">
-        <v>1799</v>
+        <v>1779</v>
       </c>
       <c r="I584"/>
       <c r="J584"/>
@@ -28038,7 +28679,7 @@
         <v>1920</v>
       </c>
       <c r="E585" t="s">
-        <v>1801</v>
+        <v>1781</v>
       </c>
       <c r="I585"/>
       <c r="J585"/>
@@ -28048,7 +28689,7 @@
         <v>1922</v>
       </c>
       <c r="E586" t="s">
-        <v>1803</v>
+        <v>1783</v>
       </c>
       <c r="I586"/>
       <c r="J586"/>
@@ -28058,7 +28699,7 @@
         <v>1924</v>
       </c>
       <c r="E587" t="s">
-        <v>1805</v>
+        <v>1785</v>
       </c>
       <c r="I587"/>
       <c r="J587"/>
@@ -28068,7 +28709,7 @@
         <v>1926</v>
       </c>
       <c r="E588" t="s">
-        <v>1807</v>
+        <v>1787</v>
       </c>
       <c r="I588"/>
       <c r="J588"/>
@@ -28078,7 +28719,7 @@
         <v>1928</v>
       </c>
       <c r="E589" t="s">
-        <v>1809</v>
+        <v>1789</v>
       </c>
       <c r="I589"/>
       <c r="J589"/>
@@ -28088,7 +28729,7 @@
         <v>1930</v>
       </c>
       <c r="E590" t="s">
-        <v>1811</v>
+        <v>1791</v>
       </c>
       <c r="I590"/>
       <c r="J590"/>
@@ -28098,7 +28739,7 @@
         <v>1932</v>
       </c>
       <c r="E591" t="s">
-        <v>1813</v>
+        <v>1793</v>
       </c>
       <c r="I591"/>
       <c r="J591"/>
@@ -28108,7 +28749,7 @@
         <v>1934</v>
       </c>
       <c r="E592" t="s">
-        <v>1815</v>
+        <v>1795</v>
       </c>
       <c r="I592"/>
       <c r="J592"/>
@@ -28118,7 +28759,7 @@
         <v>1936</v>
       </c>
       <c r="E593" t="s">
-        <v>1817</v>
+        <v>1797</v>
       </c>
       <c r="I593"/>
       <c r="J593"/>
@@ -28128,7 +28769,7 @@
         <v>1938</v>
       </c>
       <c r="E594" t="s">
-        <v>1819</v>
+        <v>1799</v>
       </c>
       <c r="I594"/>
       <c r="J594"/>
@@ -28138,7 +28779,7 @@
         <v>1940</v>
       </c>
       <c r="E595" t="s">
-        <v>1821</v>
+        <v>1801</v>
       </c>
       <c r="I595"/>
       <c r="J595"/>
@@ -28148,7 +28789,7 @@
         <v>1942</v>
       </c>
       <c r="E596" t="s">
-        <v>1823</v>
+        <v>1803</v>
       </c>
       <c r="I596"/>
       <c r="J596"/>
@@ -28158,7 +28799,7 @@
         <v>1944</v>
       </c>
       <c r="E597" t="s">
-        <v>1825</v>
+        <v>1805</v>
       </c>
       <c r="I597"/>
       <c r="J597"/>
@@ -28168,7 +28809,7 @@
         <v>1946</v>
       </c>
       <c r="E598" t="s">
-        <v>1827</v>
+        <v>1807</v>
       </c>
       <c r="I598"/>
       <c r="J598"/>
@@ -28178,7 +28819,7 @@
         <v>1948</v>
       </c>
       <c r="E599" t="s">
-        <v>1829</v>
+        <v>1809</v>
       </c>
       <c r="I599"/>
       <c r="J599"/>
@@ -28188,7 +28829,7 @@
         <v>1950</v>
       </c>
       <c r="E600" t="s">
-        <v>1831</v>
+        <v>1811</v>
       </c>
       <c r="I600"/>
       <c r="J600"/>
@@ -28198,7 +28839,7 @@
         <v>1952</v>
       </c>
       <c r="E601" t="s">
-        <v>1833</v>
+        <v>1813</v>
       </c>
       <c r="I601"/>
       <c r="J601"/>
@@ -28208,7 +28849,7 @@
         <v>1954</v>
       </c>
       <c r="E602" t="s">
-        <v>1835</v>
+        <v>1815</v>
       </c>
       <c r="I602"/>
       <c r="J602"/>
@@ -28218,7 +28859,7 @@
         <v>1956</v>
       </c>
       <c r="E603" t="s">
-        <v>1837</v>
+        <v>1817</v>
       </c>
       <c r="I603"/>
       <c r="J603"/>
@@ -28228,7 +28869,7 @@
         <v>1958</v>
       </c>
       <c r="E604" t="s">
-        <v>1839</v>
+        <v>1819</v>
       </c>
       <c r="I604"/>
       <c r="J604"/>
@@ -28238,7 +28879,7 @@
         <v>523</v>
       </c>
       <c r="E605" t="s">
-        <v>1841</v>
+        <v>1821</v>
       </c>
       <c r="I605"/>
       <c r="J605"/>
@@ -28248,7 +28889,7 @@
         <v>1960</v>
       </c>
       <c r="E606" t="s">
-        <v>1843</v>
+        <v>1823</v>
       </c>
       <c r="I606"/>
       <c r="J606"/>
@@ -28258,7 +28899,7 @@
         <v>1962</v>
       </c>
       <c r="E607" t="s">
-        <v>1845</v>
+        <v>1825</v>
       </c>
       <c r="I607"/>
       <c r="J607"/>
@@ -28268,7 +28909,7 @@
         <v>2084</v>
       </c>
       <c r="E608" t="s">
-        <v>1847</v>
+        <v>1827</v>
       </c>
       <c r="I608"/>
       <c r="J608"/>
@@ -28278,7 +28919,7 @@
         <v>2085</v>
       </c>
       <c r="E609" t="s">
-        <v>1849</v>
+        <v>1829</v>
       </c>
       <c r="I609"/>
       <c r="J609"/>
@@ -28288,7 +28929,7 @@
         <v>2086</v>
       </c>
       <c r="E610" t="s">
-        <v>1851</v>
+        <v>1831</v>
       </c>
       <c r="I610"/>
       <c r="J610"/>
@@ -28298,7 +28939,7 @@
         <v>2087</v>
       </c>
       <c r="E611" t="s">
-        <v>1853</v>
+        <v>1833</v>
       </c>
       <c r="I611"/>
       <c r="J611"/>
@@ -28308,7 +28949,7 @@
         <v>2731</v>
       </c>
       <c r="E612" t="s">
-        <v>1855</v>
+        <v>1835</v>
       </c>
       <c r="I612"/>
       <c r="J612"/>
@@ -28318,7 +28959,7 @@
         <v>2095</v>
       </c>
       <c r="E613" t="s">
-        <v>1857</v>
+        <v>1837</v>
       </c>
       <c r="I613"/>
       <c r="J613"/>
@@ -28328,7 +28969,7 @@
         <v>2096</v>
       </c>
       <c r="E614" t="s">
-        <v>1859</v>
+        <v>1839</v>
       </c>
       <c r="I614"/>
       <c r="J614"/>
@@ -28338,7 +28979,7 @@
         <v>2097</v>
       </c>
       <c r="E615" t="s">
-        <v>1861</v>
+        <v>1841</v>
       </c>
       <c r="I615"/>
       <c r="J615"/>
@@ -28348,7 +28989,7 @@
         <v>2098</v>
       </c>
       <c r="E616" t="s">
-        <v>1863</v>
+        <v>1843</v>
       </c>
       <c r="I616"/>
       <c r="J616"/>
@@ -28358,7 +28999,7 @@
         <v>2099</v>
       </c>
       <c r="E617" t="s">
-        <v>1865</v>
+        <v>1845</v>
       </c>
       <c r="I617"/>
       <c r="J617"/>
@@ -28368,7 +29009,7 @@
         <v>2182</v>
       </c>
       <c r="E618" t="s">
-        <v>1867</v>
+        <v>1847</v>
       </c>
       <c r="I618"/>
       <c r="J618"/>
@@ -28378,7 +29019,7 @@
         <v>2183</v>
       </c>
       <c r="E619" t="s">
-        <v>1869</v>
+        <v>1849</v>
       </c>
       <c r="I619"/>
       <c r="J619"/>
@@ -28388,7 +29029,7 @@
         <v>2184</v>
       </c>
       <c r="E620" t="s">
-        <v>1871</v>
+        <v>1851</v>
       </c>
       <c r="I620"/>
       <c r="J620"/>
@@ -28398,7 +29039,7 @@
         <v>2732</v>
       </c>
       <c r="E621" t="s">
-        <v>1873</v>
+        <v>1853</v>
       </c>
       <c r="I621"/>
       <c r="J621"/>
@@ -28408,7 +29049,7 @@
         <v>2733</v>
       </c>
       <c r="E622" t="s">
-        <v>1875</v>
+        <v>1855</v>
       </c>
       <c r="I622"/>
       <c r="J622"/>
@@ -28418,7 +29059,7 @@
         <v>2734</v>
       </c>
       <c r="E623" t="s">
-        <v>1877</v>
+        <v>1857</v>
       </c>
       <c r="I623"/>
       <c r="J623"/>
@@ -28428,7 +29069,7 @@
         <v>2735</v>
       </c>
       <c r="E624" t="s">
-        <v>1879</v>
+        <v>1859</v>
       </c>
       <c r="I624"/>
       <c r="J624"/>
@@ -28438,7 +29079,7 @@
         <v>2736</v>
       </c>
       <c r="E625" t="s">
-        <v>1881</v>
+        <v>1861</v>
       </c>
       <c r="I625"/>
       <c r="J625"/>
@@ -28448,7 +29089,7 @@
         <v>2737</v>
       </c>
       <c r="E626" t="s">
-        <v>1883</v>
+        <v>1863</v>
       </c>
       <c r="I626"/>
       <c r="J626"/>
@@ -28458,7 +29099,7 @@
         <v>2738</v>
       </c>
       <c r="E627" t="s">
-        <v>1885</v>
+        <v>1865</v>
       </c>
       <c r="I627"/>
       <c r="J627"/>
@@ -28468,7 +29109,7 @@
         <v>2739</v>
       </c>
       <c r="E628" t="s">
-        <v>1887</v>
+        <v>1867</v>
       </c>
       <c r="I628"/>
       <c r="J628"/>
@@ -28478,7 +29119,7 @@
         <v>2740</v>
       </c>
       <c r="E629" t="s">
-        <v>1889</v>
+        <v>1869</v>
       </c>
       <c r="I629"/>
       <c r="J629"/>
@@ -28488,7 +29129,7 @@
         <v>2741</v>
       </c>
       <c r="E630" t="s">
-        <v>1891</v>
+        <v>1871</v>
       </c>
       <c r="I630"/>
       <c r="J630"/>
@@ -28498,7 +29139,7 @@
         <v>2742</v>
       </c>
       <c r="E631" t="s">
-        <v>1893</v>
+        <v>1873</v>
       </c>
       <c r="I631"/>
       <c r="J631"/>
@@ -28508,7 +29149,7 @@
         <v>2743</v>
       </c>
       <c r="E632" t="s">
-        <v>1895</v>
+        <v>1875</v>
       </c>
       <c r="I632"/>
       <c r="J632"/>
@@ -28518,7 +29159,7 @@
         <v>2744</v>
       </c>
       <c r="E633" t="s">
-        <v>1897</v>
+        <v>1877</v>
       </c>
       <c r="I633"/>
       <c r="J633"/>
@@ -28528,7 +29169,7 @@
         <v>2745</v>
       </c>
       <c r="E634" t="s">
-        <v>1899</v>
+        <v>1879</v>
       </c>
       <c r="I634"/>
       <c r="J634"/>
@@ -28538,7 +29179,7 @@
         <v>2837</v>
       </c>
       <c r="E635" t="s">
-        <v>1901</v>
+        <v>1881</v>
       </c>
       <c r="I635"/>
       <c r="J635"/>
@@ -28548,7 +29189,7 @@
         <v>2838</v>
       </c>
       <c r="E636" t="s">
-        <v>1903</v>
+        <v>1883</v>
       </c>
       <c r="I636"/>
       <c r="J636"/>
@@ -28558,7 +29199,7 @@
         <v>2839</v>
       </c>
       <c r="E637" t="s">
-        <v>1905</v>
+        <v>1885</v>
       </c>
       <c r="I637"/>
       <c r="J637"/>
@@ -28568,7 +29209,7 @@
         <v>2840</v>
       </c>
       <c r="E638" t="s">
-        <v>1907</v>
+        <v>1887</v>
       </c>
       <c r="I638"/>
       <c r="J638"/>
@@ -28578,7 +29219,7 @@
         <v>2866</v>
       </c>
       <c r="E639" t="s">
-        <v>1909</v>
+        <v>1889</v>
       </c>
       <c r="I639"/>
       <c r="J639"/>
@@ -28588,7 +29229,7 @@
         <v>2867</v>
       </c>
       <c r="E640" t="s">
-        <v>1911</v>
+        <v>1891</v>
       </c>
       <c r="I640"/>
       <c r="J640"/>
@@ -28598,7 +29239,7 @@
         <v>2872</v>
       </c>
       <c r="E641" t="s">
-        <v>1913</v>
+        <v>1893</v>
       </c>
       <c r="I641"/>
       <c r="J641"/>
@@ -28608,7 +29249,7 @@
         <v>2882</v>
       </c>
       <c r="E642" t="s">
-        <v>1915</v>
+        <v>1895</v>
       </c>
       <c r="I642"/>
       <c r="J642"/>
@@ -28618,7 +29259,7 @@
         <v>2900</v>
       </c>
       <c r="E643" t="s">
-        <v>1917</v>
+        <v>1897</v>
       </c>
       <c r="I643"/>
       <c r="J643"/>
@@ -28628,7 +29269,7 @@
         <v>2901</v>
       </c>
       <c r="E644" t="s">
-        <v>1919</v>
+        <v>1899</v>
       </c>
       <c r="I644"/>
       <c r="J644"/>
@@ -28638,7 +29279,7 @@
         <v>2902</v>
       </c>
       <c r="E645" t="s">
-        <v>1921</v>
+        <v>1901</v>
       </c>
       <c r="I645"/>
       <c r="J645"/>
@@ -28648,7 +29289,7 @@
         <v>2969</v>
       </c>
       <c r="E646" t="s">
-        <v>1923</v>
+        <v>1903</v>
       </c>
       <c r="I646"/>
       <c r="J646"/>
@@ -28658,145 +29299,147 @@
         <v>2970</v>
       </c>
       <c r="E647" t="s">
-        <v>1925</v>
-      </c>
+        <v>1905</v>
+      </c>
+      <c r="I647"/>
+      <c r="J647"/>
     </row>
     <row r="648" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A648" s="16" t="s">
         <v>2971</v>
       </c>
       <c r="E648" t="s">
-        <v>1927</v>
-      </c>
+        <v>1907</v>
+      </c>
+      <c r="I648"/>
+      <c r="J648"/>
     </row>
     <row r="649" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A649" s="16" t="s">
         <v>2972</v>
       </c>
       <c r="E649" t="s">
-        <v>1929</v>
-      </c>
+        <v>1909</v>
+      </c>
+      <c r="I649"/>
+      <c r="J649"/>
     </row>
     <row r="650" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A650" s="16" t="s">
         <v>2973</v>
       </c>
       <c r="E650" t="s">
-        <v>1931</v>
-      </c>
+        <v>1911</v>
+      </c>
+      <c r="I650"/>
+      <c r="J650"/>
     </row>
     <row r="651" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A651" s="16" t="s">
         <v>2974</v>
       </c>
       <c r="E651" t="s">
-        <v>1933</v>
-      </c>
+        <v>1913</v>
+      </c>
+      <c r="I651"/>
+      <c r="J651"/>
     </row>
     <row r="652" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A652" s="16" t="s">
         <v>2975</v>
       </c>
       <c r="E652" t="s">
-        <v>1937</v>
-      </c>
+        <v>1915</v>
+      </c>
+      <c r="I652"/>
+      <c r="J652"/>
     </row>
     <row r="653" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A653" s="16" t="s">
         <v>2976</v>
       </c>
       <c r="E653" t="s">
-        <v>1939</v>
-      </c>
+        <v>1917</v>
+      </c>
+      <c r="I653"/>
+      <c r="J653"/>
     </row>
     <row r="654" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A654" s="16" t="s">
         <v>2977</v>
       </c>
       <c r="E654" t="s">
-        <v>1941</v>
-      </c>
+        <v>1919</v>
+      </c>
+      <c r="I654"/>
+      <c r="J654"/>
     </row>
     <row r="655" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A655" s="16" t="s">
         <v>2978</v>
       </c>
       <c r="E655" t="s">
-        <v>1943</v>
-      </c>
+        <v>1921</v>
+      </c>
+      <c r="I655"/>
+      <c r="J655"/>
     </row>
     <row r="656" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A656" s="16" t="s">
         <v>2979</v>
       </c>
       <c r="E656" t="s">
-        <v>1945</v>
-      </c>
+        <v>1923</v>
+      </c>
+      <c r="I656"/>
+      <c r="J656"/>
     </row>
     <row r="657" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A657" s="16" t="s">
         <v>2980</v>
       </c>
       <c r="E657" t="s">
-        <v>1947</v>
-      </c>
-      <c r="I657"/>
-      <c r="J657"/>
+        <v>1925</v>
+      </c>
     </row>
     <row r="658" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A658" s="16" t="s">
         <v>3062</v>
       </c>
       <c r="E658" t="s">
-        <v>1949</v>
-      </c>
-      <c r="I658"/>
-      <c r="J658"/>
+        <v>1927</v>
+      </c>
     </row>
     <row r="659" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A659" s="16" t="s">
         <v>3063</v>
       </c>
       <c r="E659" t="s">
-        <v>1951</v>
-      </c>
-      <c r="I659"/>
-      <c r="J659"/>
+        <v>1929</v>
+      </c>
     </row>
     <row r="660" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A660" s="16" t="s">
         <v>3064</v>
       </c>
       <c r="E660" t="s">
-        <v>1953</v>
-      </c>
-      <c r="I660"/>
-      <c r="J660"/>
+        <v>1931</v>
+      </c>
     </row>
     <row r="661" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A661" s="16" t="s">
         <v>3065</v>
       </c>
       <c r="E661" t="s">
-        <v>1955</v>
-      </c>
-      <c r="I661"/>
-      <c r="J661"/>
+        <v>1933</v>
+      </c>
     </row>
     <row r="662" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A662" s="16" t="s">
         <v>3066</v>
       </c>
       <c r="E662" t="s">
-        <v>1957</v>
-      </c>
-      <c r="F662" t="s">
-        <v>2819</v>
-      </c>
-      <c r="I662"/>
-      <c r="J662"/>
-      <c r="M662" s="37" t="s">
-        <v>2820</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="663" spans="1:13" x14ac:dyDescent="0.35">
@@ -28804,25 +29447,15 @@
         <v>3067</v>
       </c>
       <c r="E663" t="s">
-        <v>2821</v>
-      </c>
-      <c r="F663" t="s">
-        <v>2147</v>
-      </c>
-      <c r="I663"/>
-      <c r="J663"/>
+        <v>1939</v>
+      </c>
     </row>
     <row r="664" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A664" s="16" t="s">
         <v>3068</v>
       </c>
       <c r="E664" t="s">
-        <v>1959</v>
-      </c>
-      <c r="I664"/>
-      <c r="J664"/>
-      <c r="M664" s="37" t="s">
-        <v>2384</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="665" spans="1:13" x14ac:dyDescent="0.35">
@@ -28830,20 +29463,128 @@
         <v>3069</v>
       </c>
       <c r="E665" t="s">
-        <v>1961</v>
-      </c>
-      <c r="I665"/>
-      <c r="J665"/>
+        <v>1943</v>
+      </c>
     </row>
     <row r="666" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A666" s="16" t="s">
         <v>3092</v>
       </c>
       <c r="E666" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="667" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A667" s="16" t="s">
+        <v>3151</v>
+      </c>
+      <c r="E667" t="s">
+        <v>1947</v>
+      </c>
+      <c r="I667"/>
+      <c r="J667"/>
+    </row>
+    <row r="668" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A668" s="16" t="s">
+        <v>3152</v>
+      </c>
+      <c r="E668" t="s">
+        <v>1949</v>
+      </c>
+      <c r="I668"/>
+      <c r="J668"/>
+    </row>
+    <row r="669" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A669" s="16" t="s">
+        <v>3153</v>
+      </c>
+      <c r="E669" t="s">
+        <v>1951</v>
+      </c>
+      <c r="I669"/>
+      <c r="J669"/>
+    </row>
+    <row r="670" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A670" s="16" t="s">
+        <v>3154</v>
+      </c>
+      <c r="E670" t="s">
+        <v>1953</v>
+      </c>
+      <c r="I670"/>
+      <c r="J670"/>
+    </row>
+    <row r="671" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A671" s="16" t="s">
+        <v>3155</v>
+      </c>
+      <c r="E671" t="s">
+        <v>1955</v>
+      </c>
+      <c r="I671"/>
+      <c r="J671"/>
+    </row>
+    <row r="672" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A672" s="16" t="s">
+        <v>3156</v>
+      </c>
+      <c r="E672" t="s">
+        <v>1957</v>
+      </c>
+      <c r="F672" t="s">
+        <v>2819</v>
+      </c>
+      <c r="I672"/>
+      <c r="J672"/>
+      <c r="M672" s="37" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="673" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A673" s="16" t="s">
+        <v>3157</v>
+      </c>
+      <c r="E673" t="s">
+        <v>2821</v>
+      </c>
+      <c r="F673" t="s">
+        <v>2147</v>
+      </c>
+      <c r="I673"/>
+      <c r="J673"/>
+    </row>
+    <row r="674" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A674" s="16" t="s">
+        <v>3158</v>
+      </c>
+      <c r="E674" t="s">
+        <v>1959</v>
+      </c>
+      <c r="I674"/>
+      <c r="J674"/>
+      <c r="M674" s="37" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="675" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A675" s="16" t="s">
+        <v>3159</v>
+      </c>
+      <c r="E675" t="s">
+        <v>1961</v>
+      </c>
+      <c r="I675"/>
+      <c r="J675"/>
+    </row>
+    <row r="676" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A676" s="16" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E676" t="s">
         <v>1963</v>
       </c>
-      <c r="I666"/>
-      <c r="J666"/>
+      <c r="I676"/>
+      <c r="J676"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -30029,10 +30770,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K256"/>
+  <dimension ref="A1:K266"/>
   <sheetViews>
-    <sheetView topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="A250" sqref="A250:A256"/>
+    <sheetView topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="A260" sqref="A260:A266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -37215,36 +37956,58 @@
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B249" s="1"/>
-      <c r="C249" s="36"/>
-      <c r="D249"/>
-      <c r="F249" s="8"/>
-      <c r="G249" s="1"/>
+      <c r="A249" s="1" t="s">
+        <v>3056</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C249" s="60" t="s">
+        <v>3099</v>
+      </c>
+      <c r="D249" s="24" t="s">
+        <v>3101</v>
+      </c>
+      <c r="E249" t="s">
+        <v>2192</v>
+      </c>
+      <c r="F249" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="G249" s="1">
+        <v>2021</v>
+      </c>
+      <c r="I249" t="s">
+        <v>2362</v>
+      </c>
+      <c r="J249" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
-        <v>3056</v>
+        <v>3057</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="C250" t="s">
-        <v>831</v>
-      </c>
-      <c r="D250" t="s">
-        <v>832</v>
+      <c r="C250" s="60" t="s">
+        <v>3100</v>
+      </c>
+      <c r="D250" s="24" t="s">
+        <v>3102</v>
       </c>
       <c r="E250" t="s">
-        <v>2154</v>
+        <v>2192</v>
       </c>
       <c r="F250" s="8" t="s">
         <v>642</v>
       </c>
       <c r="G250" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="I250" t="s">
-        <v>2391</v>
+        <v>2362</v>
       </c>
       <c r="J250" t="s">
         <v>643</v>
@@ -37252,28 +38015,28 @@
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
-        <v>3057</v>
+        <v>3058</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="C251" t="s">
-        <v>833</v>
-      </c>
-      <c r="D251" t="s">
-        <v>832</v>
+      <c r="C251" s="59" t="s">
+        <v>3110</v>
+      </c>
+      <c r="D251" s="24" t="s">
+        <v>3111</v>
       </c>
       <c r="E251" t="s">
         <v>2154</v>
       </c>
-      <c r="F251" s="8" t="s">
+      <c r="F251" s="31" t="s">
         <v>642</v>
       </c>
       <c r="G251" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="I251" t="s">
-        <v>2391</v>
+        <v>3112</v>
       </c>
       <c r="J251" t="s">
         <v>643</v>
@@ -37281,28 +38044,28 @@
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
-        <v>3058</v>
+        <v>3059</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="C252" t="s">
-        <v>834</v>
-      </c>
-      <c r="D252" t="s">
-        <v>670</v>
+      <c r="C252" s="59" t="s">
+        <v>3108</v>
+      </c>
+      <c r="D252" s="24" t="s">
+        <v>3109</v>
       </c>
       <c r="E252" t="s">
         <v>2154</v>
       </c>
-      <c r="F252" s="8" t="s">
+      <c r="F252" s="31" t="s">
         <v>642</v>
       </c>
       <c r="G252" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="I252" t="s">
-        <v>2391</v>
+        <v>3112</v>
       </c>
       <c r="J252" t="s">
         <v>643</v>
@@ -37310,28 +38073,28 @@
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
-        <v>3059</v>
+        <v>3060</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="C253" t="s">
-        <v>835</v>
-      </c>
-      <c r="D253" t="s">
-        <v>836</v>
+      <c r="C253" s="59" t="s">
+        <v>3117</v>
+      </c>
+      <c r="D253" s="24" t="s">
+        <v>3119</v>
       </c>
       <c r="E253" t="s">
         <v>2154</v>
       </c>
-      <c r="F253" s="8" t="s">
+      <c r="F253" s="31" t="s">
         <v>642</v>
       </c>
       <c r="G253" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="I253" t="s">
-        <v>2391</v>
+        <v>3121</v>
       </c>
       <c r="J253" t="s">
         <v>643</v>
@@ -37339,28 +38102,28 @@
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
-        <v>3060</v>
+        <v>3061</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="C254" t="s">
-        <v>837</v>
-      </c>
-      <c r="D254" t="s">
-        <v>836</v>
+      <c r="C254" s="59" t="s">
+        <v>3118</v>
+      </c>
+      <c r="D254" s="24" t="s">
+        <v>3120</v>
       </c>
       <c r="E254" t="s">
         <v>2154</v>
       </c>
-      <c r="F254" s="8" t="s">
+      <c r="F254" s="31" t="s">
         <v>642</v>
       </c>
       <c r="G254" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="I254" t="s">
-        <v>2391</v>
+        <v>3121</v>
       </c>
       <c r="J254" t="s">
         <v>643</v>
@@ -37368,25 +38131,28 @@
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
-        <v>3061</v>
+        <v>3091</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>2155</v>
-      </c>
-      <c r="C255" s="24" t="s">
-        <v>2149</v>
+        <v>639</v>
+      </c>
+      <c r="C255" s="59" t="s">
+        <v>3124</v>
       </c>
       <c r="D255" s="24" t="s">
-        <v>2150</v>
+        <v>3125</v>
       </c>
       <c r="E255" t="s">
-        <v>2192</v>
-      </c>
-      <c r="F255" s="8" t="s">
+        <v>2154</v>
+      </c>
+      <c r="F255" s="31" t="s">
         <v>642</v>
       </c>
       <c r="G255" s="1">
-        <v>2020</v>
+        <v>2021</v>
+      </c>
+      <c r="I255" t="s">
+        <v>3126</v>
       </c>
       <c r="J255" t="s">
         <v>643</v>
@@ -37394,27 +38160,292 @@
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
-        <v>3091</v>
+        <v>3141</v>
       </c>
       <c r="B256" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C256" s="59" t="s">
+        <v>3130</v>
+      </c>
+      <c r="D256" s="24" t="s">
+        <v>3131</v>
+      </c>
+      <c r="E256" t="s">
+        <v>2154</v>
+      </c>
+      <c r="F256" s="31" t="s">
+        <v>642</v>
+      </c>
+      <c r="G256" s="1">
+        <v>2021</v>
+      </c>
+      <c r="I256" t="s">
+        <v>3129</v>
+      </c>
+      <c r="J256" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A257" s="1" t="s">
+        <v>3142</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C257" s="59" t="s">
+        <v>3136</v>
+      </c>
+      <c r="D257" s="24" t="s">
+        <v>3137</v>
+      </c>
+      <c r="E257" t="s">
+        <v>2154</v>
+      </c>
+      <c r="F257" s="31" t="s">
+        <v>642</v>
+      </c>
+      <c r="G257" s="1">
+        <v>2021</v>
+      </c>
+      <c r="I257" t="s">
+        <v>3139</v>
+      </c>
+      <c r="J257" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A258" s="1" t="s">
+        <v>3143</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C258" s="59" t="s">
+        <v>3140</v>
+      </c>
+      <c r="D258" s="24" t="s">
+        <v>3138</v>
+      </c>
+      <c r="E258" t="s">
+        <v>2154</v>
+      </c>
+      <c r="F258" s="31" t="s">
+        <v>642</v>
+      </c>
+      <c r="G258" s="1">
+        <v>2021</v>
+      </c>
+      <c r="I258" t="s">
+        <v>3139</v>
+      </c>
+      <c r="J258" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B259" s="1"/>
+      <c r="C259" s="36"/>
+      <c r="D259"/>
+      <c r="F259" s="8"/>
+      <c r="G259" s="1"/>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A260" s="1" t="s">
+        <v>3144</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C260" t="s">
+        <v>831</v>
+      </c>
+      <c r="D260" t="s">
+        <v>832</v>
+      </c>
+      <c r="E260" t="s">
+        <v>2154</v>
+      </c>
+      <c r="F260" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="G260" s="1">
+        <v>2020</v>
+      </c>
+      <c r="I260" t="s">
+        <v>2391</v>
+      </c>
+      <c r="J260" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A261" s="1" t="s">
+        <v>3145</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C261" t="s">
+        <v>833</v>
+      </c>
+      <c r="D261" t="s">
+        <v>832</v>
+      </c>
+      <c r="E261" t="s">
+        <v>2154</v>
+      </c>
+      <c r="F261" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="G261" s="1">
+        <v>2020</v>
+      </c>
+      <c r="I261" t="s">
+        <v>2391</v>
+      </c>
+      <c r="J261" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A262" s="1" t="s">
+        <v>3146</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C262" t="s">
+        <v>834</v>
+      </c>
+      <c r="D262" t="s">
+        <v>670</v>
+      </c>
+      <c r="E262" t="s">
+        <v>2154</v>
+      </c>
+      <c r="F262" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="G262" s="1">
+        <v>2020</v>
+      </c>
+      <c r="I262" t="s">
+        <v>2391</v>
+      </c>
+      <c r="J262" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A263" s="1" t="s">
+        <v>3147</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C263" t="s">
+        <v>835</v>
+      </c>
+      <c r="D263" t="s">
+        <v>836</v>
+      </c>
+      <c r="E263" t="s">
+        <v>2154</v>
+      </c>
+      <c r="F263" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="G263" s="1">
+        <v>2020</v>
+      </c>
+      <c r="I263" t="s">
+        <v>2391</v>
+      </c>
+      <c r="J263" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A264" s="1" t="s">
+        <v>3148</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C264" t="s">
+        <v>837</v>
+      </c>
+      <c r="D264" t="s">
+        <v>836</v>
+      </c>
+      <c r="E264" t="s">
+        <v>2154</v>
+      </c>
+      <c r="F264" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="G264" s="1">
+        <v>2020</v>
+      </c>
+      <c r="I264" t="s">
+        <v>2391</v>
+      </c>
+      <c r="J264" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A265" s="1" t="s">
+        <v>3149</v>
+      </c>
+      <c r="B265" s="1" t="s">
         <v>2155</v>
       </c>
-      <c r="C256" s="24" t="s">
+      <c r="C265" s="24" t="s">
+        <v>2149</v>
+      </c>
+      <c r="D265" s="24" t="s">
+        <v>2150</v>
+      </c>
+      <c r="E265" t="s">
+        <v>2192</v>
+      </c>
+      <c r="F265" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="G265" s="1">
+        <v>2020</v>
+      </c>
+      <c r="J265" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A266" s="1" t="s">
+        <v>3150</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C266" s="24" t="s">
         <v>2818</v>
       </c>
-      <c r="D256" s="24" t="s">
+      <c r="D266" s="24" t="s">
         <v>2817</v>
       </c>
-      <c r="E256" t="s">
+      <c r="E266" t="s">
         <v>2192</v>
       </c>
-      <c r="F256" s="8" t="s">
+      <c r="F266" s="8" t="s">
         <v>642</v>
       </c>
-      <c r="G256" s="1">
-        <v>2020</v>
-      </c>
-      <c r="J256" t="s">
+      <c r="G266" s="1">
+        <v>2020</v>
+      </c>
+      <c r="J266" t="s">
         <v>643</v>
       </c>
     </row>

--- a/tmee/data_in/data_dictionary/indicator_dictionary_TM_v7.xlsx
+++ b/tmee/data_in/data_dictionary/indicator_dictionary_TM_v7.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="Snapshot" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6727" uniqueCount="3277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6887" uniqueCount="3352">
   <si>
     <t>snapshot_id</t>
   </si>
@@ -9874,6 +9874,231 @@
   </si>
   <si>
     <t>Helix: PT_CHLD_5-17_LBR_ECON-HC</t>
+  </si>
+  <si>
+    <t>Justice for Children</t>
+  </si>
+  <si>
+    <t>Access to Justice</t>
+  </si>
+  <si>
+    <t>JJ_SG_NHR_IMPLN</t>
+  </si>
+  <si>
+    <t>Countries with National Human Rights Institutions in compliance with the Paris Principles (A status)</t>
+  </si>
+  <si>
+    <t>SDG: SG_NHR_IMPLN</t>
+  </si>
+  <si>
+    <t>https://data.un.org/ws/rest/data/DF_SDG_GLH/..SG_NHR_IMPLN............</t>
+  </si>
+  <si>
+    <t>Metadata Reference: https://unstats.un.org/sdgs/metadata/files/Metadata-16-0A-01.pdf</t>
+  </si>
+  <si>
+    <t>JJ_SG_NHR_INTEXSTN</t>
+  </si>
+  <si>
+    <t>Countries with National Human Rights Institutions not fully compliant with the Paris Principles (B status)</t>
+  </si>
+  <si>
+    <t>https://data.un.org/ws/rest/data/DF_SDG_GLH/..SG_NHR_INTEXSTN............</t>
+  </si>
+  <si>
+    <t>SDG: SG_NHR_INTEXSTN</t>
+  </si>
+  <si>
+    <t>JJ_SG_NHR_NOAPPLN</t>
+  </si>
+  <si>
+    <t>Countries with no application for accreditation with the Paris Principles (D status)</t>
+  </si>
+  <si>
+    <t>JJ_SG_NHR_NOSTUSN</t>
+  </si>
+  <si>
+    <t>Countries with National Human Rights Institutions and no status with the Paris Principles (C status)</t>
+  </si>
+  <si>
+    <t>SDG: SG_NHR_NOSTUSN</t>
+  </si>
+  <si>
+    <t>https://data.un.org/ws/rest/data/DF_SDG_GLH/..SG_NHR_NOSTUSN............</t>
+  </si>
+  <si>
+    <t>https://data.un.org/ws/rest/data/DF_SDG_GLH/..SG_NHR_NOAPPLN............</t>
+  </si>
+  <si>
+    <t>SDG: SG_NHR_NOAPPLN</t>
+  </si>
+  <si>
+    <t>JJ_VC_PRS_UNSNT</t>
+  </si>
+  <si>
+    <t>Unsentenced detainees as a proportion of overall prison population (%)</t>
+  </si>
+  <si>
+    <t>SDG: VC_PRS_UNSNT</t>
+  </si>
+  <si>
+    <t>https://data.un.org/ws/rest/data/DF_SDG_GLH/..VC_PRS_UNSNT............</t>
+  </si>
+  <si>
+    <t>Metadata Reference: https://unstats.un.org/sdgs/metadata/files/Metadata-16-03-02.pdf</t>
+  </si>
+  <si>
+    <t>S-275</t>
+  </si>
+  <si>
+    <t>S-276</t>
+  </si>
+  <si>
+    <t>S-277</t>
+  </si>
+  <si>
+    <t>S-278</t>
+  </si>
+  <si>
+    <t>S-279</t>
+  </si>
+  <si>
+    <t>S-280</t>
+  </si>
+  <si>
+    <t>S-281</t>
+  </si>
+  <si>
+    <t>S-282</t>
+  </si>
+  <si>
+    <t>S-283</t>
+  </si>
+  <si>
+    <t>S-284</t>
+  </si>
+  <si>
+    <t>S-285</t>
+  </si>
+  <si>
+    <t>S-286</t>
+  </si>
+  <si>
+    <t>S-287</t>
+  </si>
+  <si>
+    <t>S-288</t>
+  </si>
+  <si>
+    <t>S-289</t>
+  </si>
+  <si>
+    <t>S-290</t>
+  </si>
+  <si>
+    <t>Juvenile Justice</t>
+  </si>
+  <si>
+    <t>I-685</t>
+  </si>
+  <si>
+    <t>I-686</t>
+  </si>
+  <si>
+    <t>I-687</t>
+  </si>
+  <si>
+    <t>I-688</t>
+  </si>
+  <si>
+    <t>I-689</t>
+  </si>
+  <si>
+    <t>I-690</t>
+  </si>
+  <si>
+    <t>I-691</t>
+  </si>
+  <si>
+    <t>I-692</t>
+  </si>
+  <si>
+    <t>I-693</t>
+  </si>
+  <si>
+    <t>I-694</t>
+  </si>
+  <si>
+    <t>I-695</t>
+  </si>
+  <si>
+    <t>I-696</t>
+  </si>
+  <si>
+    <t>I-697</t>
+  </si>
+  <si>
+    <t>I-698</t>
+  </si>
+  <si>
+    <t>I-699</t>
+  </si>
+  <si>
+    <t>I-700</t>
+  </si>
+  <si>
+    <t>SN-267</t>
+  </si>
+  <si>
+    <t>SN-268</t>
+  </si>
+  <si>
+    <t>SN-269</t>
+  </si>
+  <si>
+    <t>SN-270</t>
+  </si>
+  <si>
+    <t>SN-271</t>
+  </si>
+  <si>
+    <t>SN-272</t>
+  </si>
+  <si>
+    <t>SN-273</t>
+  </si>
+  <si>
+    <t>SN-274</t>
+  </si>
+  <si>
+    <t>SN-275</t>
+  </si>
+  <si>
+    <t>SN-276</t>
+  </si>
+  <si>
+    <t>SN-277</t>
+  </si>
+  <si>
+    <t>SN-278</t>
+  </si>
+  <si>
+    <t>SN-279</t>
+  </si>
+  <si>
+    <t>SN-280</t>
+  </si>
+  <si>
+    <t>SN-281</t>
+  </si>
+  <si>
+    <t>SN-282</t>
+  </si>
+  <si>
+    <t>Residence and Wealth</t>
+  </si>
+  <si>
+    <t>Percentage (by residence and wealth quintile)</t>
   </si>
 </sst>
 </file>
@@ -9941,7 +10166,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10011,6 +10236,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10154,7 +10385,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -10322,6 +10553,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10651,10 +10886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L268"/>
+  <dimension ref="A1:L284"/>
   <sheetViews>
-    <sheetView topLeftCell="A249" workbookViewId="0">
-      <selection activeCell="C262" sqref="C262"/>
+    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="G263" sqref="G263:G279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10775,7 +11010,7 @@
         <v>56</v>
       </c>
       <c r="I3" s="25" t="str">
-        <f>VLOOKUP(H3,Source!$A$2:$G$313,3,FALSE)</f>
+        <f>VLOOKUP(H3,Source!$A$2:$G$318,3,FALSE)</f>
         <v>Helix: DM_POP_URBN</v>
       </c>
       <c r="J3" s="1"/>
@@ -10810,7 +11045,7 @@
         <v>53</v>
       </c>
       <c r="I4" s="25" t="str">
-        <f>VLOOKUP(H4,Source!$A$2:$G$313,3,FALSE)</f>
+        <f>VLOOKUP(H4,Source!$A$2:$G$318,3,FALSE)</f>
         <v>Helix: DM_POP_TOT_AGE</v>
       </c>
       <c r="J4" s="1"/>
@@ -10845,7 +11080,7 @@
         <v>59</v>
       </c>
       <c r="I5" s="25" t="str">
-        <f>VLOOKUP(H5,Source!$A$2:$G$313,3,FALSE)</f>
+        <f>VLOOKUP(H5,Source!$A$2:$G$318,3,FALSE)</f>
         <v>WB: SM.POP.NETM</v>
       </c>
       <c r="J5" s="1"/>
@@ -10880,7 +11115,7 @@
         <v>65</v>
       </c>
       <c r="I6" s="25" t="str">
-        <f>VLOOKUP(H6,Source!$A$2:$G$313,3,FALSE)</f>
+        <f>VLOOKUP(H6,Source!$A$2:$G$318,3,FALSE)</f>
         <v>WHO: WHS_PBR</v>
       </c>
       <c r="J6" s="1"/>
@@ -11984,11 +12219,11 @@
         <v>120</v>
       </c>
       <c r="C39" s="44" t="str">
-        <f>VLOOKUP(B39,Indicator!$A$2:$F$823,5,FALSE)</f>
+        <f>VLOOKUP(B39,Indicator!$A$2:$F$826,5,FALSE)</f>
         <v>Percentage of children (by sex, age groups, residence and wealth quintile) with whom any adult household member has engaged in 4 or more activities to provide early stimulation and responsive care in the last 3 days</v>
       </c>
       <c r="D39" s="25" t="str">
-        <f>VLOOKUP(B39,Indicator!$A$2:$F$823,6,FALSE)</f>
+        <f>VLOOKUP(B39,Indicator!$A$2:$F$826,6,FALSE)</f>
         <v>ECD_CHLD_36-59M_ADLT_SRC</v>
       </c>
       <c r="E39" s="1">
@@ -12018,11 +12253,11 @@
         <v>123</v>
       </c>
       <c r="C40" s="44" t="str">
-        <f>VLOOKUP(B40,Indicator!$A$2:$F$823,5,FALSE)</f>
+        <f>VLOOKUP(B40,Indicator!$A$2:$F$826,5,FALSE)</f>
         <v>Coverage of treatment interventions (pharmacological, psychosocial and rehabilitation and aftercare services) for substance use disorders (%)</v>
       </c>
       <c r="D40" s="25" t="str">
-        <f>VLOOKUP(B40,Indicator!$A$2:$F$823,6,FALSE)</f>
+        <f>VLOOKUP(B40,Indicator!$A$2:$F$826,6,FALSE)</f>
         <v>HT_SH_SUD_TREAT</v>
       </c>
       <c r="E40" s="1">
@@ -12052,11 +12287,11 @@
         <v>1066</v>
       </c>
       <c r="C41" s="49" t="str">
-        <f>VLOOKUP(B41,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B41,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Early childhood educational development enrolments (absolute number)</v>
       </c>
       <c r="D41" s="25" t="str">
-        <f>VLOOKUP(B41,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B41,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_STU_L01_TOT</v>
       </c>
       <c r="E41" s="1">
@@ -12086,11 +12321,11 @@
         <v>132</v>
       </c>
       <c r="C42" s="49" t="str">
-        <f>VLOOKUP(B42,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B42,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Early childhood educational development enrolments in public institutions</v>
       </c>
       <c r="D42" s="25" t="str">
-        <f>VLOOKUP(B42,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B42,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_STU_L01_PUB</v>
       </c>
       <c r="E42" s="1">
@@ -12120,11 +12355,11 @@
         <v>135</v>
       </c>
       <c r="C43" s="49" t="str">
-        <f>VLOOKUP(B43,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B43,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Early childhood educational development enrolments in private institutions</v>
       </c>
       <c r="D43" s="25" t="str">
-        <f>VLOOKUP(B43,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B43,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_STU_L01_PRV</v>
       </c>
       <c r="E43" s="1">
@@ -12154,11 +12389,11 @@
         <v>138</v>
       </c>
       <c r="C44" s="49" t="str">
-        <f>VLOOKUP(B44,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B44,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Children in early childhood educational development programs (gross enrolment ratio, % of children aged 0-2)</v>
       </c>
       <c r="D44" s="25" t="str">
-        <f>VLOOKUP(B44,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B44,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_SDG_GER_L01</v>
       </c>
       <c r="E44" s="1">
@@ -12188,11 +12423,11 @@
         <v>147</v>
       </c>
       <c r="C45" s="49" t="str">
-        <f>VLOOKUP(B45,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B45,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Number of years of free pre-primary education guaranteed in legal framework (SDG 4.2.5)</v>
       </c>
       <c r="D45" s="25" t="str">
-        <f>VLOOKUP(B45,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B45,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_SDG_FREE_EDU_L02</v>
       </c>
       <c r="E45" s="1">
@@ -12222,11 +12457,11 @@
         <v>150</v>
       </c>
       <c r="C46" s="49" t="str">
-        <f>VLOOKUP(B46,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B46,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Number of years of compulsory pre-primary education guaranteed in legal framework (SDG 4.2.5)</v>
       </c>
       <c r="D46" s="25" t="str">
-        <f>VLOOKUP(B46,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B46,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_SDG_COMP_EDU_L02</v>
       </c>
       <c r="E46" s="1">
@@ -12256,11 +12491,11 @@
         <v>153</v>
       </c>
       <c r="C47" s="49" t="str">
-        <f>VLOOKUP(B47,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B47,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Pre-primary (ISCED 02) education enrolments (absolute number)</v>
       </c>
       <c r="D47" s="25" t="str">
-        <f>VLOOKUP(B47,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B47,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_STU_L02_TOT</v>
       </c>
       <c r="E47" s="1">
@@ -12290,11 +12525,11 @@
         <v>156</v>
       </c>
       <c r="C48" s="49" t="str">
-        <f>VLOOKUP(B48,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B48,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Pre-primary (ISCED 02) education enrolments in public institutions</v>
       </c>
       <c r="D48" s="25" t="str">
-        <f>VLOOKUP(B48,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B48,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_STU_L02_PUB</v>
       </c>
       <c r="E48" s="1">
@@ -12324,11 +12559,11 @@
         <v>1083</v>
       </c>
       <c r="C49" s="49" t="str">
-        <f>VLOOKUP(B49,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B49,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Pre-primary (ISCED 02) education enrolments in  private institutions</v>
       </c>
       <c r="D49" s="25" t="str">
-        <f>VLOOKUP(B49,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B49,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_STU_L02_PRV</v>
       </c>
       <c r="E49" s="1">
@@ -12358,11 +12593,11 @@
         <v>159</v>
       </c>
       <c r="C50" s="49" t="str">
-        <f>VLOOKUP(B50,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B50,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Enrolment in pre-primary (ISCED 02) education (gross enrolment ratio, % of population aged 3-6, by sex)</v>
       </c>
       <c r="D50" s="25" t="str">
-        <f>VLOOKUP(B50,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B50,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_GER_L02</v>
       </c>
       <c r="E50" s="1">
@@ -12392,11 +12627,11 @@
         <v>1086</v>
       </c>
       <c r="C51" s="49" t="str">
-        <f>VLOOKUP(B51,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B51,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Enrolment in pre-primary  (ISCED 02) education (net enrolment ratio, % of population aged 3-6, by sex)</v>
       </c>
       <c r="D51" s="25" t="str">
-        <f>VLOOKUP(B51,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B51,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_NER_L02</v>
       </c>
       <c r="E51" s="1">
@@ -12426,11 +12661,11 @@
         <v>1088</v>
       </c>
       <c r="C52" s="49" t="str">
-        <f>VLOOKUP(B52,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B52,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Enrolment in private institutions of pre-primary (ISCED 02) education ( % of all children enrolled in respective level of education)</v>
       </c>
       <c r="D52" s="25" t="str">
-        <f>VLOOKUP(B52,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B52,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_PRP_L02</v>
       </c>
       <c r="E52" s="1">
@@ -12460,11 +12695,11 @@
         <v>1089</v>
       </c>
       <c r="C53" s="49" t="str">
-        <f>VLOOKUP(B53,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B53,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Percentage of females in pre-primary (ISCED 02) education (% of all students enrolled in the respective level of education)</v>
       </c>
       <c r="D53" s="25" t="str">
-        <f>VLOOKUP(B53,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B53,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_FEP_L02</v>
       </c>
       <c r="E53" s="1">
@@ -12494,11 +12729,11 @@
         <v>1093</v>
       </c>
       <c r="C54" s="49" t="str">
-        <f>VLOOKUP(B54,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B54,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Participation in organized learning (Adjusted net enrolment rate, one year before official primary entry age - Administrative data) (SDG 4.2.2.)</v>
       </c>
       <c r="D54" s="25" t="str">
-        <f>VLOOKUP(B54,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B54,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_NERA_L1_UNDER1</v>
       </c>
       <c r="E54" s="1">
@@ -12528,11 +12763,11 @@
         <v>165</v>
       </c>
       <c r="C55" s="49" t="str">
-        <f>VLOOKUP(B55,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B55,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Participation in organized learning (Adjusted net attendance rate, one year before official primary entry age - Household survey data) (SDG 4.2.2.)</v>
       </c>
       <c r="D55" s="25" t="str">
-        <f>VLOOKUP(B55,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B55,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_NARA_L1_UNDER1</v>
       </c>
       <c r="E55" s="1">
@@ -12562,11 +12797,11 @@
         <v>168</v>
       </c>
       <c r="C56" s="49" t="str">
-        <f>VLOOKUP(B56,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B56,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Percentage of children (aged 36-59 months, by sex, residence and wealth quintile) developmentally on track in at least 3 of the 4 following domains: literacy-numeracy, physical, social-emotional and learning</v>
       </c>
       <c r="D56" s="25" t="str">
-        <f>VLOOKUP(B56,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B56,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>ECD_CHLD_36-59M_LMPSL</v>
       </c>
       <c r="E56" s="1">
@@ -12596,11 +12831,11 @@
         <v>174</v>
       </c>
       <c r="C57" s="49" t="str">
-        <f>VLOOKUP(B57,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B57,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Net Intake Rate to primary education of official entry age</v>
       </c>
       <c r="D57" s="25" t="str">
-        <f>VLOOKUP(B57,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B57,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_NIR_L1_ENTRYAGE</v>
       </c>
       <c r="E57" s="1">
@@ -12630,11 +12865,11 @@
         <v>180</v>
       </c>
       <c r="C58" s="49" t="str">
-        <f>VLOOKUP(B58,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B58,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Primary education (ISCED 1) enrolments (absolute number)</v>
       </c>
       <c r="D58" s="25" t="str">
-        <f>VLOOKUP(B58,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B58,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_STU_L1_TOT</v>
       </c>
       <c r="E58" s="1">
@@ -12664,11 +12899,11 @@
         <v>183</v>
       </c>
       <c r="C59" s="49" t="str">
-        <f>VLOOKUP(B59,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B59,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Percentage of females in primary  (ISCED 1) education (% of all students enrolled in the respective level of education)</v>
       </c>
       <c r="D59" s="25" t="str">
-        <f>VLOOKUP(B59,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B59,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_FEP_L1</v>
       </c>
       <c r="E59" s="1">
@@ -12698,11 +12933,11 @@
         <v>186</v>
       </c>
       <c r="C60" s="49" t="str">
-        <f>VLOOKUP(B60,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B60,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Lower Secondary education (ISCED 2) enrolments (absolute number)</v>
       </c>
       <c r="D60" s="25" t="str">
-        <f>VLOOKUP(B60,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B60,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_STU_L2_TOT</v>
       </c>
       <c r="E60" s="1">
@@ -12732,11 +12967,11 @@
         <v>189</v>
       </c>
       <c r="C61" s="49" t="str">
-        <f>VLOOKUP(B61,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B61,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Percentage of females in lower secondary  (ISCED 2) education (% of all students enrolled in the respective level of education)</v>
       </c>
       <c r="D61" s="25" t="str">
-        <f>VLOOKUP(B61,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B61,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_FEP_L2</v>
       </c>
       <c r="E61" s="1">
@@ -12766,11 +13001,11 @@
         <v>192</v>
       </c>
       <c r="C62" s="49" t="str">
-        <f>VLOOKUP(B62,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B62,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Upper secondary education (ISCED 3) enrolment (absolute number)</v>
       </c>
       <c r="D62" s="25" t="str">
-        <f>VLOOKUP(B62,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B62,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_STU_L3_TOT</v>
       </c>
       <c r="E62" s="1">
@@ -12800,11 +13035,11 @@
         <v>1112</v>
       </c>
       <c r="C63" s="49" t="str">
-        <f>VLOOKUP(B63,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B63,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Percentage of females in upper secondary education (ISCED 3) (% of all students enrolled in the respective level of education)</v>
       </c>
       <c r="D63" s="25" t="str">
-        <f>VLOOKUP(B63,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B63,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_FEP_L3</v>
       </c>
       <c r="E63" s="1">
@@ -12834,11 +13069,11 @@
         <v>195</v>
       </c>
       <c r="C64" s="49" t="str">
-        <f>VLOOKUP(B64,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B64,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Percentage of females in general upper-secondary education  (% of all students enrolled in the respective level of education)</v>
       </c>
       <c r="D64" s="25" t="str">
-        <f>VLOOKUP(B64,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B64,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_FEP_L3_GEN</v>
       </c>
       <c r="E64" s="1">
@@ -12868,11 +13103,11 @@
         <v>198</v>
       </c>
       <c r="C65" s="49" t="str">
-        <f>VLOOKUP(B65,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B65,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Percentage of females in vocational upper-secondary education  (% of all students enrolled in the respective level of education)</v>
       </c>
       <c r="D65" s="25" t="str">
-        <f>VLOOKUP(B65,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B65,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_FEP_L3_VOC</v>
       </c>
       <c r="E65" s="1">
@@ -12902,11 +13137,11 @@
         <v>201</v>
       </c>
       <c r="C66" s="49" t="str">
-        <f>VLOOKUP(B66,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B66,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Upper secondary enrolment by program orientation - General (number)</v>
       </c>
       <c r="D66" s="25" t="str">
-        <f>VLOOKUP(B66,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B66,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_STU_L3_GEN</v>
       </c>
       <c r="E66" s="1">
@@ -12936,11 +13171,11 @@
         <v>204</v>
       </c>
       <c r="C67" s="49" t="str">
-        <f>VLOOKUP(B67,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B67,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Upper secondary enrolment by program orientation - Vocational (number)</v>
       </c>
       <c r="D67" s="25" t="str">
-        <f>VLOOKUP(B67,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B67,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_STU_L3_VOC</v>
       </c>
       <c r="E67" s="1">
@@ -12970,11 +13205,11 @@
         <v>210</v>
       </c>
       <c r="C68" s="49" t="str">
-        <f>VLOOKUP(B68,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B68,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Primary (ISCED 1) education enrolments in public institutions</v>
       </c>
       <c r="D68" s="25" t="str">
-        <f>VLOOKUP(B68,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B68,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_STU_L1_PUB</v>
       </c>
       <c r="E68" s="1">
@@ -13004,11 +13239,11 @@
         <v>213</v>
       </c>
       <c r="C69" s="49" t="str">
-        <f>VLOOKUP(B69,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B69,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Primary (ISCED 1) education enrolments in  private institutions</v>
       </c>
       <c r="D69" s="25" t="str">
-        <f>VLOOKUP(B69,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B69,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_STU_L1_PRV</v>
       </c>
       <c r="E69" s="1">
@@ -13038,11 +13273,11 @@
         <v>216</v>
       </c>
       <c r="C70" s="49" t="str">
-        <f>VLOOKUP(B70,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B70,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Enrolment in private schools of primary (ISCED 1) education (% of all students enrolled in primary education)</v>
       </c>
       <c r="D70" s="25" t="str">
-        <f>VLOOKUP(B70,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B70,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_PRP_L1</v>
       </c>
       <c r="E70" s="1">
@@ -13072,11 +13307,11 @@
         <v>219</v>
       </c>
       <c r="C71" s="49" t="str">
-        <f>VLOOKUP(B71,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B71,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Lower Secondary education (ISCED 2) enrolments in public institutions</v>
       </c>
       <c r="D71" s="25" t="str">
-        <f>VLOOKUP(B71,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B71,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_STU_L2_PUB</v>
       </c>
       <c r="E71" s="1">
@@ -13106,11 +13341,11 @@
         <v>222</v>
       </c>
       <c r="C72" s="49" t="str">
-        <f>VLOOKUP(B72,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B72,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Lower Secondary education (ISCED 2) enrolments in private institutions</v>
       </c>
       <c r="D72" s="25" t="str">
-        <f>VLOOKUP(B72,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B72,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_STU_L2_PRV</v>
       </c>
       <c r="E72" s="1">
@@ -13140,11 +13375,11 @@
         <v>225</v>
       </c>
       <c r="C73" s="49" t="str">
-        <f>VLOOKUP(B73,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B73,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Enrolment in private schools of lower secondary (ISCED 2) education (% of all students enrolled in the respective level of education)</v>
       </c>
       <c r="D73" s="25" t="str">
-        <f>VLOOKUP(B73,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B73,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_PRP_L2</v>
       </c>
       <c r="E73" s="1">
@@ -13174,11 +13409,11 @@
         <v>1136</v>
       </c>
       <c r="C74" s="49" t="str">
-        <f>VLOOKUP(B74,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B74,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Upper secondary education (ISCED 3) enrolment (absolute number) -public institutions</v>
       </c>
       <c r="D74" s="25" t="str">
-        <f>VLOOKUP(B74,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B74,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_STU_L3_PUB</v>
       </c>
       <c r="E74" s="1">
@@ -13208,11 +13443,11 @@
         <v>228</v>
       </c>
       <c r="C75" s="49" t="str">
-        <f>VLOOKUP(B75,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B75,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Upper secondary education (ISCED 3) enrolment (absolute number) -private institutions</v>
       </c>
       <c r="D75" s="25" t="str">
-        <f>VLOOKUP(B75,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B75,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_STU_L3_PRV</v>
       </c>
       <c r="E75" s="1">
@@ -13242,11 +13477,11 @@
         <v>231</v>
       </c>
       <c r="C76" s="49" t="str">
-        <f>VLOOKUP(B76,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B76,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Enrolment in private schools of upper secondary (ISCED 3) education (% of all students enrolled in the respective level of education)</v>
       </c>
       <c r="D76" s="25" t="str">
-        <f>VLOOKUP(B76,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B76,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_PRP_L3</v>
       </c>
       <c r="E76" s="1">
@@ -13276,11 +13511,11 @@
         <v>234</v>
       </c>
       <c r="C77" s="49" t="str">
-        <f>VLOOKUP(B77,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B77,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Upper secondary enrolment by program orientation and type of institution - General, public institutions</v>
       </c>
       <c r="D77" s="25" t="str">
-        <f>VLOOKUP(B77,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B77,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_STU_L3_GEN_PUB</v>
       </c>
       <c r="E77" s="1">
@@ -13310,11 +13545,11 @@
         <v>237</v>
       </c>
       <c r="C78" s="49" t="str">
-        <f>VLOOKUP(B78,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B78,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Upper secondary enrolment by program orientation and type of institution - General, private institutions</v>
       </c>
       <c r="D78" s="25" t="str">
-        <f>VLOOKUP(B78,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B78,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_STU_L3_GEN_PRV</v>
       </c>
       <c r="E78" s="1">
@@ -13344,11 +13579,11 @@
         <v>243</v>
       </c>
       <c r="C79" s="49" t="str">
-        <f>VLOOKUP(B79,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B79,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Vocational or technical upper secondary education enrolments in public institutions</v>
       </c>
       <c r="D79" s="25" t="str">
-        <f>VLOOKUP(B79,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B79,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_STU_L3_VOC_PUB</v>
       </c>
       <c r="E79" s="1">
@@ -13378,11 +13613,11 @@
         <v>246</v>
       </c>
       <c r="C80" s="49" t="str">
-        <f>VLOOKUP(B80,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B80,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Vocational or technical upper secondary education enrolments  in private institutions</v>
       </c>
       <c r="D80" s="25" t="str">
-        <f>VLOOKUP(B80,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B80,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_STU_L3_VOC_PRV</v>
       </c>
       <c r="E80" s="1">
@@ -13412,11 +13647,11 @@
         <v>249</v>
       </c>
       <c r="C81" s="49" t="str">
-        <f>VLOOKUP(B81,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B81,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Primary education (ISCED 1) gross enrolment ratio (% of relevant population)</v>
       </c>
       <c r="D81" s="25" t="str">
-        <f>VLOOKUP(B81,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B81,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_GER_L1</v>
       </c>
       <c r="E81" s="1">
@@ -13446,11 +13681,11 @@
         <v>252</v>
       </c>
       <c r="C82" s="49" t="str">
-        <f>VLOOKUP(B82,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B82,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Lower secondary education (ISCED 2) gross enrolment ratio (% of relevant population)</v>
       </c>
       <c r="D82" s="25" t="str">
-        <f>VLOOKUP(B82,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B82,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_GER_L2</v>
       </c>
       <c r="E82" s="1">
@@ -13480,11 +13715,11 @@
         <v>255</v>
       </c>
       <c r="C83" s="49" t="str">
-        <f>VLOOKUP(B83,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B83,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Basic education (ISCED 1 and 2) gross enrolment ratio (% of relevant population)</v>
       </c>
       <c r="D83" s="25" t="str">
-        <f>VLOOKUP(B83,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B83,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_GER_L1AND2</v>
       </c>
       <c r="E83" s="1">
@@ -13514,11 +13749,11 @@
         <v>258</v>
       </c>
       <c r="C84" s="49" t="str">
-        <f>VLOOKUP(B84,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B84,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Lower secondary education (ISCED 2) gross enrolment ratio by program orientation - General (% of relevant population)</v>
       </c>
       <c r="D84" s="25" t="str">
-        <f>VLOOKUP(B84,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B84,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_GER_L2_GEN</v>
       </c>
       <c r="E84" s="1">
@@ -13548,11 +13783,11 @@
         <v>261</v>
       </c>
       <c r="C85" s="49" t="str">
-        <f>VLOOKUP(B85,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B85,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Lower secondary education (ISCED 2) gross enrolment ratio by program orientation - Vocational (% of relevant population)</v>
       </c>
       <c r="D85" s="25" t="str">
-        <f>VLOOKUP(B85,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B85,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_GER_L2_VOC</v>
       </c>
       <c r="E85" s="1">
@@ -13582,11 +13817,11 @@
         <v>264</v>
       </c>
       <c r="C86" s="49" t="str">
-        <f>VLOOKUP(B86,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B86,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Upper-secondary education (ISCED 3) gross enrolment ratio (% of population aged 15-18)</v>
       </c>
       <c r="D86" s="25" t="str">
-        <f>VLOOKUP(B86,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B86,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_GER_L3</v>
       </c>
       <c r="E86" s="1">
@@ -13616,11 +13851,11 @@
         <v>267</v>
       </c>
       <c r="C87" s="49" t="str">
-        <f>VLOOKUP(B87,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B87,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Upper secondary gross enrolment ratio by program orientiation - General (% of population aged 15-18)</v>
       </c>
       <c r="D87" s="25" t="str">
-        <f>VLOOKUP(B87,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B87,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_GER_L3_GEN</v>
       </c>
       <c r="E87" s="1">
@@ -13650,11 +13885,11 @@
         <v>270</v>
       </c>
       <c r="C88" s="49" t="str">
-        <f>VLOOKUP(B88,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B88,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Upper secondary gross enrolment ratio by program orientiation - Vocational (% of population aged 15-18)</v>
       </c>
       <c r="D88" s="25" t="str">
-        <f>VLOOKUP(B88,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B88,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_GER_L3_VOC</v>
       </c>
       <c r="E88" s="1">
@@ -13684,11 +13919,11 @@
         <v>273</v>
       </c>
       <c r="C89" s="49" t="str">
-        <f>VLOOKUP(B89,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B89,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Adjusted net enrolment rate: primary education (%)</v>
       </c>
       <c r="D89" s="25" t="str">
-        <f>VLOOKUP(B89,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B89,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_NERA_L1</v>
       </c>
       <c r="E89" s="1">
@@ -13718,11 +13953,11 @@
         <v>276</v>
       </c>
       <c r="C90" s="49" t="str">
-        <f>VLOOKUP(B90,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B90,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Adjusted net enrolment rate: lower secondary (%)</v>
       </c>
       <c r="D90" s="25" t="str">
-        <f>VLOOKUP(B90,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B90,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_NERA_L2</v>
       </c>
       <c r="E90" s="1">
@@ -13752,11 +13987,11 @@
         <v>279</v>
       </c>
       <c r="C91" s="49" t="str">
-        <f>VLOOKUP(B91,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B91,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Proportion of children in grade 2 or 3 reaching minimum proficiency in reading</v>
       </c>
       <c r="D91" s="25" t="str">
-        <f>VLOOKUP(B91,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B91,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_SDG_STU_L1_G2OR3_REA</v>
       </c>
       <c r="E91" s="1">
@@ -13786,11 +14021,11 @@
         <v>282</v>
       </c>
       <c r="C92" s="49" t="str">
-        <f>VLOOKUP(B92,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B92,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Proportion of children in grade 2 or 3 reaching minimum proficiency in math</v>
       </c>
       <c r="D92" s="25" t="str">
-        <f>VLOOKUP(B92,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B92,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_SDG_STU_L1_G2OR3_MAT</v>
       </c>
       <c r="E92" s="1">
@@ -13820,11 +14055,11 @@
         <v>285</v>
       </c>
       <c r="C93" s="49" t="str">
-        <f>VLOOKUP(B93,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B93,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Proportion of children at the end of primary education reaching minimum proficiency in reading</v>
       </c>
       <c r="D93" s="25" t="str">
-        <f>VLOOKUP(B93,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B93,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_SDG_STU_L1_GLAST_REA</v>
       </c>
       <c r="E93" s="1">
@@ -13854,11 +14089,11 @@
         <v>288</v>
       </c>
       <c r="C94" s="49" t="str">
-        <f>VLOOKUP(B94,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B94,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Proportion of children at the end of primary education reaching minimum proficiency in math</v>
       </c>
       <c r="D94" s="25" t="str">
-        <f>VLOOKUP(B94,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B94,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_SDG_STU_L1_GLAST_MAT</v>
       </c>
       <c r="E94" s="1">
@@ -13888,11 +14123,11 @@
         <v>291</v>
       </c>
       <c r="C95" s="49" t="str">
-        <f>VLOOKUP(B95,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B95,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Proportion of children at the end of lower secondary education reaching minimum proficiency in reading</v>
       </c>
       <c r="D95" s="25" t="str">
-        <f>VLOOKUP(B95,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B95,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_SDG_STU_L2_GLAST_REA</v>
       </c>
       <c r="E95" s="1">
@@ -13922,11 +14157,11 @@
         <v>1167</v>
       </c>
       <c r="C96" s="49" t="str">
-        <f>VLOOKUP(B96,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B96,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Proportion of children at the end of lower secondary education reaching minimum proficiency in math</v>
       </c>
       <c r="D96" s="25" t="str">
-        <f>VLOOKUP(B96,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B96,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_SDG_STU_L2_GLAST_MAT</v>
       </c>
       <c r="E96" s="1">
@@ -13956,11 +14191,11 @@
         <v>1168</v>
       </c>
       <c r="C97" s="49" t="str">
-        <f>VLOOKUP(B97,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B97,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Administration of nationally representative learning assessment in reading (End primary)</v>
       </c>
       <c r="D97" s="25" t="str">
-        <f>VLOOKUP(B97,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B97,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_ADMIN_L1_GLAST_REA</v>
       </c>
       <c r="E97" s="1">
@@ -13990,11 +14225,11 @@
         <v>1169</v>
       </c>
       <c r="C98" s="49" t="str">
-        <f>VLOOKUP(B98,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B98,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Administration of nationally representative learning assessment in math (End primary)</v>
       </c>
       <c r="D98" s="25" t="str">
-        <f>VLOOKUP(B98,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B98,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_ADMIN_L1_GLAST_MAT</v>
       </c>
       <c r="E98" s="1">
@@ -14024,11 +14259,11 @@
         <v>1170</v>
       </c>
       <c r="C99" s="49" t="str">
-        <f>VLOOKUP(B99,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B99,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Administration of nationally representative learning assessment in reading (Lower secondary)</v>
       </c>
       <c r="D99" s="25" t="str">
-        <f>VLOOKUP(B99,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B99,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_ADMIN_L2_REA</v>
       </c>
       <c r="E99" s="1">
@@ -14058,11 +14293,11 @@
         <v>1171</v>
       </c>
       <c r="C100" s="49" t="str">
-        <f>VLOOKUP(B100,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B100,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Administration of nationally representative learning assessment in math (Lower secondary)</v>
       </c>
       <c r="D100" s="25" t="str">
-        <f>VLOOKUP(B100,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B100,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_ADMIN_L2_MAT</v>
       </c>
       <c r="E100" s="1">
@@ -14092,11 +14327,11 @@
         <v>1172</v>
       </c>
       <c r="C101" s="49" t="str">
-        <f>VLOOKUP(B101,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B101,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>TIMSS: Mean performance on the Mathematics scale for Grade 4 students by sex</v>
       </c>
       <c r="D101" s="25" t="str">
-        <f>VLOOKUP(B101,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B101,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_TIMSS_MAT4</v>
       </c>
       <c r="E101" s="1">
@@ -14126,11 +14361,11 @@
         <v>1173</v>
       </c>
       <c r="C102" s="49" t="str">
-        <f>VLOOKUP(B102,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B102,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>TIMSS: Mean performance on the Science scale for Grade 4 students by sex</v>
       </c>
       <c r="D102" s="25" t="str">
-        <f>VLOOKUP(B102,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B102,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_TIMSS_SCI4</v>
       </c>
       <c r="E102" s="1">
@@ -14160,11 +14395,11 @@
         <v>1174</v>
       </c>
       <c r="C103" s="49" t="str">
-        <f>VLOOKUP(B103,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B103,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>TIMSS: Mean performance on the Mathematics scale for Grade 8 students by sex</v>
       </c>
       <c r="D103" s="25" t="str">
-        <f>VLOOKUP(B103,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B103,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_TIMSS_MAT8</v>
       </c>
       <c r="E103" s="1">
@@ -14194,11 +14429,11 @@
         <v>1175</v>
       </c>
       <c r="C104" s="49" t="str">
-        <f>VLOOKUP(B104,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B104,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>TIMSS: Mean performance on the Science scale for Grade 8 students by sex</v>
       </c>
       <c r="D104" s="25" t="str">
-        <f>VLOOKUP(B104,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B104,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_TIMSS_SCI8</v>
       </c>
       <c r="E104" s="1">
@@ -14228,11 +14463,11 @@
         <v>1176</v>
       </c>
       <c r="C105" s="49" t="str">
-        <f>VLOOKUP(B105,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B105,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>PIRLS: Mean performance on the Reading scale for Grade 4 students by sex</v>
       </c>
       <c r="D105" s="25" t="str">
-        <f>VLOOKUP(B105,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B105,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_PIRLS_REA</v>
       </c>
       <c r="E105" s="1">
@@ -14262,11 +14497,11 @@
         <v>1177</v>
       </c>
       <c r="C106" s="49" t="str">
-        <f>VLOOKUP(B106,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B106,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>PISA: Mean performance on the Mathematics scale for 15-year-old students by sex</v>
       </c>
       <c r="D106" s="25" t="str">
-        <f>VLOOKUP(B106,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B106,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_PISA_MAT</v>
       </c>
       <c r="E106" s="1">
@@ -14296,11 +14531,11 @@
         <v>294</v>
       </c>
       <c r="C107" s="49" t="str">
-        <f>VLOOKUP(B107,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B107,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>PISA: Mean performance on the Reading scale for 15-year-old students by sex</v>
       </c>
       <c r="D107" s="25" t="str">
-        <f>VLOOKUP(B107,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B107,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_PISA_REA</v>
       </c>
       <c r="E107" s="1">
@@ -14330,11 +14565,11 @@
         <v>297</v>
       </c>
       <c r="C108" s="49" t="str">
-        <f>VLOOKUP(B108,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B108,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>PISA: Mean performance on the Science scale for 15-year-old students by sex</v>
       </c>
       <c r="D108" s="25" t="str">
-        <f>VLOOKUP(B108,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B108,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_PISA_SCI</v>
       </c>
       <c r="E108" s="1">
@@ -14364,11 +14599,11 @@
         <v>309</v>
       </c>
       <c r="C109" s="49" t="str">
-        <f>VLOOKUP(B109,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B109,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Youth literacy rate, population 15-24 years by sex (%)</v>
       </c>
       <c r="D109" s="25" t="str">
-        <f>VLOOKUP(B109,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B109,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_LR_YOUTH</v>
       </c>
       <c r="E109" s="1">
@@ -14398,11 +14633,11 @@
         <v>312</v>
       </c>
       <c r="C110" s="49" t="str">
-        <f>VLOOKUP(B110,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B110,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Number of repeaters by sex in all grades of primary education (ISCED 1)</v>
       </c>
       <c r="D110" s="25" t="str">
-        <f>VLOOKUP(B110,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B110,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_RPTR_L1</v>
       </c>
       <c r="E110" s="1">
@@ -14432,11 +14667,11 @@
         <v>315</v>
       </c>
       <c r="C111" s="49" t="str">
-        <f>VLOOKUP(B111,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B111,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Number of repeaters by sex in all grades of lower secondary general education (ISCED 2 - C4)</v>
       </c>
       <c r="D111" s="25" t="str">
-        <f>VLOOKUP(B111,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B111,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_RPTR_L2</v>
       </c>
       <c r="E111" s="1">
@@ -14466,11 +14701,11 @@
         <v>318</v>
       </c>
       <c r="C112" s="49" t="str">
-        <f>VLOOKUP(B112,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B112,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Percentage of repeaters by sex in all grades of primary education (ISCED 1)</v>
       </c>
       <c r="D112" s="25" t="str">
-        <f>VLOOKUP(B112,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B112,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_REPP_L1</v>
       </c>
       <c r="E112" s="1">
@@ -14500,11 +14735,11 @@
         <v>321</v>
       </c>
       <c r="C113" s="49" t="str">
-        <f>VLOOKUP(B113,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B113,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Percentage of repeaters by sex in all grades of lower secondary general education (ISCED 2 - C4)</v>
       </c>
       <c r="D113" s="25" t="str">
-        <f>VLOOKUP(B113,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B113,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_REPP_L2</v>
       </c>
       <c r="E113" s="1">
@@ -14534,11 +14769,11 @@
         <v>324</v>
       </c>
       <c r="C114" s="49" t="str">
-        <f>VLOOKUP(B114,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B114,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Percentage of females among repeaters in primary education (ISCED 1)</v>
       </c>
       <c r="D114" s="25" t="str">
-        <f>VLOOKUP(B114,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B114,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_FRP_L1</v>
       </c>
       <c r="E114" s="1">
@@ -14568,11 +14803,11 @@
         <v>327</v>
       </c>
       <c r="C115" s="49" t="str">
-        <f>VLOOKUP(B115,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B115,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Cumulative drop-out rate by sex in primary education (% to the last grade)</v>
       </c>
       <c r="D115" s="25" t="str">
-        <f>VLOOKUP(B115,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B115,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_DR_L1</v>
       </c>
       <c r="E115" s="1">
@@ -14602,11 +14837,11 @@
         <v>330</v>
       </c>
       <c r="C116" s="49" t="str">
-        <f>VLOOKUP(B116,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B116,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Number of early school leavers from primary education by sex</v>
       </c>
       <c r="D116" s="25" t="str">
-        <f>VLOOKUP(B116,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B116,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_ESL_L1</v>
       </c>
       <c r="E116" s="1">
@@ -14636,11 +14871,11 @@
         <v>333</v>
       </c>
       <c r="C117" s="49" t="str">
-        <f>VLOOKUP(B117,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B117,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Cumulative drop-out rate by sex in lower secondary general education (% to the last grade)</v>
       </c>
       <c r="D117" s="25" t="str">
-        <f>VLOOKUP(B117,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B117,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_DR_L2</v>
       </c>
       <c r="E117" s="1">
@@ -14670,11 +14905,11 @@
         <v>336</v>
       </c>
       <c r="C118" s="49" t="str">
-        <f>VLOOKUP(B118,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B118,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Survival rate to the last grade of primary education by sex (%)</v>
       </c>
       <c r="D118" s="25" t="str">
-        <f>VLOOKUP(B118,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B118,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_SR_L1</v>
       </c>
       <c r="E118" s="1">
@@ -14704,11 +14939,11 @@
         <v>339</v>
       </c>
       <c r="C119" s="49" t="str">
-        <f>VLOOKUP(B119,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B119,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Survival rate to the last grade of lower secondary general education by sex (%)</v>
       </c>
       <c r="D119" s="25" t="str">
-        <f>VLOOKUP(B119,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B119,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_SR_L2</v>
       </c>
       <c r="E119" s="1">
@@ -14738,11 +14973,11 @@
         <v>342</v>
       </c>
       <c r="C120" s="49" t="str">
-        <f>VLOOKUP(B120,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B120,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Completion rate - Primary education</v>
       </c>
       <c r="D120" s="25" t="str">
-        <f>VLOOKUP(B120,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B120,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_CR_L1</v>
       </c>
       <c r="E120" s="1">
@@ -14772,11 +15007,11 @@
         <v>345</v>
       </c>
       <c r="C121" s="49" t="str">
-        <f>VLOOKUP(B121,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B121,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Completion rate - Lower secondary education</v>
       </c>
       <c r="D121" s="25" t="str">
-        <f>VLOOKUP(B121,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B121,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_CR_L2</v>
       </c>
       <c r="E121" s="1">
@@ -14806,11 +15041,11 @@
         <v>348</v>
       </c>
       <c r="C122" s="49" t="str">
-        <f>VLOOKUP(B122,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B122,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Completion rate - Upper secondary education</v>
       </c>
       <c r="D122" s="25" t="str">
-        <f>VLOOKUP(B122,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B122,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_CR_L3</v>
       </c>
       <c r="E122" s="1">
@@ -14840,11 +15075,11 @@
         <v>351</v>
       </c>
       <c r="C123" s="49" t="str">
-        <f>VLOOKUP(B123,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B123,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Effective transition rate by sex, from primary to lower secondary general education (%)</v>
       </c>
       <c r="D123" s="25" t="str">
-        <f>VLOOKUP(B123,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B123,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_TRANRA_L2</v>
       </c>
       <c r="E123" s="1">
@@ -14874,11 +15109,11 @@
         <v>354</v>
       </c>
       <c r="C124" s="49" t="str">
-        <f>VLOOKUP(B124,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B124,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Number of out-of-school children of primary school age by sex</v>
       </c>
       <c r="D124" s="25" t="str">
-        <f>VLOOKUP(B124,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B124,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_OFST_L1</v>
       </c>
       <c r="E124" s="1">
@@ -14908,11 +15143,11 @@
         <v>1198</v>
       </c>
       <c r="C125" s="49" t="str">
-        <f>VLOOKUP(B125,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B125,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Out-of-school rate for children of primary school age by sex (%)</v>
       </c>
       <c r="D125" s="25" t="str">
-        <f>VLOOKUP(B125,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B125,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_ROFST_L1</v>
       </c>
       <c r="E125" s="1">
@@ -14942,11 +15177,11 @@
         <v>357</v>
       </c>
       <c r="C126" s="49" t="str">
-        <f>VLOOKUP(B126,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B126,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Number of out-of-school adolescents of lower secondary school age by sex</v>
       </c>
       <c r="D126" s="25" t="str">
-        <f>VLOOKUP(B126,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B126,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_OFST_L2</v>
       </c>
       <c r="E126" s="1">
@@ -14976,11 +15211,11 @@
         <v>1200</v>
       </c>
       <c r="C127" s="49" t="str">
-        <f>VLOOKUP(B127,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B127,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Out-of-school rate for adolescents of lower secondary school age by sex (%)</v>
       </c>
       <c r="D127" s="25" t="str">
-        <f>VLOOKUP(B127,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B127,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_ROFST_L2</v>
       </c>
       <c r="E127" s="1">
@@ -15010,11 +15245,11 @@
         <v>360</v>
       </c>
       <c r="C128" s="49" t="str">
-        <f>VLOOKUP(B128,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B128,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Number of out-of-school youth of upper secondary school age by sex</v>
       </c>
       <c r="D128" s="25" t="str">
-        <f>VLOOKUP(B128,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B128,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_OFST_L3</v>
       </c>
       <c r="E128" s="1">
@@ -15044,11 +15279,11 @@
         <v>363</v>
       </c>
       <c r="C129" s="49" t="str">
-        <f>VLOOKUP(B129,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B129,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Out-of-school rate for youth of upper secondary school age by sex (%)</v>
       </c>
       <c r="D129" s="25" t="str">
-        <f>VLOOKUP(B129,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B129,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_ROFST_L3</v>
       </c>
       <c r="E129" s="1">
@@ -15078,11 +15313,11 @@
         <v>366</v>
       </c>
       <c r="C130" s="49" t="str">
-        <f>VLOOKUP(B130,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B130,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Proportion of youth (aged 15-24 years) not in education, employment or training (%)</v>
       </c>
       <c r="D130" s="25" t="str">
-        <f>VLOOKUP(B130,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B130,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_SDG_YOUTH_NEET</v>
       </c>
       <c r="E130" s="1">
@@ -15112,11 +15347,11 @@
         <v>369</v>
       </c>
       <c r="C131" s="49" t="str">
-        <f>VLOOKUP(B131,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B131,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Participation rate of youth and adults in formal and non-formal education and training for the previous 12 months by sex (%)</v>
       </c>
       <c r="D131" s="25" t="str">
-        <f>VLOOKUP(B131,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B131,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_SDG_PRYA</v>
       </c>
       <c r="E131" s="1">
@@ -15146,11 +15381,11 @@
         <v>375</v>
       </c>
       <c r="C132" s="49" t="str">
-        <f>VLOOKUP(B132,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B132,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Number of post-secondary non-tertiary education (ISCED 4) enrolments by sex</v>
       </c>
       <c r="D132" s="25" t="str">
-        <f>VLOOKUP(B132,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B132,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_STU_L4_TOT</v>
       </c>
       <c r="E132" s="1">
@@ -15180,11 +15415,11 @@
         <v>378</v>
       </c>
       <c r="C133" s="49" t="str">
-        <f>VLOOKUP(B133,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B133,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Number of post-secondary non-tertiary education (ISCED 4) enrolments in public institutions by sex</v>
       </c>
       <c r="D133" s="25" t="str">
-        <f>VLOOKUP(B133,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B133,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_STU_L4_PUB</v>
       </c>
       <c r="E133" s="1">
@@ -15214,11 +15449,11 @@
         <v>381</v>
       </c>
       <c r="C134" s="49" t="str">
-        <f>VLOOKUP(B134,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B134,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Number of post-secondary non-tertiary education (ISCED 4) enrolments in private institutions by sex</v>
       </c>
       <c r="D134" s="25" t="str">
-        <f>VLOOKUP(B134,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B134,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_STU_L4_PRV</v>
       </c>
       <c r="E134" s="1">
@@ -15248,11 +15483,11 @@
         <v>384</v>
       </c>
       <c r="C135" s="49" t="str">
-        <f>VLOOKUP(B135,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B135,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Percentage of private enrolments in post-secondary non-tertiary education (ISCED 4) (%)</v>
       </c>
       <c r="D135" s="25" t="str">
-        <f>VLOOKUP(B135,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B135,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_PRP_L4</v>
       </c>
       <c r="E135" s="1">
@@ -15282,11 +15517,11 @@
         <v>387</v>
       </c>
       <c r="C136" s="49" t="str">
-        <f>VLOOKUP(B136,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B136,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Percentage of female enrolments in post-secondary non-tertiary education (ISCED 4) (%)</v>
       </c>
       <c r="D136" s="25" t="str">
-        <f>VLOOKUP(B136,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B136,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_FEP_L4</v>
       </c>
       <c r="E136" s="1">
@@ -15316,11 +15551,11 @@
         <v>1212</v>
       </c>
       <c r="C137" s="49" t="str">
-        <f>VLOOKUP(B137,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B137,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Number of tertiary education (ISCED 5) enrolments by sex</v>
       </c>
       <c r="D137" s="25" t="str">
-        <f>VLOOKUP(B137,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B137,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_STU_L5T8_TOT</v>
       </c>
       <c r="E137" s="1">
@@ -15350,11 +15585,11 @@
         <v>390</v>
       </c>
       <c r="C138" s="49" t="str">
-        <f>VLOOKUP(B138,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B138,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Number of tertiary education (ISCED 5) enrolments in public institutions by sex</v>
       </c>
       <c r="D138" s="25" t="str">
-        <f>VLOOKUP(B138,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B138,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_STU_L5T8_PUB</v>
       </c>
       <c r="E138" s="1">
@@ -15384,11 +15619,11 @@
         <v>393</v>
       </c>
       <c r="C139" s="49" t="str">
-        <f>VLOOKUP(B139,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B139,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Number of tertiary education (ISCED 5) enrolments in private institutions by sex</v>
       </c>
       <c r="D139" s="25" t="str">
-        <f>VLOOKUP(B139,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B139,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_STU_L5T8_PRV</v>
       </c>
       <c r="E139" s="1">
@@ -15418,11 +15653,11 @@
         <v>396</v>
       </c>
       <c r="C140" s="49" t="str">
-        <f>VLOOKUP(B140,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B140,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Percentage of private enrolments in tertiary education (ISCED 5) (%)</v>
       </c>
       <c r="D140" s="25" t="str">
-        <f>VLOOKUP(B140,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B140,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_PRP_L5T8</v>
       </c>
       <c r="E140" s="1">
@@ -15452,11 +15687,11 @@
         <v>399</v>
       </c>
       <c r="C141" s="49" t="str">
-        <f>VLOOKUP(B141,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B141,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Percentage of female enrolments in tertiary education (ISCED 5) (%)</v>
       </c>
       <c r="D141" s="25" t="str">
-        <f>VLOOKUP(B141,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B141,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_FEP_L5T8</v>
       </c>
       <c r="E141" s="1">
@@ -15486,11 +15721,11 @@
         <v>1213</v>
       </c>
       <c r="C142" s="49" t="str">
-        <f>VLOOKUP(B142,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B142,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Gross enrolment ratio, pre-primary, Gender Parity Index (GPI)</v>
       </c>
       <c r="D142" s="25" t="str">
-        <f>VLOOKUP(B142,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B142,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_GER_GPI_L02</v>
       </c>
       <c r="E142" s="1">
@@ -15520,11 +15755,11 @@
         <v>1215</v>
       </c>
       <c r="C143" s="49" t="str">
-        <f>VLOOKUP(B143,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B143,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Gross enrolment ratio, primary, Gender Parity Index (GPI)</v>
       </c>
       <c r="D143" s="25" t="str">
-        <f>VLOOKUP(B143,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B143,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_GER_GPI_L1</v>
       </c>
       <c r="E143" s="1">
@@ -15554,11 +15789,11 @@
         <v>1216</v>
       </c>
       <c r="C144" s="49" t="str">
-        <f>VLOOKUP(B144,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B144,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Gross enrolment ratio, lower secondary, Gender Parity Index (GPI)</v>
       </c>
       <c r="D144" s="25" t="str">
-        <f>VLOOKUP(B144,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B144,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_GER_GPI_L2</v>
       </c>
       <c r="E144" s="1">
@@ -15588,11 +15823,11 @@
         <v>1218</v>
       </c>
       <c r="C145" s="49" t="str">
-        <f>VLOOKUP(B145,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B145,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Gross enrolment ratio, upper secondary, Gender Parity Index (GPI)</v>
       </c>
       <c r="D145" s="25" t="str">
-        <f>VLOOKUP(B145,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B145,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_GER_GPI_L3</v>
       </c>
       <c r="E145" s="1">
@@ -15622,11 +15857,11 @@
         <v>1220</v>
       </c>
       <c r="C146" s="49" t="str">
-        <f>VLOOKUP(B146,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B146,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Gross enrolment ratio, secondary, Gender Parity Index (GPI)</v>
       </c>
       <c r="D146" s="25" t="str">
-        <f>VLOOKUP(B146,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B146,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_GER_GPI_L2AND3</v>
       </c>
       <c r="E146" s="1">
@@ -15656,11 +15891,11 @@
         <v>417</v>
       </c>
       <c r="C147" s="49" t="str">
-        <f>VLOOKUP(B147,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B147,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Government expenditure on education as a percentage of GDP (%)</v>
       </c>
       <c r="D147" s="25" t="str">
-        <f>VLOOKUP(B147,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B147,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_FIN_EXP_PT_GDP</v>
       </c>
       <c r="E147" s="1">
@@ -15690,11 +15925,11 @@
         <v>420</v>
       </c>
       <c r="C148" s="49" t="str">
-        <f>VLOOKUP(B148,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B148,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Expenditure on education as a percentage of total government expenditure (%)</v>
       </c>
       <c r="D148" s="25" t="str">
-        <f>VLOOKUP(B148,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B148,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_FIN_EXP_PT_TOT</v>
       </c>
       <c r="E148" s="1">
@@ -15724,11 +15959,11 @@
         <v>423</v>
       </c>
       <c r="C149" s="49" t="str">
-        <f>VLOOKUP(B149,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B149,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Government expenditure on education, in constant PPP ($ millions)</v>
       </c>
       <c r="D149" s="25" t="str">
-        <f>VLOOKUP(B149,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B149,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_FIN_EXP_CONST_PPP</v>
       </c>
       <c r="E149" s="1">
@@ -15758,11 +15993,11 @@
         <v>426</v>
       </c>
       <c r="C150" s="49" t="str">
-        <f>VLOOKUP(B150,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B150,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Expenditure on pre-primary as a percentage of government expenditure on education (%)</v>
       </c>
       <c r="D150" s="25" t="str">
-        <f>VLOOKUP(B150,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B150,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_FIN_EXP_L02</v>
       </c>
       <c r="E150" s="1">
@@ -15792,11 +16027,11 @@
         <v>429</v>
       </c>
       <c r="C151" s="49" t="str">
-        <f>VLOOKUP(B151,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B151,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Expenditure on primary as a percentage of government expenditure on education (%)</v>
       </c>
       <c r="D151" s="25" t="str">
-        <f>VLOOKUP(B151,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B151,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_FIN_EXP_L1</v>
       </c>
       <c r="E151" s="1">
@@ -15826,11 +16061,11 @@
         <v>432</v>
       </c>
       <c r="C152" s="49" t="str">
-        <f>VLOOKUP(B152,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B152,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Expenditure on lower secondary as a percentage of government expenditure on education (%)</v>
       </c>
       <c r="D152" s="25" t="str">
-        <f>VLOOKUP(B152,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B152,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_FIN_EXP_L2</v>
       </c>
       <c r="E152" s="1">
@@ -15860,11 +16095,11 @@
         <v>435</v>
       </c>
       <c r="C153" s="49" t="str">
-        <f>VLOOKUP(B153,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B153,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Expenditure on upper secondary as a percentage of government expenditure on education (%)</v>
       </c>
       <c r="D153" s="25" t="str">
-        <f>VLOOKUP(B153,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B153,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_FIN_EXP_L3</v>
       </c>
       <c r="E153" s="1">
@@ -15894,11 +16129,11 @@
         <v>1231</v>
       </c>
       <c r="C154" s="49" t="str">
-        <f>VLOOKUP(B154,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B154,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Expenditure on post-secondary non-tertiary as a percentage of government expenditure on education (%)</v>
       </c>
       <c r="D154" s="25" t="str">
-        <f>VLOOKUP(B154,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B154,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_FIN_EXP_L4</v>
       </c>
       <c r="E154" s="1">
@@ -15928,11 +16163,11 @@
         <v>1232</v>
       </c>
       <c r="C155" s="49" t="str">
-        <f>VLOOKUP(B155,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B155,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Expenditure on tertiary as a percentage of government expenditure on education (%)</v>
       </c>
       <c r="D155" s="25" t="str">
-        <f>VLOOKUP(B155,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B155,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_FIN_EXP_L5T8</v>
       </c>
       <c r="E155" s="1">
@@ -15962,11 +16197,11 @@
         <v>1233</v>
       </c>
       <c r="C156" s="49" t="str">
-        <f>VLOOKUP(B156,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B156,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Proportion of schools with access to adapted infrastructure and materials for students with disabilities - Primary (%)</v>
       </c>
       <c r="D156" s="25" t="str">
-        <f>VLOOKUP(B156,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B156,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_SDG_SCH_L1</v>
       </c>
       <c r="E156" s="1">
@@ -15996,11 +16231,11 @@
         <v>438</v>
       </c>
       <c r="C157" s="49" t="str">
-        <f>VLOOKUP(B157,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B157,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Proportion of schools with access to adapted infrastructure and materials for students with disabilities - Lower secondary (%)</v>
       </c>
       <c r="D157" s="25" t="str">
-        <f>VLOOKUP(B157,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B157,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_SDG_SCH_L2</v>
       </c>
       <c r="E157" s="1">
@@ -16030,11 +16265,11 @@
         <v>441</v>
       </c>
       <c r="C158" s="49" t="str">
-        <f>VLOOKUP(B158,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B158,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Proportion of schools with access to adapted infrastructure and materials for students with disabilities - Upper secondary (%)</v>
       </c>
       <c r="D158" s="25" t="str">
-        <f>VLOOKUP(B158,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B158,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_SDG_SCH_L3</v>
       </c>
       <c r="E158" s="1">
@@ -16064,11 +16299,11 @@
         <v>444</v>
       </c>
       <c r="C159" s="49" t="str">
-        <f>VLOOKUP(B159,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B159,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Proportion of total schools with basic hygiene services (%, by residence)</v>
       </c>
       <c r="D159" s="25" t="str">
-        <f>VLOOKUP(B159,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B159,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>WS_SCH_H-B</v>
       </c>
       <c r="E159" s="1">
@@ -16098,11 +16333,11 @@
         <v>447</v>
       </c>
       <c r="C160" s="49" t="str">
-        <f>VLOOKUP(B160,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B160,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Proportion of total schools with basic sanitation services (%, by residence)</v>
       </c>
       <c r="D160" s="25" t="str">
-        <f>VLOOKUP(B160,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B160,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>WS_SCH_S-B</v>
       </c>
       <c r="E160" s="1">
@@ -16132,11 +16367,11 @@
         <v>450</v>
       </c>
       <c r="C161" s="49" t="str">
-        <f>VLOOKUP(B161,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B161,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Proportion of total schools with basic drinking water services (%, by residence)</v>
       </c>
       <c r="D161" s="25" t="str">
-        <f>VLOOKUP(B161,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B161,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>WS_SCH_W-B</v>
       </c>
       <c r="E161" s="1">
@@ -16166,11 +16401,11 @@
         <v>453</v>
       </c>
       <c r="C162" s="49" t="str">
-        <f>VLOOKUP(B162,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B162,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Total number of Classroom teachers in primary education (ISCED 1) by sex</v>
       </c>
       <c r="D162" s="25" t="str">
-        <f>VLOOKUP(B162,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B162,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_TEACH_L1</v>
       </c>
       <c r="E162" s="1">
@@ -16200,11 +16435,11 @@
         <v>456</v>
       </c>
       <c r="C163" s="49" t="str">
-        <f>VLOOKUP(B163,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B163,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Total number of Classroom teachers in lower secondary education (ISCED 2) by sex</v>
       </c>
       <c r="D163" s="25" t="str">
-        <f>VLOOKUP(B163,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B163,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_TEACH_L2</v>
       </c>
       <c r="E163" s="1">
@@ -16234,11 +16469,11 @@
         <v>459</v>
       </c>
       <c r="C164" s="49" t="str">
-        <f>VLOOKUP(B164,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B164,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Total number of Classroom teachers in upper secondary education (ISCED 3) by sex</v>
       </c>
       <c r="D164" s="25" t="str">
-        <f>VLOOKUP(B164,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B164,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_TEACH_L3</v>
       </c>
       <c r="E164" s="1">
@@ -16268,11 +16503,11 @@
         <v>462</v>
       </c>
       <c r="C165" s="49" t="str">
-        <f>VLOOKUP(B165,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B165,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Pupil-teacher ratio in primary education (ISCED1) (headcount basis)</v>
       </c>
       <c r="D165" s="25" t="str">
-        <f>VLOOKUP(B165,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B165,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_PTR_L1</v>
       </c>
       <c r="E165" s="1">
@@ -16302,11 +16537,11 @@
         <v>465</v>
       </c>
       <c r="C166" s="49" t="str">
-        <f>VLOOKUP(B166,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B166,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Pupil-teacher ratio in lower secondary education (ISCED 2) (headcount basis)</v>
       </c>
       <c r="D166" s="25" t="str">
-        <f>VLOOKUP(B166,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B166,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_PTR_L2</v>
       </c>
       <c r="E166" s="1">
@@ -16336,11 +16571,11 @@
         <v>468</v>
       </c>
       <c r="C167" s="49" t="str">
-        <f>VLOOKUP(B167,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B167,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Pupil-teacher ratio in secondary education (ISCED 2 and 3) (headcount basis)</v>
       </c>
       <c r="D167" s="25" t="str">
-        <f>VLOOKUP(B167,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B167,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_PTR_L2AND3</v>
       </c>
       <c r="E167" s="1">
@@ -16370,11 +16605,11 @@
         <v>471</v>
       </c>
       <c r="C168" s="49" t="str">
-        <f>VLOOKUP(B168,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B168,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Pupil-teacher ratio in upper secondary education (ISCED 3) (headcount basis)</v>
       </c>
       <c r="D168" s="25" t="str">
-        <f>VLOOKUP(B168,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B168,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_PTR_L3</v>
       </c>
       <c r="E168" s="1">
@@ -16404,11 +16639,11 @@
         <v>474</v>
       </c>
       <c r="C169" s="49" t="str">
-        <f>VLOOKUP(B169,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B169,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Percentage of trained teachers in pre-primary education by sex (%)</v>
       </c>
       <c r="D169" s="25" t="str">
-        <f>VLOOKUP(B169,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B169,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_SDG_TRTP_L02</v>
       </c>
       <c r="E169" s="1">
@@ -16438,11 +16673,11 @@
         <v>477</v>
       </c>
       <c r="C170" s="49" t="str">
-        <f>VLOOKUP(B170,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B170,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Percentage of trained teachers in primary education by sex (%)</v>
       </c>
       <c r="D170" s="25" t="str">
-        <f>VLOOKUP(B170,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B170,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_SDG_TRTP_L1</v>
       </c>
       <c r="E170" s="1">
@@ -16472,11 +16707,11 @@
         <v>480</v>
       </c>
       <c r="C171" s="49" t="str">
-        <f>VLOOKUP(B171,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B171,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Percentage of trained teachers in lower secondary education by sex (%)</v>
       </c>
       <c r="D171" s="25" t="str">
-        <f>VLOOKUP(B171,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B171,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_SDG_TRTP_L2</v>
       </c>
       <c r="E171" s="1">
@@ -16506,11 +16741,11 @@
         <v>483</v>
       </c>
       <c r="C172" s="49" t="str">
-        <f>VLOOKUP(B172,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B172,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Percentage of trained teachers in upper secondary education by sex (%)</v>
       </c>
       <c r="D172" s="25" t="str">
-        <f>VLOOKUP(B172,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B172,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_SDG_TRTP_L3</v>
       </c>
       <c r="E172" s="1">
@@ -16540,11 +16775,11 @@
         <v>486</v>
       </c>
       <c r="C173" s="49" t="str">
-        <f>VLOOKUP(B173,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B173,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Pupil-trained teacher ratio in pre-primary education (headcount basis)</v>
       </c>
       <c r="D173" s="25" t="str">
-        <f>VLOOKUP(B173,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B173,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_SDG_PTTR_L02</v>
       </c>
       <c r="E173" s="1">
@@ -16574,11 +16809,11 @@
         <v>489</v>
       </c>
       <c r="C174" s="49" t="str">
-        <f>VLOOKUP(B174,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B174,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Pupil-trained teacher ratio in primary education (headcount basis)</v>
       </c>
       <c r="D174" s="25" t="str">
-        <f>VLOOKUP(B174,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B174,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_SDG_PTTR_L1</v>
       </c>
       <c r="E174" s="1">
@@ -16608,11 +16843,11 @@
         <v>492</v>
       </c>
       <c r="C175" s="49" t="str">
-        <f>VLOOKUP(B175,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B175,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Pupil-trained teacher ratio in lower secondary education (headcount basis)</v>
       </c>
       <c r="D175" s="25" t="str">
-        <f>VLOOKUP(B175,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B175,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_SDG_PTTR_L2</v>
       </c>
       <c r="E175" s="1">
@@ -16642,11 +16877,11 @@
         <v>495</v>
       </c>
       <c r="C176" s="49" t="str">
-        <f>VLOOKUP(B176,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B176,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Pupil-trained teacher ratio in upper secondary education (headcount basis)</v>
       </c>
       <c r="D176" s="25" t="str">
-        <f>VLOOKUP(B176,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B176,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_SDG_PTTR_L3</v>
       </c>
       <c r="E176" s="1">
@@ -16676,11 +16911,11 @@
         <v>498</v>
       </c>
       <c r="C177" s="49" t="str">
-        <f>VLOOKUP(B177,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B177,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Proportion of teachers by sex qualified according to national standards in pre-primary education (%)</v>
       </c>
       <c r="D177" s="25" t="str">
-        <f>VLOOKUP(B177,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B177,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_SDG_QUTP_L02</v>
       </c>
       <c r="E177" s="1">
@@ -16710,11 +16945,11 @@
         <v>501</v>
       </c>
       <c r="C178" s="49" t="str">
-        <f>VLOOKUP(B178,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B178,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Proportion of teachers by sex qualified according to national standards in primary education (%)</v>
       </c>
       <c r="D178" s="25" t="str">
-        <f>VLOOKUP(B178,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B178,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_SDG_QUTP_L1</v>
       </c>
       <c r="E178" s="1">
@@ -16744,11 +16979,11 @@
         <v>504</v>
       </c>
       <c r="C179" s="49" t="str">
-        <f>VLOOKUP(B179,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B179,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Proportion of teachers by sex qualified according to national standards in lower secondary education (%)</v>
       </c>
       <c r="D179" s="25" t="str">
-        <f>VLOOKUP(B179,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B179,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_SDG_QUTP_L2</v>
       </c>
       <c r="E179" s="1">
@@ -16778,11 +17013,11 @@
         <v>1256</v>
       </c>
       <c r="C180" s="49" t="str">
-        <f>VLOOKUP(B180,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B180,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Proportion of teachers by sex qualified according to national standards in upper secondary education (%)</v>
       </c>
       <c r="D180" s="25" t="str">
-        <f>VLOOKUP(B180,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B180,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_SDG_QUTP_L3</v>
       </c>
       <c r="E180" s="1">
@@ -16812,11 +17047,11 @@
         <v>1257</v>
       </c>
       <c r="C181" s="49" t="str">
-        <f>VLOOKUP(B181,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B181,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Pupil-qualified teacher ratio in pre-primary education (headcount basis)</v>
       </c>
       <c r="D181" s="25" t="str">
-        <f>VLOOKUP(B181,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B181,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_SDG_PQTR_L02</v>
       </c>
       <c r="E181" s="1">
@@ -16846,11 +17081,11 @@
         <v>1258</v>
       </c>
       <c r="C182" s="49" t="str">
-        <f>VLOOKUP(B182,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B182,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Pupil-qualified teacher ratio in primary education (headcount basis)</v>
       </c>
       <c r="D182" s="25" t="str">
-        <f>VLOOKUP(B182,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B182,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_SDG_PQTR_L1</v>
       </c>
       <c r="E182" s="1">
@@ -16880,11 +17115,11 @@
         <v>1260</v>
       </c>
       <c r="C183" s="49" t="str">
-        <f>VLOOKUP(B183,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B183,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Pupil-qualified teacher ratio in lower secondary education (headcount basis)</v>
       </c>
       <c r="D183" s="25" t="str">
-        <f>VLOOKUP(B183,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B183,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_SDG_PQTR_L2</v>
       </c>
       <c r="E183" s="1">
@@ -16914,11 +17149,11 @@
         <v>1262</v>
       </c>
       <c r="C184" s="49" t="str">
-        <f>VLOOKUP(B184,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B184,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Pupil-qualified teacher ratio in upper secondary education (headcount basis)</v>
       </c>
       <c r="D184" s="25" t="str">
-        <f>VLOOKUP(B184,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B184,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_SDG_PQTR_L3</v>
       </c>
       <c r="E184" s="1">
@@ -16948,11 +17183,11 @@
         <v>1264</v>
       </c>
       <c r="C185" s="49" t="str">
-        <f>VLOOKUP(B185,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B185,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Percentage of children (by sex, age groups, residence and wealth quintile) who have 3 or more children's books at home</v>
       </c>
       <c r="D185" s="25" t="str">
-        <f>VLOOKUP(B185,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B185,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>ECD_CHLD_U5_BKS-HM</v>
       </c>
       <c r="E185" s="1">
@@ -16982,11 +17217,11 @@
         <v>1266</v>
       </c>
       <c r="C186" s="49" t="str">
-        <f>VLOOKUP(B186,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B186,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Percentage of children under age 5 (by sex, residence and wealth quintile) who play with 2 or more types of playthings at home</v>
       </c>
       <c r="D186" s="25" t="str">
-        <f>VLOOKUP(B186,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B186,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>ECD_CHLD_U5_PLYTH-HM</v>
       </c>
       <c r="E186" s="1">
@@ -17016,11 +17251,11 @@
         <v>1268</v>
       </c>
       <c r="C187" s="49" t="str">
-        <f>VLOOKUP(B187,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B187,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Educational attainment by sex: at least completed lower secondary (ISCED 2 or higher), population 25+ years (%)</v>
       </c>
       <c r="D187" s="25" t="str">
-        <f>VLOOKUP(B187,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B187,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_EA_L2T8</v>
       </c>
       <c r="E187" s="1">
@@ -17050,11 +17285,11 @@
         <v>1270</v>
       </c>
       <c r="C188" s="49" t="str">
-        <f>VLOOKUP(B188,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B188,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Administration of nationally representative learning assessment in reading (Grade 2 or 3)</v>
       </c>
       <c r="D188" s="25" t="str">
-        <f>VLOOKUP(B188,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B188,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_ADMIN_L1_G2OR3_REA</v>
       </c>
       <c r="E188" s="1">
@@ -17084,11 +17319,11 @@
         <v>1272</v>
       </c>
       <c r="C189" s="49" t="str">
-        <f>VLOOKUP(B189,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B189,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Administration of nationally representative learning assessment in math (Grade 2 or 3)</v>
       </c>
       <c r="D189" s="25" t="str">
-        <f>VLOOKUP(B189,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B189,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_ADMIN_L1_G2OR3_MAT</v>
       </c>
       <c r="E189" s="1">
@@ -17118,11 +17353,11 @@
         <v>1274</v>
       </c>
       <c r="C190" s="49" t="str">
-        <f>VLOOKUP(B190,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B190,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 2 (%) in Mathematics</v>
       </c>
       <c r="D190" s="25" t="str">
-        <f>VLOOKUP(B190,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B190,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_PISA_MAT2</v>
       </c>
       <c r="E190" s="1">
@@ -17152,11 +17387,11 @@
         <v>1276</v>
       </c>
       <c r="C191" s="49" t="str">
-        <f>VLOOKUP(B191,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B191,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 3 (%) in Mathematics</v>
       </c>
       <c r="D191" s="25" t="str">
-        <f>VLOOKUP(B191,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B191,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_PISA_MAT3</v>
       </c>
       <c r="E191" s="1">
@@ -17186,11 +17421,11 @@
         <v>1278</v>
       </c>
       <c r="C192" s="49" t="str">
-        <f>VLOOKUP(B192,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B192,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 4 (%) in Mathematics</v>
       </c>
       <c r="D192" s="25" t="str">
-        <f>VLOOKUP(B192,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B192,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_PISA_MAT4</v>
       </c>
       <c r="E192" s="1">
@@ -17220,11 +17455,11 @@
         <v>1280</v>
       </c>
       <c r="C193" s="49" t="str">
-        <f>VLOOKUP(B193,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B193,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 5 (%) in Mathematics</v>
       </c>
       <c r="D193" s="25" t="str">
-        <f>VLOOKUP(B193,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B193,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_PISA_MAT5</v>
       </c>
       <c r="E193" s="1">
@@ -17254,11 +17489,11 @@
         <v>1282</v>
       </c>
       <c r="C194" s="49" t="str">
-        <f>VLOOKUP(B194,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B194,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 6 (%) in Mathematics</v>
       </c>
       <c r="D194" s="25" t="str">
-        <f>VLOOKUP(B194,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B194,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_PISA_MAT6</v>
       </c>
       <c r="E194" s="1">
@@ -17288,11 +17523,11 @@
         <v>1284</v>
       </c>
       <c r="C195" s="49" t="str">
-        <f>VLOOKUP(B195,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B195,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 2 (%) in Reading</v>
       </c>
       <c r="D195" s="25" t="str">
-        <f>VLOOKUP(B195,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B195,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_PISA_REA2</v>
       </c>
       <c r="E195" s="1">
@@ -17322,11 +17557,11 @@
         <v>1286</v>
       </c>
       <c r="C196" s="49" t="str">
-        <f>VLOOKUP(B196,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B196,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 3 (%) in Reading</v>
       </c>
       <c r="D196" s="25" t="str">
-        <f>VLOOKUP(B196,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B196,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_PISA_REA3</v>
       </c>
       <c r="E196" s="1">
@@ -17356,11 +17591,11 @@
         <v>1288</v>
       </c>
       <c r="C197" s="49" t="str">
-        <f>VLOOKUP(B197,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B197,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 4 (%) in Reading</v>
       </c>
       <c r="D197" s="25" t="str">
-        <f>VLOOKUP(B197,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B197,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_PISA_REA4</v>
       </c>
       <c r="E197" s="1">
@@ -17390,11 +17625,11 @@
         <v>1290</v>
       </c>
       <c r="C198" s="49" t="str">
-        <f>VLOOKUP(B198,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B198,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 5 (%) in Reading</v>
       </c>
       <c r="D198" s="25" t="str">
-        <f>VLOOKUP(B198,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B198,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_PISA_REA5</v>
       </c>
       <c r="E198" s="1">
@@ -17424,11 +17659,11 @@
         <v>1292</v>
       </c>
       <c r="C199" s="49" t="str">
-        <f>VLOOKUP(B199,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B199,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 6 (%) in Reading</v>
       </c>
       <c r="D199" s="25" t="str">
-        <f>VLOOKUP(B199,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B199,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_PISA_REA6</v>
       </c>
       <c r="E199" s="1">
@@ -17458,11 +17693,11 @@
         <v>1293</v>
       </c>
       <c r="C200" s="49" t="str">
-        <f>VLOOKUP(B200,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B200,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 2 (%) in Science</v>
       </c>
       <c r="D200" s="25" t="str">
-        <f>VLOOKUP(B200,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B200,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_PISA_SCI2</v>
       </c>
       <c r="E200" s="1">
@@ -17492,11 +17727,11 @@
         <v>1295</v>
       </c>
       <c r="C201" s="49" t="str">
-        <f>VLOOKUP(B201,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B201,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 3 (%) in Science</v>
       </c>
       <c r="D201" s="25" t="str">
-        <f>VLOOKUP(B201,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B201,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_PISA_SCI3</v>
       </c>
       <c r="E201" s="1">
@@ -17526,11 +17761,11 @@
         <v>1297</v>
       </c>
       <c r="C202" s="49" t="str">
-        <f>VLOOKUP(B202,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B202,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 4 (%) in Science</v>
       </c>
       <c r="D202" s="25" t="str">
-        <f>VLOOKUP(B202,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B202,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_PISA_SCI4</v>
       </c>
       <c r="E202" s="1">
@@ -17560,11 +17795,11 @@
         <v>1299</v>
       </c>
       <c r="C203" s="49" t="str">
-        <f>VLOOKUP(B203,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B203,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 5 (%) in Science</v>
       </c>
       <c r="D203" s="25" t="str">
-        <f>VLOOKUP(B203,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B203,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_PISA_SCI5</v>
       </c>
       <c r="E203" s="1">
@@ -17594,11 +17829,11 @@
         <v>1301</v>
       </c>
       <c r="C204" s="49" t="str">
-        <f>VLOOKUP(B204,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B204,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 6 (%) in Science</v>
       </c>
       <c r="D204" s="25" t="str">
-        <f>VLOOKUP(B204,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B204,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDU_PISA_SCI6</v>
       </c>
       <c r="E204" s="1">
@@ -17628,11 +17863,11 @@
         <v>1303</v>
       </c>
       <c r="C205" s="49" t="str">
-        <f>VLOOKUP(B205,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B205,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Adult literacy rate, population 15+ years by sex (%)</v>
       </c>
       <c r="D205" s="25" t="str">
-        <f>VLOOKUP(B205,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B205,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_LR_ADULT</v>
       </c>
       <c r="E205" s="1">
@@ -17662,11 +17897,11 @@
         <v>1305</v>
       </c>
       <c r="C206" s="49" t="str">
-        <f>VLOOKUP(B206,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B206,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Percentage of females among repeaters in secondary education (ISCED 2 and 3)</v>
       </c>
       <c r="D206" s="25" t="str">
-        <f>VLOOKUP(B206,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B206,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_FRP_L2AND3</v>
       </c>
       <c r="E206" s="1">
@@ -17696,11 +17931,11 @@
         <v>1307</v>
       </c>
       <c r="C207" s="49" t="str">
-        <f>VLOOKUP(B207,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B207,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Number of out-of-school children one year younger than the official entry age to primary education by sex</v>
       </c>
       <c r="D207" s="25" t="str">
-        <f>VLOOKUP(B207,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B207,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_OFST_L1_UNDER1</v>
       </c>
       <c r="E207" s="1">
@@ -17730,11 +17965,11 @@
         <v>1309</v>
       </c>
       <c r="C208" s="49" t="str">
-        <f>VLOOKUP(B208,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B208,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Out-of-school rate for children one year younger than the official entry age to primary education by sex (%)</v>
       </c>
       <c r="D208" s="25" t="str">
-        <f>VLOOKUP(B208,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B208,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_ROFST_L1_UNDER1</v>
       </c>
       <c r="E208" s="1">
@@ -17764,11 +17999,11 @@
         <v>1311</v>
       </c>
       <c r="C209" s="49" t="str">
-        <f>VLOOKUP(B209,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B209,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Gross enrolment ratio, early childhood educational development programmes, Gender Parity Index (GPI)</v>
       </c>
       <c r="D209" s="25" t="str">
-        <f>VLOOKUP(B209,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B209,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_GER_GPI_L01</v>
       </c>
       <c r="E209" s="1">
@@ -17798,11 +18033,11 @@
         <v>1313</v>
       </c>
       <c r="C210" s="49" t="str">
-        <f>VLOOKUP(B210,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B210,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Population of the official age for pre-primary education (number of persons, by sex)</v>
       </c>
       <c r="D210" s="25" t="str">
-        <f>VLOOKUP(B210,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B210,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_SAP_L02</v>
       </c>
       <c r="E210" s="1">
@@ -17832,11 +18067,11 @@
         <v>1315</v>
       </c>
       <c r="C211" s="49" t="str">
-        <f>VLOOKUP(B211,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B211,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Population of the official age for primary education (number of persons, by sex)</v>
       </c>
       <c r="D211" s="25" t="str">
-        <f>VLOOKUP(B211,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B211,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_SAP_L1</v>
       </c>
       <c r="E211" s="1">
@@ -17866,11 +18101,11 @@
         <v>1317</v>
       </c>
       <c r="C212" s="49" t="str">
-        <f>VLOOKUP(B212,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B212,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Population of the official age for lower secondary education (number of persons, by sex)</v>
       </c>
       <c r="D212" s="25" t="str">
-        <f>VLOOKUP(B212,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B212,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_SAP_L2</v>
       </c>
       <c r="E212" s="1">
@@ -17900,11 +18135,11 @@
         <v>1319</v>
       </c>
       <c r="C213" s="49" t="str">
-        <f>VLOOKUP(B213,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B213,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Population of the official age for upper secondary education (number of persons, by sex)</v>
       </c>
       <c r="D213" s="25" t="str">
-        <f>VLOOKUP(B213,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B213,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_SAP_L3</v>
       </c>
       <c r="E213" s="1">
@@ -17934,11 +18169,11 @@
         <v>1321</v>
       </c>
       <c r="C214" s="49" t="str">
-        <f>VLOOKUP(B214,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B214,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Population of the official age for primary and secondary education - ISCED 1 to 3 included - (number of persons, by sex)</v>
       </c>
       <c r="D214" s="25" t="str">
-        <f>VLOOKUP(B214,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B214,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_SAP_L1T3</v>
       </c>
       <c r="E214" s="1">
@@ -17968,11 +18203,11 @@
         <v>1323</v>
       </c>
       <c r="C215" s="49" t="str">
-        <f>VLOOKUP(B215,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B215,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Number of out-of-school children, adolescents and youth of primary and secondary school age (persons, by sex)</v>
       </c>
       <c r="D215" s="25" t="str">
-        <f>VLOOKUP(B215,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B215,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_OFST_L1T3</v>
       </c>
       <c r="E215" s="1">
@@ -18002,11 +18237,11 @@
         <v>1325</v>
       </c>
       <c r="C216" s="49" t="str">
-        <f>VLOOKUP(B216,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B216,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Out-of-school rate for children, adolescents and youth of primary and secondary school age (%, by sex)</v>
       </c>
       <c r="D216" s="25" t="str">
-        <f>VLOOKUP(B216,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B216,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_ROFST_L1T3</v>
       </c>
       <c r="E216" s="1">
@@ -18036,11 +18271,11 @@
         <v>1327</v>
       </c>
       <c r="C217" s="49" t="str">
-        <f>VLOOKUP(B217,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B217,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Population of the official age for Last Grade of lower secondary education - ISCED 2, Last Grade - (number of persons, by sex)</v>
       </c>
       <c r="D217" s="25" t="str">
-        <f>VLOOKUP(B217,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B217,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_SAP_L2_GLAST</v>
       </c>
       <c r="E217" s="1">
@@ -18070,11 +18305,11 @@
         <v>1329</v>
       </c>
       <c r="C218" s="49" t="str">
-        <f>VLOOKUP(B218,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B218,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Enrolment in private schools of secondary education - ISCED 2 and 3 - (% of all students enrolled in the respective level of education)</v>
       </c>
       <c r="D218" s="25" t="str">
-        <f>VLOOKUP(B218,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B218,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_PRP_L2AND3</v>
       </c>
       <c r="E218" s="1">
@@ -18104,11 +18339,11 @@
         <v>1331</v>
       </c>
       <c r="C219" s="49" t="str">
-        <f>VLOOKUP(B219,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B219,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Enrolment in secondary education - ISCED 2 and 3 - private institutions (number of persons, by sex)</v>
       </c>
       <c r="D219" s="25" t="str">
-        <f>VLOOKUP(B219,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B219,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EDUNF_STU_L2AND3_PRV</v>
       </c>
       <c r="E219" s="1">
@@ -18138,11 +18373,11 @@
         <v>1333</v>
       </c>
       <c r="C220" s="56" t="str">
-        <f>VLOOKUP(B220,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B220,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Proportion of population covered by at least one social protection benefit (%)</v>
       </c>
       <c r="D220" s="25" t="str">
-        <f>VLOOKUP(B220,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B220,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>SP_SI_COV_BENFTS</v>
       </c>
       <c r="E220" s="1">
@@ -18172,11 +18407,11 @@
         <v>1335</v>
       </c>
       <c r="C221" s="56" t="str">
-        <f>VLOOKUP(B221,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B221,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Proportion of population covered by labour market programs (% by wealth quintile)</v>
       </c>
       <c r="D221" s="25" t="str">
-        <f>VLOOKUP(B221,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B221,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>SP_SI_COV_LMKT</v>
       </c>
       <c r="E221" s="1">
@@ -18206,11 +18441,11 @@
         <v>1337</v>
       </c>
       <c r="C222" s="56" t="str">
-        <f>VLOOKUP(B222,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B222,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Proportion of population covered by social assistance programs (% by wealth quintile)</v>
       </c>
       <c r="D222" s="25" t="str">
-        <f>VLOOKUP(B222,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B222,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>SP_SI_COV_SOCAST</v>
       </c>
       <c r="E222" s="1">
@@ -18240,11 +18475,11 @@
         <v>1339</v>
       </c>
       <c r="C223" s="56" t="str">
-        <f>VLOOKUP(B223,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B223,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Proportion of population covered by social insurance programs (% by wealth quintile)</v>
       </c>
       <c r="D223" s="25" t="str">
-        <f>VLOOKUP(B223,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B223,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>SP_SI_COV_SOCINS</v>
       </c>
       <c r="E223" s="1">
@@ -18274,11 +18509,11 @@
         <v>1341</v>
       </c>
       <c r="C224" s="56" t="str">
-        <f>VLOOKUP(B224,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B224,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Proportion of employed population covered in the event of work injury (%)</v>
       </c>
       <c r="D224" s="25" t="str">
-        <f>VLOOKUP(B224,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B224,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>SP_SI_COV_WKINJRY</v>
       </c>
       <c r="E224" s="1">
@@ -18308,11 +18543,11 @@
         <v>1343</v>
       </c>
       <c r="C225" s="56" t="str">
-        <f>VLOOKUP(B225,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B225,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Proportion of children/households receiving child/family cash benefit (%)</v>
       </c>
       <c r="D225" s="25" t="str">
-        <f>VLOOKUP(B225,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B225,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>SP_SI_COV_CHLD</v>
       </c>
       <c r="E225" s="1">
@@ -18342,11 +18577,11 @@
         <v>1345</v>
       </c>
       <c r="C226" s="56" t="str">
-        <f>VLOOKUP(B226,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B226,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Proportion of population with severe disabilities receiving disability cash benefit (% by sex)</v>
       </c>
       <c r="D226" s="25" t="str">
-        <f>VLOOKUP(B226,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B226,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>SP_SI_COV_DISAB</v>
       </c>
       <c r="E226" s="1">
@@ -18376,11 +18611,11 @@
         <v>1347</v>
       </c>
       <c r="C227" s="56" t="str">
-        <f>VLOOKUP(B227,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B227,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Proportion of mothers with newborns receiving maternity cash benefit (%)</v>
       </c>
       <c r="D227" s="25" t="str">
-        <f>VLOOKUP(B227,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B227,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>SP_SI_COV_MATNL</v>
       </c>
       <c r="E227" s="1">
@@ -18410,11 +18645,11 @@
         <v>1349</v>
       </c>
       <c r="C228" s="56" t="str">
-        <f>VLOOKUP(B228,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B228,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Proportion of poor population receiving social assistance cash benefit (%)</v>
       </c>
       <c r="D228" s="25" t="str">
-        <f>VLOOKUP(B228,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B228,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>SP_SI_COV_POOR</v>
       </c>
       <c r="E228" s="1">
@@ -18444,11 +18679,11 @@
         <v>1351</v>
       </c>
       <c r="C229" s="56" t="str">
-        <f>VLOOKUP(B229,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B229,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Proportion of unemployed persons receiving unemployment cash benefit (% by sex)</v>
       </c>
       <c r="D229" s="25" t="str">
-        <f>VLOOKUP(B229,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B229,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>SP_SI_COV_UEMP</v>
       </c>
       <c r="E229" s="1">
@@ -18478,11 +18713,11 @@
         <v>1353</v>
       </c>
       <c r="C230" s="56" t="str">
-        <f>VLOOKUP(B230,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B230,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Proportion of vulnerable population receiving social assistance cash benefit (% by sex)</v>
       </c>
       <c r="D230" s="25" t="str">
-        <f>VLOOKUP(B230,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B230,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>SP_SI_COV_VULN</v>
       </c>
       <c r="E230" s="1">
@@ -18512,11 +18747,11 @@
         <v>1355</v>
       </c>
       <c r="C231" s="56" t="str">
-        <f>VLOOKUP(B231,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B231,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Proportion of population above statutory pensionable age receiving a pension (% by sex)</v>
       </c>
       <c r="D231" s="25" t="str">
-        <f>VLOOKUP(B231,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B231,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>SP_SI_COV_PENSN</v>
       </c>
       <c r="E231" s="1">
@@ -18546,11 +18781,11 @@
         <v>1357</v>
       </c>
       <c r="C232" s="58" t="str">
-        <f>VLOOKUP(B232,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B232,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>GDP growth (annual %)</v>
       </c>
       <c r="D232" s="25" t="str">
-        <f>VLOOKUP(B232,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B232,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EC_NY_GDP_MKTP_KD_ZG</v>
       </c>
       <c r="E232" s="1">
@@ -18580,11 +18815,11 @@
         <v>1359</v>
       </c>
       <c r="C233" s="58" t="str">
-        <f>VLOOKUP(B233,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B233,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>GDP per capita growth (annual %)</v>
       </c>
       <c r="D233" s="25" t="str">
-        <f>VLOOKUP(B233,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B233,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EC_NY_GDP_PCAP_KD_ZG</v>
       </c>
       <c r="E233" s="1">
@@ -18614,11 +18849,11 @@
         <v>1361</v>
       </c>
       <c r="C234" s="58" t="str">
-        <f>VLOOKUP(B234,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B234,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Gross national expenditure (% of GDP)</v>
       </c>
       <c r="D234" s="25" t="str">
-        <f>VLOOKUP(B234,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B234,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EC_NE_DAB_TOTL_ZS</v>
       </c>
       <c r="E234" s="1">
@@ -18648,11 +18883,11 @@
         <v>1363</v>
       </c>
       <c r="C235" s="58" t="str">
-        <f>VLOOKUP(B235,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B235,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Total government revenue (budgetary central government) as a proportion of GDP (%)</v>
       </c>
       <c r="D235" s="25" t="str">
-        <f>VLOOKUP(B235,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B235,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EC_GR_G14_GDP</v>
       </c>
       <c r="E235" s="1">
@@ -18682,11 +18917,11 @@
         <v>1365</v>
       </c>
       <c r="C236" s="58" t="str">
-        <f>VLOOKUP(B236,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B236,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>GDP per capita, PPP (current international $)</v>
       </c>
       <c r="D236" s="25" t="str">
-        <f>VLOOKUP(B236,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B236,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EC_NY_GDP_PCAP_PP_CD</v>
       </c>
       <c r="E236" s="1">
@@ -18716,11 +18951,11 @@
         <v>1367</v>
       </c>
       <c r="C237" s="58" t="str">
-        <f>VLOOKUP(B237,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B237,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>GNI, Atlas method (current US$)</v>
       </c>
       <c r="D237" s="25" t="str">
-        <f>VLOOKUP(B237,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B237,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EC_NY_GNP_ATLS_CD</v>
       </c>
       <c r="E237" s="1">
@@ -18750,11 +18985,11 @@
         <v>1369</v>
       </c>
       <c r="C238" s="58" t="str">
-        <f>VLOOKUP(B238,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B238,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>GNI per capita, Atlas method (current US$)</v>
       </c>
       <c r="D238" s="25" t="str">
-        <f>VLOOKUP(B238,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B238,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EC_NY_GNP_PCAP_CD</v>
       </c>
       <c r="E238" s="1">
@@ -18784,11 +19019,11 @@
         <v>1371</v>
       </c>
       <c r="C239" s="58" t="str">
-        <f>VLOOKUP(B239,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B239,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Central government debt, total (% of GDP)</v>
       </c>
       <c r="D239" s="25" t="str">
-        <f>VLOOKUP(B239,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B239,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EC_GC_DOD_TOTL_GD_ZS</v>
       </c>
       <c r="E239" s="1">
@@ -18818,11 +19053,11 @@
         <v>507</v>
       </c>
       <c r="C240" s="58" t="str">
-        <f>VLOOKUP(B240,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B240,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Gini index (World Bank estimate)</v>
       </c>
       <c r="D240" s="25" t="str">
-        <f>VLOOKUP(B240,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B240,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EC_SP_POV_GINI</v>
       </c>
       <c r="E240" s="1">
@@ -18852,11 +19087,11 @@
         <v>510</v>
       </c>
       <c r="C241" s="58" t="str">
-        <f>VLOOKUP(B241,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B241,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Unemployment, national estimate (% of total labor force, by sex)</v>
       </c>
       <c r="D241" s="25" t="str">
-        <f>VLOOKUP(B241,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B241,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EC_SL_UEM_TOTL_NE_ZS</v>
       </c>
       <c r="E241" s="1">
@@ -18886,11 +19121,11 @@
         <v>1375</v>
       </c>
       <c r="C242" s="58" t="str">
-        <f>VLOOKUP(B242,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B242,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Unemployment, modelled ILO estimate (% of total labor force, by sex)</v>
       </c>
       <c r="D242" s="25" t="str">
-        <f>VLOOKUP(B242,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B242,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>EC_SL_UEM_TOTL_ZS</v>
       </c>
       <c r="E242" s="1">
@@ -18920,11 +19155,11 @@
         <v>513</v>
       </c>
       <c r="C243" s="58" t="str">
-        <f>VLOOKUP(B243,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B243,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Refugee population by country or territory of asylum</v>
       </c>
       <c r="D243" s="25" t="str">
-        <f>VLOOKUP(B243,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B243,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>DM_SM_POP_REFG</v>
       </c>
       <c r="E243" s="1">
@@ -18954,11 +19189,11 @@
         <v>1378</v>
       </c>
       <c r="C244" s="58" t="str">
-        <f>VLOOKUP(B244,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B244,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Refugee population by country or territory of origin</v>
       </c>
       <c r="D244" s="25" t="str">
-        <f>VLOOKUP(B244,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B244,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>DM_SM_POP_REFG_OR</v>
       </c>
       <c r="E244" s="1">
@@ -18988,11 +19223,11 @@
         <v>1380</v>
       </c>
       <c r="C245" s="58" t="str">
-        <f>VLOOKUP(B245,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B245,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Number of deaths and missing persons attributed to disasters (per 100,000 population)</v>
       </c>
       <c r="D245" s="25" t="str">
-        <f>VLOOKUP(B245,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B245,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>CR_VC_DSR_MTMP</v>
       </c>
       <c r="E245" s="1">
@@ -19022,11 +19257,11 @@
         <v>1382</v>
       </c>
       <c r="C246" s="58" t="str">
-        <f>VLOOKUP(B246,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B246,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Number of directly affected persons attributed to disasters (per 100,000 population)</v>
       </c>
       <c r="D246" s="25" t="str">
-        <f>VLOOKUP(B246,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B246,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>CR_VC_DSR_DAFF</v>
       </c>
       <c r="E246" s="1">
@@ -19056,11 +19291,11 @@
         <v>1384</v>
       </c>
       <c r="C247" s="58" t="str">
-        <f>VLOOKUP(B247,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B247,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Crude death rate attributed to household and ambient air pollution (deaths per 100,000 population)</v>
       </c>
       <c r="D247" s="25" t="str">
-        <f>VLOOKUP(B247,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B247,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>CR_SH_STA_AIRP</v>
       </c>
       <c r="E247" s="1">
@@ -19090,11 +19325,11 @@
         <v>1386</v>
       </c>
       <c r="C248" s="58" t="str">
-        <f>VLOOKUP(B248,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B248,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Age-standardized mortality rate attributed to household and ambient air pollution (deaths per 100,000 population)</v>
       </c>
       <c r="D248" s="25" t="str">
-        <f>VLOOKUP(B248,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B248,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>CR_SH_STA_ASAIRP</v>
       </c>
       <c r="E248" s="1">
@@ -19124,11 +19359,11 @@
         <v>1388</v>
       </c>
       <c r="C249" s="58" t="str">
-        <f>VLOOKUP(B249,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B249,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Proportion of population with primary reliance on clean fuels and technology (%)</v>
       </c>
       <c r="D249" s="25" t="str">
-        <f>VLOOKUP(B249,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B249,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>CR_EG_EGY_CLEAN</v>
       </c>
       <c r="E249" s="1">
@@ -19158,11 +19393,11 @@
         <v>1390</v>
       </c>
       <c r="C250" s="58" t="str">
-        <f>VLOOKUP(B250,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B250,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Proportion of population with access to electricity (% by residence)</v>
       </c>
       <c r="D250" s="25" t="str">
-        <f>VLOOKUP(B250,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B250,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>CR_EG_ACS_ELEC</v>
       </c>
       <c r="E250" s="1">
@@ -19192,11 +19427,11 @@
         <v>1392</v>
       </c>
       <c r="C251" s="58" t="str">
-        <f>VLOOKUP(B251,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B251,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Score of adoption and implementation of national DRR strategies in line with the Sendai Framework</v>
       </c>
       <c r="D251" s="25" t="str">
-        <f>VLOOKUP(B251,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B251,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>CR_SG_DSR_LGRGSR</v>
       </c>
       <c r="E251" s="1">
@@ -19226,11 +19461,11 @@
         <v>1394</v>
       </c>
       <c r="C252" s="61" t="str">
-        <f>VLOOKUP(B252,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B252,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Percentage of ever-partnered women and girls (aged 15 years and older, by age groups, residence and wealth quintile) subjected to physical, sexual or psychological violence by a current or former intimate partner in the previous 12 months</v>
       </c>
       <c r="D252" s="25" t="str">
-        <f>VLOOKUP(B252,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B252,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>PT_F_GE15_PS-SX-EM_V_PTNR_12MNTH</v>
       </c>
       <c r="E252" s="1">
@@ -19260,11 +19495,11 @@
         <v>1396</v>
       </c>
       <c r="C253" s="61" t="str">
-        <f>VLOOKUP(B253,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B253,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Women and girls aged 15 and older subjected to sexual violence by persons other than an intimate partner in the previous 12 months (%)</v>
       </c>
       <c r="D253" s="25" t="str">
-        <f>VLOOKUP(B253,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B253,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>PT_F_GE15_SX_V_PTNR_12MNTH</v>
       </c>
       <c r="E253" s="1">
@@ -19294,11 +19529,11 @@
         <v>1398</v>
       </c>
       <c r="C254" s="61" t="str">
-        <f>VLOOKUP(B254,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B254,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Proportion of population subjected to physical violence in the previous 12 months (% by sex)</v>
       </c>
       <c r="D254" s="25" t="str">
-        <f>VLOOKUP(B254,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B254,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>PT_VC_VOV_PHYL</v>
       </c>
       <c r="E254" s="1">
@@ -19328,11 +19563,11 @@
         <v>1400</v>
       </c>
       <c r="C255" s="61" t="str">
-        <f>VLOOKUP(B255,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B255,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Proportion of population subjected to sexual violence in the previous 12 months (% by sex)</v>
       </c>
       <c r="D255" s="25" t="str">
-        <f>VLOOKUP(B255,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B255,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>PT_VC_VOV_SEXL</v>
       </c>
       <c r="E255" s="1">
@@ -19362,11 +19597,11 @@
         <v>1402</v>
       </c>
       <c r="C256" s="61" t="str">
-        <f>VLOOKUP(B256,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B256,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Proportion of population subjected to robbery in the previous 12 months (% by sex)</v>
       </c>
       <c r="D256" s="25" t="str">
-        <f>VLOOKUP(B256,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B256,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>PT_VC_VOV_ROBB</v>
       </c>
       <c r="E256" s="1">
@@ -19396,11 +19631,11 @@
         <v>1404</v>
       </c>
       <c r="C257" s="61" t="str">
-        <f>VLOOKUP(B257,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B257,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Proportion of population that feel safe walking alone around the area they live (% by sex)</v>
       </c>
       <c r="D257" s="25" t="str">
-        <f>VLOOKUP(B257,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B257,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>PT_VC_SNS_WALN</v>
       </c>
       <c r="E257" s="1">
@@ -19430,11 +19665,11 @@
         <v>1406</v>
       </c>
       <c r="C258" s="61" t="str">
-        <f>VLOOKUP(B258,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B258,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Percentage of children (by sex, age groups, residence and wealth quintile) who experienced any physical punishment and/or psychological aggression by caregivers</v>
       </c>
       <c r="D258" s="25" t="str">
-        <f>VLOOKUP(B258,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B258,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>PT_CHLD_1-14_PS-PSY-V_CGVR</v>
       </c>
       <c r="E258" s="1">
@@ -19464,11 +19699,11 @@
         <v>1408</v>
       </c>
       <c r="C259" s="61" t="str">
-        <f>VLOOKUP(B259,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B259,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Percentage of women (aged 18 and over, by age groups) who experienced sexual violence by age 18</v>
       </c>
       <c r="D259" s="25" t="str">
-        <f>VLOOKUP(B259,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B259,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>PT_F_18-29_SX-V_AGE-18</v>
       </c>
       <c r="E259" s="1">
@@ -19498,11 +19733,11 @@
         <v>1410</v>
       </c>
       <c r="C260" s="61" t="str">
-        <f>VLOOKUP(B260,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B260,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Percentage of men (aged 18 and over) who experienced sexual violence by age 18</v>
       </c>
       <c r="D260" s="25" t="str">
-        <f>VLOOKUP(B260,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B260,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>PT_M_18-29_SX-V_AGE-18</v>
       </c>
       <c r="E260" s="1">
@@ -19532,11 +19767,11 @@
         <v>1412</v>
       </c>
       <c r="C261" s="61" t="str">
-        <f>VLOOKUP(B261,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B261,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Police reporting rate for physical assault (% by sex)</v>
       </c>
       <c r="D261" s="25" t="str">
-        <f>VLOOKUP(B261,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B261,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>PT_VC_PRR_PHYV</v>
       </c>
       <c r="E261" s="1">
@@ -19566,11 +19801,11 @@
         <v>1414</v>
       </c>
       <c r="C262" s="61" t="str">
-        <f>VLOOKUP(B262,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B262,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Police reporting rate for sexual assault (%)</v>
       </c>
       <c r="D262" s="25" t="str">
-        <f>VLOOKUP(B262,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B262,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>PT_VC_PRR_SEXV</v>
       </c>
       <c r="E262" s="1">
@@ -19600,11 +19835,11 @@
         <v>1416</v>
       </c>
       <c r="C263" s="61" t="str">
-        <f>VLOOKUP(B263,Indicator!$A$2:$F$752,5,FALSE)</f>
+        <f>VLOOKUP(B263,Indicator!$A$2:$F$755,5,FALSE)</f>
         <v>Police reporting rate for robbery (% by sex)</v>
       </c>
       <c r="D263" s="25" t="str">
-        <f>VLOOKUP(B263,Indicator!$A$2:$F$752,6,FALSE)</f>
+        <f>VLOOKUP(B263,Indicator!$A$2:$F$755,6,FALSE)</f>
         <v>PT_VC_PRR_ROBB</v>
       </c>
       <c r="E263" s="1">
@@ -19626,135 +19861,679 @@
       </c>
       <c r="K263" s="1"/>
     </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A264" s="1" t="s">
+        <v>3233</v>
+      </c>
+      <c r="B264" s="16" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C264" s="61" t="str">
+        <f>VLOOKUP(B264,Indicator!$A$2:$F$755,5,FALSE)</f>
+        <v>Percentage of adults who think that physical punishment is necessary to raise/educate children</v>
+      </c>
+      <c r="D264" s="25" t="str">
+        <f>VLOOKUP(B264,Indicator!$A$2:$F$755,6,FALSE)</f>
+        <v>PT_ADLT_PS_NEC</v>
+      </c>
+      <c r="E264" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G264" s="1" t="str">
+        <f>VLOOKUP(F264,Value_type!$A$2:$I$107,3,FALSE)</f>
+        <v>PCNT</v>
+      </c>
+      <c r="H264" s="1" t="s">
+        <v>3221</v>
+      </c>
+      <c r="I264" s="25" t="str">
+        <f>VLOOKUP(H264,Source!$A$2:$G$278,3,FALSE)</f>
+        <v>Helix: PT_ADLT_PS_NEC</v>
+      </c>
+      <c r="K264" s="1"/>
+    </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
-        <v>3233</v>
+        <v>3234</v>
       </c>
       <c r="B265" s="16" t="s">
-        <v>1514</v>
-      </c>
-      <c r="C265" s="55" t="str">
-        <f>VLOOKUP(B265,Indicator!$A$2:$F$752,5,FALSE)</f>
-        <v>Percentage of children (by sex, age groups, residence and wealth quintile) whose births are registered</v>
+        <v>1420</v>
+      </c>
+      <c r="C265" s="61" t="str">
+        <f>VLOOKUP(B265,Indicator!$A$2:$F$755,5,FALSE)</f>
+        <v>Percentage of women (aged 15-49 years) who consider a husband to be justified in hitting or beating his wife for at least one of the specified reasons</v>
       </c>
       <c r="D265" s="25" t="str">
-        <f>VLOOKUP(B265,Indicator!$A$2:$F$752,6,FALSE)</f>
-        <v>PT_CHLD_Y0T4_REG</v>
+        <f>VLOOKUP(B265,Indicator!$A$2:$F$755,6,FALSE)</f>
+        <v>PT_F_15-49_W-BTNG</v>
       </c>
       <c r="E265" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="G265" s="1" t="str">
         <f>VLOOKUP(F265,Value_type!$A$2:$I$107,3,FALSE)</f>
         <v>PCNT</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="I265" s="25" t="str">
-        <f>VLOOKUP(H265,Source!$A$2:$G$290,3,FALSE)</f>
-        <v>Helix: PT_CHLD_Y0T4_REG</v>
-      </c>
+        <f>VLOOKUP(H265,Source!$A$2:$G$278,3,FALSE)</f>
+        <v>Helix: PT_F_15-49_W-BTNG</v>
+      </c>
+      <c r="K265" s="1"/>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A266" s="1" t="s">
-        <v>3234</v>
+        <v>3235</v>
       </c>
       <c r="B266" s="16" t="s">
-        <v>1516</v>
-      </c>
-      <c r="C266" s="55" t="str">
-        <f>VLOOKUP(B266,Indicator!$A$2:$F$752,5,FALSE)</f>
-        <v>Percentage of children under age 5 (by sex, residence and wealth quintile) left alone or under the supervision of another child younger than 10 years of age for more than 1 hour at least once in the last week</v>
+        <v>1422</v>
+      </c>
+      <c r="C266" s="61" t="str">
+        <f>VLOOKUP(B266,Indicator!$A$2:$F$755,5,FALSE)</f>
+        <v>Percentage of men (aged 15-49 years) who consider a husband to be justified in hitting or beating his wife for at least one of the specified reasons</v>
       </c>
       <c r="D266" s="25" t="str">
-        <f>VLOOKUP(B266,Indicator!$A$2:$F$752,6,FALSE)</f>
-        <v>ECD_CHLD_U5_LFT-ALN</v>
+        <f>VLOOKUP(B266,Indicator!$A$2:$F$755,6,FALSE)</f>
+        <v>PT_M_15-49_W-BTNG</v>
       </c>
       <c r="E266" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G266" s="1" t="str">
         <f>VLOOKUP(F266,Value_type!$A$2:$I$107,3,FALSE)</f>
         <v>PCNT</v>
       </c>
       <c r="H266" s="1" t="s">
-        <v>3222</v>
+        <v>3223</v>
       </c>
       <c r="I266" s="25" t="str">
-        <f>VLOOKUP(H266,Source!$A$2:$G$290,3,FALSE)</f>
-        <v>Helix: ECD_CHLD_U5_LFT-ALN</v>
-      </c>
+        <f>VLOOKUP(H266,Source!$A$2:$G$278,3,FALSE)</f>
+        <v>Helix: PT_M_15-49_W-BTNG</v>
+      </c>
+      <c r="K266" s="1"/>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
-        <v>3235</v>
+        <v>3236</v>
       </c>
       <c r="B267" s="16" t="s">
-        <v>1902</v>
-      </c>
-      <c r="C267" s="55" t="str">
-        <f>VLOOKUP(B267,Indicator!$A$2:$F$752,5,FALSE)</f>
-        <v>Maternity leave benefits</v>
+        <v>1424</v>
+      </c>
+      <c r="C267" s="61" t="str">
+        <f>VLOOKUP(B267,Indicator!$A$2:$F$755,5,FALSE)</f>
+        <v>Percentage of students (aged 13-15 years) who reported being bullied on 1 or more days in the past 30 days</v>
       </c>
       <c r="D267" s="25" t="str">
-        <f>VLOOKUP(B267,Indicator!$A$2:$F$752,6,FALSE)</f>
-        <v>GN_MTNTY_LV_BNFTS</v>
+        <f>VLOOKUP(B267,Indicator!$A$2:$F$755,6,FALSE)</f>
+        <v>PT_ST_13-15_BUL_30-DYS</v>
       </c>
       <c r="E267" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="G267" s="1" t="str">
         <f>VLOOKUP(F267,Value_type!$A$2:$I$107,3,FALSE)</f>
-        <v>BINARY</v>
+        <v>PCNT</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>3223</v>
+        <v>3224</v>
       </c>
       <c r="I267" s="25" t="str">
-        <f>VLOOKUP(H267,Source!$A$2:$G$290,3,FALSE)</f>
-        <v>Helix: GN_MTNTY_LV_BNFTS</v>
-      </c>
+        <f>VLOOKUP(H267,Source!$A$2:$G$278,3,FALSE)</f>
+        <v>Helix: PT_ST_13-15_BUL_30-DYS</v>
+      </c>
+      <c r="K267" s="1"/>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
-        <v>3236</v>
+        <v>3334</v>
       </c>
       <c r="B268" s="16" t="s">
-        <v>1904</v>
-      </c>
-      <c r="C268" s="55" t="str">
-        <f>VLOOKUP(B268,Indicator!$A$2:$F$752,5,FALSE)</f>
-        <v>Paternity leave benefits</v>
+        <v>1425</v>
+      </c>
+      <c r="C268" s="61" t="str">
+        <f>VLOOKUP(B268,Indicator!$A$2:$F$755,5,FALSE)</f>
+        <v>Percentage of girls aged 15-19 years who are currently married or in union</v>
       </c>
       <c r="D268" s="25" t="str">
-        <f>VLOOKUP(B268,Indicator!$A$2:$F$752,6,FALSE)</f>
-        <v>GN_PTNTY_LV_BNFTS</v>
+        <f>VLOOKUP(B268,Indicator!$A$2:$F$755,6,FALSE)</f>
+        <v>PT_F_15-19_MRD</v>
       </c>
       <c r="E268" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="G268" s="1" t="str">
         <f>VLOOKUP(F268,Value_type!$A$2:$I$107,3,FALSE)</f>
+        <v>PCNT</v>
+      </c>
+      <c r="H268" s="1" t="s">
+        <v>3225</v>
+      </c>
+      <c r="I268" s="25" t="str">
+        <f>VLOOKUP(H268,Source!$A$2:$G$278,3,FALSE)</f>
+        <v>Helix: PT_F_15-19_MRD</v>
+      </c>
+      <c r="K268" s="1"/>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A269" s="1" t="s">
+        <v>3335</v>
+      </c>
+      <c r="B269" s="16" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C269" s="61" t="str">
+        <f>VLOOKUP(B269,Indicator!$A$2:$F$755,5,FALSE)</f>
+        <v>Percentage of boys aged 15-19 years who are currently married or in union</v>
+      </c>
+      <c r="D269" s="25" t="str">
+        <f>VLOOKUP(B269,Indicator!$A$2:$F$755,6,FALSE)</f>
+        <v>PT_M_15-19_MRD</v>
+      </c>
+      <c r="E269" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="G269" s="1" t="str">
+        <f>VLOOKUP(F269,Value_type!$A$2:$I$107,3,FALSE)</f>
+        <v>PCNT</v>
+      </c>
+      <c r="H269" s="1" t="s">
+        <v>3226</v>
+      </c>
+      <c r="I269" s="25" t="str">
+        <f>VLOOKUP(H269,Source!$A$2:$G$278,3,FALSE)</f>
+        <v>Helix: PT_M_15-19_MRD</v>
+      </c>
+      <c r="K269" s="1"/>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A270" s="1" t="s">
+        <v>3336</v>
+      </c>
+      <c r="B270" s="16" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C270" s="61" t="str">
+        <f>VLOOKUP(B270,Indicator!$A$2:$F$755,5,FALSE)</f>
+        <v>Percentage of women (aged 20-24 years) married or in union before age 15</v>
+      </c>
+      <c r="D270" s="25" t="str">
+        <f>VLOOKUP(B270,Indicator!$A$2:$F$755,6,FALSE)</f>
+        <v>PT_F_20-24_MRD_U15</v>
+      </c>
+      <c r="E270" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="G270" s="1" t="str">
+        <f>VLOOKUP(F270,Value_type!$A$2:$I$107,3,FALSE)</f>
+        <v>PCNT</v>
+      </c>
+      <c r="H270" s="1" t="s">
+        <v>3301</v>
+      </c>
+      <c r="I270" s="25" t="str">
+        <f>VLOOKUP(H270,Source!$A$2:$G$278,3,FALSE)</f>
+        <v>Helix: PT_F_20-24_MRD_U15</v>
+      </c>
+      <c r="K270" s="1"/>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A271" s="1" t="s">
+        <v>3337</v>
+      </c>
+      <c r="B271" s="16" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C271" s="61" t="str">
+        <f>VLOOKUP(B271,Indicator!$A$2:$F$755,5,FALSE)</f>
+        <v>Percentage of women (aged 20-24 years) married or in union before age 18</v>
+      </c>
+      <c r="D271" s="25" t="str">
+        <f>VLOOKUP(B271,Indicator!$A$2:$F$755,6,FALSE)</f>
+        <v>PT_F_20-24_MRD_U18</v>
+      </c>
+      <c r="E271" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="G271" s="1" t="str">
+        <f>VLOOKUP(F271,Value_type!$A$2:$I$107,3,FALSE)</f>
+        <v>PCNT</v>
+      </c>
+      <c r="H271" s="1" t="s">
+        <v>3302</v>
+      </c>
+      <c r="I271" s="25" t="str">
+        <f>VLOOKUP(H271,Source!$A$2:$G$278,3,FALSE)</f>
+        <v>Helix: PT_F_20-24_MRD_U18</v>
+      </c>
+      <c r="K271" s="1"/>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A272" s="1" t="s">
+        <v>3338</v>
+      </c>
+      <c r="B272" s="16" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C272" s="61" t="str">
+        <f>VLOOKUP(B272,Indicator!$A$2:$F$755,5,FALSE)</f>
+        <v>Percentage of men (aged 20-24 years) married or in union before age 18</v>
+      </c>
+      <c r="D272" s="25" t="str">
+        <f>VLOOKUP(B272,Indicator!$A$2:$F$755,6,FALSE)</f>
+        <v>PT_M_20-24_MRD_U18</v>
+      </c>
+      <c r="E272" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="G272" s="1" t="str">
+        <f>VLOOKUP(F272,Value_type!$A$2:$I$107,3,FALSE)</f>
+        <v>PCNT</v>
+      </c>
+      <c r="H272" s="1" t="s">
+        <v>3303</v>
+      </c>
+      <c r="I272" s="25" t="str">
+        <f>VLOOKUP(H272,Source!$A$2:$G$278,3,FALSE)</f>
+        <v>Helix: PT_M_20-24_MRD_U18</v>
+      </c>
+      <c r="K272" s="1"/>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A273" s="1" t="s">
+        <v>3339</v>
+      </c>
+      <c r="B273" s="16" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C273" s="61" t="str">
+        <f>VLOOKUP(B273,Indicator!$A$2:$F$755,5,FALSE)</f>
+        <v>Percentage of children (aged 5-17 years) engaged in child labour (economic activities)</v>
+      </c>
+      <c r="D273" s="25" t="str">
+        <f>VLOOKUP(B273,Indicator!$A$2:$F$755,6,FALSE)</f>
+        <v>PT_CHLD_5-17_LBR_ECON</v>
+      </c>
+      <c r="E273" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="G273" s="1" t="str">
+        <f>VLOOKUP(F273,Value_type!$A$2:$I$107,3,FALSE)</f>
+        <v>PCNT</v>
+      </c>
+      <c r="H273" s="1" t="s">
+        <v>3304</v>
+      </c>
+      <c r="I273" s="25" t="str">
+        <f>VLOOKUP(H273,Source!$A$2:$G$350,3,FALSE)</f>
+        <v>Helix: PT_CHLD_5-17_LBR_ECON</v>
+      </c>
+      <c r="K273" s="1"/>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A274" s="1" t="s">
+        <v>3340</v>
+      </c>
+      <c r="B274" s="16" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C274" s="61" t="str">
+        <f>VLOOKUP(B274,Indicator!$A$2:$F$755,5,FALSE)</f>
+        <v>Percentage of children (aged 5-17 years) engaged in child labour (economic activities and household chores)</v>
+      </c>
+      <c r="D274" s="25" t="str">
+        <f>VLOOKUP(B274,Indicator!$A$2:$F$755,6,FALSE)</f>
+        <v>PT_CHLD_5-17_LBR_ECON-HC</v>
+      </c>
+      <c r="E274" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="G274" s="1" t="str">
+        <f>VLOOKUP(F274,Value_type!$A$2:$I$107,3,FALSE)</f>
+        <v>PCNT</v>
+      </c>
+      <c r="H274" s="1" t="s">
+        <v>3305</v>
+      </c>
+      <c r="I274" s="25" t="str">
+        <f>VLOOKUP(H274,Source!$A$2:$G$350,3,FALSE)</f>
+        <v>Helix: PT_CHLD_5-17_LBR_ECON-HC</v>
+      </c>
+      <c r="K274" s="1"/>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A275" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="B275" s="16" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C275" s="63" t="str">
+        <f>VLOOKUP(B275,Indicator!$A$2:$F$755,5,FALSE)</f>
+        <v>Countries with National Human Rights Institutions in compliance with the Paris Principles (A status)</v>
+      </c>
+      <c r="D275" s="25" t="str">
+        <f>VLOOKUP(B275,Indicator!$A$2:$F$755,6,FALSE)</f>
+        <v>JJ_SG_NHR_IMPLN</v>
+      </c>
+      <c r="E275" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="G275" s="1" t="str">
+        <f>VLOOKUP(F275,Value_type!$A$2:$I$107,3,FALSE)</f>
         <v>BINARY</v>
       </c>
-      <c r="H268" s="1" t="s">
-        <v>3224</v>
-      </c>
-      <c r="I268" s="25" t="str">
-        <f>VLOOKUP(H268,Source!$A$2:$G$290,3,FALSE)</f>
+      <c r="H275" s="1" t="s">
+        <v>3306</v>
+      </c>
+      <c r="I275" s="25" t="str">
+        <f>VLOOKUP(H275,Source!$A$2:$G$350,3,FALSE)</f>
+        <v>SDG: SG_NHR_IMPLN</v>
+      </c>
+      <c r="K275" s="1"/>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A276" s="1" t="s">
+        <v>3342</v>
+      </c>
+      <c r="B276" s="16" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C276" s="63" t="str">
+        <f>VLOOKUP(B276,Indicator!$A$2:$F$755,5,FALSE)</f>
+        <v>Countries with National Human Rights Institutions not fully compliant with the Paris Principles (B status)</v>
+      </c>
+      <c r="D276" s="25" t="str">
+        <f>VLOOKUP(B276,Indicator!$A$2:$F$755,6,FALSE)</f>
+        <v>JJ_SG_NHR_INTEXSTN</v>
+      </c>
+      <c r="E276" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="G276" s="1" t="str">
+        <f>VLOOKUP(F276,Value_type!$A$2:$I$107,3,FALSE)</f>
+        <v>BINARY</v>
+      </c>
+      <c r="H276" s="1" t="s">
+        <v>3307</v>
+      </c>
+      <c r="I276" s="25" t="str">
+        <f>VLOOKUP(H276,Source!$A$2:$G$350,3,FALSE)</f>
+        <v>SDG: SG_NHR_INTEXSTN</v>
+      </c>
+      <c r="K276" s="1"/>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A277" s="1" t="s">
+        <v>3343</v>
+      </c>
+      <c r="B277" s="16" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C277" s="63" t="str">
+        <f>VLOOKUP(B277,Indicator!$A$2:$F$755,5,FALSE)</f>
+        <v>Countries with National Human Rights Institutions and no status with the Paris Principles (C status)</v>
+      </c>
+      <c r="D277" s="25" t="str">
+        <f>VLOOKUP(B277,Indicator!$A$2:$F$755,6,FALSE)</f>
+        <v>JJ_SG_NHR_NOSTUSN</v>
+      </c>
+      <c r="E277" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="G277" s="1" t="str">
+        <f>VLOOKUP(F277,Value_type!$A$2:$I$107,3,FALSE)</f>
+        <v>BINARY</v>
+      </c>
+      <c r="H277" s="1" t="s">
+        <v>3308</v>
+      </c>
+      <c r="I277" s="25" t="str">
+        <f>VLOOKUP(H277,Source!$A$2:$G$350,3,FALSE)</f>
+        <v>SDG: SG_NHR_NOSTUSN</v>
+      </c>
+      <c r="K277" s="1"/>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A278" s="1" t="s">
+        <v>3344</v>
+      </c>
+      <c r="B278" s="16" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C278" s="63" t="str">
+        <f>VLOOKUP(B278,Indicator!$A$2:$F$755,5,FALSE)</f>
+        <v>Countries with no application for accreditation with the Paris Principles (D status)</v>
+      </c>
+      <c r="D278" s="25" t="str">
+        <f>VLOOKUP(B278,Indicator!$A$2:$F$755,6,FALSE)</f>
+        <v>JJ_SG_NHR_NOAPPLN</v>
+      </c>
+      <c r="E278" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="G278" s="1" t="str">
+        <f>VLOOKUP(F278,Value_type!$A$2:$I$107,3,FALSE)</f>
+        <v>BINARY</v>
+      </c>
+      <c r="H278" s="1" t="s">
+        <v>3309</v>
+      </c>
+      <c r="I278" s="25" t="str">
+        <f>VLOOKUP(H278,Source!$A$2:$G$350,3,FALSE)</f>
+        <v>SDG: SG_NHR_NOAPPLN</v>
+      </c>
+      <c r="K278" s="1"/>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A279" s="1" t="s">
+        <v>3345</v>
+      </c>
+      <c r="B279" s="16" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C279" s="63" t="str">
+        <f>VLOOKUP(B279,Indicator!$A$2:$F$755,5,FALSE)</f>
+        <v>Unsentenced detainees as a proportion of overall prison population (%)</v>
+      </c>
+      <c r="D279" s="25" t="str">
+        <f>VLOOKUP(B279,Indicator!$A$2:$F$755,6,FALSE)</f>
+        <v>JJ_VC_PRS_UNSNT</v>
+      </c>
+      <c r="E279" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G279" s="1" t="str">
+        <f>VLOOKUP(F279,Value_type!$A$2:$I$107,3,FALSE)</f>
+        <v>PCNT</v>
+      </c>
+      <c r="H279" s="1" t="s">
+        <v>3310</v>
+      </c>
+      <c r="I279" s="25" t="str">
+        <f>VLOOKUP(H279,Source!$A$2:$G$350,3,FALSE)</f>
+        <v>SDG: VC_PRS_UNSNT</v>
+      </c>
+      <c r="K279" s="1"/>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A281" s="1" t="s">
+        <v>3346</v>
+      </c>
+      <c r="B281" s="16" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C281" s="55" t="str">
+        <f>VLOOKUP(B281,Indicator!$A$2:$F$755,5,FALSE)</f>
+        <v>Percentage of children (by sex, age groups, residence and wealth quintile) whose births are registered</v>
+      </c>
+      <c r="D281" s="25" t="str">
+        <f>VLOOKUP(B281,Indicator!$A$2:$F$755,6,FALSE)</f>
+        <v>PT_CHLD_Y0T4_REG</v>
+      </c>
+      <c r="E281" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G281" s="1" t="str">
+        <f>VLOOKUP(F281,Value_type!$A$2:$I$107,3,FALSE)</f>
+        <v>PCNT</v>
+      </c>
+      <c r="H281" s="1" t="s">
+        <v>3311</v>
+      </c>
+      <c r="I281" s="25" t="str">
+        <f>VLOOKUP(H281,Source!$A$2:$G$295,3,FALSE)</f>
+        <v>Helix: PT_CHLD_Y0T4_REG</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A282" s="1" t="s">
+        <v>3347</v>
+      </c>
+      <c r="B282" s="16" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C282" s="55" t="str">
+        <f>VLOOKUP(B282,Indicator!$A$2:$F$755,5,FALSE)</f>
+        <v>Percentage of children under age 5 (by sex, residence and wealth quintile) left alone or under the supervision of another child younger than 10 years of age for more than 1 hour at least once in the last week</v>
+      </c>
+      <c r="D282" s="25" t="str">
+        <f>VLOOKUP(B282,Indicator!$A$2:$F$755,6,FALSE)</f>
+        <v>ECD_CHLD_U5_LFT-ALN</v>
+      </c>
+      <c r="E282" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="G282" s="1" t="str">
+        <f>VLOOKUP(F282,Value_type!$A$2:$I$107,3,FALSE)</f>
+        <v>PCNT</v>
+      </c>
+      <c r="H282" s="1" t="s">
+        <v>3312</v>
+      </c>
+      <c r="I282" s="25" t="str">
+        <f>VLOOKUP(H282,Source!$A$2:$G$295,3,FALSE)</f>
+        <v>Helix: ECD_CHLD_U5_LFT-ALN</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A283" s="1" t="s">
+        <v>3348</v>
+      </c>
+      <c r="B283" s="16" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C283" s="55" t="str">
+        <f>VLOOKUP(B283,Indicator!$A$2:$F$755,5,FALSE)</f>
+        <v>Maternity leave benefits</v>
+      </c>
+      <c r="D283" s="25" t="str">
+        <f>VLOOKUP(B283,Indicator!$A$2:$F$755,6,FALSE)</f>
+        <v>GN_MTNTY_LV_BNFTS</v>
+      </c>
+      <c r="E283" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="G283" s="1" t="str">
+        <f>VLOOKUP(F283,Value_type!$A$2:$I$107,3,FALSE)</f>
+        <v>BINARY</v>
+      </c>
+      <c r="H283" s="1" t="s">
+        <v>3313</v>
+      </c>
+      <c r="I283" s="25" t="str">
+        <f>VLOOKUP(H283,Source!$A$2:$G$295,3,FALSE)</f>
+        <v>Helix: GN_MTNTY_LV_BNFTS</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A284" s="1" t="s">
+        <v>3349</v>
+      </c>
+      <c r="B284" s="16" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C284" s="55" t="str">
+        <f>VLOOKUP(B284,Indicator!$A$2:$F$755,5,FALSE)</f>
+        <v>Paternity leave benefits</v>
+      </c>
+      <c r="D284" s="25" t="str">
+        <f>VLOOKUP(B284,Indicator!$A$2:$F$755,6,FALSE)</f>
+        <v>GN_PTNTY_LV_BNFTS</v>
+      </c>
+      <c r="E284" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="G284" s="1" t="str">
+        <f>VLOOKUP(F284,Value_type!$A$2:$I$107,3,FALSE)</f>
+        <v>BINARY</v>
+      </c>
+      <c r="H284" s="1" t="s">
+        <v>3314</v>
+      </c>
+      <c r="I284" s="25" t="str">
+        <f>VLOOKUP(H284,Source!$A$2:$G$295,3,FALSE)</f>
         <v>Helix: GN_PTNTY_LV_BNFTS</v>
       </c>
     </row>
@@ -20293,11 +21072,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M699"/>
+  <dimension ref="A1:M702"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A315" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E329" sqref="E329"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A317" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E320" sqref="E320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26946,7 +27725,9 @@
       <c r="J318"/>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A319" s="16"/>
+      <c r="A319" s="16" t="s">
+        <v>1418</v>
+      </c>
       <c r="B319" s="25" t="s">
         <v>948</v>
       </c>
@@ -26966,7 +27747,9 @@
       <c r="J319"/>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A320" s="16"/>
+      <c r="A320" s="16" t="s">
+        <v>1420</v>
+      </c>
       <c r="B320" s="25" t="s">
         <v>948</v>
       </c>
@@ -26986,7 +27769,9 @@
       <c r="J320"/>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A321" s="16"/>
+      <c r="A321" s="16" t="s">
+        <v>1422</v>
+      </c>
       <c r="B321" s="25" t="s">
         <v>948</v>
       </c>
@@ -27006,7 +27791,9 @@
       <c r="J321"/>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A322" s="16"/>
+      <c r="A322" s="16" t="s">
+        <v>1424</v>
+      </c>
       <c r="B322" s="25" t="s">
         <v>948</v>
       </c>
@@ -27026,7 +27813,9 @@
       <c r="J322"/>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A323" s="16"/>
+      <c r="A323" s="16" t="s">
+        <v>1425</v>
+      </c>
       <c r="B323" s="25" t="s">
         <v>948</v>
       </c>
@@ -27046,7 +27835,9 @@
       <c r="J323"/>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A324" s="16"/>
+      <c r="A324" s="16" t="s">
+        <v>1426</v>
+      </c>
       <c r="B324" s="25" t="s">
         <v>948</v>
       </c>
@@ -27066,7 +27857,9 @@
       <c r="J324"/>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A325" s="16"/>
+      <c r="A325" s="16" t="s">
+        <v>1427</v>
+      </c>
       <c r="B325" s="25" t="s">
         <v>948</v>
       </c>
@@ -27086,7 +27879,9 @@
       <c r="J325"/>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A326" s="16"/>
+      <c r="A326" s="16" t="s">
+        <v>1428</v>
+      </c>
       <c r="B326" s="25" t="s">
         <v>948</v>
       </c>
@@ -27106,7 +27901,9 @@
       <c r="J326"/>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A327" s="16"/>
+      <c r="A327" s="16" t="s">
+        <v>1430</v>
+      </c>
       <c r="B327" s="25" t="s">
         <v>948</v>
       </c>
@@ -27126,7 +27923,9 @@
       <c r="J327"/>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A328" s="16"/>
+      <c r="A328" s="16" t="s">
+        <v>1431</v>
+      </c>
       <c r="B328" s="25" t="s">
         <v>948</v>
       </c>
@@ -27146,7 +27945,9 @@
       <c r="J328"/>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A329" s="16"/>
+      <c r="A329" s="16" t="s">
+        <v>1432</v>
+      </c>
       <c r="B329" s="25" t="s">
         <v>948</v>
       </c>
@@ -27166,3606 +27967,3699 @@
       <c r="J329"/>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A330" s="16"/>
-      <c r="C330" s="61"/>
-      <c r="D330" s="55"/>
-      <c r="E330" s="62"/>
+      <c r="A330" s="16" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B330" s="25" t="s">
+        <v>948</v>
+      </c>
+      <c r="C330" s="63" t="s">
+        <v>3277</v>
+      </c>
+      <c r="D330" s="55" t="s">
+        <v>3278</v>
+      </c>
+      <c r="E330" s="64" t="s">
+        <v>3280</v>
+      </c>
+      <c r="F330" t="s">
+        <v>3279</v>
+      </c>
       <c r="I330"/>
       <c r="J330"/>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A331" s="16"/>
-      <c r="B331" s="55"/>
-      <c r="C331" s="55"/>
-      <c r="D331" s="36"/>
-      <c r="E331" s="62"/>
+      <c r="A331" s="16" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B331" s="25" t="s">
+        <v>948</v>
+      </c>
+      <c r="C331" s="63" t="s">
+        <v>3277</v>
+      </c>
+      <c r="D331" s="55" t="s">
+        <v>3278</v>
+      </c>
+      <c r="E331" s="64" t="s">
+        <v>3285</v>
+      </c>
+      <c r="F331" t="s">
+        <v>3284</v>
+      </c>
       <c r="I331"/>
       <c r="J331"/>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A332" s="16"/>
-      <c r="E332" s="36"/>
-      <c r="F332" s="36"/>
+      <c r="A332" s="16" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B332" s="25" t="s">
+        <v>948</v>
+      </c>
+      <c r="C332" s="63" t="s">
+        <v>3277</v>
+      </c>
+      <c r="D332" s="55" t="s">
+        <v>3278</v>
+      </c>
+      <c r="E332" s="64" t="s">
+        <v>3291</v>
+      </c>
+      <c r="F332" t="s">
+        <v>3290</v>
+      </c>
       <c r="I332"/>
       <c r="J332"/>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A333" s="16" t="s">
-        <v>1418</v>
-      </c>
-      <c r="E333" t="s">
-        <v>1259</v>
+        <v>1438</v>
+      </c>
+      <c r="B333" s="25" t="s">
+        <v>948</v>
+      </c>
+      <c r="C333" s="63" t="s">
+        <v>3277</v>
+      </c>
+      <c r="D333" s="55" t="s">
+        <v>3278</v>
+      </c>
+      <c r="E333" s="64" t="s">
+        <v>3289</v>
+      </c>
+      <c r="F333" t="s">
+        <v>3288</v>
       </c>
       <c r="I333"/>
       <c r="J333"/>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A334" s="16" t="s">
-        <v>1420</v>
-      </c>
-      <c r="E334" t="s">
-        <v>1261</v>
+        <v>1440</v>
+      </c>
+      <c r="B334" s="25" t="s">
+        <v>948</v>
+      </c>
+      <c r="C334" s="63" t="s">
+        <v>3277</v>
+      </c>
+      <c r="D334" s="55" t="s">
+        <v>3317</v>
+      </c>
+      <c r="E334" s="64" t="s">
+        <v>3297</v>
+      </c>
+      <c r="F334" t="s">
+        <v>3296</v>
       </c>
       <c r="I334"/>
       <c r="J334"/>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A335" s="16" t="s">
-        <v>1422</v>
-      </c>
-      <c r="E335" t="s">
-        <v>1263</v>
-      </c>
+      <c r="A335" s="16"/>
+      <c r="E335" s="36"/>
+      <c r="F335" s="36"/>
       <c r="I335"/>
       <c r="J335"/>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A336" s="16" t="s">
-        <v>1424</v>
+        <v>1442</v>
       </c>
       <c r="E336" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="I336"/>
       <c r="J336"/>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A337" s="16" t="s">
-        <v>1425</v>
+        <v>1443</v>
       </c>
       <c r="E337" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="I337"/>
       <c r="J337"/>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A338" s="16" t="s">
-        <v>1426</v>
+        <v>1444</v>
       </c>
       <c r="E338" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="I338"/>
       <c r="J338"/>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A339" s="16" t="s">
-        <v>1427</v>
+        <v>1445</v>
       </c>
       <c r="E339" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="I339"/>
       <c r="J339"/>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A340" s="16" t="s">
-        <v>1428</v>
+        <v>1446</v>
       </c>
       <c r="E340" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
       <c r="I340"/>
       <c r="J340"/>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A341" s="16" t="s">
-        <v>1430</v>
+        <v>1448</v>
       </c>
       <c r="E341" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="I341"/>
       <c r="J341"/>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A342" s="16" t="s">
-        <v>1431</v>
+        <v>1450</v>
       </c>
       <c r="E342" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="I342"/>
       <c r="J342"/>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A343" s="16" t="s">
-        <v>1432</v>
+        <v>1452</v>
       </c>
       <c r="E343" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="I343"/>
       <c r="J343"/>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A344" s="16" t="s">
-        <v>1433</v>
+        <v>1454</v>
       </c>
       <c r="E344" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
       <c r="I344"/>
       <c r="J344"/>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A345" s="16" t="s">
-        <v>1434</v>
+        <v>1456</v>
       </c>
       <c r="E345" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
       <c r="I345"/>
       <c r="J345"/>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A346" s="16" t="s">
-        <v>1436</v>
+        <v>1458</v>
       </c>
       <c r="E346" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="I346"/>
       <c r="J346"/>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A347" s="16" t="s">
-        <v>1438</v>
+        <v>1460</v>
       </c>
       <c r="E347" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="I347"/>
       <c r="J347"/>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A348" s="16" t="s">
-        <v>1440</v>
+        <v>1462</v>
       </c>
       <c r="E348" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="I348"/>
       <c r="J348"/>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A349" s="16" t="s">
-        <v>1442</v>
+        <v>1464</v>
       </c>
       <c r="E349" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="I349"/>
       <c r="J349"/>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A350" s="16" t="s">
-        <v>1443</v>
+        <v>1466</v>
       </c>
       <c r="E350" t="s">
-        <v>1214</v>
+        <v>1287</v>
       </c>
       <c r="I350"/>
       <c r="J350"/>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A351" s="16" t="s">
-        <v>1444</v>
+        <v>1467</v>
       </c>
       <c r="E351" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="I351"/>
       <c r="J351"/>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A352" s="16" t="s">
-        <v>1445</v>
+        <v>1469</v>
       </c>
       <c r="E352" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="I352"/>
       <c r="J352"/>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A353" s="16" t="s">
-        <v>1446</v>
+        <v>1471</v>
       </c>
       <c r="E353" t="s">
-        <v>1298</v>
+        <v>1214</v>
       </c>
       <c r="I353"/>
       <c r="J353"/>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A354" s="16" t="s">
-        <v>1448</v>
+        <v>1473</v>
       </c>
       <c r="E354" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="I354"/>
       <c r="J354"/>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A355" s="16" t="s">
-        <v>1450</v>
+        <v>1475</v>
       </c>
       <c r="E355" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
       <c r="I355"/>
       <c r="J355"/>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A356" s="16" t="s">
-        <v>1452</v>
+        <v>1477</v>
       </c>
       <c r="E356" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="I356"/>
       <c r="J356"/>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A357" s="16" t="s">
-        <v>1454</v>
+        <v>1479</v>
       </c>
       <c r="E357" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
       <c r="I357"/>
       <c r="J357"/>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A358" s="16" t="s">
-        <v>1456</v>
+        <v>1481</v>
       </c>
       <c r="E358" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
       <c r="I358"/>
       <c r="J358"/>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A359" s="16" t="s">
-        <v>1458</v>
+        <v>1483</v>
       </c>
       <c r="E359" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="I359"/>
       <c r="J359"/>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A360" s="16" t="s">
-        <v>1460</v>
+        <v>1485</v>
       </c>
       <c r="E360" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="I360"/>
       <c r="J360"/>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A361" s="16" t="s">
-        <v>1462</v>
+        <v>1487</v>
       </c>
       <c r="E361" t="s">
-        <v>1314</v>
-      </c>
+        <v>1308</v>
+      </c>
+      <c r="I361"/>
+      <c r="J361"/>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A362" s="16" t="s">
-        <v>1464</v>
+        <v>1489</v>
       </c>
       <c r="E362" t="s">
-        <v>1316</v>
-      </c>
+        <v>1310</v>
+      </c>
+      <c r="I362"/>
+      <c r="J362"/>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A363" s="16" t="s">
-        <v>1466</v>
+        <v>1491</v>
       </c>
       <c r="E363" t="s">
-        <v>1318</v>
-      </c>
+        <v>1312</v>
+      </c>
+      <c r="I363"/>
+      <c r="J363"/>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A364" s="16" t="s">
-        <v>1467</v>
+        <v>1493</v>
       </c>
       <c r="E364" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A365" s="16" t="s">
-        <v>1469</v>
+        <v>1495</v>
       </c>
       <c r="E365" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A366" s="16" t="s">
-        <v>1471</v>
+        <v>1497</v>
       </c>
       <c r="E366" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A367" s="16" t="s">
-        <v>1473</v>
+        <v>1499</v>
       </c>
       <c r="E367" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A368" s="16" t="s">
-        <v>1475</v>
+        <v>1501</v>
       </c>
       <c r="E368" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A369" s="16" t="s">
-        <v>1477</v>
+        <v>1502</v>
       </c>
       <c r="E369" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A370" s="16" t="s">
-        <v>1479</v>
+        <v>1503</v>
       </c>
       <c r="E370" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A371" s="16" t="s">
-        <v>1481</v>
+        <v>1504</v>
       </c>
       <c r="E371" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A372" s="16" t="s">
-        <v>1483</v>
+        <v>1506</v>
       </c>
       <c r="E372" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A373" s="16" t="s">
-        <v>1485</v>
+        <v>1508</v>
       </c>
       <c r="E373" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A374" s="16" t="s">
-        <v>1487</v>
+        <v>1509</v>
       </c>
       <c r="E374" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A375" s="16" t="s">
-        <v>1489</v>
+        <v>1510</v>
       </c>
       <c r="E375" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A376" s="16" t="s">
-        <v>1491</v>
+        <v>1511</v>
       </c>
       <c r="E376" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A377" s="16" t="s">
-        <v>1493</v>
+        <v>1512</v>
       </c>
       <c r="E377" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A378" s="16" t="s">
-        <v>1495</v>
+        <v>1514</v>
       </c>
       <c r="E378" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A379" s="16" t="s">
-        <v>1497</v>
+        <v>1515</v>
       </c>
       <c r="E379" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A380" s="16" t="s">
-        <v>1499</v>
+        <v>1516</v>
       </c>
       <c r="E380" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A381" s="16" t="s">
-        <v>1501</v>
+        <v>1517</v>
       </c>
       <c r="E381" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A382" s="16" t="s">
-        <v>1502</v>
+        <v>1518</v>
       </c>
       <c r="E382" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A383" s="16" t="s">
-        <v>1503</v>
+        <v>1520</v>
       </c>
       <c r="E383" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A384" s="16" t="s">
-        <v>1504</v>
+        <v>1522</v>
       </c>
       <c r="E384" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A385" s="16" t="s">
-        <v>1506</v>
+        <v>1524</v>
       </c>
       <c r="E385" t="s">
-        <v>1362</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A386" s="16" t="s">
-        <v>1508</v>
+        <v>1526</v>
       </c>
       <c r="E386" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A387" s="16" t="s">
-        <v>1509</v>
+        <v>1528</v>
       </c>
       <c r="E387" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A388" s="16" t="s">
-        <v>1510</v>
+        <v>1530</v>
       </c>
       <c r="E388" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A389" s="16" t="s">
-        <v>1511</v>
+        <v>1532</v>
       </c>
       <c r="E389" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A390" s="16" t="s">
-        <v>1512</v>
+        <v>1533</v>
       </c>
       <c r="E390" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A391" s="16" t="s">
-        <v>1514</v>
+        <v>1535</v>
       </c>
       <c r="E391" t="s">
-        <v>2813</v>
-      </c>
-      <c r="F391" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A392" s="16" t="s">
-        <v>1515</v>
+        <v>1537</v>
       </c>
       <c r="E392" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A393" s="16" t="s">
-        <v>1516</v>
+        <v>1539</v>
       </c>
       <c r="E393" t="s">
-        <v>2815</v>
-      </c>
-      <c r="F393" t="s">
-        <v>1377</v>
-      </c>
-      <c r="I393"/>
-      <c r="J393"/>
+        <v>1372</v>
+      </c>
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A394" s="16" t="s">
-        <v>1517</v>
+        <v>1541</v>
       </c>
       <c r="E394" t="s">
-        <v>1379</v>
-      </c>
-      <c r="I394"/>
-      <c r="J394"/>
+        <v>2813</v>
+      </c>
+      <c r="F394" t="s">
+        <v>1373</v>
+      </c>
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A395" s="16" t="s">
-        <v>1518</v>
+        <v>1543</v>
       </c>
       <c r="E395" t="s">
-        <v>1381</v>
-      </c>
-      <c r="I395"/>
-      <c r="J395"/>
+        <v>1376</v>
+      </c>
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A396" s="16" t="s">
-        <v>1520</v>
+        <v>1545</v>
       </c>
       <c r="E396" t="s">
-        <v>1383</v>
+        <v>2815</v>
+      </c>
+      <c r="F396" t="s">
+        <v>1377</v>
       </c>
       <c r="I396"/>
       <c r="J396"/>
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A397" s="16" t="s">
-        <v>1522</v>
+        <v>1547</v>
       </c>
       <c r="E397" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
       <c r="I397"/>
       <c r="J397"/>
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A398" s="16" t="s">
-        <v>1524</v>
+        <v>1549</v>
       </c>
       <c r="E398" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
       <c r="I398"/>
       <c r="J398"/>
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A399" s="16" t="s">
-        <v>1526</v>
+        <v>1551</v>
       </c>
       <c r="E399" t="s">
-        <v>1389</v>
+        <v>1383</v>
       </c>
       <c r="I399"/>
       <c r="J399"/>
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A400" s="16" t="s">
-        <v>1528</v>
+        <v>1553</v>
       </c>
       <c r="E400" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
       <c r="I400"/>
       <c r="J400"/>
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A401" s="16" t="s">
-        <v>1530</v>
+        <v>1555</v>
       </c>
       <c r="E401" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
       <c r="I401"/>
       <c r="J401"/>
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A402" s="16" t="s">
-        <v>1532</v>
+        <v>1557</v>
       </c>
       <c r="E402" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
       <c r="I402"/>
       <c r="J402"/>
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A403" s="16" t="s">
-        <v>1533</v>
+        <v>1559</v>
       </c>
       <c r="E403" t="s">
-        <v>1397</v>
+        <v>1391</v>
       </c>
       <c r="I403"/>
       <c r="J403"/>
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A404" s="16" t="s">
-        <v>1535</v>
+        <v>1561</v>
       </c>
       <c r="E404" t="s">
-        <v>1399</v>
+        <v>1393</v>
       </c>
       <c r="I404"/>
       <c r="J404"/>
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A405" s="16" t="s">
-        <v>1537</v>
+        <v>1563</v>
       </c>
       <c r="E405" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="I405"/>
       <c r="J405"/>
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A406" s="16" t="s">
-        <v>1539</v>
+        <v>1565</v>
       </c>
       <c r="E406" t="s">
-        <v>1403</v>
+        <v>1397</v>
       </c>
       <c r="I406"/>
       <c r="J406"/>
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A407" s="16" t="s">
-        <v>1541</v>
+        <v>1567</v>
       </c>
       <c r="E407" t="s">
-        <v>1405</v>
+        <v>1399</v>
       </c>
       <c r="I407"/>
       <c r="J407"/>
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A408" s="16" t="s">
-        <v>1543</v>
+        <v>1569</v>
       </c>
       <c r="E408" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
       <c r="I408"/>
       <c r="J408"/>
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A409" s="16" t="s">
-        <v>1545</v>
+        <v>1571</v>
       </c>
       <c r="E409" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
       <c r="I409"/>
       <c r="J409"/>
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A410" s="16" t="s">
-        <v>1547</v>
+        <v>1573</v>
       </c>
       <c r="E410" t="s">
-        <v>1411</v>
+        <v>1405</v>
       </c>
       <c r="I410"/>
       <c r="J410"/>
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A411" s="16" t="s">
-        <v>1549</v>
+        <v>1575</v>
       </c>
       <c r="E411" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
       <c r="I411"/>
       <c r="J411"/>
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A412" s="16" t="s">
-        <v>1551</v>
+        <v>1577</v>
       </c>
       <c r="E412" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
       <c r="I412"/>
       <c r="J412"/>
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A413" s="16" t="s">
-        <v>1553</v>
+        <v>1579</v>
       </c>
       <c r="E413" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="I413"/>
       <c r="J413"/>
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A414" s="16" t="s">
-        <v>1555</v>
+        <v>1581</v>
       </c>
       <c r="E414" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="I414"/>
       <c r="J414"/>
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A415" s="16" t="s">
-        <v>1557</v>
+        <v>1583</v>
       </c>
       <c r="E415" t="s">
-        <v>1421</v>
+        <v>1415</v>
       </c>
       <c r="I415"/>
       <c r="J415"/>
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A416" s="16" t="s">
-        <v>1559</v>
+        <v>1585</v>
       </c>
       <c r="E416" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
       <c r="I416"/>
       <c r="J416"/>
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A417" s="16" t="s">
-        <v>1561</v>
+        <v>1587</v>
       </c>
       <c r="E417" t="s">
-        <v>1415</v>
+        <v>1419</v>
       </c>
       <c r="I417"/>
       <c r="J417"/>
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A418" s="16" t="s">
-        <v>1563</v>
+        <v>1589</v>
       </c>
       <c r="E418" t="s">
-        <v>1417</v>
+        <v>1421</v>
       </c>
       <c r="I418"/>
       <c r="J418"/>
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A419" s="16" t="s">
-        <v>1565</v>
+        <v>1591</v>
       </c>
       <c r="E419" t="s">
-        <v>1419</v>
+        <v>1423</v>
       </c>
       <c r="I419"/>
       <c r="J419"/>
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A420" s="16" t="s">
-        <v>1567</v>
+        <v>1593</v>
       </c>
       <c r="E420" t="s">
-        <v>1421</v>
+        <v>1415</v>
       </c>
       <c r="I420"/>
       <c r="J420"/>
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A421" s="16" t="s">
-        <v>1569</v>
+        <v>1594</v>
       </c>
       <c r="E421" t="s">
-        <v>1429</v>
+        <v>1417</v>
       </c>
       <c r="I421"/>
       <c r="J421"/>
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A422" s="16" t="s">
-        <v>1571</v>
+        <v>1596</v>
       </c>
       <c r="E422" t="s">
-        <v>1415</v>
+        <v>1419</v>
       </c>
       <c r="I422"/>
       <c r="J422"/>
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A423" s="16" t="s">
-        <v>1573</v>
+        <v>1598</v>
       </c>
       <c r="E423" t="s">
-        <v>1417</v>
+        <v>1421</v>
       </c>
       <c r="I423"/>
       <c r="J423"/>
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A424" s="16" t="s">
-        <v>1575</v>
+        <v>1600</v>
       </c>
       <c r="E424" t="s">
-        <v>1419</v>
+        <v>1429</v>
       </c>
       <c r="I424"/>
       <c r="J424"/>
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A425" s="16" t="s">
-        <v>1577</v>
+        <v>1602</v>
       </c>
       <c r="E425" t="s">
-        <v>1421</v>
+        <v>1415</v>
       </c>
       <c r="I425"/>
       <c r="J425"/>
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A426" s="16" t="s">
-        <v>1579</v>
+        <v>1604</v>
       </c>
       <c r="E426" t="s">
-        <v>1435</v>
+        <v>1417</v>
       </c>
       <c r="I426"/>
       <c r="J426"/>
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A427" s="16" t="s">
-        <v>1581</v>
+        <v>1606</v>
       </c>
       <c r="E427" t="s">
-        <v>1437</v>
+        <v>1419</v>
       </c>
       <c r="I427"/>
       <c r="J427"/>
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A428" s="16" t="s">
-        <v>1583</v>
+        <v>1608</v>
       </c>
       <c r="E428" t="s">
-        <v>1439</v>
+        <v>1421</v>
       </c>
       <c r="I428"/>
       <c r="J428"/>
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A429" s="16" t="s">
-        <v>1585</v>
+        <v>1610</v>
       </c>
       <c r="E429" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
       <c r="I429"/>
       <c r="J429"/>
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A430" s="16" t="s">
-        <v>1587</v>
+        <v>1612</v>
       </c>
       <c r="E430" t="s">
-        <v>1415</v>
+        <v>1437</v>
       </c>
       <c r="I430"/>
       <c r="J430"/>
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A431" s="16" t="s">
-        <v>1589</v>
+        <v>1614</v>
       </c>
       <c r="E431" t="s">
-        <v>1417</v>
+        <v>1439</v>
       </c>
       <c r="I431"/>
       <c r="J431"/>
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A432" s="16" t="s">
-        <v>1591</v>
+        <v>1616</v>
       </c>
       <c r="E432" t="s">
-        <v>1419</v>
+        <v>1441</v>
       </c>
       <c r="I432"/>
       <c r="J432"/>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A433" s="16" t="s">
-        <v>1593</v>
+        <v>1617</v>
       </c>
       <c r="E433" t="s">
-        <v>1421</v>
+        <v>1415</v>
       </c>
       <c r="I433"/>
       <c r="J433"/>
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A434" s="16" t="s">
-        <v>1594</v>
+        <v>1619</v>
       </c>
       <c r="E434" t="s">
-        <v>1447</v>
+        <v>1417</v>
       </c>
       <c r="I434"/>
       <c r="J434"/>
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A435" s="16" t="s">
-        <v>1596</v>
+        <v>1620</v>
       </c>
       <c r="E435" t="s">
-        <v>1449</v>
+        <v>1419</v>
       </c>
       <c r="I435"/>
       <c r="J435"/>
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A436" s="16" t="s">
-        <v>1598</v>
+        <v>1622</v>
       </c>
       <c r="E436" t="s">
-        <v>1451</v>
+        <v>1421</v>
       </c>
       <c r="I436"/>
       <c r="J436"/>
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A437" s="16" t="s">
-        <v>1600</v>
+        <v>1624</v>
       </c>
       <c r="E437" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
       <c r="I437"/>
       <c r="J437"/>
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A438" s="16" t="s">
-        <v>1602</v>
+        <v>1626</v>
       </c>
       <c r="E438" t="s">
-        <v>1455</v>
+        <v>1449</v>
       </c>
       <c r="I438"/>
       <c r="J438"/>
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A439" s="16" t="s">
-        <v>1604</v>
+        <v>1628</v>
       </c>
       <c r="E439" t="s">
-        <v>1457</v>
+        <v>1451</v>
       </c>
       <c r="I439"/>
       <c r="J439"/>
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A440" s="16" t="s">
-        <v>1606</v>
+        <v>1630</v>
       </c>
       <c r="E440" t="s">
-        <v>1459</v>
+        <v>1453</v>
       </c>
       <c r="I440"/>
       <c r="J440"/>
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A441" s="16" t="s">
-        <v>1608</v>
+        <v>1632</v>
       </c>
       <c r="E441" t="s">
-        <v>1461</v>
+        <v>1455</v>
       </c>
       <c r="I441"/>
       <c r="J441"/>
     </row>
     <row r="442" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A442" s="16" t="s">
-        <v>1610</v>
+        <v>1634</v>
       </c>
       <c r="E442" t="s">
-        <v>1463</v>
+        <v>1457</v>
       </c>
       <c r="I442"/>
       <c r="J442"/>
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A443" s="16" t="s">
-        <v>1612</v>
+        <v>1636</v>
       </c>
       <c r="E443" t="s">
-        <v>1465</v>
+        <v>1459</v>
       </c>
       <c r="I443"/>
       <c r="J443"/>
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A444" s="16" t="s">
-        <v>1614</v>
+        <v>1638</v>
       </c>
       <c r="E444" t="s">
-        <v>1419</v>
+        <v>1461</v>
       </c>
       <c r="I444"/>
       <c r="J444"/>
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A445" s="16" t="s">
-        <v>1616</v>
+        <v>1640</v>
       </c>
       <c r="E445" t="s">
-        <v>1468</v>
+        <v>1463</v>
       </c>
       <c r="I445"/>
       <c r="J445"/>
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A446" s="16" t="s">
-        <v>1617</v>
+        <v>1642</v>
       </c>
       <c r="E446" t="s">
-        <v>1470</v>
+        <v>1465</v>
       </c>
       <c r="I446"/>
       <c r="J446"/>
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A447" s="16" t="s">
-        <v>1619</v>
+        <v>1644</v>
       </c>
       <c r="E447" t="s">
-        <v>1472</v>
+        <v>1419</v>
       </c>
       <c r="I447"/>
       <c r="J447"/>
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A448" s="16" t="s">
-        <v>1620</v>
+        <v>1646</v>
       </c>
       <c r="E448" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="I448"/>
       <c r="J448"/>
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A449" s="16" t="s">
-        <v>1622</v>
+        <v>1648</v>
       </c>
       <c r="E449" t="s">
-        <v>1476</v>
+        <v>1470</v>
       </c>
       <c r="I449"/>
       <c r="J449"/>
     </row>
     <row r="450" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A450" s="16" t="s">
-        <v>1624</v>
+        <v>1650</v>
       </c>
       <c r="E450" t="s">
-        <v>1478</v>
+        <v>1472</v>
       </c>
       <c r="I450"/>
       <c r="J450"/>
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A451" s="16" t="s">
-        <v>1626</v>
+        <v>1652</v>
       </c>
       <c r="E451" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
       <c r="I451"/>
       <c r="J451"/>
     </row>
     <row r="452" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A452" s="16" t="s">
-        <v>1628</v>
+        <v>1654</v>
       </c>
       <c r="E452" t="s">
-        <v>1482</v>
+        <v>1476</v>
       </c>
       <c r="I452"/>
       <c r="J452"/>
     </row>
     <row r="453" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A453" s="16" t="s">
-        <v>1630</v>
+        <v>1656</v>
       </c>
       <c r="E453" t="s">
-        <v>1484</v>
+        <v>1478</v>
       </c>
       <c r="I453"/>
       <c r="J453"/>
     </row>
     <row r="454" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A454" s="16" t="s">
-        <v>1632</v>
+        <v>1658</v>
       </c>
       <c r="E454" t="s">
-        <v>1486</v>
+        <v>1480</v>
       </c>
       <c r="I454"/>
       <c r="J454"/>
     </row>
     <row r="455" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A455" s="16" t="s">
-        <v>1634</v>
+        <v>1660</v>
       </c>
       <c r="E455" t="s">
-        <v>1488</v>
+        <v>1482</v>
       </c>
       <c r="I455"/>
       <c r="J455"/>
     </row>
     <row r="456" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A456" s="16" t="s">
-        <v>1636</v>
+        <v>1662</v>
       </c>
       <c r="E456" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="I456"/>
       <c r="J456"/>
     </row>
     <row r="457" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A457" s="16" t="s">
-        <v>1638</v>
+        <v>1664</v>
       </c>
       <c r="E457" t="s">
-        <v>1492</v>
+        <v>1486</v>
       </c>
       <c r="I457"/>
       <c r="J457"/>
     </row>
     <row r="458" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A458" s="16" t="s">
-        <v>1640</v>
+        <v>1666</v>
       </c>
       <c r="E458" t="s">
-        <v>1494</v>
+        <v>1488</v>
       </c>
       <c r="I458"/>
       <c r="J458"/>
     </row>
     <row r="459" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A459" s="16" t="s">
-        <v>1642</v>
+        <v>1668</v>
       </c>
       <c r="E459" t="s">
-        <v>1496</v>
+        <v>1490</v>
       </c>
       <c r="I459"/>
       <c r="J459"/>
     </row>
     <row r="460" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A460" s="16" t="s">
-        <v>1644</v>
+        <v>1670</v>
       </c>
       <c r="E460" t="s">
-        <v>1498</v>
+        <v>1492</v>
       </c>
       <c r="I460"/>
       <c r="J460"/>
     </row>
     <row r="461" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A461" s="16" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
       <c r="E461" t="s">
-        <v>1500</v>
+        <v>1494</v>
       </c>
       <c r="I461"/>
       <c r="J461"/>
     </row>
     <row r="462" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A462" s="16" t="s">
-        <v>1648</v>
+        <v>1674</v>
       </c>
       <c r="E462" t="s">
-        <v>1415</v>
+        <v>1496</v>
       </c>
       <c r="I462"/>
       <c r="J462"/>
     </row>
     <row r="463" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A463" s="16" t="s">
-        <v>1650</v>
+        <v>1676</v>
       </c>
       <c r="E463" t="s">
-        <v>1417</v>
+        <v>1498</v>
       </c>
       <c r="I463"/>
       <c r="J463"/>
     </row>
     <row r="464" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A464" s="16" t="s">
-        <v>1652</v>
+        <v>1678</v>
       </c>
       <c r="E464" t="s">
-        <v>1419</v>
+        <v>1500</v>
       </c>
       <c r="I464"/>
       <c r="J464"/>
     </row>
     <row r="465" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A465" s="16" t="s">
-        <v>1654</v>
+        <v>1680</v>
       </c>
       <c r="E465" t="s">
-        <v>1505</v>
+        <v>1415</v>
       </c>
       <c r="I465"/>
       <c r="J465"/>
     </row>
     <row r="466" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A466" s="16" t="s">
-        <v>1656</v>
+        <v>1682</v>
       </c>
       <c r="E466" t="s">
-        <v>1507</v>
+        <v>1417</v>
       </c>
       <c r="I466"/>
       <c r="J466"/>
     </row>
     <row r="467" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A467" s="16" t="s">
-        <v>1658</v>
+        <v>1684</v>
       </c>
       <c r="E467" t="s">
-        <v>1415</v>
+        <v>1419</v>
       </c>
       <c r="I467"/>
       <c r="J467"/>
     </row>
     <row r="468" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A468" s="16" t="s">
-        <v>1660</v>
+        <v>1686</v>
       </c>
       <c r="E468" t="s">
-        <v>1417</v>
+        <v>1505</v>
       </c>
       <c r="I468"/>
       <c r="J468"/>
     </row>
     <row r="469" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A469" s="16" t="s">
-        <v>1662</v>
+        <v>1688</v>
       </c>
       <c r="E469" t="s">
-        <v>1419</v>
+        <v>1507</v>
       </c>
       <c r="I469"/>
       <c r="J469"/>
     </row>
     <row r="470" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A470" s="16" t="s">
-        <v>1664</v>
+        <v>1690</v>
       </c>
       <c r="E470" t="s">
-        <v>1505</v>
+        <v>1415</v>
       </c>
       <c r="I470"/>
       <c r="J470"/>
     </row>
     <row r="471" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A471" s="16" t="s">
-        <v>1666</v>
+        <v>1692</v>
       </c>
       <c r="E471" t="s">
-        <v>1513</v>
+        <v>1417</v>
       </c>
       <c r="I471"/>
       <c r="J471"/>
     </row>
     <row r="472" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A472" s="16" t="s">
-        <v>1668</v>
+        <v>1694</v>
       </c>
       <c r="E472" t="s">
-        <v>1415</v>
+        <v>1419</v>
       </c>
       <c r="I472"/>
       <c r="J472"/>
     </row>
     <row r="473" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A473" s="16" t="s">
-        <v>1670</v>
+        <v>1696</v>
       </c>
       <c r="E473" t="s">
-        <v>1417</v>
+        <v>1505</v>
       </c>
       <c r="I473"/>
       <c r="J473"/>
     </row>
     <row r="474" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A474" s="16" t="s">
-        <v>1672</v>
+        <v>1698</v>
       </c>
       <c r="E474" t="s">
-        <v>1419</v>
+        <v>1513</v>
       </c>
       <c r="I474"/>
       <c r="J474"/>
     </row>
     <row r="475" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A475" s="16" t="s">
-        <v>1674</v>
+        <v>1700</v>
       </c>
       <c r="E475" t="s">
-        <v>1505</v>
+        <v>1415</v>
       </c>
       <c r="I475"/>
       <c r="J475"/>
     </row>
     <row r="476" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A476" s="16" t="s">
-        <v>1676</v>
+        <v>1702</v>
       </c>
       <c r="E476" t="s">
-        <v>1519</v>
+        <v>1417</v>
       </c>
       <c r="I476"/>
       <c r="J476"/>
     </row>
     <row r="477" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A477" s="16" t="s">
-        <v>1678</v>
+        <v>1704</v>
       </c>
       <c r="E477" t="s">
-        <v>1521</v>
+        <v>1419</v>
       </c>
       <c r="I477"/>
       <c r="J477"/>
     </row>
     <row r="478" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A478" s="16" t="s">
-        <v>1680</v>
+        <v>1706</v>
       </c>
       <c r="E478" t="s">
-        <v>1523</v>
+        <v>1505</v>
       </c>
       <c r="I478"/>
       <c r="J478"/>
     </row>
     <row r="479" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A479" s="16" t="s">
-        <v>1682</v>
+        <v>1708</v>
       </c>
       <c r="E479" t="s">
-        <v>1525</v>
+        <v>1519</v>
       </c>
       <c r="I479"/>
       <c r="J479"/>
     </row>
     <row r="480" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A480" s="16" t="s">
-        <v>1684</v>
+        <v>1710</v>
       </c>
       <c r="E480" t="s">
-        <v>1527</v>
+        <v>1521</v>
       </c>
       <c r="I480"/>
       <c r="J480"/>
     </row>
     <row r="481" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A481" s="16" t="s">
-        <v>1686</v>
+        <v>1712</v>
       </c>
       <c r="E481" t="s">
-        <v>1529</v>
+        <v>1523</v>
       </c>
       <c r="I481"/>
       <c r="J481"/>
     </row>
     <row r="482" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A482" s="16" t="s">
-        <v>1688</v>
+        <v>1714</v>
       </c>
       <c r="E482" t="s">
-        <v>1531</v>
+        <v>1525</v>
       </c>
       <c r="I482"/>
       <c r="J482"/>
     </row>
     <row r="483" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A483" s="16" t="s">
-        <v>1690</v>
+        <v>1716</v>
       </c>
       <c r="E483" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="I483"/>
       <c r="J483"/>
     </row>
     <row r="484" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A484" s="16" t="s">
-        <v>1692</v>
+        <v>1718</v>
       </c>
       <c r="E484" t="s">
-        <v>1534</v>
+        <v>1529</v>
       </c>
       <c r="I484"/>
       <c r="J484"/>
     </row>
     <row r="485" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A485" s="16" t="s">
-        <v>1694</v>
+        <v>1720</v>
       </c>
       <c r="E485" t="s">
-        <v>1536</v>
+        <v>1531</v>
       </c>
       <c r="I485"/>
       <c r="J485"/>
     </row>
     <row r="486" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A486" s="16" t="s">
-        <v>1696</v>
+        <v>1722</v>
       </c>
       <c r="E486" t="s">
-        <v>1538</v>
+        <v>1525</v>
       </c>
       <c r="I486"/>
       <c r="J486"/>
     </row>
     <row r="487" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A487" s="16" t="s">
-        <v>1698</v>
+        <v>1724</v>
       </c>
       <c r="E487" t="s">
-        <v>1540</v>
+        <v>1534</v>
       </c>
       <c r="I487"/>
       <c r="J487"/>
     </row>
     <row r="488" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A488" s="16" t="s">
-        <v>1700</v>
+        <v>1726</v>
       </c>
       <c r="E488" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="I488"/>
       <c r="J488"/>
     </row>
     <row r="489" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A489" s="16" t="s">
-        <v>1702</v>
+        <v>1728</v>
       </c>
       <c r="E489" t="s">
-        <v>1544</v>
+        <v>1538</v>
       </c>
       <c r="I489"/>
       <c r="J489"/>
     </row>
     <row r="490" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A490" s="16" t="s">
-        <v>1704</v>
+        <v>1730</v>
       </c>
       <c r="E490" t="s">
-        <v>1546</v>
+        <v>1540</v>
       </c>
       <c r="I490"/>
       <c r="J490"/>
     </row>
     <row r="491" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A491" s="16" t="s">
-        <v>1706</v>
+        <v>1732</v>
       </c>
       <c r="E491" t="s">
-        <v>1548</v>
+        <v>1542</v>
       </c>
       <c r="I491"/>
       <c r="J491"/>
     </row>
     <row r="492" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A492" s="16" t="s">
-        <v>1708</v>
+        <v>1734</v>
       </c>
       <c r="E492" t="s">
-        <v>1550</v>
+        <v>1544</v>
       </c>
       <c r="I492"/>
       <c r="J492"/>
     </row>
     <row r="493" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A493" s="16" t="s">
-        <v>1710</v>
+        <v>1736</v>
       </c>
       <c r="E493" t="s">
-        <v>1552</v>
+        <v>1546</v>
       </c>
       <c r="I493"/>
       <c r="J493"/>
     </row>
     <row r="494" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A494" s="16" t="s">
-        <v>1712</v>
+        <v>1738</v>
       </c>
       <c r="E494" t="s">
-        <v>1554</v>
+        <v>1548</v>
       </c>
       <c r="I494"/>
       <c r="J494"/>
     </row>
     <row r="495" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A495" s="16" t="s">
-        <v>1714</v>
+        <v>1740</v>
       </c>
       <c r="E495" t="s">
-        <v>1556</v>
+        <v>1550</v>
       </c>
       <c r="I495"/>
       <c r="J495"/>
     </row>
     <row r="496" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A496" s="16" t="s">
-        <v>1716</v>
+        <v>516</v>
       </c>
       <c r="E496" t="s">
-        <v>1558</v>
+        <v>1552</v>
       </c>
       <c r="I496"/>
       <c r="J496"/>
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A497" s="16" t="s">
-        <v>1718</v>
+        <v>520</v>
       </c>
       <c r="E497" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="I497"/>
       <c r="J497"/>
     </row>
     <row r="498" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A498" s="16" t="s">
-        <v>1720</v>
+        <v>1746</v>
       </c>
       <c r="E498" t="s">
-        <v>1562</v>
+        <v>1556</v>
       </c>
       <c r="I498"/>
       <c r="J498"/>
     </row>
     <row r="499" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A499" s="16" t="s">
-        <v>1722</v>
+        <v>1748</v>
       </c>
       <c r="E499" t="s">
-        <v>1564</v>
+        <v>1558</v>
       </c>
       <c r="I499"/>
       <c r="J499"/>
     </row>
     <row r="500" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A500" s="16" t="s">
-        <v>1724</v>
+        <v>1750</v>
       </c>
       <c r="E500" t="s">
-        <v>1566</v>
+        <v>1560</v>
       </c>
       <c r="I500"/>
       <c r="J500"/>
     </row>
     <row r="501" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A501" s="16" t="s">
-        <v>1726</v>
+        <v>1752</v>
       </c>
       <c r="E501" t="s">
-        <v>1568</v>
+        <v>1562</v>
       </c>
       <c r="I501"/>
       <c r="J501"/>
     </row>
     <row r="502" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A502" s="16" t="s">
-        <v>1728</v>
+        <v>1754</v>
       </c>
       <c r="E502" t="s">
-        <v>1570</v>
+        <v>1564</v>
       </c>
       <c r="I502"/>
       <c r="J502"/>
     </row>
     <row r="503" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A503" s="16" t="s">
-        <v>1730</v>
+        <v>1756</v>
       </c>
       <c r="E503" t="s">
-        <v>1572</v>
+        <v>1566</v>
       </c>
       <c r="I503"/>
       <c r="J503"/>
     </row>
     <row r="504" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A504" s="16" t="s">
-        <v>1732</v>
+        <v>1758</v>
       </c>
       <c r="E504" t="s">
-        <v>1574</v>
+        <v>1568</v>
       </c>
       <c r="I504"/>
       <c r="J504"/>
     </row>
     <row r="505" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A505" s="16" t="s">
-        <v>1734</v>
+        <v>1760</v>
       </c>
       <c r="E505" t="s">
-        <v>1576</v>
+        <v>1570</v>
       </c>
       <c r="I505"/>
       <c r="J505"/>
     </row>
     <row r="506" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A506" s="16" t="s">
-        <v>1736</v>
+        <v>1762</v>
       </c>
       <c r="E506" t="s">
-        <v>1578</v>
+        <v>1572</v>
       </c>
       <c r="I506"/>
       <c r="J506"/>
     </row>
     <row r="507" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A507" s="16" t="s">
-        <v>1738</v>
+        <v>1764</v>
       </c>
       <c r="E507" t="s">
-        <v>1580</v>
+        <v>1574</v>
       </c>
       <c r="I507"/>
       <c r="J507"/>
     </row>
     <row r="508" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A508" s="16" t="s">
-        <v>1740</v>
+        <v>1766</v>
       </c>
       <c r="E508" t="s">
-        <v>1582</v>
+        <v>1576</v>
       </c>
       <c r="I508"/>
       <c r="J508"/>
     </row>
     <row r="509" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A509" s="16" t="s">
-        <v>516</v>
+        <v>1768</v>
       </c>
       <c r="E509" t="s">
-        <v>1584</v>
+        <v>1578</v>
       </c>
       <c r="I509"/>
       <c r="J509"/>
     </row>
     <row r="510" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A510" s="16" t="s">
-        <v>520</v>
+        <v>1770</v>
       </c>
       <c r="E510" t="s">
-        <v>1586</v>
+        <v>1580</v>
       </c>
       <c r="I510"/>
       <c r="J510"/>
     </row>
     <row r="511" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A511" s="16" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="E511" t="s">
-        <v>1588</v>
+        <v>1582</v>
       </c>
       <c r="I511"/>
       <c r="J511"/>
     </row>
     <row r="512" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A512" s="16" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E512" t="s">
-        <v>1590</v>
+        <v>1584</v>
       </c>
       <c r="I512"/>
       <c r="J512"/>
     </row>
-    <row r="513" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A513" s="16" t="s">
-        <v>1750</v>
+        <v>1776</v>
       </c>
       <c r="E513" t="s">
-        <v>1592</v>
+        <v>1586</v>
       </c>
       <c r="I513"/>
       <c r="J513"/>
     </row>
     <row r="514" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A514" s="16" t="s">
-        <v>1752</v>
+        <v>1778</v>
       </c>
       <c r="E514" t="s">
-        <v>1595</v>
+        <v>1588</v>
       </c>
       <c r="I514"/>
       <c r="J514"/>
     </row>
     <row r="515" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A515" s="16" t="s">
-        <v>1754</v>
+        <v>1780</v>
       </c>
       <c r="E515" t="s">
-        <v>1597</v>
+        <v>1590</v>
       </c>
       <c r="I515"/>
       <c r="J515"/>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A516" s="16" t="s">
-        <v>1756</v>
+        <v>1782</v>
       </c>
       <c r="E516" t="s">
-        <v>1599</v>
+        <v>1592</v>
       </c>
       <c r="I516"/>
       <c r="J516"/>
     </row>
     <row r="517" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A517" s="16" t="s">
-        <v>1758</v>
+        <v>1784</v>
       </c>
       <c r="E517" t="s">
-        <v>1601</v>
+        <v>1595</v>
       </c>
       <c r="I517"/>
       <c r="J517"/>
     </row>
     <row r="518" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A518" s="16" t="s">
-        <v>1760</v>
+        <v>1786</v>
       </c>
       <c r="E518" t="s">
-        <v>1603</v>
+        <v>1597</v>
       </c>
       <c r="I518"/>
       <c r="J518"/>
     </row>
     <row r="519" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A519" s="16" t="s">
-        <v>1762</v>
+        <v>1788</v>
       </c>
       <c r="E519" t="s">
-        <v>1605</v>
+        <v>1599</v>
       </c>
       <c r="I519"/>
       <c r="J519"/>
     </row>
     <row r="520" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A520" s="16" t="s">
-        <v>1764</v>
+        <v>1790</v>
       </c>
       <c r="E520" t="s">
-        <v>1607</v>
+        <v>1601</v>
       </c>
       <c r="I520"/>
       <c r="J520"/>
     </row>
     <row r="521" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A521" s="16" t="s">
-        <v>1766</v>
+        <v>1792</v>
       </c>
       <c r="E521" t="s">
-        <v>1609</v>
+        <v>1603</v>
       </c>
       <c r="I521"/>
       <c r="J521"/>
     </row>
     <row r="522" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A522" s="16" t="s">
-        <v>1768</v>
+        <v>1794</v>
       </c>
       <c r="E522" t="s">
-        <v>1611</v>
+        <v>1605</v>
       </c>
       <c r="I522"/>
       <c r="J522"/>
     </row>
     <row r="523" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A523" s="16" t="s">
-        <v>1770</v>
+        <v>1796</v>
       </c>
       <c r="E523" t="s">
-        <v>1613</v>
+        <v>1607</v>
       </c>
       <c r="I523"/>
       <c r="J523"/>
     </row>
     <row r="524" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A524" s="16" t="s">
-        <v>1772</v>
+        <v>1798</v>
       </c>
       <c r="E524" t="s">
-        <v>1615</v>
+        <v>1609</v>
       </c>
       <c r="I524"/>
       <c r="J524"/>
     </row>
     <row r="525" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A525" s="16" t="s">
-        <v>1774</v>
+        <v>1800</v>
       </c>
       <c r="E525" t="s">
-        <v>1519</v>
+        <v>1611</v>
       </c>
       <c r="I525"/>
       <c r="J525"/>
     </row>
     <row r="526" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A526" s="16" t="s">
-        <v>1776</v>
+        <v>1802</v>
       </c>
       <c r="E526" t="s">
-        <v>1618</v>
+        <v>1613</v>
       </c>
       <c r="I526"/>
       <c r="J526"/>
     </row>
     <row r="527" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A527" s="16" t="s">
-        <v>1778</v>
+        <v>1804</v>
       </c>
       <c r="E527" t="s">
-        <v>1534</v>
+        <v>1615</v>
       </c>
       <c r="I527"/>
       <c r="J527"/>
     </row>
     <row r="528" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A528" s="16" t="s">
-        <v>1780</v>
+        <v>1806</v>
       </c>
       <c r="E528" t="s">
-        <v>1621</v>
+        <v>1519</v>
       </c>
       <c r="I528"/>
       <c r="J528"/>
     </row>
     <row r="529" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A529" s="16" t="s">
-        <v>1782</v>
+        <v>1808</v>
       </c>
       <c r="E529" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
       <c r="I529"/>
       <c r="J529"/>
     </row>
     <row r="530" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A530" s="16" t="s">
-        <v>1784</v>
+        <v>1810</v>
       </c>
       <c r="E530" t="s">
-        <v>1625</v>
+        <v>1534</v>
       </c>
       <c r="I530"/>
       <c r="J530"/>
     </row>
     <row r="531" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A531" s="16" t="s">
-        <v>1786</v>
+        <v>1812</v>
       </c>
       <c r="E531" t="s">
-        <v>1627</v>
+        <v>1621</v>
       </c>
       <c r="I531"/>
       <c r="J531"/>
     </row>
     <row r="532" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A532" s="16" t="s">
-        <v>1788</v>
+        <v>1814</v>
       </c>
       <c r="E532" t="s">
-        <v>1629</v>
+        <v>1623</v>
       </c>
       <c r="I532"/>
       <c r="J532"/>
     </row>
     <row r="533" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A533" s="16" t="s">
-        <v>1790</v>
+        <v>1816</v>
       </c>
       <c r="E533" t="s">
-        <v>1631</v>
+        <v>1625</v>
       </c>
       <c r="I533"/>
       <c r="J533"/>
     </row>
     <row r="534" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A534" s="16" t="s">
-        <v>1792</v>
+        <v>1818</v>
       </c>
       <c r="E534" t="s">
-        <v>1633</v>
+        <v>1627</v>
       </c>
       <c r="I534"/>
       <c r="J534"/>
     </row>
     <row r="535" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A535" s="16" t="s">
-        <v>1794</v>
+        <v>1820</v>
       </c>
       <c r="E535" t="s">
-        <v>1635</v>
+        <v>1629</v>
       </c>
       <c r="I535"/>
       <c r="J535"/>
     </row>
     <row r="536" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A536" s="16" t="s">
-        <v>1796</v>
+        <v>1822</v>
       </c>
       <c r="E536" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
       <c r="I536"/>
       <c r="J536"/>
     </row>
     <row r="537" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A537" s="16" t="s">
-        <v>1798</v>
+        <v>1824</v>
       </c>
       <c r="E537" t="s">
-        <v>1639</v>
+        <v>1633</v>
       </c>
       <c r="I537"/>
       <c r="J537"/>
     </row>
     <row r="538" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A538" s="16" t="s">
-        <v>1800</v>
+        <v>1826</v>
       </c>
       <c r="E538" t="s">
-        <v>1641</v>
+        <v>1635</v>
       </c>
       <c r="I538"/>
       <c r="J538"/>
     </row>
     <row r="539" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A539" s="16" t="s">
-        <v>1802</v>
+        <v>1828</v>
       </c>
       <c r="E539" t="s">
-        <v>1643</v>
+        <v>1637</v>
       </c>
       <c r="I539"/>
       <c r="J539"/>
     </row>
     <row r="540" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A540" s="16" t="s">
-        <v>1804</v>
+        <v>1830</v>
       </c>
       <c r="E540" t="s">
-        <v>1645</v>
+        <v>1639</v>
       </c>
       <c r="I540"/>
       <c r="J540"/>
     </row>
     <row r="541" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A541" s="16" t="s">
-        <v>1806</v>
+        <v>1832</v>
       </c>
       <c r="E541" t="s">
-        <v>1647</v>
+        <v>1641</v>
       </c>
       <c r="I541"/>
       <c r="J541"/>
     </row>
     <row r="542" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A542" s="16" t="s">
-        <v>1808</v>
+        <v>1834</v>
       </c>
       <c r="E542" t="s">
-        <v>1649</v>
+        <v>1643</v>
       </c>
       <c r="I542"/>
       <c r="J542"/>
     </row>
     <row r="543" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A543" s="16" t="s">
-        <v>1810</v>
+        <v>1836</v>
       </c>
       <c r="E543" t="s">
-        <v>1651</v>
+        <v>1645</v>
       </c>
       <c r="I543"/>
       <c r="J543"/>
     </row>
     <row r="544" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A544" s="16" t="s">
-        <v>1812</v>
+        <v>1838</v>
       </c>
       <c r="E544" t="s">
-        <v>1653</v>
+        <v>1647</v>
       </c>
       <c r="I544"/>
       <c r="J544"/>
     </row>
     <row r="545" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A545" s="16" t="s">
-        <v>1814</v>
+        <v>1840</v>
       </c>
       <c r="E545" t="s">
-        <v>1655</v>
+        <v>1649</v>
       </c>
       <c r="I545"/>
       <c r="J545"/>
     </row>
     <row r="546" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A546" s="16" t="s">
-        <v>1816</v>
+        <v>1842</v>
       </c>
       <c r="E546" t="s">
-        <v>1657</v>
+        <v>1651</v>
       </c>
       <c r="I546"/>
       <c r="J546"/>
     </row>
     <row r="547" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A547" s="16" t="s">
-        <v>1818</v>
+        <v>1844</v>
       </c>
       <c r="E547" t="s">
-        <v>1659</v>
+        <v>1653</v>
       </c>
       <c r="I547"/>
       <c r="J547"/>
     </row>
     <row r="548" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A548" s="16" t="s">
-        <v>1820</v>
+        <v>1846</v>
       </c>
       <c r="E548" t="s">
-        <v>1661</v>
+        <v>1655</v>
       </c>
       <c r="I548"/>
       <c r="J548"/>
     </row>
     <row r="549" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A549" s="16" t="s">
-        <v>1822</v>
+        <v>1848</v>
       </c>
       <c r="E549" t="s">
-        <v>1663</v>
+        <v>1657</v>
       </c>
       <c r="I549"/>
       <c r="J549"/>
     </row>
     <row r="550" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A550" s="16" t="s">
-        <v>1824</v>
+        <v>1850</v>
       </c>
       <c r="E550" t="s">
-        <v>1665</v>
+        <v>1659</v>
       </c>
       <c r="I550"/>
       <c r="J550"/>
     </row>
     <row r="551" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A551" s="16" t="s">
-        <v>1826</v>
+        <v>1852</v>
       </c>
       <c r="E551" t="s">
-        <v>1667</v>
+        <v>1661</v>
       </c>
       <c r="I551"/>
       <c r="J551"/>
     </row>
     <row r="552" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A552" s="16" t="s">
-        <v>1828</v>
+        <v>1854</v>
       </c>
       <c r="E552" t="s">
-        <v>1669</v>
+        <v>1663</v>
       </c>
       <c r="I552"/>
       <c r="J552"/>
     </row>
     <row r="553" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A553" s="16" t="s">
-        <v>1830</v>
+        <v>1856</v>
       </c>
       <c r="E553" t="s">
-        <v>1671</v>
+        <v>1665</v>
       </c>
       <c r="I553"/>
       <c r="J553"/>
     </row>
     <row r="554" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A554" s="16" t="s">
-        <v>1832</v>
+        <v>1858</v>
       </c>
       <c r="E554" t="s">
-        <v>1673</v>
+        <v>1667</v>
       </c>
       <c r="I554"/>
       <c r="J554"/>
     </row>
     <row r="555" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A555" s="16" t="s">
-        <v>1834</v>
+        <v>1860</v>
       </c>
       <c r="E555" t="s">
-        <v>1675</v>
+        <v>1669</v>
       </c>
       <c r="I555"/>
       <c r="J555"/>
     </row>
     <row r="556" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A556" s="16" t="s">
-        <v>1836</v>
+        <v>1862</v>
       </c>
       <c r="E556" t="s">
-        <v>1677</v>
+        <v>1671</v>
       </c>
       <c r="I556"/>
       <c r="J556"/>
     </row>
     <row r="557" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A557" s="16" t="s">
-        <v>1838</v>
+        <v>1864</v>
       </c>
       <c r="E557" t="s">
-        <v>1679</v>
+        <v>1673</v>
       </c>
       <c r="I557"/>
       <c r="J557"/>
     </row>
     <row r="558" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A558" s="16" t="s">
-        <v>1840</v>
+        <v>1866</v>
       </c>
       <c r="E558" t="s">
-        <v>1681</v>
+        <v>1675</v>
       </c>
       <c r="I558"/>
       <c r="J558"/>
     </row>
     <row r="559" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A559" s="16" t="s">
-        <v>1842</v>
+        <v>1868</v>
       </c>
       <c r="E559" t="s">
-        <v>1683</v>
+        <v>1677</v>
       </c>
       <c r="I559"/>
       <c r="J559"/>
     </row>
     <row r="560" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A560" s="16" t="s">
-        <v>1844</v>
+        <v>1870</v>
       </c>
       <c r="E560" t="s">
-        <v>1685</v>
+        <v>1679</v>
       </c>
       <c r="I560"/>
       <c r="J560"/>
     </row>
     <row r="561" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A561" s="16" t="s">
-        <v>1846</v>
+        <v>1872</v>
       </c>
       <c r="E561" t="s">
-        <v>1687</v>
+        <v>1681</v>
       </c>
       <c r="I561"/>
       <c r="J561"/>
     </row>
     <row r="562" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A562" s="16" t="s">
-        <v>1848</v>
+        <v>1874</v>
       </c>
       <c r="E562" t="s">
-        <v>1689</v>
+        <v>1683</v>
       </c>
       <c r="I562"/>
       <c r="J562"/>
     </row>
     <row r="563" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A563" s="16" t="s">
-        <v>1850</v>
+        <v>1876</v>
       </c>
       <c r="E563" t="s">
-        <v>1691</v>
+        <v>1685</v>
       </c>
       <c r="I563"/>
       <c r="J563"/>
     </row>
     <row r="564" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A564" s="16" t="s">
-        <v>1852</v>
+        <v>1878</v>
       </c>
       <c r="E564" t="s">
-        <v>1693</v>
+        <v>1687</v>
       </c>
       <c r="I564"/>
       <c r="J564"/>
     </row>
     <row r="565" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A565" s="16" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
       <c r="E565" t="s">
-        <v>1695</v>
+        <v>1689</v>
       </c>
       <c r="I565"/>
       <c r="J565"/>
     </row>
     <row r="566" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A566" s="16" t="s">
-        <v>1856</v>
+        <v>1882</v>
       </c>
       <c r="E566" t="s">
-        <v>1697</v>
+        <v>1691</v>
       </c>
       <c r="I566"/>
       <c r="J566"/>
     </row>
     <row r="567" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A567" s="16" t="s">
-        <v>1858</v>
+        <v>1884</v>
       </c>
       <c r="E567" t="s">
-        <v>1699</v>
+        <v>1693</v>
       </c>
       <c r="I567"/>
       <c r="J567"/>
     </row>
     <row r="568" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A568" s="16" t="s">
-        <v>1860</v>
+        <v>1886</v>
       </c>
       <c r="E568" t="s">
-        <v>1701</v>
-      </c>
+        <v>1695</v>
+      </c>
+      <c r="I568"/>
+      <c r="J568"/>
     </row>
     <row r="569" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A569" s="16" t="s">
-        <v>1862</v>
+        <v>1888</v>
       </c>
       <c r="E569" t="s">
-        <v>1703</v>
-      </c>
+        <v>1697</v>
+      </c>
+      <c r="I569"/>
+      <c r="J569"/>
     </row>
     <row r="570" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A570" s="16" t="s">
-        <v>1864</v>
+        <v>1890</v>
       </c>
       <c r="E570" t="s">
-        <v>1705</v>
-      </c>
+        <v>1699</v>
+      </c>
+      <c r="I570"/>
+      <c r="J570"/>
     </row>
     <row r="571" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A571" s="16" t="s">
-        <v>1866</v>
+        <v>1892</v>
       </c>
       <c r="E571" t="s">
-        <v>1707</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="572" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A572" s="16" t="s">
-        <v>1868</v>
+        <v>1894</v>
       </c>
       <c r="E572" t="s">
-        <v>1709</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="573" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A573" s="16" t="s">
-        <v>1870</v>
+        <v>1896</v>
       </c>
       <c r="E573" t="s">
-        <v>1711</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="574" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A574" s="16" t="s">
-        <v>1872</v>
+        <v>1898</v>
       </c>
       <c r="E574" t="s">
-        <v>1713</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="575" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A575" s="16" t="s">
-        <v>1874</v>
+        <v>1900</v>
       </c>
       <c r="E575" t="s">
-        <v>1715</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="576" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A576" s="16" t="s">
-        <v>1876</v>
+        <v>1902</v>
       </c>
       <c r="E576" t="s">
-        <v>1717</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="577" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A577" s="16" t="s">
-        <v>1878</v>
+        <v>1904</v>
       </c>
       <c r="E577" t="s">
-        <v>1719</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="578" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A578" s="16" t="s">
-        <v>1880</v>
+        <v>1906</v>
       </c>
       <c r="E578" t="s">
-        <v>1721</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="579" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A579" s="16" t="s">
-        <v>1882</v>
+        <v>1908</v>
       </c>
       <c r="E579" t="s">
-        <v>1723</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="580" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A580" s="16" t="s">
-        <v>1884</v>
+        <v>1910</v>
       </c>
       <c r="E580" t="s">
-        <v>1725</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="581" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A581" s="16" t="s">
-        <v>1886</v>
+        <v>1912</v>
       </c>
       <c r="E581" t="s">
-        <v>1727</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="582" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A582" s="16" t="s">
-        <v>1888</v>
+        <v>1914</v>
       </c>
       <c r="E582" t="s">
-        <v>1729</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="583" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A583" s="16" t="s">
-        <v>1890</v>
+        <v>1916</v>
       </c>
       <c r="E583" t="s">
-        <v>1731</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="584" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A584" s="16" t="s">
-        <v>1892</v>
+        <v>1918</v>
       </c>
       <c r="E584" t="s">
-        <v>1733</v>
-      </c>
-      <c r="I584"/>
-      <c r="J584"/>
+        <v>1727</v>
+      </c>
     </row>
     <row r="585" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A585" s="16" t="s">
-        <v>1894</v>
+        <v>1920</v>
       </c>
       <c r="E585" t="s">
-        <v>1735</v>
-      </c>
-      <c r="I585"/>
-      <c r="J585"/>
+        <v>1729</v>
+      </c>
     </row>
     <row r="586" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A586" s="16" t="s">
-        <v>1896</v>
+        <v>1922</v>
       </c>
       <c r="E586" t="s">
-        <v>1737</v>
-      </c>
-      <c r="I586"/>
-      <c r="J586"/>
+        <v>1731</v>
+      </c>
     </row>
     <row r="587" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A587" s="16" t="s">
-        <v>1898</v>
+        <v>1924</v>
       </c>
       <c r="E587" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
       <c r="I587"/>
       <c r="J587"/>
     </row>
     <row r="588" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A588" s="16" t="s">
-        <v>1900</v>
+        <v>1926</v>
       </c>
       <c r="E588" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="I588"/>
       <c r="J588"/>
     </row>
     <row r="589" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A589" s="16" t="s">
-        <v>1902</v>
+        <v>1928</v>
       </c>
       <c r="E589" t="s">
-        <v>1742</v>
-      </c>
-      <c r="F589" t="s">
-        <v>1743</v>
+        <v>1737</v>
       </c>
       <c r="I589"/>
       <c r="J589"/>
     </row>
     <row r="590" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A590" s="16" t="s">
-        <v>1904</v>
+        <v>1930</v>
       </c>
       <c r="E590" t="s">
-        <v>1744</v>
-      </c>
-      <c r="F590" t="s">
-        <v>1745</v>
+        <v>1739</v>
       </c>
       <c r="I590"/>
       <c r="J590"/>
     </row>
     <row r="591" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A591" s="16" t="s">
-        <v>1906</v>
+        <v>1932</v>
       </c>
       <c r="E591" t="s">
-        <v>1747</v>
+        <v>1741</v>
       </c>
       <c r="I591"/>
       <c r="J591"/>
     </row>
     <row r="592" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A592" s="16" t="s">
-        <v>1908</v>
+        <v>1934</v>
       </c>
       <c r="E592" t="s">
-        <v>1749</v>
+        <v>1742</v>
+      </c>
+      <c r="F592" t="s">
+        <v>1743</v>
       </c>
       <c r="I592"/>
       <c r="J592"/>
     </row>
     <row r="593" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A593" s="16" t="s">
-        <v>1910</v>
+        <v>1936</v>
       </c>
       <c r="E593" t="s">
-        <v>1751</v>
+        <v>1744</v>
+      </c>
+      <c r="F593" t="s">
+        <v>1745</v>
       </c>
       <c r="I593"/>
       <c r="J593"/>
     </row>
     <row r="594" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A594" s="16" t="s">
-        <v>1912</v>
+        <v>1938</v>
       </c>
       <c r="E594" t="s">
-        <v>1753</v>
+        <v>1747</v>
       </c>
       <c r="I594"/>
       <c r="J594"/>
     </row>
     <row r="595" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A595" s="16" t="s">
-        <v>1914</v>
+        <v>1940</v>
       </c>
       <c r="E595" t="s">
-        <v>1755</v>
+        <v>1749</v>
       </c>
       <c r="I595"/>
       <c r="J595"/>
     </row>
     <row r="596" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A596" s="16" t="s">
-        <v>1916</v>
+        <v>1942</v>
       </c>
       <c r="E596" t="s">
-        <v>1757</v>
+        <v>1751</v>
       </c>
       <c r="I596"/>
       <c r="J596"/>
     </row>
     <row r="597" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A597" s="16" t="s">
-        <v>1918</v>
+        <v>1944</v>
       </c>
       <c r="E597" t="s">
-        <v>1759</v>
+        <v>1753</v>
       </c>
       <c r="I597"/>
       <c r="J597"/>
     </row>
     <row r="598" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A598" s="16" t="s">
-        <v>1920</v>
+        <v>1946</v>
       </c>
       <c r="E598" t="s">
-        <v>1761</v>
+        <v>1755</v>
       </c>
       <c r="I598"/>
       <c r="J598"/>
     </row>
     <row r="599" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A599" s="16" t="s">
-        <v>1922</v>
+        <v>1948</v>
       </c>
       <c r="E599" t="s">
-        <v>1763</v>
+        <v>1757</v>
       </c>
       <c r="I599"/>
       <c r="J599"/>
     </row>
     <row r="600" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A600" s="16" t="s">
-        <v>1924</v>
+        <v>1950</v>
       </c>
       <c r="E600" t="s">
-        <v>1765</v>
+        <v>1759</v>
       </c>
       <c r="I600"/>
       <c r="J600"/>
     </row>
     <row r="601" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A601" s="16" t="s">
-        <v>1926</v>
+        <v>1952</v>
       </c>
       <c r="E601" t="s">
-        <v>1767</v>
+        <v>1761</v>
       </c>
       <c r="I601"/>
       <c r="J601"/>
     </row>
     <row r="602" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A602" s="16" t="s">
-        <v>1928</v>
+        <v>1954</v>
       </c>
       <c r="E602" t="s">
-        <v>1769</v>
+        <v>1763</v>
       </c>
       <c r="I602"/>
       <c r="J602"/>
     </row>
     <row r="603" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A603" s="16" t="s">
-        <v>1930</v>
+        <v>1956</v>
       </c>
       <c r="E603" t="s">
-        <v>1771</v>
+        <v>1765</v>
       </c>
       <c r="I603"/>
       <c r="J603"/>
     </row>
     <row r="604" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A604" s="16" t="s">
-        <v>1932</v>
+        <v>1958</v>
       </c>
       <c r="E604" t="s">
-        <v>1773</v>
+        <v>1767</v>
       </c>
       <c r="I604"/>
       <c r="J604"/>
     </row>
     <row r="605" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A605" s="16" t="s">
-        <v>1934</v>
+        <v>523</v>
       </c>
       <c r="E605" t="s">
-        <v>1775</v>
+        <v>1769</v>
       </c>
       <c r="I605"/>
       <c r="J605"/>
     </row>
     <row r="606" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A606" s="16" t="s">
-        <v>1936</v>
+        <v>1960</v>
       </c>
       <c r="E606" t="s">
-        <v>1777</v>
+        <v>1771</v>
       </c>
       <c r="I606"/>
       <c r="J606"/>
     </row>
     <row r="607" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A607" s="16" t="s">
-        <v>1938</v>
+        <v>1962</v>
       </c>
       <c r="E607" t="s">
-        <v>1779</v>
+        <v>1773</v>
       </c>
       <c r="I607"/>
       <c r="J607"/>
     </row>
     <row r="608" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A608" s="16" t="s">
-        <v>1940</v>
+        <v>2084</v>
       </c>
       <c r="E608" t="s">
-        <v>1781</v>
+        <v>1775</v>
       </c>
       <c r="I608"/>
       <c r="J608"/>
     </row>
     <row r="609" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A609" s="16" t="s">
-        <v>1942</v>
+        <v>2085</v>
       </c>
       <c r="E609" t="s">
-        <v>1783</v>
+        <v>1777</v>
       </c>
       <c r="I609"/>
       <c r="J609"/>
     </row>
     <row r="610" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A610" s="16" t="s">
-        <v>1944</v>
+        <v>2086</v>
       </c>
       <c r="E610" t="s">
-        <v>1785</v>
+        <v>1779</v>
       </c>
       <c r="I610"/>
       <c r="J610"/>
     </row>
     <row r="611" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A611" s="16" t="s">
-        <v>1946</v>
+        <v>2087</v>
       </c>
       <c r="E611" t="s">
-        <v>1787</v>
+        <v>1781</v>
       </c>
       <c r="I611"/>
       <c r="J611"/>
     </row>
     <row r="612" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A612" s="16" t="s">
-        <v>1948</v>
+        <v>2731</v>
       </c>
       <c r="E612" t="s">
-        <v>1789</v>
+        <v>1783</v>
       </c>
       <c r="I612"/>
       <c r="J612"/>
     </row>
     <row r="613" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A613" s="16" t="s">
-        <v>1950</v>
+        <v>2095</v>
       </c>
       <c r="E613" t="s">
-        <v>1791</v>
+        <v>1785</v>
       </c>
       <c r="I613"/>
       <c r="J613"/>
     </row>
     <row r="614" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A614" s="16" t="s">
-        <v>1952</v>
+        <v>2096</v>
       </c>
       <c r="E614" t="s">
-        <v>1793</v>
+        <v>1787</v>
       </c>
       <c r="I614"/>
       <c r="J614"/>
     </row>
     <row r="615" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A615" s="16" t="s">
-        <v>1954</v>
+        <v>2097</v>
       </c>
       <c r="E615" t="s">
-        <v>1795</v>
+        <v>1789</v>
       </c>
       <c r="I615"/>
       <c r="J615"/>
     </row>
     <row r="616" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A616" s="16" t="s">
-        <v>1956</v>
+        <v>2098</v>
       </c>
       <c r="E616" t="s">
-        <v>1797</v>
+        <v>1791</v>
       </c>
       <c r="I616"/>
       <c r="J616"/>
     </row>
     <row r="617" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A617" s="16" t="s">
-        <v>1958</v>
+        <v>2099</v>
       </c>
       <c r="E617" t="s">
-        <v>1799</v>
+        <v>1793</v>
       </c>
       <c r="I617"/>
       <c r="J617"/>
     </row>
     <row r="618" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A618" s="16" t="s">
-        <v>523</v>
+        <v>2182</v>
       </c>
       <c r="E618" t="s">
-        <v>1801</v>
+        <v>1795</v>
       </c>
       <c r="I618"/>
       <c r="J618"/>
     </row>
     <row r="619" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A619" s="16" t="s">
-        <v>1960</v>
+        <v>2183</v>
       </c>
       <c r="E619" t="s">
-        <v>1803</v>
+        <v>1797</v>
       </c>
       <c r="I619"/>
       <c r="J619"/>
     </row>
     <row r="620" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A620" s="16" t="s">
-        <v>1962</v>
+        <v>2184</v>
       </c>
       <c r="E620" t="s">
-        <v>1805</v>
+        <v>1799</v>
       </c>
       <c r="I620"/>
       <c r="J620"/>
     </row>
     <row r="621" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A621" s="16" t="s">
-        <v>2084</v>
+        <v>2732</v>
       </c>
       <c r="E621" t="s">
-        <v>1807</v>
+        <v>1801</v>
       </c>
       <c r="I621"/>
       <c r="J621"/>
     </row>
     <row r="622" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A622" s="16" t="s">
-        <v>2085</v>
+        <v>2733</v>
       </c>
       <c r="E622" t="s">
-        <v>1809</v>
+        <v>1803</v>
       </c>
       <c r="I622"/>
       <c r="J622"/>
     </row>
     <row r="623" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A623" s="16" t="s">
-        <v>2086</v>
+        <v>2734</v>
       </c>
       <c r="E623" t="s">
-        <v>1811</v>
+        <v>1805</v>
       </c>
       <c r="I623"/>
       <c r="J623"/>
     </row>
     <row r="624" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A624" s="16" t="s">
-        <v>2087</v>
+        <v>2735</v>
       </c>
       <c r="E624" t="s">
-        <v>1813</v>
+        <v>1807</v>
       </c>
       <c r="I624"/>
       <c r="J624"/>
     </row>
     <row r="625" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A625" s="16" t="s">
-        <v>2731</v>
+        <v>2736</v>
       </c>
       <c r="E625" t="s">
-        <v>1815</v>
+        <v>1809</v>
       </c>
       <c r="I625"/>
       <c r="J625"/>
     </row>
     <row r="626" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A626" s="16" t="s">
-        <v>2095</v>
+        <v>2737</v>
       </c>
       <c r="E626" t="s">
-        <v>1817</v>
+        <v>1811</v>
       </c>
       <c r="I626"/>
       <c r="J626"/>
     </row>
     <row r="627" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A627" s="16" t="s">
-        <v>2096</v>
+        <v>2738</v>
       </c>
       <c r="E627" t="s">
-        <v>1819</v>
+        <v>1813</v>
       </c>
       <c r="I627"/>
       <c r="J627"/>
     </row>
     <row r="628" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A628" s="16" t="s">
-        <v>2097</v>
+        <v>2739</v>
       </c>
       <c r="E628" t="s">
-        <v>1821</v>
+        <v>1815</v>
       </c>
       <c r="I628"/>
       <c r="J628"/>
     </row>
     <row r="629" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A629" s="16" t="s">
-        <v>2098</v>
+        <v>2740</v>
       </c>
       <c r="E629" t="s">
-        <v>1823</v>
+        <v>1817</v>
       </c>
       <c r="I629"/>
       <c r="J629"/>
     </row>
     <row r="630" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A630" s="16" t="s">
-        <v>2099</v>
+        <v>2741</v>
       </c>
       <c r="E630" t="s">
-        <v>1825</v>
+        <v>1819</v>
       </c>
       <c r="I630"/>
       <c r="J630"/>
     </row>
     <row r="631" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A631" s="16" t="s">
-        <v>2182</v>
+        <v>2742</v>
       </c>
       <c r="E631" t="s">
-        <v>1827</v>
+        <v>1821</v>
       </c>
       <c r="I631"/>
       <c r="J631"/>
     </row>
     <row r="632" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A632" s="16" t="s">
-        <v>2183</v>
+        <v>2743</v>
       </c>
       <c r="E632" t="s">
-        <v>1829</v>
+        <v>1823</v>
       </c>
       <c r="I632"/>
       <c r="J632"/>
     </row>
     <row r="633" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A633" s="16" t="s">
-        <v>2184</v>
+        <v>2744</v>
       </c>
       <c r="E633" t="s">
-        <v>1831</v>
+        <v>1825</v>
       </c>
       <c r="I633"/>
       <c r="J633"/>
     </row>
     <row r="634" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A634" s="16" t="s">
-        <v>2732</v>
+        <v>2745</v>
       </c>
       <c r="E634" t="s">
-        <v>1833</v>
+        <v>1827</v>
       </c>
       <c r="I634"/>
       <c r="J634"/>
     </row>
     <row r="635" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A635" s="16" t="s">
-        <v>2733</v>
+        <v>2837</v>
       </c>
       <c r="E635" t="s">
-        <v>1835</v>
+        <v>1829</v>
       </c>
       <c r="I635"/>
       <c r="J635"/>
     </row>
     <row r="636" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A636" s="16" t="s">
-        <v>2734</v>
+        <v>2838</v>
       </c>
       <c r="E636" t="s">
-        <v>1837</v>
+        <v>1831</v>
       </c>
       <c r="I636"/>
       <c r="J636"/>
     </row>
     <row r="637" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A637" s="16" t="s">
-        <v>2735</v>
+        <v>2839</v>
       </c>
       <c r="E637" t="s">
-        <v>1839</v>
+        <v>1833</v>
       </c>
       <c r="I637"/>
       <c r="J637"/>
     </row>
     <row r="638" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A638" s="16" t="s">
-        <v>2736</v>
+        <v>2840</v>
       </c>
       <c r="E638" t="s">
-        <v>1841</v>
+        <v>1835</v>
       </c>
       <c r="I638"/>
       <c r="J638"/>
     </row>
     <row r="639" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A639" s="16" t="s">
-        <v>2737</v>
+        <v>2866</v>
       </c>
       <c r="E639" t="s">
-        <v>1843</v>
+        <v>1837</v>
       </c>
       <c r="I639"/>
       <c r="J639"/>
     </row>
     <row r="640" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A640" s="16" t="s">
-        <v>2738</v>
+        <v>2867</v>
       </c>
       <c r="E640" t="s">
-        <v>1845</v>
+        <v>1839</v>
       </c>
       <c r="I640"/>
       <c r="J640"/>
     </row>
     <row r="641" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A641" s="16" t="s">
-        <v>2739</v>
+        <v>2872</v>
       </c>
       <c r="E641" t="s">
-        <v>1847</v>
+        <v>1841</v>
       </c>
       <c r="I641"/>
       <c r="J641"/>
     </row>
     <row r="642" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A642" s="16" t="s">
-        <v>2740</v>
+        <v>2882</v>
       </c>
       <c r="E642" t="s">
-        <v>1849</v>
+        <v>1843</v>
       </c>
       <c r="I642"/>
       <c r="J642"/>
     </row>
     <row r="643" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A643" s="16" t="s">
-        <v>2741</v>
+        <v>2900</v>
       </c>
       <c r="E643" t="s">
-        <v>1851</v>
+        <v>1845</v>
       </c>
       <c r="I643"/>
       <c r="J643"/>
     </row>
     <row r="644" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A644" s="16" t="s">
-        <v>2742</v>
+        <v>2901</v>
       </c>
       <c r="E644" t="s">
-        <v>1853</v>
+        <v>1847</v>
       </c>
       <c r="I644"/>
       <c r="J644"/>
     </row>
     <row r="645" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A645" s="16" t="s">
-        <v>2743</v>
+        <v>2902</v>
       </c>
       <c r="E645" t="s">
-        <v>1855</v>
+        <v>1849</v>
       </c>
       <c r="I645"/>
       <c r="J645"/>
     </row>
     <row r="646" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A646" s="16" t="s">
-        <v>2744</v>
+        <v>2969</v>
       </c>
       <c r="E646" t="s">
-        <v>1857</v>
+        <v>1851</v>
       </c>
       <c r="I646"/>
       <c r="J646"/>
     </row>
     <row r="647" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A647" s="16" t="s">
-        <v>2745</v>
+        <v>2970</v>
       </c>
       <c r="E647" t="s">
-        <v>1859</v>
+        <v>1853</v>
       </c>
       <c r="I647"/>
       <c r="J647"/>
     </row>
     <row r="648" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A648" s="16" t="s">
-        <v>2837</v>
+        <v>2971</v>
       </c>
       <c r="E648" t="s">
-        <v>1861</v>
+        <v>1855</v>
       </c>
       <c r="I648"/>
       <c r="J648"/>
     </row>
     <row r="649" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A649" s="16" t="s">
-        <v>2838</v>
+        <v>2972</v>
       </c>
       <c r="E649" t="s">
-        <v>1863</v>
+        <v>1857</v>
       </c>
       <c r="I649"/>
       <c r="J649"/>
     </row>
     <row r="650" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A650" s="16" t="s">
-        <v>2839</v>
+        <v>2973</v>
       </c>
       <c r="E650" t="s">
-        <v>1865</v>
+        <v>1859</v>
       </c>
       <c r="I650"/>
       <c r="J650"/>
     </row>
     <row r="651" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A651" s="16" t="s">
-        <v>2840</v>
+        <v>2974</v>
       </c>
       <c r="E651" t="s">
-        <v>1867</v>
+        <v>1861</v>
       </c>
       <c r="I651"/>
       <c r="J651"/>
     </row>
     <row r="652" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A652" s="16" t="s">
-        <v>2866</v>
+        <v>2975</v>
       </c>
       <c r="E652" t="s">
-        <v>1869</v>
+        <v>1863</v>
       </c>
       <c r="I652"/>
       <c r="J652"/>
     </row>
     <row r="653" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A653" s="16" t="s">
-        <v>2867</v>
+        <v>2976</v>
       </c>
       <c r="E653" t="s">
-        <v>1871</v>
+        <v>1865</v>
       </c>
       <c r="I653"/>
       <c r="J653"/>
     </row>
     <row r="654" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A654" s="16" t="s">
-        <v>2872</v>
+        <v>2977</v>
       </c>
       <c r="E654" t="s">
-        <v>1873</v>
+        <v>1867</v>
       </c>
       <c r="I654"/>
       <c r="J654"/>
     </row>
     <row r="655" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A655" s="16" t="s">
-        <v>2882</v>
+        <v>2978</v>
       </c>
       <c r="E655" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
       <c r="I655"/>
       <c r="J655"/>
     </row>
     <row r="656" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A656" s="16" t="s">
-        <v>2900</v>
+        <v>2979</v>
       </c>
       <c r="E656" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
       <c r="I656"/>
       <c r="J656"/>
     </row>
     <row r="657" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A657" s="16" t="s">
-        <v>2901</v>
+        <v>2980</v>
       </c>
       <c r="E657" t="s">
-        <v>1879</v>
+        <v>1873</v>
       </c>
       <c r="I657"/>
       <c r="J657"/>
     </row>
     <row r="658" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A658" s="16" t="s">
-        <v>2902</v>
+        <v>3062</v>
       </c>
       <c r="E658" t="s">
-        <v>1881</v>
+        <v>1875</v>
       </c>
       <c r="I658"/>
       <c r="J658"/>
     </row>
     <row r="659" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A659" s="16" t="s">
-        <v>2969</v>
+        <v>3063</v>
       </c>
       <c r="E659" t="s">
-        <v>1883</v>
+        <v>1877</v>
       </c>
       <c r="I659"/>
       <c r="J659"/>
     </row>
     <row r="660" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A660" s="16" t="s">
-        <v>2970</v>
+        <v>3064</v>
       </c>
       <c r="E660" t="s">
-        <v>1885</v>
+        <v>1879</v>
       </c>
       <c r="I660"/>
       <c r="J660"/>
     </row>
     <row r="661" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A661" s="16" t="s">
-        <v>2971</v>
+        <v>3065</v>
       </c>
       <c r="E661" t="s">
-        <v>1887</v>
+        <v>1881</v>
       </c>
       <c r="I661"/>
       <c r="J661"/>
     </row>
     <row r="662" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A662" s="16" t="s">
-        <v>2972</v>
+        <v>3066</v>
       </c>
       <c r="E662" t="s">
-        <v>1889</v>
+        <v>1883</v>
       </c>
       <c r="I662"/>
       <c r="J662"/>
     </row>
     <row r="663" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A663" s="16" t="s">
-        <v>2973</v>
+        <v>3067</v>
       </c>
       <c r="E663" t="s">
-        <v>1891</v>
+        <v>1885</v>
       </c>
       <c r="I663"/>
       <c r="J663"/>
     </row>
     <row r="664" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A664" s="16" t="s">
-        <v>2974</v>
+        <v>3068</v>
       </c>
       <c r="E664" t="s">
-        <v>1893</v>
+        <v>1887</v>
       </c>
       <c r="I664"/>
       <c r="J664"/>
     </row>
     <row r="665" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A665" s="16" t="s">
-        <v>2975</v>
+        <v>3069</v>
       </c>
       <c r="E665" t="s">
-        <v>1895</v>
+        <v>1889</v>
       </c>
       <c r="I665"/>
       <c r="J665"/>
     </row>
     <row r="666" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A666" s="16" t="s">
-        <v>2976</v>
+        <v>3092</v>
       </c>
       <c r="E666" t="s">
-        <v>1897</v>
+        <v>1891</v>
       </c>
       <c r="I666"/>
       <c r="J666"/>
     </row>
     <row r="667" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A667" s="16" t="s">
-        <v>2977</v>
+        <v>3147</v>
       </c>
       <c r="E667" t="s">
-        <v>1899</v>
+        <v>1893</v>
       </c>
       <c r="I667"/>
       <c r="J667"/>
     </row>
     <row r="668" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A668" s="16" t="s">
-        <v>2978</v>
+        <v>3148</v>
       </c>
       <c r="E668" t="s">
-        <v>1901</v>
+        <v>1895</v>
       </c>
       <c r="I668"/>
       <c r="J668"/>
     </row>
     <row r="669" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A669" s="16" t="s">
-        <v>2979</v>
+        <v>3149</v>
       </c>
       <c r="E669" t="s">
-        <v>1903</v>
+        <v>1897</v>
       </c>
       <c r="I669"/>
       <c r="J669"/>
     </row>
     <row r="670" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A670" s="16" t="s">
-        <v>2980</v>
+        <v>3150</v>
       </c>
       <c r="E670" t="s">
-        <v>1905</v>
+        <v>1899</v>
       </c>
       <c r="I670"/>
       <c r="J670"/>
     </row>
     <row r="671" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A671" s="16" t="s">
-        <v>3062</v>
+        <v>3151</v>
       </c>
       <c r="E671" t="s">
-        <v>1907</v>
+        <v>1901</v>
       </c>
       <c r="I671"/>
       <c r="J671"/>
     </row>
     <row r="672" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A672" s="16" t="s">
-        <v>3063</v>
+        <v>3152</v>
       </c>
       <c r="E672" t="s">
-        <v>1909</v>
+        <v>1903</v>
       </c>
       <c r="I672"/>
       <c r="J672"/>
     </row>
     <row r="673" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A673" s="16" t="s">
-        <v>3064</v>
+        <v>3153</v>
       </c>
       <c r="E673" t="s">
-        <v>1911</v>
+        <v>1905</v>
       </c>
       <c r="I673"/>
       <c r="J673"/>
     </row>
     <row r="674" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A674" s="16" t="s">
-        <v>3065</v>
+        <v>3154</v>
       </c>
       <c r="E674" t="s">
-        <v>1913</v>
+        <v>1907</v>
       </c>
       <c r="I674"/>
       <c r="J674"/>
     </row>
     <row r="675" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A675" s="16" t="s">
-        <v>3066</v>
+        <v>3155</v>
       </c>
       <c r="E675" t="s">
-        <v>1915</v>
+        <v>1909</v>
       </c>
       <c r="I675"/>
       <c r="J675"/>
     </row>
     <row r="676" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A676" s="16" t="s">
-        <v>3067</v>
+        <v>3156</v>
       </c>
       <c r="E676" t="s">
-        <v>1917</v>
+        <v>1911</v>
       </c>
       <c r="I676"/>
       <c r="J676"/>
     </row>
     <row r="677" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A677" s="16" t="s">
-        <v>3068</v>
+        <v>3207</v>
       </c>
       <c r="E677" t="s">
-        <v>1919</v>
+        <v>1913</v>
       </c>
       <c r="I677"/>
       <c r="J677"/>
     </row>
     <row r="678" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A678" s="16" t="s">
-        <v>3069</v>
+        <v>3208</v>
       </c>
       <c r="E678" t="s">
-        <v>1921</v>
+        <v>1915</v>
       </c>
       <c r="I678"/>
       <c r="J678"/>
     </row>
     <row r="679" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A679" s="16" t="s">
-        <v>3092</v>
+        <v>3209</v>
       </c>
       <c r="E679" t="s">
-        <v>1923</v>
+        <v>1917</v>
       </c>
       <c r="I679"/>
       <c r="J679"/>
     </row>
     <row r="680" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A680" s="16" t="s">
-        <v>3147</v>
+        <v>3210</v>
       </c>
       <c r="E680" t="s">
-        <v>1925</v>
-      </c>
+        <v>1919</v>
+      </c>
+      <c r="I680"/>
+      <c r="J680"/>
     </row>
     <row r="681" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A681" s="16" t="s">
-        <v>3148</v>
+        <v>3211</v>
       </c>
       <c r="E681" t="s">
-        <v>1927</v>
-      </c>
+        <v>1921</v>
+      </c>
+      <c r="I681"/>
+      <c r="J681"/>
     </row>
     <row r="682" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A682" s="16" t="s">
-        <v>3149</v>
+        <v>3212</v>
       </c>
       <c r="E682" t="s">
-        <v>1929</v>
-      </c>
+        <v>1923</v>
+      </c>
+      <c r="I682"/>
+      <c r="J682"/>
     </row>
     <row r="683" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A683" s="16" t="s">
-        <v>3150</v>
+        <v>3213</v>
       </c>
       <c r="E683" t="s">
-        <v>1931</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="684" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A684" s="16" t="s">
-        <v>3151</v>
+        <v>3214</v>
       </c>
       <c r="E684" t="s">
-        <v>1933</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="685" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A685" s="16" t="s">
-        <v>3152</v>
+        <v>3215</v>
       </c>
       <c r="E685" t="s">
-        <v>1937</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="686" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A686" s="16" t="s">
-        <v>3153</v>
+        <v>3216</v>
       </c>
       <c r="E686" t="s">
-        <v>1939</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="687" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A687" s="16" t="s">
-        <v>3154</v>
+        <v>3318</v>
       </c>
       <c r="E687" t="s">
-        <v>1941</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="688" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A688" s="16" t="s">
-        <v>3155</v>
+        <v>3319</v>
       </c>
       <c r="E688" t="s">
-        <v>1943</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="689" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A689" s="16" t="s">
-        <v>3156</v>
+        <v>3320</v>
       </c>
       <c r="E689" t="s">
-        <v>1945</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="690" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A690" s="16" t="s">
-        <v>3207</v>
+        <v>3321</v>
       </c>
       <c r="E690" t="s">
-        <v>1947</v>
-      </c>
-      <c r="I690"/>
-      <c r="J690"/>
+        <v>1941</v>
+      </c>
     </row>
     <row r="691" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A691" s="16" t="s">
-        <v>3208</v>
+        <v>3322</v>
       </c>
       <c r="E691" t="s">
-        <v>1949</v>
-      </c>
-      <c r="I691"/>
-      <c r="J691"/>
+        <v>1943</v>
+      </c>
     </row>
     <row r="692" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A692" s="16" t="s">
-        <v>3209</v>
+        <v>3323</v>
       </c>
       <c r="E692" t="s">
-        <v>1951</v>
-      </c>
-      <c r="I692"/>
-      <c r="J692"/>
+        <v>1945</v>
+      </c>
     </row>
     <row r="693" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A693" s="16" t="s">
-        <v>3210</v>
+        <v>3324</v>
       </c>
       <c r="E693" t="s">
-        <v>1953</v>
+        <v>1947</v>
       </c>
       <c r="I693"/>
       <c r="J693"/>
     </row>
     <row r="694" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A694" s="16" t="s">
-        <v>3211</v>
+        <v>3325</v>
       </c>
       <c r="E694" t="s">
-        <v>1955</v>
+        <v>1949</v>
       </c>
       <c r="I694"/>
       <c r="J694"/>
     </row>
     <row r="695" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A695" s="16" t="s">
-        <v>3212</v>
+        <v>3326</v>
       </c>
       <c r="E695" t="s">
-        <v>1957</v>
-      </c>
-      <c r="F695" t="s">
-        <v>2819</v>
+        <v>1951</v>
       </c>
       <c r="I695"/>
       <c r="J695"/>
-      <c r="M695" s="37" t="s">
-        <v>2820</v>
-      </c>
     </row>
     <row r="696" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A696" s="16" t="s">
-        <v>3213</v>
+        <v>3327</v>
       </c>
       <c r="E696" t="s">
-        <v>2821</v>
-      </c>
-      <c r="F696" t="s">
-        <v>2147</v>
+        <v>1953</v>
       </c>
       <c r="I696"/>
       <c r="J696"/>
     </row>
     <row r="697" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A697" s="16" t="s">
-        <v>3214</v>
+        <v>3328</v>
       </c>
       <c r="E697" t="s">
-        <v>1959</v>
+        <v>1955</v>
       </c>
       <c r="I697"/>
       <c r="J697"/>
-      <c r="M697" s="37" t="s">
-        <v>2384</v>
-      </c>
     </row>
     <row r="698" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A698" s="16" t="s">
-        <v>3215</v>
+        <v>3329</v>
       </c>
       <c r="E698" t="s">
-        <v>1961</v>
+        <v>1957</v>
+      </c>
+      <c r="F698" t="s">
+        <v>2819</v>
       </c>
       <c r="I698"/>
       <c r="J698"/>
+      <c r="M698" s="37" t="s">
+        <v>2820</v>
+      </c>
     </row>
     <row r="699" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A699" s="16" t="s">
-        <v>3216</v>
+        <v>3330</v>
       </c>
       <c r="E699" t="s">
-        <v>1963</v>
+        <v>2821</v>
+      </c>
+      <c r="F699" t="s">
+        <v>2147</v>
       </c>
       <c r="I699"/>
       <c r="J699"/>
+    </row>
+    <row r="700" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A700" s="16" t="s">
+        <v>3331</v>
+      </c>
+      <c r="E700" t="s">
+        <v>1959</v>
+      </c>
+      <c r="I700"/>
+      <c r="J700"/>
+      <c r="M700" s="37" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="701" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A701" s="16" t="s">
+        <v>3332</v>
+      </c>
+      <c r="E701" t="s">
+        <v>1961</v>
+      </c>
+      <c r="I701"/>
+      <c r="J701"/>
+    </row>
+    <row r="702" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A702" s="16" t="s">
+        <v>3333</v>
+      </c>
+      <c r="E702" t="s">
+        <v>1963</v>
+      </c>
+      <c r="I702"/>
+      <c r="J702"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -30784,7 +31678,7 @@
   <dimension ref="A1:L107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -31624,6 +32518,18 @@
       <c r="A41" s="1" t="s">
         <v>569</v>
       </c>
+      <c r="B41" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>2311</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>3350</v>
+      </c>
+      <c r="H41" s="25" t="s">
+        <v>3351</v>
+      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
@@ -31963,10 +32869,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K287"/>
+  <dimension ref="A1:K292"/>
   <sheetViews>
-    <sheetView topLeftCell="A264" workbookViewId="0">
-      <selection activeCell="C280" sqref="C280"/>
+    <sheetView topLeftCell="A267" workbookViewId="0">
+      <selection activeCell="D285" sqref="D270:D285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -39758,7 +40664,9 @@
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A270" s="1"/>
+      <c r="A270" s="1" t="s">
+        <v>3221</v>
+      </c>
       <c r="B270" s="1" t="s">
         <v>639</v>
       </c>
@@ -39785,7 +40693,9 @@
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A271" s="1"/>
+      <c r="A271" s="1" t="s">
+        <v>3222</v>
+      </c>
       <c r="B271" s="1" t="s">
         <v>639</v>
       </c>
@@ -39812,7 +40722,9 @@
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A272" s="1"/>
+      <c r="A272" s="1" t="s">
+        <v>3223</v>
+      </c>
       <c r="B272" s="1" t="s">
         <v>639</v>
       </c>
@@ -39839,7 +40751,9 @@
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A273" s="1"/>
+      <c r="A273" s="1" t="s">
+        <v>3224</v>
+      </c>
       <c r="B273" s="1" t="s">
         <v>639</v>
       </c>
@@ -39866,7 +40780,9 @@
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A274" s="1"/>
+      <c r="A274" s="1" t="s">
+        <v>3225</v>
+      </c>
       <c r="B274" s="1" t="s">
         <v>639</v>
       </c>
@@ -39893,7 +40809,9 @@
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A275" s="1"/>
+      <c r="A275" s="1" t="s">
+        <v>3226</v>
+      </c>
       <c r="B275" s="1" t="s">
         <v>639</v>
       </c>
@@ -39920,7 +40838,9 @@
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A276" s="1"/>
+      <c r="A276" s="1" t="s">
+        <v>3301</v>
+      </c>
       <c r="B276" s="1" t="s">
         <v>639</v>
       </c>
@@ -39947,7 +40867,9 @@
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A277" s="1"/>
+      <c r="A277" s="1" t="s">
+        <v>3302</v>
+      </c>
       <c r="B277" s="1" t="s">
         <v>639</v>
       </c>
@@ -39974,6 +40896,9 @@
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A278" s="1" t="s">
+        <v>3303</v>
+      </c>
       <c r="B278" s="1" t="s">
         <v>639</v>
       </c>
@@ -40000,6 +40925,9 @@
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A279" s="1" t="s">
+        <v>3304</v>
+      </c>
       <c r="B279" s="1" t="s">
         <v>639</v>
       </c>
@@ -40026,6 +40954,9 @@
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A280" s="1" t="s">
+        <v>3305</v>
+      </c>
       <c r="B280" s="1" t="s">
         <v>639</v>
       </c>
@@ -40052,37 +40983,58 @@
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A281" s="1"/>
-      <c r="B281" s="1"/>
-      <c r="C281" s="36"/>
-      <c r="D281"/>
-      <c r="F281" s="8"/>
-      <c r="G281" s="1"/>
+      <c r="A281" s="1" t="s">
+        <v>3306</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C281" s="64" t="s">
+        <v>3281</v>
+      </c>
+      <c r="D281" s="24" t="s">
+        <v>3282</v>
+      </c>
+      <c r="E281" t="s">
+        <v>2154</v>
+      </c>
+      <c r="F281" s="31" t="s">
+        <v>642</v>
+      </c>
+      <c r="G281" s="1">
+        <v>2021</v>
+      </c>
+      <c r="I281" t="s">
+        <v>3283</v>
+      </c>
+      <c r="J281" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A282" s="1" t="s">
-        <v>3221</v>
+        <v>3307</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="C282" t="s">
-        <v>831</v>
-      </c>
-      <c r="D282" t="s">
-        <v>832</v>
+      <c r="C282" s="64" t="s">
+        <v>3287</v>
+      </c>
+      <c r="D282" s="24" t="s">
+        <v>3286</v>
       </c>
       <c r="E282" t="s">
         <v>2154</v>
       </c>
-      <c r="F282" s="8" t="s">
+      <c r="F282" s="31" t="s">
         <v>642</v>
       </c>
       <c r="G282" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="I282" t="s">
-        <v>2391</v>
+        <v>3283</v>
       </c>
       <c r="J282" t="s">
         <v>643</v>
@@ -40090,28 +41042,28 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
-        <v>3222</v>
+        <v>3308</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="C283" t="s">
-        <v>834</v>
-      </c>
-      <c r="D283" t="s">
-        <v>670</v>
+      <c r="C283" s="64" t="s">
+        <v>3292</v>
+      </c>
+      <c r="D283" s="24" t="s">
+        <v>3293</v>
       </c>
       <c r="E283" t="s">
         <v>2154</v>
       </c>
-      <c r="F283" s="8" t="s">
+      <c r="F283" s="31" t="s">
         <v>642</v>
       </c>
       <c r="G283" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="I283" t="s">
-        <v>2391</v>
+        <v>3283</v>
       </c>
       <c r="J283" t="s">
         <v>643</v>
@@ -40119,28 +41071,28 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A284" s="1" t="s">
-        <v>3223</v>
+        <v>3309</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="C284" t="s">
-        <v>835</v>
-      </c>
-      <c r="D284" t="s">
-        <v>836</v>
+      <c r="C284" s="64" t="s">
+        <v>3295</v>
+      </c>
+      <c r="D284" s="24" t="s">
+        <v>3294</v>
       </c>
       <c r="E284" t="s">
         <v>2154</v>
       </c>
-      <c r="F284" s="8" t="s">
+      <c r="F284" s="31" t="s">
         <v>642</v>
       </c>
       <c r="G284" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="I284" t="s">
-        <v>2391</v>
+        <v>3283</v>
       </c>
       <c r="J284" t="s">
         <v>643</v>
@@ -40148,74 +41100,56 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A285" s="1" t="s">
-        <v>3224</v>
+        <v>3310</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="C285" t="s">
-        <v>837</v>
-      </c>
-      <c r="D285" t="s">
-        <v>836</v>
+      <c r="C285" s="64" t="s">
+        <v>3298</v>
+      </c>
+      <c r="D285" s="24" t="s">
+        <v>3299</v>
       </c>
       <c r="E285" t="s">
         <v>2154</v>
       </c>
-      <c r="F285" s="8" t="s">
+      <c r="F285" s="31" t="s">
         <v>642</v>
       </c>
       <c r="G285" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="I285" t="s">
-        <v>2391</v>
+        <v>3300</v>
       </c>
       <c r="J285" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A286" s="1" t="s">
-        <v>3225</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>2155</v>
-      </c>
-      <c r="C286" s="24" t="s">
-        <v>2149</v>
-      </c>
-      <c r="D286" s="24" t="s">
-        <v>2150</v>
-      </c>
-      <c r="E286" t="s">
-        <v>2192</v>
-      </c>
-      <c r="F286" s="8" t="s">
-        <v>642</v>
-      </c>
-      <c r="G286" s="1">
-        <v>2020</v>
-      </c>
-      <c r="J286" t="s">
-        <v>643</v>
-      </c>
+      <c r="A286" s="1"/>
+      <c r="B286" s="1"/>
+      <c r="C286" s="36"/>
+      <c r="D286"/>
+      <c r="F286" s="8"/>
+      <c r="G286" s="1"/>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A287" s="1" t="s">
-        <v>3226</v>
+        <v>3311</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>2155</v>
-      </c>
-      <c r="C287" s="24" t="s">
-        <v>2818</v>
-      </c>
-      <c r="D287" s="24" t="s">
-        <v>2817</v>
+        <v>639</v>
+      </c>
+      <c r="C287" t="s">
+        <v>831</v>
+      </c>
+      <c r="D287" t="s">
+        <v>832</v>
       </c>
       <c r="E287" t="s">
-        <v>2192</v>
+        <v>2154</v>
       </c>
       <c r="F287" s="8" t="s">
         <v>642</v>
@@ -40223,7 +41157,149 @@
       <c r="G287" s="1">
         <v>2020</v>
       </c>
+      <c r="I287" t="s">
+        <v>2391</v>
+      </c>
       <c r="J287" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A288" s="1" t="s">
+        <v>3312</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C288" t="s">
+        <v>834</v>
+      </c>
+      <c r="D288" t="s">
+        <v>670</v>
+      </c>
+      <c r="E288" t="s">
+        <v>2154</v>
+      </c>
+      <c r="F288" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="G288" s="1">
+        <v>2020</v>
+      </c>
+      <c r="I288" t="s">
+        <v>2391</v>
+      </c>
+      <c r="J288" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A289" s="1" t="s">
+        <v>3313</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C289" t="s">
+        <v>835</v>
+      </c>
+      <c r="D289" t="s">
+        <v>836</v>
+      </c>
+      <c r="E289" t="s">
+        <v>2154</v>
+      </c>
+      <c r="F289" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="G289" s="1">
+        <v>2020</v>
+      </c>
+      <c r="I289" t="s">
+        <v>2391</v>
+      </c>
+      <c r="J289" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A290" s="1" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C290" t="s">
+        <v>837</v>
+      </c>
+      <c r="D290" t="s">
+        <v>836</v>
+      </c>
+      <c r="E290" t="s">
+        <v>2154</v>
+      </c>
+      <c r="F290" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="G290" s="1">
+        <v>2020</v>
+      </c>
+      <c r="I290" t="s">
+        <v>2391</v>
+      </c>
+      <c r="J290" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A291" s="1" t="s">
+        <v>3315</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C291" s="24" t="s">
+        <v>2149</v>
+      </c>
+      <c r="D291" s="24" t="s">
+        <v>2150</v>
+      </c>
+      <c r="E291" t="s">
+        <v>2192</v>
+      </c>
+      <c r="F291" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="G291" s="1">
+        <v>2020</v>
+      </c>
+      <c r="J291" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A292" s="1" t="s">
+        <v>3316</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C292" s="24" t="s">
+        <v>2818</v>
+      </c>
+      <c r="D292" s="24" t="s">
+        <v>2817</v>
+      </c>
+      <c r="E292" t="s">
+        <v>2192</v>
+      </c>
+      <c r="F292" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="G292" s="1">
+        <v>2020</v>
+      </c>
+      <c r="J292" t="s">
         <v>643</v>
       </c>
     </row>

--- a/tmee/data_in/data_dictionary/indicator_dictionary_TM_v7.xlsx
+++ b/tmee/data_in/data_dictionary/indicator_dictionary_TM_v7.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Snapshot" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7509" uniqueCount="3595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7510" uniqueCount="3595">
   <si>
     <t>snapshot_id</t>
   </si>
@@ -10251,9 +10251,6 @@
     <t>CDDEM_D18</t>
   </si>
   <si>
-    <t>Do not ETL: Extracted by causes independently</t>
-  </si>
-  <si>
     <t>Detailed causes of under-five deaths (x 15)</t>
   </si>
   <si>
@@ -10828,6 +10825,9 @@
   </si>
   <si>
     <t>SN-314</t>
+  </si>
+  <si>
+    <t>Do not ETL: CDDEM helix source extracted outside ETL API loop</t>
   </si>
 </sst>
 </file>
@@ -11617,7 +11617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
+    <sheetView topLeftCell="A56" workbookViewId="0">
       <selection activeCell="G312" sqref="G312"/>
     </sheetView>
   </sheetViews>
@@ -21451,7 +21451,7 @@
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A290" s="1" t="s">
-        <v>3568</v>
+        <v>3567</v>
       </c>
       <c r="B290" s="16" t="s">
         <v>1459</v>
@@ -21475,7 +21475,7 @@
         <v>PCNT</v>
       </c>
       <c r="H290" s="1" t="s">
-        <v>3539</v>
+        <v>3538</v>
       </c>
       <c r="I290" s="25" t="str">
         <f>VLOOKUP(H290,Source!$A$2:$G$313,3,FALSE)</f>
@@ -21485,7 +21485,7 @@
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A291" s="1" t="s">
-        <v>3569</v>
+        <v>3568</v>
       </c>
       <c r="B291" s="16" t="s">
         <v>1461</v>
@@ -21509,7 +21509,7 @@
         <v>PCNT</v>
       </c>
       <c r="H291" s="1" t="s">
-        <v>3540</v>
+        <v>3539</v>
       </c>
       <c r="I291" s="25" t="str">
         <f>VLOOKUP(H291,Source!$A$2:$G$313,3,FALSE)</f>
@@ -21519,7 +21519,7 @@
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A292" s="1" t="s">
-        <v>3570</v>
+        <v>3569</v>
       </c>
       <c r="B292" s="16" t="s">
         <v>1463</v>
@@ -21543,7 +21543,7 @@
         <v>PCNT</v>
       </c>
       <c r="H292" s="1" t="s">
-        <v>3541</v>
+        <v>3540</v>
       </c>
       <c r="I292" s="25" t="str">
         <f>VLOOKUP(H292,Source!$A$2:$G$313,3,FALSE)</f>
@@ -21553,7 +21553,7 @@
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A293" s="1" t="s">
-        <v>3571</v>
+        <v>3570</v>
       </c>
       <c r="B293" s="16" t="s">
         <v>1465</v>
@@ -21577,7 +21577,7 @@
         <v>PCNT</v>
       </c>
       <c r="H293" s="1" t="s">
-        <v>3542</v>
+        <v>3541</v>
       </c>
       <c r="I293" s="25" t="str">
         <f>VLOOKUP(H293,Source!$A$2:$G$313,3,FALSE)</f>
@@ -21587,7 +21587,7 @@
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A294" s="1" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="B294" s="16" t="s">
         <v>1466</v>
@@ -21611,7 +21611,7 @@
         <v>PCNT</v>
       </c>
       <c r="H294" s="1" t="s">
-        <v>3543</v>
+        <v>3542</v>
       </c>
       <c r="I294" s="25" t="str">
         <f>VLOOKUP(H294,Source!$A$2:$G$313,3,FALSE)</f>
@@ -21621,7 +21621,7 @@
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A295" s="1" t="s">
-        <v>3573</v>
+        <v>3572</v>
       </c>
       <c r="B295" s="16" t="s">
         <v>1468</v>
@@ -21645,7 +21645,7 @@
         <v>PCNT</v>
       </c>
       <c r="H295" s="1" t="s">
-        <v>3544</v>
+        <v>3543</v>
       </c>
       <c r="I295" s="25" t="str">
         <f>VLOOKUP(H295,Source!$A$2:$G$313,3,FALSE)</f>
@@ -21655,7 +21655,7 @@
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A296" s="1" t="s">
-        <v>3574</v>
+        <v>3573</v>
       </c>
       <c r="B296" s="16" t="s">
         <v>1470</v>
@@ -21679,7 +21679,7 @@
         <v>PCNT</v>
       </c>
       <c r="H296" s="1" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="I296" s="25" t="str">
         <f>VLOOKUP(H296,Source!$A$2:$G$313,3,FALSE)</f>
@@ -21689,7 +21689,7 @@
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A297" s="1" t="s">
-        <v>3575</v>
+        <v>3574</v>
       </c>
       <c r="B297" s="16" t="s">
         <v>1472</v>
@@ -21713,7 +21713,7 @@
         <v>PCNT</v>
       </c>
       <c r="H297" s="1" t="s">
-        <v>3546</v>
+        <v>3545</v>
       </c>
       <c r="I297" s="25" t="str">
         <f>VLOOKUP(H297,Source!$A$2:$G$313,3,FALSE)</f>
@@ -21723,7 +21723,7 @@
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A298" s="1" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
       <c r="B298" s="16" t="s">
         <v>1474</v>
@@ -21747,7 +21747,7 @@
         <v>PCNT</v>
       </c>
       <c r="H298" s="1" t="s">
-        <v>3547</v>
+        <v>3546</v>
       </c>
       <c r="I298" s="25" t="str">
         <f>VLOOKUP(H298,Source!$A$2:$G$313,3,FALSE)</f>
@@ -21757,7 +21757,7 @@
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A299" s="1" t="s">
-        <v>3577</v>
+        <v>3576</v>
       </c>
       <c r="B299" s="16" t="s">
         <v>1476</v>
@@ -21781,7 +21781,7 @@
         <v>PCNT</v>
       </c>
       <c r="H299" s="1" t="s">
-        <v>3548</v>
+        <v>3547</v>
       </c>
       <c r="I299" s="25" t="str">
         <f>VLOOKUP(H299,Source!$A$2:$G$313,3,FALSE)</f>
@@ -21791,7 +21791,7 @@
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A300" s="1" t="s">
-        <v>3578</v>
+        <v>3577</v>
       </c>
       <c r="B300" s="16" t="s">
         <v>1478</v>
@@ -21815,7 +21815,7 @@
         <v>PCNT</v>
       </c>
       <c r="H300" s="1" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="I300" s="25" t="str">
         <f>VLOOKUP(H300,Source!$A$2:$G$313,3,FALSE)</f>
@@ -21825,7 +21825,7 @@
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A301" s="1" t="s">
-        <v>3579</v>
+        <v>3578</v>
       </c>
       <c r="B301" s="16" t="s">
         <v>1480</v>
@@ -21849,7 +21849,7 @@
         <v>PCNT</v>
       </c>
       <c r="H301" s="1" t="s">
-        <v>3550</v>
+        <v>3549</v>
       </c>
       <c r="I301" s="25" t="str">
         <f>VLOOKUP(H301,Source!$A$2:$G$313,3,FALSE)</f>
@@ -21859,7 +21859,7 @@
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A302" s="1" t="s">
-        <v>3580</v>
+        <v>3579</v>
       </c>
       <c r="B302" s="16" t="s">
         <v>1482</v>
@@ -21883,7 +21883,7 @@
         <v>PCNT</v>
       </c>
       <c r="H302" s="1" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="I302" s="25" t="str">
         <f>VLOOKUP(H302,Source!$A$2:$G$313,3,FALSE)</f>
@@ -21893,7 +21893,7 @@
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A303" s="1" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
       <c r="B303" s="16" t="s">
         <v>1484</v>
@@ -21917,7 +21917,7 @@
         <v>PCNT</v>
       </c>
       <c r="H303" s="1" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="I303" s="25" t="str">
         <f>VLOOKUP(H303,Source!$A$2:$G$313,3,FALSE)</f>
@@ -21927,7 +21927,7 @@
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A304" s="1" t="s">
-        <v>3582</v>
+        <v>3581</v>
       </c>
       <c r="B304" s="16" t="s">
         <v>1486</v>
@@ -21951,7 +21951,7 @@
         <v>PCNT</v>
       </c>
       <c r="H304" s="1" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="I304" s="25" t="str">
         <f>VLOOKUP(H304,Source!$A$2:$G$313,3,FALSE)</f>
@@ -21961,7 +21961,7 @@
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A305" s="1" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
       <c r="B305" s="16" t="s">
         <v>1488</v>
@@ -21985,7 +21985,7 @@
         <v>PCNT</v>
       </c>
       <c r="H305" s="1" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="I305" s="25" t="str">
         <f>VLOOKUP(H305,Source!$A$2:$G$313,3,FALSE)</f>
@@ -21995,7 +21995,7 @@
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A306" s="1" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
       <c r="B306" s="16" t="s">
         <v>1490</v>
@@ -22019,7 +22019,7 @@
         <v>PCNT</v>
       </c>
       <c r="H306" s="1" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="I306" s="25" t="str">
         <f>VLOOKUP(H306,Source!$A$2:$G$385,3,FALSE)</f>
@@ -22029,7 +22029,7 @@
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A307" s="1" t="s">
-        <v>3585</v>
+        <v>3584</v>
       </c>
       <c r="B307" s="16" t="s">
         <v>1492</v>
@@ -22053,7 +22053,7 @@
         <v>PCNT</v>
       </c>
       <c r="H307" s="1" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="I307" s="25" t="str">
         <f>VLOOKUP(H307,Source!$A$2:$G$385,3,FALSE)</f>
@@ -22063,7 +22063,7 @@
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A308" s="1" t="s">
-        <v>3586</v>
+        <v>3585</v>
       </c>
       <c r="B308" s="16" t="s">
         <v>1494</v>
@@ -22087,7 +22087,7 @@
         <v>NUMBER</v>
       </c>
       <c r="H308" s="1" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="I308" s="25" t="str">
         <f>VLOOKUP(H308,Source!$A$2:$G$385,3,FALSE)</f>
@@ -22097,7 +22097,7 @@
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A309" s="1" t="s">
-        <v>3587</v>
+        <v>3586</v>
       </c>
       <c r="B309" s="16" t="s">
         <v>1496</v>
@@ -22121,7 +22121,7 @@
         <v>NUMBER</v>
       </c>
       <c r="H309" s="1" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="I309" s="25" t="str">
         <f>VLOOKUP(H309,Source!$A$2:$G$385,3,FALSE)</f>
@@ -22131,7 +22131,7 @@
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A310" s="1" t="s">
-        <v>3588</v>
+        <v>3587</v>
       </c>
       <c r="B310" s="16" t="s">
         <v>1498</v>
@@ -22155,7 +22155,7 @@
         <v>NUMBER</v>
       </c>
       <c r="H310" s="1" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="I310" s="25" t="str">
         <f>VLOOKUP(H310,Source!$A$2:$G$385,3,FALSE)</f>
@@ -22165,7 +22165,7 @@
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A311" s="1" t="s">
-        <v>3589</v>
+        <v>3588</v>
       </c>
       <c r="B311" s="16" t="s">
         <v>1500</v>
@@ -22189,7 +22189,7 @@
         <v>NUMBER</v>
       </c>
       <c r="H311" s="1" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="I311" s="25" t="str">
         <f>VLOOKUP(H311,Source!$A$2:$G$385,3,FALSE)</f>
@@ -22199,7 +22199,7 @@
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A312" s="1" t="s">
-        <v>3590</v>
+        <v>3589</v>
       </c>
       <c r="B312" s="16" t="s">
         <v>1501</v>
@@ -22223,7 +22223,7 @@
         <v>PCNT</v>
       </c>
       <c r="H312" s="1" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
       <c r="I312" s="25" t="str">
         <f>VLOOKUP(H312,Source!$A$2:$G$385,3,FALSE)</f>
@@ -22233,7 +22233,7 @@
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A314" s="1" t="s">
-        <v>3591</v>
+        <v>3590</v>
       </c>
       <c r="B314" s="16" t="s">
         <v>1607</v>
@@ -22257,7 +22257,7 @@
         <v>PCNT</v>
       </c>
       <c r="H314" s="1" t="s">
-        <v>3562</v>
+        <v>3561</v>
       </c>
       <c r="I314" s="25" t="str">
         <f>VLOOKUP(H314,Source!$A$2:$G$330,3,FALSE)</f>
@@ -22266,7 +22266,7 @@
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A315" s="1" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
       <c r="B315" s="16" t="s">
         <v>1611</v>
@@ -22290,7 +22290,7 @@
         <v>PCNT</v>
       </c>
       <c r="H315" s="1" t="s">
-        <v>3563</v>
+        <v>3562</v>
       </c>
       <c r="I315" s="25" t="str">
         <f>VLOOKUP(H315,Source!$A$2:$G$330,3,FALSE)</f>
@@ -22299,7 +22299,7 @@
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A316" s="1" t="s">
-        <v>3593</v>
+        <v>3592</v>
       </c>
       <c r="B316" s="16" t="s">
         <v>2735</v>
@@ -22323,7 +22323,7 @@
         <v>BINARY</v>
       </c>
       <c r="H316" s="1" t="s">
-        <v>3564</v>
+        <v>3563</v>
       </c>
       <c r="I316" s="25" t="str">
         <f>VLOOKUP(H316,Source!$A$2:$G$330,3,FALSE)</f>
@@ -22332,7 +22332,7 @@
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A317" s="1" t="s">
-        <v>3594</v>
+        <v>3593</v>
       </c>
       <c r="B317" s="16" t="s">
         <v>2736</v>
@@ -22356,7 +22356,7 @@
         <v>BINARY</v>
       </c>
       <c r="H317" s="1" t="s">
-        <v>3565</v>
+        <v>3564</v>
       </c>
       <c r="I317" s="25" t="str">
         <f>VLOOKUP(H317,Source!$A$2:$G$330,3,FALSE)</f>
@@ -22900,9 +22900,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M737"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A362" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A371" sqref="A371:A737"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M86" sqref="M86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23961,7 +23961,7 @@
         <v>1993</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
       <c r="E47" s="44" t="s">
         <v>2756</v>
@@ -24081,7 +24081,7 @@
         <v>1993</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
       <c r="E53" s="44" t="s">
         <v>2753</v>
@@ -24187,7 +24187,7 @@
         <v>1993</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="E58" s="44" t="s">
         <v>2759</v>
@@ -24353,7 +24353,7 @@
         <v>1993</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="E66" s="44" t="s">
         <v>2799</v>
@@ -24399,7 +24399,7 @@
         <v>1993</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="E68" s="44" t="s">
         <v>2801</v>
@@ -24422,7 +24422,7 @@
         <v>1993</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="E69" s="44" t="s">
         <v>2802</v>
@@ -24705,7 +24705,7 @@
         <v>3391</v>
       </c>
       <c r="E82" s="44" t="s">
-        <v>3411</v>
+        <v>3410</v>
       </c>
       <c r="F82" t="s">
         <v>3392</v>
@@ -24765,13 +24765,13 @@
         <v>3391</v>
       </c>
       <c r="E85" s="45" t="s">
-        <v>3403</v>
+        <v>3402</v>
       </c>
       <c r="F85" t="s">
         <v>3401</v>
       </c>
       <c r="M85" s="37" t="s">
-        <v>3402</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.35">
@@ -24788,10 +24788,10 @@
         <v>3391</v>
       </c>
       <c r="E86" s="45" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="F86" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="M86" s="36"/>
     </row>
@@ -24806,13 +24806,13 @@
         <v>1993</v>
       </c>
       <c r="D87" t="s">
+        <v>3412</v>
+      </c>
+      <c r="E87" s="45" t="s">
+        <v>3416</v>
+      </c>
+      <c r="F87" t="s">
         <v>3413</v>
-      </c>
-      <c r="E87" s="45" t="s">
-        <v>3417</v>
-      </c>
-      <c r="F87" t="s">
-        <v>3414</v>
       </c>
       <c r="M87" s="36"/>
     </row>
@@ -24827,13 +24827,13 @@
         <v>1993</v>
       </c>
       <c r="D88" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
       <c r="E88" s="45" t="s">
-        <v>3418</v>
+        <v>3417</v>
       </c>
       <c r="F88" t="s">
-        <v>3428</v>
+        <v>3427</v>
       </c>
       <c r="M88" s="36"/>
     </row>
@@ -24848,13 +24848,13 @@
         <v>1993</v>
       </c>
       <c r="D89" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
       <c r="E89" s="45" t="s">
-        <v>3419</v>
+        <v>3418</v>
       </c>
       <c r="F89" t="s">
-        <v>3429</v>
+        <v>3428</v>
       </c>
       <c r="M89" s="36"/>
     </row>
@@ -24869,13 +24869,13 @@
         <v>1993</v>
       </c>
       <c r="D90" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
       <c r="E90" s="45" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
       <c r="F90" t="s">
-        <v>3430</v>
+        <v>3429</v>
       </c>
       <c r="M90" s="36"/>
     </row>
@@ -24890,13 +24890,13 @@
         <v>1993</v>
       </c>
       <c r="D91" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
       <c r="E91" s="45" t="s">
-        <v>3432</v>
+        <v>3431</v>
       </c>
       <c r="F91" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="M91" s="36"/>
     </row>
@@ -24911,13 +24911,13 @@
         <v>1993</v>
       </c>
       <c r="D92" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
       <c r="E92" s="45" t="s">
-        <v>3436</v>
+        <v>3435</v>
       </c>
       <c r="F92" t="s">
-        <v>3435</v>
+        <v>3434</v>
       </c>
       <c r="M92" s="36"/>
     </row>
@@ -24932,13 +24932,13 @@
         <v>1993</v>
       </c>
       <c r="D93" t="s">
+        <v>3437</v>
+      </c>
+      <c r="E93" s="45" t="s">
+        <v>3439</v>
+      </c>
+      <c r="F93" t="s">
         <v>3438</v>
-      </c>
-      <c r="E93" s="45" t="s">
-        <v>3440</v>
-      </c>
-      <c r="F93" t="s">
-        <v>3439</v>
       </c>
       <c r="M93" s="36"/>
     </row>
@@ -24953,13 +24953,13 @@
         <v>1993</v>
       </c>
       <c r="D94" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="E94" s="45" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
       <c r="F94" t="s">
-        <v>3447</v>
+        <v>3446</v>
       </c>
       <c r="M94" s="36"/>
     </row>
@@ -24974,13 +24974,13 @@
         <v>1993</v>
       </c>
       <c r="D95" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="E95" s="45" t="s">
-        <v>3445</v>
+        <v>3444</v>
       </c>
       <c r="F95" t="s">
-        <v>3448</v>
+        <v>3447</v>
       </c>
       <c r="M95" s="36"/>
     </row>
@@ -24995,13 +24995,13 @@
         <v>1993</v>
       </c>
       <c r="D96" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="E96" s="45" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
       <c r="F96" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="M96" s="36"/>
     </row>
@@ -25016,13 +25016,13 @@
         <v>1993</v>
       </c>
       <c r="D97" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="E97" s="45" t="s">
-        <v>3458</v>
+        <v>3457</v>
       </c>
       <c r="F97" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="M97" s="36"/>
     </row>
@@ -25037,15 +25037,17 @@
         <v>1993</v>
       </c>
       <c r="D98" t="s">
+        <v>3460</v>
+      </c>
+      <c r="E98" s="45" t="s">
         <v>3461</v>
       </c>
-      <c r="E98" s="45" t="s">
-        <v>3462</v>
-      </c>
       <c r="F98" t="s">
-        <v>3464</v>
-      </c>
-      <c r="M98" s="36"/>
+        <v>3463</v>
+      </c>
+      <c r="M98" s="37" t="s">
+        <v>3594</v>
+      </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="16" t="s">
@@ -25058,13 +25060,13 @@
         <v>1993</v>
       </c>
       <c r="D99" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="E99" s="45" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
       <c r="F99" t="s">
-        <v>3502</v>
+        <v>3501</v>
       </c>
       <c r="M99" s="36"/>
     </row>
@@ -25079,13 +25081,13 @@
         <v>1993</v>
       </c>
       <c r="D100" t="s">
+        <v>3466</v>
+      </c>
+      <c r="E100" s="45" t="s">
+        <v>3470</v>
+      </c>
+      <c r="F100" t="s">
         <v>3467</v>
-      </c>
-      <c r="E100" s="45" t="s">
-        <v>3471</v>
-      </c>
-      <c r="F100" t="s">
-        <v>3468</v>
       </c>
       <c r="M100" s="36"/>
     </row>
@@ -25100,13 +25102,13 @@
         <v>1993</v>
       </c>
       <c r="D101" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
       <c r="E101" s="45" t="s">
-        <v>3507</v>
+        <v>3506</v>
       </c>
       <c r="F101" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
       <c r="M101" s="36"/>
     </row>
@@ -25121,13 +25123,13 @@
         <v>1993</v>
       </c>
       <c r="D102" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
       <c r="E102" s="45" t="s">
-        <v>3508</v>
+        <v>3507</v>
       </c>
       <c r="F102" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="M102" s="36"/>
     </row>
@@ -25142,13 +25144,13 @@
         <v>1993</v>
       </c>
       <c r="D103" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
       <c r="E103" s="45" t="s">
-        <v>3482</v>
+        <v>3481</v>
       </c>
       <c r="F103" t="s">
-        <v>3477</v>
+        <v>3476</v>
       </c>
       <c r="M103" s="36"/>
     </row>
@@ -25163,13 +25165,13 @@
         <v>1993</v>
       </c>
       <c r="D104" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
       <c r="E104" s="45" t="s">
-        <v>3481</v>
+        <v>3480</v>
       </c>
       <c r="F104" t="s">
-        <v>3479</v>
+        <v>3478</v>
       </c>
       <c r="M104" s="36"/>
     </row>
@@ -25184,13 +25186,13 @@
         <v>1993</v>
       </c>
       <c r="D105" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
       <c r="E105" s="45" t="s">
-        <v>3485</v>
+        <v>3484</v>
       </c>
       <c r="F105" t="s">
-        <v>3483</v>
+        <v>3482</v>
       </c>
       <c r="M105" s="36"/>
     </row>
@@ -25205,13 +25207,13 @@
         <v>1993</v>
       </c>
       <c r="D106" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
       <c r="E106" s="45" t="s">
-        <v>3488</v>
+        <v>3487</v>
       </c>
       <c r="F106" t="s">
-        <v>3486</v>
+        <v>3485</v>
       </c>
       <c r="M106" s="36"/>
     </row>
@@ -25226,13 +25228,13 @@
         <v>1993</v>
       </c>
       <c r="D107" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="E107" s="45" t="s">
-        <v>3498</v>
+        <v>3497</v>
       </c>
       <c r="F107" t="s">
-        <v>3489</v>
+        <v>3488</v>
       </c>
       <c r="M107" s="36"/>
     </row>
@@ -25247,13 +25249,13 @@
         <v>1993</v>
       </c>
       <c r="D108" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="E108" s="45" t="s">
-        <v>3495</v>
+        <v>3494</v>
       </c>
       <c r="F108" t="s">
-        <v>3494</v>
+        <v>3493</v>
       </c>
       <c r="M108" s="36"/>
     </row>
@@ -25268,13 +25270,13 @@
         <v>1993</v>
       </c>
       <c r="D109" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="E109" s="45" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
       <c r="F109" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
       <c r="M109" s="36"/>
     </row>
@@ -25289,13 +25291,13 @@
         <v>1993</v>
       </c>
       <c r="D110" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="E110" s="45" t="s">
-        <v>3509</v>
+        <v>3508</v>
       </c>
       <c r="F110" t="s">
-        <v>3499</v>
+        <v>3498</v>
       </c>
       <c r="M110" s="36"/>
     </row>
@@ -34054,7 +34056,7 @@
     </row>
     <row r="709" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A709" s="16" t="s">
-        <v>3510</v>
+        <v>3509</v>
       </c>
       <c r="E709" t="s">
         <v>1906</v>
@@ -34064,7 +34066,7 @@
     </row>
     <row r="710" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A710" s="16" t="s">
-        <v>3511</v>
+        <v>3510</v>
       </c>
       <c r="E710" t="s">
         <v>1908</v>
@@ -34074,7 +34076,7 @@
     </row>
     <row r="711" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A711" s="16" t="s">
-        <v>3512</v>
+        <v>3511</v>
       </c>
       <c r="E711" t="s">
         <v>1910</v>
@@ -34084,7 +34086,7 @@
     </row>
     <row r="712" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A712" s="16" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="E712" t="s">
         <v>1912</v>
@@ -34094,7 +34096,7 @@
     </row>
     <row r="713" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A713" s="16" t="s">
-        <v>3514</v>
+        <v>3513</v>
       </c>
       <c r="E713" t="s">
         <v>1914</v>
@@ -34104,7 +34106,7 @@
     </row>
     <row r="714" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A714" s="16" t="s">
-        <v>3515</v>
+        <v>3514</v>
       </c>
       <c r="E714" t="s">
         <v>1916</v>
@@ -34114,7 +34116,7 @@
     </row>
     <row r="715" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A715" s="16" t="s">
-        <v>3516</v>
+        <v>3515</v>
       </c>
       <c r="E715" t="s">
         <v>1918</v>
@@ -34124,7 +34126,7 @@
     </row>
     <row r="716" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A716" s="16" t="s">
-        <v>3517</v>
+        <v>3516</v>
       </c>
       <c r="E716" t="s">
         <v>1920</v>
@@ -34134,7 +34136,7 @@
     </row>
     <row r="717" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A717" s="16" t="s">
-        <v>3518</v>
+        <v>3517</v>
       </c>
       <c r="E717" t="s">
         <v>1922</v>
@@ -34144,7 +34146,7 @@
     </row>
     <row r="718" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A718" s="16" t="s">
-        <v>3519</v>
+        <v>3518</v>
       </c>
       <c r="E718" t="s">
         <v>1924</v>
@@ -34152,7 +34154,7 @@
     </row>
     <row r="719" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A719" s="16" t="s">
-        <v>3520</v>
+        <v>3519</v>
       </c>
       <c r="E719" t="s">
         <v>1926</v>
@@ -34160,7 +34162,7 @@
     </row>
     <row r="720" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A720" s="16" t="s">
-        <v>3521</v>
+        <v>3520</v>
       </c>
       <c r="E720" t="s">
         <v>1928</v>
@@ -34168,7 +34170,7 @@
     </row>
     <row r="721" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A721" s="16" t="s">
-        <v>3522</v>
+        <v>3521</v>
       </c>
       <c r="E721" t="s">
         <v>1930</v>
@@ -34176,7 +34178,7 @@
     </row>
     <row r="722" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A722" s="16" t="s">
-        <v>3523</v>
+        <v>3522</v>
       </c>
       <c r="E722" t="s">
         <v>1932</v>
@@ -34184,7 +34186,7 @@
     </row>
     <row r="723" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A723" s="16" t="s">
-        <v>3524</v>
+        <v>3523</v>
       </c>
       <c r="E723" t="s">
         <v>1936</v>
@@ -34192,7 +34194,7 @@
     </row>
     <row r="724" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A724" s="16" t="s">
-        <v>3525</v>
+        <v>3524</v>
       </c>
       <c r="E724" t="s">
         <v>1938</v>
@@ -34200,7 +34202,7 @@
     </row>
     <row r="725" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A725" s="16" t="s">
-        <v>3526</v>
+        <v>3525</v>
       </c>
       <c r="E725" t="s">
         <v>1940</v>
@@ -34208,7 +34210,7 @@
     </row>
     <row r="726" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A726" s="16" t="s">
-        <v>3527</v>
+        <v>3526</v>
       </c>
       <c r="E726" t="s">
         <v>1942</v>
@@ -34216,7 +34218,7 @@
     </row>
     <row r="727" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A727" s="16" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="E727" t="s">
         <v>1944</v>
@@ -34224,7 +34226,7 @@
     </row>
     <row r="728" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A728" s="16" t="s">
-        <v>3529</v>
+        <v>3528</v>
       </c>
       <c r="E728" t="s">
         <v>1946</v>
@@ -34234,7 +34236,7 @@
     </row>
     <row r="729" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A729" s="16" t="s">
-        <v>3530</v>
+        <v>3529</v>
       </c>
       <c r="E729" t="s">
         <v>1948</v>
@@ -34244,7 +34246,7 @@
     </row>
     <row r="730" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A730" s="16" t="s">
-        <v>3531</v>
+        <v>3530</v>
       </c>
       <c r="E730" t="s">
         <v>1950</v>
@@ -34254,7 +34256,7 @@
     </row>
     <row r="731" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A731" s="16" t="s">
-        <v>3532</v>
+        <v>3531</v>
       </c>
       <c r="E731" t="s">
         <v>1952</v>
@@ -34264,7 +34266,7 @@
     </row>
     <row r="732" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A732" s="16" t="s">
-        <v>3533</v>
+        <v>3532</v>
       </c>
       <c r="E732" t="s">
         <v>1954</v>
@@ -34274,7 +34276,7 @@
     </row>
     <row r="733" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A733" s="16" t="s">
-        <v>3534</v>
+        <v>3533</v>
       </c>
       <c r="E733" t="s">
         <v>1956</v>
@@ -34290,7 +34292,7 @@
     </row>
     <row r="734" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A734" s="16" t="s">
-        <v>3535</v>
+        <v>3534</v>
       </c>
       <c r="E734" t="s">
         <v>2819</v>
@@ -34303,7 +34305,7 @@
     </row>
     <row r="735" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A735" s="16" t="s">
-        <v>3536</v>
+        <v>3535</v>
       </c>
       <c r="E735" t="s">
         <v>1958</v>
@@ -34316,7 +34318,7 @@
     </row>
     <row r="736" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A736" s="16" t="s">
-        <v>3537</v>
+        <v>3536</v>
       </c>
       <c r="E736" t="s">
         <v>1960</v>
@@ -34326,7 +34328,7 @@
     </row>
     <row r="737" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A737" s="16" t="s">
-        <v>3538</v>
+        <v>3537</v>
       </c>
       <c r="E737" t="s">
         <v>1962</v>
@@ -35235,10 +35237,10 @@
         <v>2481</v>
       </c>
       <c r="G43" s="1" t="s">
+        <v>3408</v>
+      </c>
+      <c r="H43" s="25" t="s">
         <v>3409</v>
-      </c>
-      <c r="H43" s="25" t="s">
-        <v>3410</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -35255,7 +35257,7 @@
         <v>2330</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>3505</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -35272,7 +35274,7 @@
         <v>2320</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>3506</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -35595,7 +35597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K327"/>
   <sheetViews>
-    <sheetView topLeftCell="A309" workbookViewId="0">
+    <sheetView topLeftCell="A54" workbookViewId="0">
       <selection activeCell="A322" sqref="A322:A327"/>
     </sheetView>
   </sheetViews>
@@ -37160,10 +37162,10 @@
         <v>2154</v>
       </c>
       <c r="C55" s="46" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D55" s="24" t="s">
         <v>3404</v>
-      </c>
-      <c r="D55" s="24" t="s">
-        <v>3405</v>
       </c>
       <c r="E55" t="s">
         <v>2153</v>
@@ -37189,10 +37191,10 @@
         <v>639</v>
       </c>
       <c r="C56" s="46" t="s">
+        <v>3406</v>
+      </c>
+      <c r="D56" s="24" t="s">
         <v>3407</v>
-      </c>
-      <c r="D56" s="24" t="s">
-        <v>3408</v>
       </c>
       <c r="E56" t="s">
         <v>2153</v>
@@ -37218,10 +37220,10 @@
         <v>639</v>
       </c>
       <c r="C57" s="46" t="s">
+        <v>3414</v>
+      </c>
+      <c r="D57" s="24" t="s">
         <v>3415</v>
-      </c>
-      <c r="D57" s="24" t="s">
-        <v>3416</v>
       </c>
       <c r="E57" t="s">
         <v>2153</v>
@@ -37233,7 +37235,7 @@
         <v>2021</v>
       </c>
       <c r="I57" t="s">
-        <v>3421</v>
+        <v>3420</v>
       </c>
       <c r="J57" t="s">
         <v>643</v>
@@ -37247,10 +37249,10 @@
         <v>639</v>
       </c>
       <c r="C58" s="46" t="s">
+        <v>3425</v>
+      </c>
+      <c r="D58" s="24" t="s">
         <v>3426</v>
-      </c>
-      <c r="D58" s="24" t="s">
-        <v>3427</v>
       </c>
       <c r="E58" t="s">
         <v>2153</v>
@@ -37262,7 +37264,7 @@
         <v>2021</v>
       </c>
       <c r="I58" t="s">
-        <v>3421</v>
+        <v>3420</v>
       </c>
       <c r="J58" t="s">
         <v>643</v>
@@ -37276,10 +37278,10 @@
         <v>639</v>
       </c>
       <c r="C59" s="46" t="s">
+        <v>3421</v>
+      </c>
+      <c r="D59" s="24" t="s">
         <v>3422</v>
-      </c>
-      <c r="D59" s="24" t="s">
-        <v>3423</v>
       </c>
       <c r="E59" t="s">
         <v>2153</v>
@@ -37291,7 +37293,7 @@
         <v>2021</v>
       </c>
       <c r="I59" t="s">
-        <v>3421</v>
+        <v>3420</v>
       </c>
       <c r="J59" t="s">
         <v>643</v>
@@ -37305,10 +37307,10 @@
         <v>639</v>
       </c>
       <c r="C60" s="46" t="s">
-        <v>3425</v>
+        <v>3424</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>3424</v>
+        <v>3423</v>
       </c>
       <c r="E60" t="s">
         <v>2153</v>
@@ -37320,7 +37322,7 @@
         <v>2021</v>
       </c>
       <c r="I60" t="s">
-        <v>3421</v>
+        <v>3420</v>
       </c>
       <c r="J60" t="s">
         <v>643</v>
@@ -37334,10 +37336,10 @@
         <v>639</v>
       </c>
       <c r="C61" s="46" t="s">
+        <v>3432</v>
+      </c>
+      <c r="D61" t="s">
         <v>3433</v>
-      </c>
-      <c r="D61" t="s">
-        <v>3434</v>
       </c>
       <c r="E61" t="s">
         <v>2153</v>
@@ -37363,7 +37365,7 @@
         <v>2195</v>
       </c>
       <c r="C62" s="46" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="D62" s="24" t="s">
         <v>2197</v>
@@ -37392,10 +37394,10 @@
         <v>639</v>
       </c>
       <c r="C63" s="46" t="s">
+        <v>3440</v>
+      </c>
+      <c r="D63" s="24" t="s">
         <v>3441</v>
-      </c>
-      <c r="D63" s="24" t="s">
-        <v>3442</v>
       </c>
       <c r="E63" t="s">
         <v>2153</v>
@@ -37407,7 +37409,7 @@
         <v>2021</v>
       </c>
       <c r="I63" t="s">
-        <v>3443</v>
+        <v>3442</v>
       </c>
       <c r="J63" t="s">
         <v>643</v>
@@ -37421,10 +37423,10 @@
         <v>639</v>
       </c>
       <c r="C64" s="46" t="s">
-        <v>3450</v>
+        <v>3449</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
       <c r="E64" t="s">
         <v>2153</v>
@@ -37436,7 +37438,7 @@
         <v>2021</v>
       </c>
       <c r="I64" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="J64" t="s">
         <v>643</v>
@@ -37450,10 +37452,10 @@
         <v>639</v>
       </c>
       <c r="C65" s="46" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>3454</v>
+        <v>3453</v>
       </c>
       <c r="E65" t="s">
         <v>2153</v>
@@ -37465,7 +37467,7 @@
         <v>2021</v>
       </c>
       <c r="I65" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="J65" t="s">
         <v>643</v>
@@ -37479,10 +37481,10 @@
         <v>639</v>
       </c>
       <c r="C66" s="46" t="s">
-        <v>3452</v>
+        <v>3451</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
       <c r="E66" t="s">
         <v>2153</v>
@@ -37494,7 +37496,7 @@
         <v>2021</v>
       </c>
       <c r="I66" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="J66" t="s">
         <v>643</v>
@@ -37508,10 +37510,10 @@
         <v>639</v>
       </c>
       <c r="C67" s="46" t="s">
+        <v>3458</v>
+      </c>
+      <c r="D67" t="s">
         <v>3459</v>
-      </c>
-      <c r="D67" t="s">
-        <v>3460</v>
       </c>
       <c r="E67" t="s">
         <v>2153</v>
@@ -37537,10 +37539,10 @@
         <v>2154</v>
       </c>
       <c r="C68" s="46" t="s">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D68" t="s">
-        <v>3405</v>
+        <v>3404</v>
       </c>
       <c r="E68" t="s">
         <v>2153</v>
@@ -37566,10 +37568,10 @@
         <v>639</v>
       </c>
       <c r="C69" s="46" t="s">
+        <v>3502</v>
+      </c>
+      <c r="D69" s="24" t="s">
         <v>3503</v>
-      </c>
-      <c r="D69" s="24" t="s">
-        <v>3504</v>
       </c>
       <c r="E69" t="s">
         <v>2153</v>
@@ -37581,7 +37583,7 @@
         <v>2021</v>
       </c>
       <c r="I69" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
       <c r="J69" t="s">
         <v>643</v>
@@ -37595,10 +37597,10 @@
         <v>639</v>
       </c>
       <c r="C70" s="46" t="s">
+        <v>3468</v>
+      </c>
+      <c r="D70" s="24" t="s">
         <v>3469</v>
-      </c>
-      <c r="D70" s="24" t="s">
-        <v>3470</v>
       </c>
       <c r="E70" t="s">
         <v>2191</v>
@@ -37624,10 +37626,10 @@
         <v>639</v>
       </c>
       <c r="C71" s="46" t="s">
+        <v>3472</v>
+      </c>
+      <c r="D71" t="s">
         <v>3473</v>
-      </c>
-      <c r="D71" t="s">
-        <v>3474</v>
       </c>
       <c r="E71" t="s">
         <v>2153</v>
@@ -37653,10 +37655,10 @@
         <v>639</v>
       </c>
       <c r="C72" s="46" t="s">
-        <v>3476</v>
+        <v>3475</v>
       </c>
       <c r="D72" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
       <c r="E72" t="s">
         <v>2153</v>
@@ -37682,10 +37684,10 @@
         <v>639</v>
       </c>
       <c r="C73" s="46" t="s">
-        <v>3478</v>
+        <v>3477</v>
       </c>
       <c r="D73" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
       <c r="E73" t="s">
         <v>2153</v>
@@ -37711,10 +37713,10 @@
         <v>639</v>
       </c>
       <c r="C74" s="46" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="D74" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
       <c r="E74" t="s">
         <v>2153</v>
@@ -37740,10 +37742,10 @@
         <v>639</v>
       </c>
       <c r="C75" s="46" t="s">
-        <v>3484</v>
+        <v>3483</v>
       </c>
       <c r="D75" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
       <c r="E75" t="s">
         <v>2153</v>
@@ -37769,10 +37771,10 @@
         <v>639</v>
       </c>
       <c r="C76" s="46" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
       <c r="D76" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
       <c r="E76" t="s">
         <v>2153</v>
@@ -37798,10 +37800,10 @@
         <v>639</v>
       </c>
       <c r="C77" s="46" t="s">
+        <v>3490</v>
+      </c>
+      <c r="D77" t="s">
         <v>3491</v>
-      </c>
-      <c r="D77" t="s">
-        <v>3492</v>
       </c>
       <c r="E77" t="s">
         <v>2153</v>
@@ -37827,10 +37829,10 @@
         <v>639</v>
       </c>
       <c r="C78" s="46" t="s">
-        <v>3493</v>
+        <v>3492</v>
       </c>
       <c r="D78" t="s">
-        <v>3492</v>
+        <v>3491</v>
       </c>
       <c r="E78" t="s">
         <v>2153</v>
@@ -37856,10 +37858,10 @@
         <v>639</v>
       </c>
       <c r="C79" s="46" t="s">
-        <v>3501</v>
+        <v>3500</v>
       </c>
       <c r="D79" t="s">
-        <v>3492</v>
+        <v>3491</v>
       </c>
       <c r="E79" t="s">
         <v>2153</v>
@@ -37885,10 +37887,10 @@
         <v>639</v>
       </c>
       <c r="C80" s="46" t="s">
-        <v>3500</v>
+        <v>3499</v>
       </c>
       <c r="D80" t="s">
-        <v>3492</v>
+        <v>3491</v>
       </c>
       <c r="E80" t="s">
         <v>2153</v>
@@ -44179,7 +44181,7 @@
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A298" s="1" t="s">
-        <v>3539</v>
+        <v>3538</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>639</v>
@@ -44208,7 +44210,7 @@
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A299" s="1" t="s">
-        <v>3540</v>
+        <v>3539</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>639</v>
@@ -44237,7 +44239,7 @@
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A300" s="1" t="s">
-        <v>3541</v>
+        <v>3540</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>639</v>
@@ -44266,7 +44268,7 @@
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A301" s="1" t="s">
-        <v>3542</v>
+        <v>3541</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>639</v>
@@ -44295,7 +44297,7 @@
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A302" s="1" t="s">
-        <v>3543</v>
+        <v>3542</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>639</v>
@@ -44324,7 +44326,7 @@
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A303" s="1" t="s">
-        <v>3544</v>
+        <v>3543</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>639</v>
@@ -44353,7 +44355,7 @@
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A304" s="1" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>639</v>
@@ -44382,7 +44384,7 @@
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A305" s="1" t="s">
-        <v>3546</v>
+        <v>3545</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>639</v>
@@ -44411,7 +44413,7 @@
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A306" s="1" t="s">
-        <v>3547</v>
+        <v>3546</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>639</v>
@@ -44440,7 +44442,7 @@
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A307" s="1" t="s">
-        <v>3548</v>
+        <v>3547</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>639</v>
@@ -44469,7 +44471,7 @@
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A308" s="1" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>639</v>
@@ -44498,7 +44500,7 @@
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A309" s="1" t="s">
-        <v>3550</v>
+        <v>3549</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>639</v>
@@ -44527,7 +44529,7 @@
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A310" s="1" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>639</v>
@@ -44556,7 +44558,7 @@
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A311" s="1" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>639</v>
@@ -44585,7 +44587,7 @@
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A312" s="1" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>639</v>
@@ -44614,7 +44616,7 @@
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A313" s="1" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>639</v>
@@ -44643,7 +44645,7 @@
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A314" s="1" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>639</v>
@@ -44672,7 +44674,7 @@
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A315" s="1" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>639</v>
@@ -44701,7 +44703,7 @@
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A316" s="1" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>639</v>
@@ -44730,7 +44732,7 @@
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A317" s="1" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>639</v>
@@ -44759,7 +44761,7 @@
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A318" s="1" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>639</v>
@@ -44788,7 +44790,7 @@
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A319" s="1" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>639</v>
@@ -44817,7 +44819,7 @@
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A320" s="1" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>639</v>
@@ -44854,7 +44856,7 @@
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A322" s="1" t="s">
-        <v>3562</v>
+        <v>3561</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>639</v>
@@ -44883,7 +44885,7 @@
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A323" s="1" t="s">
-        <v>3563</v>
+        <v>3562</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>639</v>
@@ -44912,7 +44914,7 @@
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A324" s="1" t="s">
-        <v>3564</v>
+        <v>3563</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>639</v>
@@ -44941,7 +44943,7 @@
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A325" s="1" t="s">
-        <v>3565</v>
+        <v>3564</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>639</v>
@@ -44970,7 +44972,7 @@
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A326" s="1" t="s">
-        <v>3566</v>
+        <v>3565</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>2154</v>
@@ -44996,7 +44998,7 @@
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A327" s="1" t="s">
-        <v>3567</v>
+        <v>3566</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>2154</v>
